--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3211,10 +3211,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>50080.71852690577</v>
+        <v>43159.38001930619</v>
       </c>
       <c r="D4">
-        <v>155360.7185269058</v>
+        <v>148439.3800193063</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>18069.34118233081</v>
+        <v>14244.84596882868</v>
       </c>
       <c r="D6">
-        <v>87899.34118233087</v>
+        <v>84074.84596882874</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3281,10 +3281,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>9954.849954832243</v>
+        <v>4131.798390585813</v>
       </c>
       <c r="D9">
-        <v>133838.8499548323</v>
+        <v>128015.7983905859</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3337,10 +3337,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>4478.908826378669</v>
+        <v>1464.494827672694</v>
       </c>
       <c r="D13">
-        <v>69354.9088263787</v>
+        <v>66340.49482767272</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3351,10 +3351,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>19241.22688933487</v>
+        <v>14577.19611473908</v>
       </c>
       <c r="D14">
-        <v>107346.2268893349</v>
+        <v>102682.1961147392</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3365,10 +3365,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>25660.79041990136</v>
+        <v>19231.74568328874</v>
       </c>
       <c r="D15">
-        <v>147800.7904199013</v>
+        <v>141371.7456832887</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3421,10 +3421,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>28250.53096205682</v>
+        <v>23597.89854241216</v>
       </c>
       <c r="D19">
-        <v>106899.5309620568</v>
+        <v>102246.8985424121</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3435,10 +3435,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>9432.433279067336</v>
+        <v>6406.473635361428</v>
       </c>
       <c r="D20">
-        <v>69620.43327906738</v>
+        <v>66594.47363536147</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3477,10 +3477,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>46774.83874930434</v>
+        <v>41053.62457950372</v>
       </c>
       <c r="D23">
-        <v>131686.8387493043</v>
+        <v>125965.6245795037</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3491,10 +3491,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>21652.78620326724</v>
+        <v>15188.39090499327</v>
       </c>
       <c r="D24">
-        <v>148572.7862032673</v>
+        <v>142108.3909049933</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3505,10 +3505,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>90.27183956895897</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>131094.2718395689</v>
+        <v>131003.9999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>44437.18754464092</v>
+        <v>37996.08332951211</v>
       </c>
       <c r="D28">
-        <v>147917.187544641</v>
+        <v>141476.0833295122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>31271.67251704686</v>
+        <v>24628.62655800191</v>
       </c>
       <c r="D29">
-        <v>152616.6725170469</v>
+        <v>145973.6265580019</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>6354.839580923639</v>
+        <v>708.1414152278594</v>
       </c>
       <c r="D32">
-        <v>129978.8395809236</v>
+        <v>124332.1414152278</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>34225.76401897173</v>
+        <v>28624.3528893552</v>
       </c>
       <c r="D33">
-        <v>128829.7640189718</v>
+        <v>123228.3528893552</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>42328.78622569481</v>
+        <v>36066.65149554558</v>
       </c>
       <c r="D37">
-        <v>144038.7862256948</v>
+        <v>137776.6514955456</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>17912.99327325748</v>
+        <v>13079.69007170571</v>
       </c>
       <c r="D40">
-        <v>111150.9932732576</v>
+        <v>106317.6900717058</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>3768.517719882439</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>107992.5177198825</v>
+        <v>104224.0000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>7175.701506897269</v>
+        <v>3284.448565601517</v>
       </c>
       <c r="D42">
-        <v>89369.70150689723</v>
+        <v>85478.44856560147</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3771,10 +3771,10 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>17627.50994569469</v>
+        <v>13821.46939643477</v>
       </c>
       <c r="D44">
-        <v>87507.50994569469</v>
+        <v>83701.46939643477</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3799,10 +3799,10 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>3424.786671257796</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>105548.7866712578</v>
+        <v>102124</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3827,10 +3827,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>898.573764343615</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>85386.57376434357</v>
+        <v>84487.99999999996</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3897,10 +3897,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>7930.035756321508</v>
+        <v>4154.292474081973</v>
       </c>
       <c r="D53">
-        <v>86840.03575632149</v>
+        <v>83064.29247408196</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>13607.22178556374</v>
+        <v>8792.208711617292</v>
       </c>
       <c r="D55">
-        <v>110727.2217855638</v>
+        <v>105912.2087116173</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3939,10 +3939,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>5121.129502494397</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>130841.1295024945</v>
+        <v>125720.0000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4009,10 +4009,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>8768.469512309035</v>
+        <v>5778.718709097113</v>
       </c>
       <c r="D61">
-        <v>68790.46951230904</v>
+        <v>65800.71870909711</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4107,10 +4107,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>4316.124385920572</v>
+        <v>1323.801545339433</v>
       </c>
       <c r="D68">
-        <v>68814.12438592054</v>
+        <v>65821.8015453394</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4163,10 +4163,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>7422.187544640969</v>
+        <v>981.0833295121556</v>
       </c>
       <c r="D72">
-        <v>147917.187544641</v>
+        <v>141476.0833295122</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4233,10 +4233,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>21949.52822737906</v>
+        <v>18217.31860661985</v>
       </c>
       <c r="D77">
-        <v>85939.52822737904</v>
+        <v>82207.31860661983</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>1082.260352438752</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>133506.2603524388</v>
+        <v>132424</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>1047.505201652326</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>108820.5052016524</v>
+        <v>107773</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>9461.826718013392</v>
+        <v>6508.170504318397</v>
       </c>
       <c r="D81">
-        <v>67914.8267180134</v>
+        <v>64961.1705043184</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4303,10 +4303,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>1421.87789688466</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>70797.87789688472</v>
+        <v>69376.00000000006</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4317,10 +4317,10 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>12231.70866530924</v>
+        <v>8449.15839296511</v>
       </c>
       <c r="D83">
-        <v>87005.70866530926</v>
+        <v>83223.15839296512</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>1557.572236754495</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>67467.57223675444</v>
+        <v>65909.99999999994</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>34151.40222082377</v>
+        <v>29431.53511836354</v>
       </c>
       <c r="D89">
-        <v>108453.4022208238</v>
+        <v>103733.5351183636</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>96</v>
       </c>
       <c r="C95">
-        <v>648.1528852028132</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>86544.1528852028</v>
+        <v>85895.99999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4513,10 +4513,10 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>8307.877896884711</v>
+        <v>5229.707799695949</v>
       </c>
       <c r="D97">
-        <v>70797.87789688472</v>
+        <v>67719.70779969596</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>25575.01269167844</v>
+        <v>20806.1724744768</v>
       </c>
       <c r="D102">
-        <v>109711.0126916784</v>
+        <v>104942.1724744768</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4611,10 +4611,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>17298.26012496061</v>
+        <v>13503.3948462899</v>
       </c>
       <c r="D104">
-        <v>87312.26012496065</v>
+        <v>83517.39484628994</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4625,10 +4625,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>5611.346510007337</v>
+        <v>1818.87540486193</v>
       </c>
       <c r="D105">
-        <v>87263.34651000737</v>
+        <v>83470.87540486196</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>17744.0737101737</v>
+        <v>11283.26807913517</v>
       </c>
       <c r="D108">
-        <v>148464.0737101738</v>
+        <v>142003.2680791353</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4709,10 +4709,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>11646.35331323525</v>
+        <v>8626.370345023715</v>
       </c>
       <c r="D111">
-        <v>69487.3533132353</v>
+        <v>66467.37034502377</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>115</v>
       </c>
       <c r="C114">
-        <v>51173.37903990198</v>
+        <v>44829.8083967836</v>
       </c>
       <c r="D114">
-        <v>145903.3790399019</v>
+        <v>139559.8083967835</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4877,10 +4877,10 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>34873.48568915149</v>
+        <v>28577.57224095018</v>
       </c>
       <c r="D123">
-        <v>144923.4856891515</v>
+        <v>138627.5722409502</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>127</v>
       </c>
       <c r="C126">
-        <v>7485.366591464677</v>
+        <v>4511.423689292184</v>
       </c>
       <c r="D126">
-        <v>68461.36659146467</v>
+        <v>65487.42368929218</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>34262.27245251287</v>
+        <v>28408.21774278607</v>
       </c>
       <c r="D133">
-        <v>134670.2724525128</v>
+        <v>128816.217742786</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>21761.46621600894</v>
+        <v>17921.79917813117</v>
       </c>
       <c r="D135">
-        <v>88299.46621600888</v>
+        <v>84459.79917813111</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5059,10 +5059,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>22755.11752367887</v>
+        <v>16996.49270422591</v>
       </c>
       <c r="D136">
-        <v>132515.1175236789</v>
+        <v>126756.4927042259</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>11444.24736219022</v>
+        <v>7643.557960388178</v>
       </c>
       <c r="D138">
-        <v>87404.24736219017</v>
+        <v>83603.55796038813</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>9329.85431228677</v>
+        <v>2988.027594575513</v>
       </c>
       <c r="D139">
-        <v>145854.8543122867</v>
+        <v>139513.0275945755</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5129,10 +5129,10 @@
         <v>142</v>
       </c>
       <c r="C141">
-        <v>15067.07836261099</v>
+        <v>12108.64100450584</v>
       </c>
       <c r="D141">
-        <v>68113.07836261102</v>
+        <v>65154.64100450587</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5143,10 +5143,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>9089.914229855174</v>
+        <v>5322.402110670242</v>
       </c>
       <c r="D142">
-        <v>86701.91422985525</v>
+        <v>82934.40211067031</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5157,10 +5157,10 @@
         <v>144</v>
       </c>
       <c r="C143">
-        <v>34353.90684138257</v>
+        <v>29628.07428121137</v>
       </c>
       <c r="D143">
-        <v>108802.9068413826</v>
+        <v>104077.0742812114</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5213,10 +5213,10 @@
         <v>148</v>
       </c>
       <c r="C147">
-        <v>58164.91771339202</v>
+        <v>51644.72192665913</v>
       </c>
       <c r="D147">
-        <v>149809.917713392</v>
+        <v>143289.7219266591</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5227,10 +5227,10 @@
         <v>149</v>
       </c>
       <c r="C148">
-        <v>23526.42341577591</v>
+        <v>17016.84118190582</v>
       </c>
       <c r="D148">
-        <v>149771.4234157759</v>
+        <v>143261.8411819058</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5269,10 +5269,10 @@
         <v>152</v>
       </c>
       <c r="C151">
-        <v>19590.86356286106</v>
+        <v>16552.90357880646</v>
       </c>
       <c r="D151">
-        <v>69838.86356286105</v>
+        <v>66800.90357880645</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5311,10 +5311,10 @@
         <v>155</v>
       </c>
       <c r="C154">
-        <v>12218.92835634265</v>
+        <v>9275.895083918767</v>
       </c>
       <c r="D154">
-        <v>67683.92835634266</v>
+        <v>64740.89508391877</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5353,10 +5353,10 @@
         <v>158</v>
       </c>
       <c r="C157">
-        <v>4149.055291833181</v>
+        <v>395.3983208718273</v>
       </c>
       <c r="D157">
-        <v>86319.05529183321</v>
+        <v>82565.39832087186</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5367,10 +5367,10 @@
         <v>159</v>
       </c>
       <c r="C158">
-        <v>15798.52911349687</v>
+        <v>12906.60390058714</v>
       </c>
       <c r="D158">
-        <v>66551.52911349684</v>
+        <v>63659.60390058711</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5395,10 +5395,10 @@
         <v>161</v>
       </c>
       <c r="C160">
-        <v>17977.32790160984</v>
+        <v>14999.01565056106</v>
       </c>
       <c r="D160">
-        <v>68521.32790160987</v>
+        <v>65543.01565056109</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5479,10 +5479,10 @@
         <v>167</v>
       </c>
       <c r="C166">
-        <v>16860.34234024344</v>
+        <v>13050.32326686288</v>
       </c>
       <c r="D166">
-        <v>87600.3423402435</v>
+        <v>83790.32326686294</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5591,10 +5591,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>19086.98334208613</v>
+        <v>13482.50039145967</v>
       </c>
       <c r="D174">
-        <v>128858.9833420861</v>
+        <v>123254.5003914596</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5605,10 +5605,10 @@
         <v>176</v>
       </c>
       <c r="C175">
-        <v>48557.11844372205</v>
+        <v>42897.7598720808</v>
       </c>
       <c r="D175">
-        <v>130189.118443722</v>
+        <v>124529.7598720807</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5717,10 +5717,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>6824.079906392988</v>
+        <v>3102.287345052042</v>
       </c>
       <c r="D183">
-        <v>85694.07990639293</v>
+        <v>81972.28734505198</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5745,10 +5745,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>27098.66179029555</v>
+        <v>22324.86773537434</v>
       </c>
       <c r="D185">
-        <v>109602.6617902956</v>
+        <v>104828.8677353744</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5773,10 +5773,10 @@
         <v>188</v>
       </c>
       <c r="C187">
-        <v>2692.28369738796</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>148367.2836973879</v>
+        <v>145674.9999999999</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5787,10 +5787,10 @@
         <v>189</v>
       </c>
       <c r="C188">
-        <v>4351.877896884776</v>
+        <v>1273.707799696014</v>
       </c>
       <c r="D188">
-        <v>70797.87789688472</v>
+        <v>67719.70779969596</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5801,10 +5801,10 @@
         <v>190</v>
       </c>
       <c r="C189">
-        <v>7064.61929462805</v>
+        <v>4127.036419755517</v>
       </c>
       <c r="D189">
-        <v>67577.61929462806</v>
+        <v>64640.03641975553</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>195</v>
       </c>
       <c r="C194">
-        <v>7329.542946169844</v>
+        <v>4434.770307425119</v>
       </c>
       <c r="D194">
-        <v>66635.54294616985</v>
+        <v>63740.77030742513</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5913,10 +5913,10 @@
         <v>198</v>
       </c>
       <c r="C197">
-        <v>23952.07990639289</v>
+        <v>20230.28734505194</v>
       </c>
       <c r="D197">
-        <v>85694.07990639293</v>
+        <v>81972.28734505198</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5941,10 +5941,10 @@
         <v>200</v>
       </c>
       <c r="C199">
-        <v>32167.60138874949</v>
+        <v>27500.61062461033</v>
       </c>
       <c r="D199">
-        <v>107414.6013887495</v>
+        <v>102747.6106246103</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5997,10 +5997,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>44788.78622569483</v>
+        <v>38526.65149554559</v>
       </c>
       <c r="D203">
-        <v>144038.7862256948</v>
+        <v>137776.6514955456</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6039,10 +6039,10 @@
         <v>207</v>
       </c>
       <c r="C206">
-        <v>4568.345381088118</v>
+        <v>860.98448717875</v>
       </c>
       <c r="D206">
-        <v>85332.34538108806</v>
+        <v>81624.98448717869</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6151,10 +6151,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>45221.71677992163</v>
+        <v>39495.90933628027</v>
       </c>
       <c r="D214">
-        <v>131553.7167799217</v>
+        <v>125827.9093362803</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6193,10 +6193,10 @@
         <v>218</v>
       </c>
       <c r="C217">
-        <v>2193.852975824237</v>
+        <v>0</v>
       </c>
       <c r="D217">
-        <v>84987.85297582425</v>
+        <v>82794.00000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6221,10 +6221,10 @@
         <v>220</v>
       </c>
       <c r="C219">
-        <v>33003.86519099239</v>
+        <v>26761.80968665227</v>
       </c>
       <c r="D219">
-        <v>143463.8651909924</v>
+        <v>137221.8096866523</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>37965.70347740059</v>
+        <v>31543.68676485331</v>
       </c>
       <c r="D220">
-        <v>147455.7034774006</v>
+        <v>141033.6867648533</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6319,10 +6319,10 @@
         <v>227</v>
       </c>
       <c r="C226">
-        <v>44198.77906585774</v>
+        <v>38440.99287666063</v>
       </c>
       <c r="D226">
-        <v>132362.7790658578</v>
+        <v>126604.9928766607</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6333,10 +6333,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>5023.079498209903</v>
+        <v>1137.312119888447</v>
       </c>
       <c r="D227">
-        <v>89331.07949820995</v>
+        <v>85445.31211988849</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6361,10 +6361,10 @@
         <v>230</v>
       </c>
       <c r="C229">
-        <v>2891.663267918979</v>
+        <v>0</v>
       </c>
       <c r="D229">
-        <v>67941.66326791904</v>
+        <v>65050.00000000006</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6375,10 +6375,10 @@
         <v>231</v>
       </c>
       <c r="C230">
-        <v>6291.594390116981</v>
+        <v>2546.079198324776</v>
       </c>
       <c r="D230">
-        <v>86267.59439011692</v>
+        <v>82522.07919832472</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6389,10 +6389,10 @@
         <v>232</v>
       </c>
       <c r="C231">
-        <v>1269.413775754918</v>
+        <v>0</v>
       </c>
       <c r="D231">
-        <v>130353.4137757549</v>
+        <v>129084</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>6088.070504243282</v>
+        <v>1427.900818150141</v>
       </c>
       <c r="D232">
-        <v>107249.0705042432</v>
+        <v>102588.9008181501</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6501,10 +6501,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>45192.35770312764</v>
+        <v>38900.33666599277</v>
       </c>
       <c r="D239">
-        <v>144642.3577031276</v>
+        <v>138350.3366659927</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6543,10 +6543,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>22154.03536530204</v>
+        <v>18453.19293865654</v>
       </c>
       <c r="D242">
-        <v>85128.03536530209</v>
+        <v>81427.19293865659</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6557,10 +6557,10 @@
         <v>244</v>
       </c>
       <c r="C243">
-        <v>4565.662333187647</v>
+        <v>1654.061767856969</v>
       </c>
       <c r="D243">
-        <v>67059.66233318769</v>
+        <v>64148.06176785701</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6571,10 +6571,10 @@
         <v>245</v>
       </c>
       <c r="C244">
-        <v>33888.89677672263</v>
+        <v>28095.87011894141</v>
       </c>
       <c r="D244">
-        <v>132780.8967767227</v>
+        <v>126987.8701189415</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6613,10 +6613,10 @@
         <v>248</v>
       </c>
       <c r="C247">
-        <v>16508.87922721656</v>
+        <v>10151.12933174268</v>
       </c>
       <c r="D247">
-        <v>145798.8792272166</v>
+        <v>139441.1293317427</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6655,10 +6655,10 @@
         <v>251</v>
       </c>
       <c r="C250">
-        <v>3252.853108001611</v>
+        <v>278.5964204004922</v>
       </c>
       <c r="D250">
-        <v>68433.85310800164</v>
+        <v>65459.59642040052</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6669,10 +6669,10 @@
         <v>252</v>
       </c>
       <c r="C251">
-        <v>5482.716450955784</v>
+        <v>2516.087823965252</v>
       </c>
       <c r="D251">
-        <v>68247.71645095575</v>
+        <v>65281.08782396522</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6697,10 +6697,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>17527.08508351639</v>
+        <v>12857.06425480016</v>
       </c>
       <c r="D253">
-        <v>107483.0850835163</v>
+        <v>102813.0642548001</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6753,10 +6753,10 @@
         <v>258</v>
       </c>
       <c r="C257">
-        <v>27828.76396403428</v>
+        <v>21930.47788955353</v>
       </c>
       <c r="D257">
-        <v>135580.7639640342</v>
+        <v>129682.4778895535</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6823,10 +6823,10 @@
         <v>263</v>
       </c>
       <c r="C262">
-        <v>45097.12845225584</v>
+        <v>38843.54591592394</v>
       </c>
       <c r="D262">
-        <v>143767.1284522559</v>
+        <v>137513.545915924</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6837,10 +6837,10 @@
         <v>264</v>
       </c>
       <c r="C263">
-        <v>3396.304544843784</v>
+        <v>509.5621470745682</v>
       </c>
       <c r="D263">
-        <v>66384.30454484376</v>
+        <v>63497.56214707455</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6893,10 +6893,10 @@
         <v>268</v>
       </c>
       <c r="C267">
-        <v>32357.29602356408</v>
+        <v>27739.03989714672</v>
       </c>
       <c r="D267">
-        <v>106329.296023564</v>
+        <v>101711.0398971467</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6935,10 +6935,10 @@
         <v>271</v>
       </c>
       <c r="C270">
-        <v>9164.466250879355</v>
+        <v>6242.892656852928</v>
       </c>
       <c r="D270">
-        <v>67212.46625087931</v>
+        <v>64290.89265685288</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6949,10 +6949,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>22671.445962708</v>
+        <v>18959.0271079466</v>
       </c>
       <c r="D271">
-        <v>85451.44596270804</v>
+        <v>81739.02710794663</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7005,10 +7005,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>19842.11020243718</v>
+        <v>13385.1286552255</v>
       </c>
       <c r="D275">
-        <v>148557.1102024371</v>
+        <v>142100.1286552254</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7019,10 +7019,10 @@
         <v>277</v>
       </c>
       <c r="C276">
-        <v>7211.200550484136</v>
+        <v>4280.711757102967</v>
       </c>
       <c r="D276">
-        <v>67447.20055048409</v>
+        <v>64516.71175710292</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7033,10 +7033,10 @@
         <v>278</v>
       </c>
       <c r="C277">
-        <v>1039.796844512573</v>
+        <v>0</v>
       </c>
       <c r="D277">
-        <v>68065.79684451254</v>
+        <v>67025.99999999997</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7159,10 +7159,10 @@
         <v>287</v>
       </c>
       <c r="C286">
-        <v>960.8481584365509</v>
+        <v>0</v>
       </c>
       <c r="D286">
-        <v>106636.8481584366</v>
+        <v>105676.0000000001</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7173,10 +7173,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>1651.294168575521</v>
+        <v>0</v>
       </c>
       <c r="D287">
-        <v>107489.2941685755</v>
+        <v>105838</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7187,10 +7187,10 @@
         <v>289</v>
       </c>
       <c r="C288">
-        <v>24843.08733854305</v>
+        <v>20976.77575068948</v>
       </c>
       <c r="D288">
-        <v>88903.08733854302</v>
+        <v>85036.77575068946</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7229,10 +7229,10 @@
         <v>292</v>
       </c>
       <c r="C291">
-        <v>10121.1620075344</v>
+        <v>7114.107133494472</v>
       </c>
       <c r="D291">
-        <v>69215.16200753438</v>
+        <v>66208.10713349446</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7243,10 +7243,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>15192.27667951665</v>
+        <v>11434.80376404716</v>
       </c>
       <c r="D292">
-        <v>86158.27667951671</v>
+        <v>82400.80376404722</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7285,10 +7285,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>23128.86719163952</v>
+        <v>19342.00121351168</v>
       </c>
       <c r="D295">
-        <v>87172.86719163955</v>
+        <v>83386.00121351171</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7369,10 +7369,10 @@
         <v>302</v>
       </c>
       <c r="C301">
-        <v>49569.22533662847</v>
+        <v>42984.06449244756</v>
       </c>
       <c r="D301">
-        <v>151194.2253366286</v>
+        <v>144609.0644924477</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7397,10 +7397,10 @@
         <v>304</v>
       </c>
       <c r="C303">
-        <v>14671.02722539286</v>
+        <v>11674.69164474443</v>
       </c>
       <c r="D303">
-        <v>68874.02722539287</v>
+        <v>65877.69164474444</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7425,10 +7425,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>31899.60451544561</v>
+        <v>27269.22000470289</v>
       </c>
       <c r="D305">
-        <v>106501.6045154456</v>
+        <v>101871.2200047029</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7509,10 +7509,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>28262.14222395359</v>
+        <v>23648.37441141797</v>
       </c>
       <c r="D311">
-        <v>106152.1422239536</v>
+        <v>101538.3744114179</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7537,10 +7537,10 @@
         <v>314</v>
       </c>
       <c r="C313">
-        <v>15231.41179994006</v>
+        <v>12229.51209855057</v>
       </c>
       <c r="D313">
-        <v>68979.41179994005</v>
+        <v>65977.51209855056</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7579,10 +7579,10 @@
         <v>317</v>
       </c>
       <c r="C316">
-        <v>12895.42793354255</v>
+        <v>7250.617079840173</v>
       </c>
       <c r="D316">
-        <v>129807.4279335426</v>
+        <v>124162.6170798402</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7607,10 +7607,10 @@
         <v>319</v>
       </c>
       <c r="C318">
-        <v>15166.39556303169</v>
+        <v>12175.73032529683</v>
       </c>
       <c r="D318">
-        <v>68787.39556303166</v>
+        <v>65796.73032529681</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7621,10 +7621,10 @@
         <v>320</v>
       </c>
       <c r="C319">
-        <v>10161.12457372475</v>
+        <v>7180.628060216011</v>
       </c>
       <c r="D319">
-        <v>68593.12457372471</v>
+        <v>65612.62806021597</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7663,10 +7663,10 @@
         <v>323</v>
       </c>
       <c r="C322">
-        <v>10973.30527802037</v>
+        <v>7977.422374836482</v>
       </c>
       <c r="D322">
-        <v>68854.30527802033</v>
+        <v>65858.42237483645</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7691,10 +7691,10 @@
         <v>325</v>
       </c>
       <c r="C324">
-        <v>24373.07176449265</v>
+        <v>18632.9647769627</v>
       </c>
       <c r="D324">
-        <v>131561.0717644926</v>
+        <v>125820.9647769626</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7789,10 +7789,10 @@
         <v>332</v>
       </c>
       <c r="C331">
-        <v>14880.00757538882</v>
+        <v>11875.53949295433</v>
       </c>
       <c r="D331">
-        <v>69053.00757538887</v>
+        <v>66048.53949295437</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7817,10 +7817,10 @@
         <v>334</v>
       </c>
       <c r="C333">
-        <v>30517.88438988279</v>
+        <v>24103.49537015171</v>
       </c>
       <c r="D333">
-        <v>147537.8843898827</v>
+        <v>141123.4953701516</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7859,10 +7859,10 @@
         <v>337</v>
       </c>
       <c r="C336">
-        <v>22231.99718004235</v>
+        <v>17592.29096900523</v>
       </c>
       <c r="D336">
-        <v>106739.9971800424</v>
+        <v>102100.2909690053</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7943,10 +7943,10 @@
         <v>343</v>
       </c>
       <c r="C342">
-        <v>3004.588349158017</v>
+        <v>0</v>
       </c>
       <c r="D342">
-        <v>86258.58834915797</v>
+        <v>83253.99999999996</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8083,10 +8083,10 @@
         <v>353</v>
       </c>
       <c r="C352">
-        <v>28800.52567569091</v>
+        <v>24070.87874017542</v>
       </c>
       <c r="D352">
-        <v>108841.5256756909</v>
+        <v>104111.8787401754</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8125,10 +8125,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>14711.37356237089</v>
+        <v>8393.50176900567</v>
       </c>
       <c r="D355">
-        <v>145036.3735623709</v>
+        <v>138718.5017690057</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8181,10 +8181,10 @@
         <v>360</v>
       </c>
       <c r="C359">
-        <v>23709.96395422312</v>
+        <v>19882.21525508074</v>
       </c>
       <c r="D359">
-        <v>88013.9639542231</v>
+        <v>84186.21525508072</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8209,10 +8209,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>36529.3267353237</v>
+        <v>31878.03437851832</v>
       </c>
       <c r="D361">
-        <v>107075.3267353237</v>
+        <v>102424.0343785183</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8279,10 +8279,10 @@
         <v>367</v>
       </c>
       <c r="C366">
-        <v>2394.225336628646</v>
+        <v>0</v>
       </c>
       <c r="D366">
-        <v>151194.2253366286</v>
+        <v>148799.9999999999</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8293,10 +8293,10 @@
         <v>368</v>
       </c>
       <c r="C367">
-        <v>117.2244761554612</v>
+        <v>0</v>
       </c>
       <c r="D367">
-        <v>86933.22447615539</v>
+        <v>86815.99999999993</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8363,10 +8363,10 @@
         <v>373</v>
       </c>
       <c r="C372">
-        <v>14543.67698506759</v>
+        <v>9888.015579623549</v>
       </c>
       <c r="D372">
-        <v>107133.6769850675</v>
+        <v>102478.0155796235</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8447,10 +8447,10 @@
         <v>379</v>
       </c>
       <c r="C378">
-        <v>36671.19976050469</v>
+        <v>31963.24238855345</v>
       </c>
       <c r="D378">
-        <v>108336.1997605046</v>
+        <v>103628.2423885534</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8461,10 +8461,10 @@
         <v>380</v>
       </c>
       <c r="C379">
-        <v>44752.66045037979</v>
+        <v>38308.58273192348</v>
       </c>
       <c r="D379">
-        <v>148107.6604503798</v>
+        <v>141663.5827319235</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8475,10 +8475,10 @@
         <v>381</v>
       </c>
       <c r="C380">
-        <v>32955.70627387511</v>
+        <v>26659.93562416802</v>
       </c>
       <c r="D380">
-        <v>144455.7062738751</v>
+        <v>138159.935624168</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8531,10 +8531,10 @@
         <v>385</v>
       </c>
       <c r="C384">
-        <v>48023.67201136728</v>
+        <v>42384.51422912574</v>
       </c>
       <c r="D384">
-        <v>129643.6720113673</v>
+        <v>124004.5142291258</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8657,10 +8657,10 @@
         <v>394</v>
       </c>
       <c r="C393">
-        <v>10299.63510590253</v>
+        <v>6465.45355283095</v>
       </c>
       <c r="D393">
-        <v>88127.63510590255</v>
+        <v>84293.45355283096</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8727,10 +8727,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>11659.19281948966</v>
+        <v>8712.059069099734</v>
       </c>
       <c r="D398">
-        <v>67746.19281948969</v>
+        <v>64799.05906909976</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8769,10 +8769,10 @@
         <v>402</v>
       </c>
       <c r="C401">
-        <v>8199.258235907939</v>
+        <v>3655.116901043395</v>
       </c>
       <c r="D401">
-        <v>104551.258235908</v>
+        <v>100007.1169010435</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8825,10 +8825,10 @@
         <v>406</v>
       </c>
       <c r="C405">
-        <v>19709.93253345393</v>
+        <v>15157.31683562465</v>
       </c>
       <c r="D405">
-        <v>104814.932533454</v>
+        <v>100262.3168356247</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8853,10 +8853,10 @@
         <v>408</v>
       </c>
       <c r="C407">
-        <v>3816.650641520901</v>
+        <v>920.3899379123104</v>
       </c>
       <c r="D407">
-        <v>66677.65064152094</v>
+        <v>63781.38993791235</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8895,10 +8895,10 @@
         <v>411</v>
       </c>
       <c r="C410">
-        <v>4127.683809368435</v>
+        <v>0</v>
       </c>
       <c r="D410">
-        <v>135059.6838093684</v>
+        <v>130932</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8937,10 +8937,10 @@
         <v>414</v>
       </c>
       <c r="C413">
-        <v>26466.31657084819</v>
+        <v>22677.12587009083</v>
       </c>
       <c r="D413">
-        <v>87228.31657084818</v>
+        <v>83439.12587009082</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8965,10 +8965,10 @@
         <v>416</v>
       </c>
       <c r="C415">
-        <v>28215.92660660087</v>
+        <v>23615.54013778984</v>
       </c>
       <c r="D415">
-        <v>105856.9266066009</v>
+        <v>101256.5401377898</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8993,10 +8993,10 @@
         <v>418</v>
       </c>
       <c r="C417">
-        <v>34077.2175782017</v>
+        <v>27940.52528930324</v>
       </c>
       <c r="D417">
-        <v>140552.2175782017</v>
+        <v>134415.5252893032</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9063,10 +9063,10 @@
         <v>423</v>
       </c>
       <c r="C422">
-        <v>20650.30435572009</v>
+        <v>14908.10320776343</v>
       </c>
       <c r="D422">
-        <v>131362.3043557201</v>
+        <v>125620.1032077634</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9119,10 +9119,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>16119.2152564765</v>
+        <v>13199.66139782816</v>
       </c>
       <c r="D426">
-        <v>67231.21525647648</v>
+        <v>64311.66139782815</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9259,10 +9259,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>4237.319760957238</v>
+        <v>0</v>
       </c>
       <c r="D436">
-        <v>148012.3197609573</v>
+        <v>143775.0000000001</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9273,10 +9273,10 @@
         <v>438</v>
       </c>
       <c r="C437">
-        <v>25368.33601509832</v>
+        <v>21604.97730562664</v>
       </c>
       <c r="D437">
-        <v>86514.33601509828</v>
+        <v>82750.9773056266</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9329,10 +9329,10 @@
         <v>442</v>
       </c>
       <c r="C441">
-        <v>21935.17041743914</v>
+        <v>18182.07491848201</v>
       </c>
       <c r="D441">
-        <v>86329.17041743919</v>
+        <v>82576.07491848206</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9343,10 +9343,10 @@
         <v>443</v>
       </c>
       <c r="C442">
-        <v>36724.41601366835</v>
+        <v>30983.24025986459</v>
       </c>
       <c r="D442">
-        <v>131668.4160136683</v>
+        <v>125927.2402598645</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9413,10 +9413,10 @@
         <v>448</v>
       </c>
       <c r="C447">
-        <v>543.0939880765218</v>
+        <v>0</v>
       </c>
       <c r="D447">
-        <v>134887.0939880766</v>
+        <v>134344.0000000001</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9483,10 +9483,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>12116.00639977879</v>
+        <v>9178.747948309108</v>
       </c>
       <c r="D452">
-        <v>67639.00639977877</v>
+        <v>64701.74794830909</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9553,10 +9553,10 @@
         <v>458</v>
       </c>
       <c r="C457">
-        <v>8313.637588365622</v>
+        <v>5277.798208929271</v>
       </c>
       <c r="D457">
-        <v>69816.63758836557</v>
+        <v>66780.79820892922</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9609,10 +9609,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>7598.787390716228</v>
+        <v>3903.608648455818</v>
       </c>
       <c r="D461">
-        <v>85008.78739071629</v>
+        <v>81313.60864845588</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9623,10 +9623,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>18707.41619563692</v>
+        <v>14112.59753965189</v>
       </c>
       <c r="D462">
-        <v>105060.4161956369</v>
+        <v>100465.5975396519</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9637,10 +9637,10 @@
         <v>464</v>
       </c>
       <c r="C463">
-        <v>19086.86314961614</v>
+        <v>14285.66864992637</v>
       </c>
       <c r="D463">
-        <v>110191.8631496162</v>
+        <v>105390.6686499264</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9651,10 +9651,10 @@
         <v>465</v>
       </c>
       <c r="C464">
-        <v>8356.161300878608</v>
+        <v>4508.725041947488</v>
       </c>
       <c r="D464">
-        <v>88328.16130087865</v>
+        <v>84480.72504194753</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9693,10 +9693,10 @@
         <v>468</v>
       </c>
       <c r="C467">
-        <v>43180.74409349952</v>
+        <v>37446.49847632674</v>
       </c>
       <c r="D467">
-        <v>131888.7440934996</v>
+        <v>126154.4984763268</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9763,10 +9763,10 @@
         <v>473</v>
       </c>
       <c r="C472">
-        <v>5992.429703653324</v>
+        <v>0</v>
       </c>
       <c r="D472">
-        <v>147567.4297036533</v>
+        <v>141575</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9777,10 +9777,10 @@
         <v>474</v>
       </c>
       <c r="C473">
-        <v>18935.13181698331</v>
+        <v>14171.08483208904</v>
       </c>
       <c r="D473">
-        <v>109419.1318169834</v>
+        <v>104655.0848320891</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9833,10 +9833,10 @@
         <v>478</v>
       </c>
       <c r="C477">
-        <v>17857.38247660959</v>
+        <v>11997.46910062787</v>
       </c>
       <c r="D477">
-        <v>134569.3824766096</v>
+        <v>128709.4691006279</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9931,10 +9931,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>24978.89476725276</v>
+        <v>21177.22608743876</v>
       </c>
       <c r="D484">
-        <v>87506.89476725271</v>
+        <v>83705.22608743871</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -10043,10 +10043,10 @@
         <v>493</v>
       </c>
       <c r="C492">
-        <v>1271.395651375089</v>
+        <v>0</v>
       </c>
       <c r="D492">
-        <v>67453.3956513751</v>
+        <v>66182.00000000001</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10071,10 +10071,10 @@
         <v>495</v>
       </c>
       <c r="C494">
-        <v>28841.36487621869</v>
+        <v>24209.59398006505</v>
       </c>
       <c r="D494">
-        <v>106569.3648762187</v>
+        <v>101937.593980065</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10085,10 +10085,10 @@
         <v>496</v>
       </c>
       <c r="C495">
-        <v>49804.43918026787</v>
+        <v>43472.39708910372</v>
       </c>
       <c r="D495">
-        <v>145404.4391802678</v>
+        <v>139072.3970891036</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10155,10 +10155,10 @@
         <v>501</v>
       </c>
       <c r="C500">
-        <v>7099.389027111727</v>
+        <v>4183.438722737039</v>
       </c>
       <c r="D500">
-        <v>67085.38902711171</v>
+        <v>64169.43872273702</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10169,10 +10169,10 @@
         <v>502</v>
       </c>
       <c r="C501">
-        <v>21656.52887084013</v>
+        <v>17948.24700419253</v>
       </c>
       <c r="D501">
-        <v>85256.52887084016</v>
+        <v>81548.24700419257</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10197,10 +10197,10 @@
         <v>504</v>
       </c>
       <c r="C503">
-        <v>1017.472491844266</v>
+        <v>0</v>
       </c>
       <c r="D503">
-        <v>105586.4724918442</v>
+        <v>104569</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10351,10 +10351,10 @@
         <v>515</v>
       </c>
       <c r="C514">
-        <v>4517.328728426597</v>
+        <v>806.977004349741</v>
       </c>
       <c r="D514">
-        <v>85397.32872842666</v>
+        <v>81686.9770043498</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10365,10 +10365,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>37575.7906891095</v>
+        <v>31257.59742807131</v>
       </c>
       <c r="D515">
-        <v>145345.7906891095</v>
+        <v>139027.5974280713</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10379,10 +10379,10 @@
         <v>517</v>
       </c>
       <c r="C516">
-        <v>26153.68634754331</v>
+        <v>22365.36354983555</v>
       </c>
       <c r="D516">
-        <v>86759.68634754331</v>
+        <v>82971.36354983554</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10393,10 +10393,10 @@
         <v>518</v>
       </c>
       <c r="C517">
-        <v>10600.76482914975</v>
+        <v>7616.080253056432</v>
       </c>
       <c r="D517">
-        <v>68377.76482914978</v>
+        <v>65393.08025305646</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10407,10 +10407,10 @@
         <v>519</v>
       </c>
       <c r="C518">
-        <v>11404.85581593624</v>
+        <v>7653.049251148317</v>
       </c>
       <c r="D518">
-        <v>86292.85581593623</v>
+        <v>82541.0492511483</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10421,10 +10421,10 @@
         <v>520</v>
       </c>
       <c r="C519">
-        <v>14817.82289210247</v>
+        <v>10090.5731123242</v>
       </c>
       <c r="D519">
-        <v>108772.8228921025</v>
+        <v>104045.5731123242</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10505,10 +10505,10 @@
         <v>526</v>
       </c>
       <c r="C525">
-        <v>80.28621004137676</v>
+        <v>0</v>
       </c>
       <c r="D525">
-        <v>146870.2862100415</v>
+        <v>146790.0000000001</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10519,10 +10519,10 @@
         <v>527</v>
       </c>
       <c r="C526">
-        <v>15619.68462364597</v>
+        <v>9232.88590587955</v>
       </c>
       <c r="D526">
-        <v>147014.6846236459</v>
+        <v>140627.8859058795</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10561,10 +10561,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>27179.67494521874</v>
+        <v>22472.02974246941</v>
       </c>
       <c r="D529">
-        <v>108321.6749452187</v>
+        <v>103614.0297424694</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10575,10 +10575,10 @@
         <v>531</v>
       </c>
       <c r="C530">
-        <v>32918.03184065399</v>
+        <v>28315.72865945965</v>
       </c>
       <c r="D530">
-        <v>105990.0318406539</v>
+        <v>101387.7286594596</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10589,10 +10589,10 @@
         <v>532</v>
       </c>
       <c r="C531">
-        <v>2248.408989974123</v>
+        <v>0</v>
       </c>
       <c r="D531">
-        <v>85942.4089899742</v>
+        <v>83694.00000000007</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10771,10 +10771,10 @@
         <v>545</v>
       </c>
       <c r="C544">
-        <v>8415.789642119882</v>
+        <v>3711.447641652921</v>
       </c>
       <c r="D544">
-        <v>108025.7896421199</v>
+        <v>103321.447641653</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10785,10 +10785,10 @@
         <v>546</v>
       </c>
       <c r="C545">
-        <v>5419.451737049887</v>
+        <v>2474.624709639778</v>
       </c>
       <c r="D545">
-        <v>67627.45173704987</v>
+        <v>64682.62470963976</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10799,10 +10799,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>45032.90768946173</v>
+        <v>38923.76994675129</v>
       </c>
       <c r="D546">
-        <v>140112.9076894617</v>
+        <v>134003.7699467513</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10813,10 +10813,10 @@
         <v>548</v>
       </c>
       <c r="C547">
-        <v>21075.31249870105</v>
+        <v>17298.5156204477</v>
       </c>
       <c r="D547">
-        <v>86793.31249870104</v>
+        <v>83016.51562044768</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10869,10 +10869,10 @@
         <v>552</v>
       </c>
       <c r="C551">
-        <v>31527.29616696152</v>
+        <v>25121.66918140854</v>
       </c>
       <c r="D551">
-        <v>147022.2961669614</v>
+        <v>140616.6691814084</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10883,10 +10883,10 @@
         <v>553</v>
       </c>
       <c r="C552">
-        <v>33441.1425363677</v>
+        <v>27098.47386363326</v>
       </c>
       <c r="D552">
-        <v>145326.1425363678</v>
+        <v>138983.4738636333</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10925,10 +10925,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>53209.35374310089</v>
+        <v>46957.34467505978</v>
       </c>
       <c r="D555">
-        <v>143494.3537431009</v>
+        <v>137242.3446750598</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10953,10 +10953,10 @@
         <v>558</v>
       </c>
       <c r="C557">
-        <v>45843.96524174811</v>
+        <v>40171.4187529904</v>
       </c>
       <c r="D557">
-        <v>130271.9652417481</v>
+        <v>124599.4187529904</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10981,10 +10981,10 @@
         <v>560</v>
       </c>
       <c r="C559">
-        <v>6521.318780775167</v>
+        <v>3599.514091261139</v>
       </c>
       <c r="D559">
-        <v>67078.3187807752</v>
+        <v>64156.51409126117</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -11191,10 +11191,10 @@
         <v>575</v>
       </c>
       <c r="C574">
-        <v>34714.06990428588</v>
+        <v>30115.24668328692</v>
       </c>
       <c r="D574">
-        <v>105482.0699042858</v>
+        <v>100883.2466832869</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11205,10 +11205,10 @@
         <v>576</v>
       </c>
       <c r="C575">
-        <v>32628.57064612917</v>
+        <v>26193.82302812135</v>
       </c>
       <c r="D575">
-        <v>147573.5706461291</v>
+        <v>141138.8230281213</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11219,10 +11219,10 @@
         <v>577</v>
       </c>
       <c r="C576">
-        <v>32931.63874361117</v>
+        <v>26573.30169939945</v>
       </c>
       <c r="D576">
-        <v>145666.6387436111</v>
+        <v>139308.3016993994</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11233,10 +11233,10 @@
         <v>578</v>
       </c>
       <c r="C577">
-        <v>35271.04253899459</v>
+        <v>28943.41821270097</v>
       </c>
       <c r="D577">
-        <v>145416.0425389945</v>
+        <v>139088.4182127009</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11261,10 +11261,10 @@
         <v>580</v>
       </c>
       <c r="C579">
-        <v>16789.46677775832</v>
+        <v>13842.83364121328</v>
       </c>
       <c r="D579">
-        <v>67670.46677775832</v>
+        <v>64723.83364121328</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11289,10 +11289,10 @@
         <v>582</v>
       </c>
       <c r="C581">
-        <v>8174.942489791887</v>
+        <v>5186.764911690545</v>
       </c>
       <c r="D581">
-        <v>68582.94248979187</v>
+        <v>65594.76491169052</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11345,10 +11345,10 @@
         <v>586</v>
       </c>
       <c r="C585">
-        <v>35395.18086024452</v>
+        <v>29204.65358319692</v>
       </c>
       <c r="D585">
-        <v>142085.1808602445</v>
+        <v>135894.6535831969</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11527,10 +11527,10 @@
         <v>599</v>
       </c>
       <c r="C598">
-        <v>47825.69045937886</v>
+        <v>41619.34788403822</v>
       </c>
       <c r="D598">
-        <v>142490.6904593788</v>
+        <v>136284.3478840381</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11611,10 +11611,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>9145.075792188174</v>
+        <v>6207.035210639115</v>
       </c>
       <c r="D604">
-        <v>67456.07579218816</v>
+        <v>64518.0352106391</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11667,10 +11667,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>14600.1819016931</v>
+        <v>11630.7618019296</v>
       </c>
       <c r="D608">
-        <v>68148.1819016931</v>
+        <v>65178.7618019296</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11695,10 +11695,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>32569.57951519318</v>
+        <v>27946.72922521051</v>
       </c>
       <c r="D610">
-        <v>106313.5795151931</v>
+        <v>101690.7292252105</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11751,10 +11751,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>14576.96829620223</v>
+        <v>9843.917026515599</v>
       </c>
       <c r="D614">
-        <v>108636.9682962022</v>
+        <v>103903.9170265155</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11779,10 +11779,10 @@
         <v>617</v>
       </c>
       <c r="C616">
-        <v>7626.96047086137</v>
+        <v>4605.344643188182</v>
       </c>
       <c r="D616">
-        <v>69258.96047086136</v>
+        <v>66237.34464318817</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11807,10 +11807,10 @@
         <v>619</v>
       </c>
       <c r="C618">
-        <v>12876.83003931717</v>
+        <v>9005.047300913924</v>
       </c>
       <c r="D618">
-        <v>89064.83003931718</v>
+        <v>85193.04730091394</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11821,10 +11821,10 @@
         <v>620</v>
       </c>
       <c r="C619">
-        <v>30122.72166890428</v>
+        <v>25441.90960640172</v>
       </c>
       <c r="D619">
-        <v>107685.7216689042</v>
+        <v>103004.9096064017</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11835,10 +11835,10 @@
         <v>621</v>
       </c>
       <c r="C620">
-        <v>5701.006926326721</v>
+        <v>1857.747259899639</v>
       </c>
       <c r="D620">
-        <v>88317.00692632669</v>
+        <v>84473.74725989961</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11849,10 +11849,10 @@
         <v>622</v>
       </c>
       <c r="C621">
-        <v>14646.16098952873</v>
+        <v>11764.68082448016</v>
       </c>
       <c r="D621">
-        <v>65978.16098952873</v>
+        <v>63096.68082448016</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -12031,10 +12031,10 @@
         <v>635</v>
       </c>
       <c r="C634">
-        <v>4208.586681191111</v>
+        <v>0</v>
       </c>
       <c r="D634">
-        <v>144703.5866811911</v>
+        <v>140495</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12045,10 +12045,10 @@
         <v>636</v>
       </c>
       <c r="C635">
-        <v>27891.11466242785</v>
+        <v>23249.28026226885</v>
       </c>
       <c r="D635">
-        <v>106351.1146624279</v>
+        <v>101709.2802622689</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12059,10 +12059,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>15137.6367088791</v>
+        <v>11288.13236233983</v>
       </c>
       <c r="D636">
-        <v>88501.63670887906</v>
+        <v>84652.13236233979</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12087,10 +12087,10 @@
         <v>639</v>
       </c>
       <c r="C638">
-        <v>10571.83513795229</v>
+        <v>4390.654521003744</v>
       </c>
       <c r="D638">
-        <v>141931.8351379522</v>
+        <v>135750.6545210037</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12143,10 +12143,10 @@
         <v>643</v>
       </c>
       <c r="C642">
-        <v>16785.90552670068</v>
+        <v>13039.12381379033</v>
       </c>
       <c r="D642">
-        <v>86183.90552670071</v>
+        <v>82437.12381379036</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12171,10 +12171,10 @@
         <v>645</v>
       </c>
       <c r="C644">
-        <v>19652.40226901986</v>
+        <v>15794.2597232593</v>
       </c>
       <c r="D644">
-        <v>88500.40226901985</v>
+        <v>84642.25972325928</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12185,10 +12185,10 @@
         <v>646</v>
       </c>
       <c r="C645">
-        <v>17127.67196223139</v>
+        <v>14149.77175768377</v>
       </c>
       <c r="D645">
-        <v>68307.67196223138</v>
+        <v>65329.77175768377</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12241,10 +12241,10 @@
         <v>650</v>
       </c>
       <c r="C649">
-        <v>19602.00545268442</v>
+        <v>13352.41619232061</v>
       </c>
       <c r="D649">
-        <v>143477.0054526844</v>
+        <v>137227.4161923206</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12255,10 +12255,10 @@
         <v>651</v>
       </c>
       <c r="C650">
-        <v>7136.673676751394</v>
+        <v>3526.032974701826</v>
       </c>
       <c r="D650">
-        <v>82764.67367675136</v>
+        <v>79154.0329747018</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12283,10 +12283,10 @@
         <v>653</v>
       </c>
       <c r="C652">
-        <v>15409.49631483605</v>
+        <v>10767.3961200187</v>
       </c>
       <c r="D652">
-        <v>106667.4963148361</v>
+        <v>102025.3961200187</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12339,10 +12339,10 @@
         <v>657</v>
       </c>
       <c r="C656">
-        <v>11666.6207761447</v>
+        <v>7893.38797026359</v>
       </c>
       <c r="D656">
-        <v>86754.62077614466</v>
+        <v>82981.38797026355</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12367,10 +12367,10 @@
         <v>659</v>
       </c>
       <c r="C658">
-        <v>4979.335923120379</v>
+        <v>292.1764755252079</v>
       </c>
       <c r="D658">
-        <v>107823.3359231204</v>
+        <v>103136.1764755252</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12409,10 +12409,10 @@
         <v>662</v>
       </c>
       <c r="C661">
-        <v>5264.544438092111</v>
+        <v>1375.989376053709</v>
       </c>
       <c r="D661">
-        <v>89234.54443809211</v>
+        <v>85345.98937605371</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12437,10 +12437,10 @@
         <v>664</v>
       </c>
       <c r="C663">
-        <v>12959.60209647281</v>
+        <v>9898.008747125597</v>
       </c>
       <c r="D663">
-        <v>70233.60209647279</v>
+        <v>67172.00874712558</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12507,10 +12507,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>41779.68927256847</v>
+        <v>35916.35556906917</v>
       </c>
       <c r="D668">
-        <v>134751.6892725686</v>
+        <v>128888.3555690693</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12535,10 +12535,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>29450.99037957349</v>
+        <v>23731.26652390475</v>
       </c>
       <c r="D670">
-        <v>131354.9903795735</v>
+        <v>125635.2665239047</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12549,10 +12549,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>14941.48425734849</v>
+        <v>11078.97825477282</v>
       </c>
       <c r="D671">
-        <v>88659.48425734855</v>
+        <v>84796.97825477288</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12619,10 +12619,10 @@
         <v>677</v>
       </c>
       <c r="C676">
-        <v>20783.49336357301</v>
+        <v>14416.39101643517</v>
       </c>
       <c r="D676">
-        <v>146433.4933635729</v>
+        <v>140066.3910164351</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12661,10 +12661,10 @@
         <v>680</v>
       </c>
       <c r="C679">
-        <v>4287.096960558818</v>
+        <v>0</v>
       </c>
       <c r="D679">
-        <v>106720.0969605588</v>
+        <v>102433</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12689,10 +12689,10 @@
         <v>682</v>
       </c>
       <c r="C681">
-        <v>6049.699966679043</v>
+        <v>3093.531272614942</v>
       </c>
       <c r="D681">
-        <v>67851.69996667904</v>
+        <v>64895.53127261494</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12717,10 +12717,10 @@
         <v>684</v>
       </c>
       <c r="C683">
-        <v>51280.55959196799</v>
+        <v>45037.69447701424</v>
       </c>
       <c r="D683">
-        <v>143310.559591968</v>
+        <v>137067.6944770142</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12731,10 +12731,10 @@
         <v>685</v>
       </c>
       <c r="C684">
-        <v>12880.69203708896</v>
+        <v>7124.724404004242</v>
       </c>
       <c r="D684">
-        <v>132032.6920370889</v>
+        <v>126276.7244040042</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12787,10 +12787,10 @@
         <v>689</v>
       </c>
       <c r="C688">
-        <v>13791.78424493631</v>
+        <v>8052.746647375941</v>
       </c>
       <c r="D688">
-        <v>131935.7842449362</v>
+        <v>126196.7466473759</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12801,10 +12801,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>1981.162718056454</v>
+        <v>0</v>
       </c>
       <c r="D689">
-        <v>67631.16271805641</v>
+        <v>65649.99999999996</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12871,10 +12871,10 @@
         <v>695</v>
       </c>
       <c r="C694">
-        <v>17642.53196741223</v>
+        <v>11987.43236022459</v>
       </c>
       <c r="D694">
-        <v>129754.5319674123</v>
+        <v>124099.4323602246</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -12913,10 +12913,10 @@
         <v>698</v>
       </c>
       <c r="C697">
-        <v>15798.17769270732</v>
+        <v>10120.99275319089</v>
       </c>
       <c r="D697">
-        <v>130502.1776927073</v>
+        <v>124824.9927531908</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -12983,10 +12983,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>31726.17423334865</v>
+        <v>26003.72087325319</v>
       </c>
       <c r="D702">
-        <v>131478.1742333486</v>
+        <v>125755.7208732531</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -13025,10 +13025,10 @@
         <v>706</v>
       </c>
       <c r="C705">
-        <v>24236.05017716831</v>
+        <v>20420.85255013806</v>
       </c>
       <c r="D705">
-        <v>87592.05017716836</v>
+        <v>83776.85255013811</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13081,10 +13081,10 @@
         <v>710</v>
       </c>
       <c r="C709">
-        <v>23535.92832850997</v>
+        <v>18970.18490395916</v>
       </c>
       <c r="D709">
-        <v>104767.92832851</v>
+        <v>100202.1849039592</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13137,10 +13137,10 @@
         <v>714</v>
       </c>
       <c r="C713">
-        <v>1133.260183209044</v>
+        <v>0</v>
       </c>
       <c r="D713">
-        <v>67147.26018320907</v>
+        <v>66014.00000000003</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13165,10 +13165,10 @@
         <v>716</v>
       </c>
       <c r="C715">
-        <v>45469.0247712564</v>
+        <v>39283.16361656279</v>
       </c>
       <c r="D715">
-        <v>141994.0247712564</v>
+        <v>135808.1636165628</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13193,10 +13193,10 @@
         <v>718</v>
       </c>
       <c r="C717">
-        <v>18217.60995137472</v>
+        <v>14543.95381750836</v>
       </c>
       <c r="D717">
-        <v>84311.60995137473</v>
+        <v>80637.95381750837</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13277,10 +13277,10 @@
         <v>724</v>
       </c>
       <c r="C723">
-        <v>1047.154770342459</v>
+        <v>0</v>
       </c>
       <c r="D723">
-        <v>66820.15477034243</v>
+        <v>65772.99999999997</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13291,10 +13291,10 @@
         <v>725</v>
       </c>
       <c r="C724">
-        <v>558.374994156562</v>
+        <v>0</v>
       </c>
       <c r="D724">
-        <v>67131.3749941565</v>
+        <v>66572.99999999994</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13375,10 +13375,10 @@
         <v>731</v>
       </c>
       <c r="C730">
-        <v>21425.55233546782</v>
+        <v>17574.07839749783</v>
       </c>
       <c r="D730">
-        <v>88557.55233546786</v>
+        <v>84706.07839749787</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13389,10 +13389,10 @@
         <v>732</v>
       </c>
       <c r="C731">
-        <v>2910.259362569712</v>
+        <v>0</v>
       </c>
       <c r="D731">
-        <v>67328.25936256972</v>
+        <v>64418.00000000001</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13487,10 +13487,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>19001.59239598461</v>
+        <v>13286.5851317514</v>
       </c>
       <c r="D738">
-        <v>131417.5923959847</v>
+        <v>125702.5851317515</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13515,10 +13515,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>9263.615058363095</v>
+        <v>6397.835950930799</v>
       </c>
       <c r="D740">
-        <v>64683.61505836307</v>
+        <v>61817.83595093077</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13543,10 +13543,10 @@
         <v>743</v>
       </c>
       <c r="C742">
-        <v>13983.57177543511</v>
+        <v>10425.37642846475</v>
       </c>
       <c r="D742">
-        <v>80167.57177543511</v>
+        <v>76609.37642846475</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13599,10 +13599,10 @@
         <v>747</v>
       </c>
       <c r="C746">
-        <v>15492.14447412272</v>
+        <v>9264.678677936681</v>
       </c>
       <c r="D746">
-        <v>140117.1444741226</v>
+        <v>133889.6786779366</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13641,10 +13641,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>7766.199842859191</v>
+        <v>3179.074865239163</v>
       </c>
       <c r="D749">
-        <v>103437.1998428591</v>
+        <v>98850.07486523909</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13669,10 +13669,10 @@
         <v>752</v>
       </c>
       <c r="C751">
-        <v>14928.56826640178</v>
+        <v>11248.12745513892</v>
       </c>
       <c r="D751">
-        <v>83078.56826640177</v>
+        <v>79398.12745513891</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -13697,10 +13697,10 @@
         <v>754</v>
       </c>
       <c r="C753">
-        <v>40533.65910275617</v>
+        <v>34904.88399127226</v>
       </c>
       <c r="D753">
-        <v>126889.6591027562</v>
+        <v>121260.8839912722</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13725,10 +13725,10 @@
         <v>756</v>
       </c>
       <c r="C755">
-        <v>29044.18617668045</v>
+        <v>24549.59603258822</v>
       </c>
       <c r="D755">
-        <v>101351.1861766804</v>
+        <v>96856.5960325882</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13767,10 +13767,10 @@
         <v>759</v>
       </c>
       <c r="C758">
-        <v>39885.20089916699</v>
+        <v>34537.2898435856</v>
       </c>
       <c r="D758">
-        <v>120429.200899167</v>
+        <v>115081.2898435856</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13795,10 +13795,10 @@
         <v>761</v>
       </c>
       <c r="C760">
-        <v>1542.234556946656</v>
+        <v>0</v>
       </c>
       <c r="D760">
-        <v>90416.2345569467</v>
+        <v>88874.00000000004</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -13809,10 +13809,10 @@
         <v>762</v>
       </c>
       <c r="C761">
-        <v>21975.46779858555</v>
+        <v>17222.14432378495</v>
       </c>
       <c r="D761">
-        <v>109324.4677985855</v>
+        <v>104571.1443237849</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13823,10 +13823,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>33043.52002708989</v>
+        <v>28273.45103451882</v>
       </c>
       <c r="D762">
-        <v>109340.5200270899</v>
+        <v>104570.4510345189</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13935,10 +13935,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>8863.558795968507</v>
+        <v>5099.150964926943</v>
       </c>
       <c r="D770">
-        <v>86563.55879596846</v>
+        <v>82799.1509649269</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13977,10 +13977,10 @@
         <v>774</v>
       </c>
       <c r="C773">
-        <v>26556.62399269181</v>
+        <v>20911.72574249857</v>
       </c>
       <c r="D773">
-        <v>129800.6239926919</v>
+        <v>124155.7257424986</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -14047,10 +14047,10 @@
         <v>779</v>
       </c>
       <c r="C778">
-        <v>40982.23554926435</v>
+        <v>34730.13316723483</v>
       </c>
       <c r="D778">
-        <v>143687.2355492643</v>
+        <v>137435.1331672347</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14089,10 +14089,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>17901.46948162619</v>
+        <v>14182.01966530945</v>
       </c>
       <c r="D781">
-        <v>85575.46948162623</v>
+        <v>81856.01966530949</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14243,10 +14243,10 @@
         <v>793</v>
       </c>
       <c r="C792">
-        <v>36200.26713873033</v>
+        <v>29755.18416593748</v>
       </c>
       <c r="D792">
-        <v>148085.2671387304</v>
+        <v>141640.1841659376</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14285,10 +14285,10 @@
         <v>796</v>
       </c>
       <c r="C795">
-        <v>8489.464611274525</v>
+        <v>3941.853955946397</v>
       </c>
       <c r="D795">
-        <v>104646.4646112745</v>
+        <v>100098.8539559463</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14299,10 +14299,10 @@
         <v>797</v>
       </c>
       <c r="C796">
-        <v>56837.49872829329</v>
+        <v>50339.87798745511</v>
       </c>
       <c r="D796">
-        <v>148692.4987282933</v>
+        <v>142194.8779874552</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14341,10 +14341,10 @@
         <v>800</v>
       </c>
       <c r="C799">
-        <v>3326.32230024552</v>
+        <v>0</v>
       </c>
       <c r="D799">
-        <v>148466.3223002454</v>
+        <v>145139.9999999999</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14397,10 +14397,10 @@
         <v>804</v>
       </c>
       <c r="C803">
-        <v>4226.331171650141</v>
+        <v>1215.118640460576</v>
       </c>
       <c r="D803">
-        <v>69132.33117165012</v>
+        <v>66121.11864046055</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14425,10 +14425,10 @@
         <v>806</v>
       </c>
       <c r="C805">
-        <v>20590.26955101381</v>
+        <v>14186.42926418311</v>
       </c>
       <c r="D805">
-        <v>147160.2695510138</v>
+        <v>140756.4292641831</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14467,10 +14467,10 @@
         <v>809</v>
       </c>
       <c r="C808">
-        <v>20120.64572361186</v>
+        <v>13793.5034773138</v>
       </c>
       <c r="D808">
-        <v>145390.6457236118</v>
+        <v>139063.5034773137</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -14481,10 +14481,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>9531.46080394266</v>
+        <v>6460.80603767807</v>
       </c>
       <c r="D809">
-        <v>70445.46080394262</v>
+        <v>67374.80603767803</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14537,10 +14537,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>19405.94107632297</v>
+        <v>14593.13606229283</v>
       </c>
       <c r="D813">
-        <v>110240.9410763229</v>
+        <v>105428.1360622928</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14565,10 +14565,10 @@
         <v>816</v>
       </c>
       <c r="C815">
-        <v>4914.43716869838</v>
+        <v>0</v>
       </c>
       <c r="D815">
-        <v>133182.4371686985</v>
+        <v>128268.0000000001</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14635,10 +14635,10 @@
         <v>821</v>
       </c>
       <c r="C820">
-        <v>12010.16468169108</v>
+        <v>9047.552546774365</v>
       </c>
       <c r="D820">
-        <v>68130.16468169111</v>
+        <v>65167.55254677439</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14663,10 +14663,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>16067.39326025486</v>
+        <v>13037.30468757171</v>
       </c>
       <c r="D822">
-        <v>69545.39326025489</v>
+        <v>66515.30468757174</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14677,10 +14677,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>14991.92742695004</v>
+        <v>11969.04619150902</v>
       </c>
       <c r="D823">
-        <v>69502.92742695006</v>
+        <v>66480.04619150904</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14761,10 +14761,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>34910.22693318245</v>
+        <v>29016.99622893558</v>
       </c>
       <c r="D829">
-        <v>135238.2269331824</v>
+        <v>129344.9962289355</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14775,10 +14775,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>22174.64561381431</v>
+        <v>16381.02533078917</v>
       </c>
       <c r="D830">
-        <v>133014.6456138143</v>
+        <v>127221.0253307891</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14817,10 +14817,10 @@
         <v>834</v>
       </c>
       <c r="C833">
-        <v>13809.90982417017</v>
+        <v>9191.83944637634</v>
       </c>
       <c r="D833">
-        <v>106225.9098241702</v>
+        <v>101607.8394463764</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14831,10 +14831,10 @@
         <v>835</v>
       </c>
       <c r="C834">
-        <v>9410.084092930949</v>
+        <v>5525.189823357796</v>
       </c>
       <c r="D834">
-        <v>89162.08409293099</v>
+        <v>85277.18982335784</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14845,10 +14845,10 @@
         <v>836</v>
       </c>
       <c r="C835">
-        <v>17938.60721623957</v>
+        <v>14826.91980575364</v>
       </c>
       <c r="D835">
-        <v>71255.60721623953</v>
+        <v>68143.9198057536</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14887,10 +14887,10 @@
         <v>839</v>
       </c>
       <c r="C838">
-        <v>4222.633502215933</v>
+        <v>1258.632912446432</v>
       </c>
       <c r="D838">
-        <v>68138.63350221589</v>
+        <v>65174.63291244639</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -14929,10 +14929,10 @@
         <v>842</v>
       </c>
       <c r="C841">
-        <v>1854.831325946419</v>
+        <v>0</v>
       </c>
       <c r="D841">
-        <v>67613.83132594645</v>
+        <v>65759.00000000003</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -14943,10 +14943,10 @@
         <v>843</v>
       </c>
       <c r="C842">
-        <v>14679.92696033526</v>
+        <v>8126.711430730531</v>
       </c>
       <c r="D842">
-        <v>150494.9269603351</v>
+        <v>143941.7114307304</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14985,10 +14985,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>30872.21710564499</v>
+        <v>26261.21073046207</v>
       </c>
       <c r="D845">
-        <v>106122.2171056449</v>
+        <v>101511.210730462</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -15027,10 +15027,10 @@
         <v>849</v>
       </c>
       <c r="C848">
-        <v>39009.6439707117</v>
+        <v>34202.15942873823</v>
       </c>
       <c r="D848">
-        <v>110314.6439707117</v>
+        <v>105507.1594287383</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15069,10 +15069,10 @@
         <v>852</v>
       </c>
       <c r="C851">
-        <v>33902.78104150645</v>
+        <v>29335.30262160476</v>
       </c>
       <c r="D851">
-        <v>105006.7810415064</v>
+        <v>100439.3026216048</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -15111,10 +15111,10 @@
         <v>855</v>
       </c>
       <c r="C854">
-        <v>10277.54933065365</v>
+        <v>6594.556706022529</v>
       </c>
       <c r="D854">
-        <v>84743.54933065361</v>
+        <v>81060.55670602249</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -15251,10 +15251,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>20131.28358350195</v>
+        <v>15352.18895777744</v>
       </c>
       <c r="D864">
-        <v>109817.2835835019</v>
+        <v>105038.1889577774</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15321,10 +15321,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>4139.145056832407</v>
+        <v>1079.688111762138</v>
       </c>
       <c r="D869">
-        <v>70127.14505683244</v>
+        <v>67067.68811176217</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15335,10 +15335,10 @@
         <v>871</v>
       </c>
       <c r="C870">
-        <v>4255.63841701021</v>
+        <v>456.6494149635546</v>
       </c>
       <c r="D870">
-        <v>87339.63841701025</v>
+        <v>83540.6494149636</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -15349,10 +15349,10 @@
         <v>872</v>
       </c>
       <c r="C871">
-        <v>9395.303809901437</v>
+        <v>2945.389437401143</v>
       </c>
       <c r="D871">
-        <v>148180.3038099014</v>
+        <v>141730.3894374011</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15405,10 +15405,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>18658.41140257831</v>
+        <v>14094.22663092983</v>
       </c>
       <c r="D875">
-        <v>105110.4114025784</v>
+        <v>100546.2266309299</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15517,10 +15517,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>7878.13340787567</v>
+        <v>4945.296204686209</v>
       </c>
       <c r="D883">
-        <v>67440.13340787565</v>
+        <v>64507.29620468619</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -15531,10 +15531,10 @@
         <v>885</v>
       </c>
       <c r="C884">
-        <v>6926.273837970482</v>
+        <v>3220.526257195888</v>
       </c>
       <c r="D884">
-        <v>85336.27383797048</v>
+        <v>81630.52625719589</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15545,10 +15545,10 @@
         <v>886</v>
       </c>
       <c r="C885">
-        <v>15241.97807309526</v>
+        <v>12190.81383250691</v>
       </c>
       <c r="D885">
-        <v>70040.97807309526</v>
+        <v>66989.81383250692</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -15559,10 +15559,10 @@
         <v>887</v>
       </c>
       <c r="C886">
-        <v>26774.85858060651</v>
+        <v>22231.37688476467</v>
       </c>
       <c r="D886">
-        <v>104514.8585806065</v>
+        <v>99971.3768847647</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -15615,10 +15615,10 @@
         <v>891</v>
       </c>
       <c r="C890">
-        <v>11023.16503101439</v>
+        <v>7312.560454260369</v>
       </c>
       <c r="D890">
-        <v>85445.16503101435</v>
+        <v>81734.56045426033</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -15643,10 +15643,10 @@
         <v>893</v>
       </c>
       <c r="C892">
-        <v>15360.5582243842</v>
+        <v>12362.00188768771</v>
       </c>
       <c r="D892">
-        <v>68783.55822438416</v>
+        <v>65785.00188768767</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -15671,10 +15671,10 @@
         <v>895</v>
       </c>
       <c r="C894">
-        <v>7571.889542562771</v>
+        <v>4652.674888711394</v>
       </c>
       <c r="D894">
-        <v>67207.88954256279</v>
+        <v>64288.67488871141</v>
       </c>
     </row>
     <row r="895" spans="1:4">

--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>131168.0000000001</v>
+        <v>150279.9999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>88255.99999999999</v>
+        <v>90147.99999999993</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>83465</v>
+        <v>81725.00000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>107209.9999999999</v>
+        <v>138010</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3230,10 +3230,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>16817.88767590336</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>117657.8876759034</v>
+        <v>159764</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>72666.00000000003</v>
+        <v>77694.99999999994</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>81683.99999999996</v>
+        <v>103431.9999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>176955.0000000001</v>
+        <v>179625.0000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3286,10 +3286,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>13693.79110036035</v>
+        <v>251.1506129421832</v>
       </c>
       <c r="D10">
-        <v>63783.79110036034</v>
+        <v>64196.15061294223</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3300,10 +3300,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>24360.75848303172</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>101032.7584830317</v>
+        <v>108901.0000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>156075</v>
+        <v>161445.0000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>71075.99999999999</v>
+        <v>60215.99999999996</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>128444.9999999999</v>
+        <v>115525</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>98869.99999999993</v>
+        <v>106750.0000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3370,10 +3370,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>20063.98755726025</v>
+        <v>26745.30270910401</v>
       </c>
       <c r="D16">
-        <v>101487.9875572603</v>
+        <v>99925.30270910403</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3384,10 +3384,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>4907.615239692808</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>63740.61523969283</v>
+        <v>67268.99999999996</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>136147.9999999999</v>
+        <v>140184</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>103457</v>
+        <v>85274.00000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3426,10 +3426,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>24769.34039243456</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>115121.3403924346</v>
+        <v>129508</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3440,10 +3440,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>23082.65047334007</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>136817.6504733401</v>
+        <v>181985</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3454,10 +3454,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>29688.74816786541</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>115904.7481678655</v>
+        <v>155983.9999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>79898.99999999999</v>
+        <v>77400.00000000006</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>125294.9999999999</v>
+        <v>162714.9999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3496,10 +3496,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>21808.5040406606</v>
       </c>
       <c r="D25">
-        <v>178844.9999999999</v>
+        <v>137403.5040406605</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3510,10 +3510,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>28988.55709013798</v>
+        <v>8815.518952620987</v>
       </c>
       <c r="D26">
-        <v>137033.557090138</v>
+        <v>134085.5189526209</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3524,10 +3524,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>8121.141546322964</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>100825.1415463229</v>
+        <v>103069</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3538,10 +3538,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>32220.44407730052</v>
+        <v>1367.223201725312</v>
       </c>
       <c r="D28">
-        <v>135820.4440773005</v>
+        <v>136507.2232017254</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>123388</v>
+        <v>155195.9999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>132272.0000000001</v>
+        <v>137363.9999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>65668.00000000004</v>
+        <v>63574.00000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>68599.00000000001</v>
+        <v>76603.00000000006</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>74531.99999999996</v>
+        <v>64994.99999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3622,10 +3622,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3674.802676932479</v>
       </c>
       <c r="D34">
-        <v>160574.9999999999</v>
+        <v>136149.8026769325</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>120624.0000000001</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>98720.00000000007</v>
+        <v>118532</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>127503.9999999999</v>
+        <v>115189</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3678,10 +3678,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>7111.518793765266</v>
+        <v>2818.425416216749</v>
       </c>
       <c r="D38">
-        <v>101306.5187937652</v>
+        <v>98633.42541621682</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3692,10 +3692,10 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>6840.210757654902</v>
       </c>
       <c r="D39">
-        <v>85858</v>
+        <v>81538.21075765489</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>159988.0000000001</v>
+        <v>151451.9999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>88175.99999999994</v>
+        <v>85488.00000000003</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3734,10 +3734,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>30451.42288162233</v>
+        <v>37809.46261560979</v>
       </c>
       <c r="D42">
-        <v>114523.4228816224</v>
+        <v>125521.4626156098</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>121954.0000000001</v>
+        <v>109603</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>89630</v>
+        <v>109434</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3776,10 +3776,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>10586.79079363012</v>
+        <v>7288.280200976282</v>
       </c>
       <c r="D45">
-        <v>79048.79079363012</v>
+        <v>81992.28020097622</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3790,10 +3790,10 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>13907.69101466003</v>
+        <v>9203.46078250061</v>
       </c>
       <c r="D46">
-        <v>96294.69101465997</v>
+        <v>100224.4607825006</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>161764.0000000001</v>
+        <v>123436</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>150679.9999999999</v>
+        <v>161972.0000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>87153.99999999993</v>
+        <v>108392</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>97484.00000000001</v>
+        <v>97560.00000000003</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>190685</v>
+        <v>196344.9999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3874,10 +3874,10 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>3087.623160127434</v>
       </c>
       <c r="D52">
-        <v>122512.0000000001</v>
+        <v>100126.6231601274</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3888,10 +3888,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>34802.28168366847</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>115946.2816836684</v>
+        <v>149164.0000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>145924.9999999999</v>
+        <v>170990</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>175970.0000000001</v>
+        <v>175149.9999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>161380.0000000001</v>
+        <v>115884</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>102900</v>
+        <v>179419.9999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3958,10 +3958,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>7427.80836096283</v>
       </c>
       <c r="D58">
-        <v>68864.99999999994</v>
+        <v>64251.80836096286</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>108659</v>
+        <v>82073.00000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>63391.00000000004</v>
+        <v>63873.00000000003</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>126127.9999999999</v>
+        <v>82393.99999999994</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>108248</v>
+        <v>160696</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>70864</v>
+        <v>72473.99999999997</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4042,10 +4042,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>39662.40411383848</v>
+        <v>23798.82474135706</v>
       </c>
       <c r="D64">
-        <v>131777.4041138384</v>
+        <v>135488.8247413572</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4056,10 +4056,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>4741.578043045563</v>
       </c>
       <c r="D65">
-        <v>68409.99999999997</v>
+        <v>64181.57804304554</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4070,10 +4070,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>23647.40545058624</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>131237.4054505863</v>
+        <v>158810.0000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>129826</v>
+        <v>128602</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>119592</v>
+        <v>97784.00000000006</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4112,10 +4112,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>17353.50404066061</v>
       </c>
       <c r="D69">
-        <v>177649.9999999999</v>
+        <v>137403.5040406605</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>70872.00000000001</v>
+        <v>107425.9999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4140,10 +4140,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>26690.32153630444</v>
       </c>
       <c r="D71">
-        <v>152164</v>
+        <v>124262.3215363044</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>60953.00000000004</v>
+        <v>69273.99999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>88469.00000000004</v>
+        <v>125645.0000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4182,10 +4182,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1948.696603587901</v>
       </c>
       <c r="D74">
-        <v>86733.99999999999</v>
+        <v>83916.69660358797</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4196,10 +4196,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>28387.89249534257</v>
       </c>
       <c r="D75">
-        <v>147468.0000000001</v>
+        <v>122979.8924953426</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4210,10 +4210,10 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>9868.163337271195</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>99974.16333727121</v>
+        <v>126004</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>163755.0000000001</v>
+        <v>121790</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4238,10 +4238,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>11852.00882542802</v>
       </c>
       <c r="D78">
-        <v>66428.00000000006</v>
+        <v>63291.00882542798</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4252,10 +4252,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>4347.725863527798</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>64331.72586352776</v>
+        <v>66547</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4266,10 +4266,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>15557.93082067328</v>
       </c>
       <c r="D80">
-        <v>83563.99999999996</v>
+        <v>80983.93082067324</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>112480.0000000001</v>
+        <v>111150</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4294,10 +4294,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>26471.51730248109</v>
+        <v>39855.18814668855</v>
       </c>
       <c r="D82">
-        <v>135666.5173024812</v>
+        <v>135400.1881466886</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>106960.9999999999</v>
+        <v>119072.0000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>114812</v>
+        <v>146064.0000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4336,10 +4336,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>893.4890829023352</v>
+        <v>3112.695306374058</v>
       </c>
       <c r="D85">
-        <v>61427.48908290229</v>
+        <v>65104.69530637404</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4350,10 +4350,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>26524.05419716437</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>100844.0541971644</v>
+        <v>102817.0000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>124593.9999999999</v>
+        <v>101170.0000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>148365.0000000001</v>
+        <v>187580</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>70389.00000000003</v>
+        <v>68598.00000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>162354.9999999999</v>
+        <v>114865</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>75716.99999999996</v>
+        <v>60266.99999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>91717.99999999994</v>
+        <v>89879.99999999996</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>78798.00000000006</v>
+        <v>61962.99999999996</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4462,10 +4462,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>3361.505982848415</v>
       </c>
       <c r="D94">
-        <v>69860.00000000004</v>
+        <v>62903.50598284846</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>148232.0000000001</v>
+        <v>162860</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>76096.99999999994</v>
+        <v>69429</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>70129.99999999994</v>
+        <v>60765.00000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4518,10 +4518,10 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>1626.158081498696</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>134706.1580814987</v>
+        <v>142875</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>128197</v>
+        <v>120043</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>136855.9999999999</v>
+        <v>119396</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4560,10 +4560,10 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>7699.480555311704</v>
       </c>
       <c r="D101">
-        <v>78689.99999999994</v>
+        <v>83027.48055531166</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4574,10 +4574,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>5829.855087750926</v>
+        <v>12040.28238150278</v>
       </c>
       <c r="D102">
-        <v>82335.85508775088</v>
+        <v>83200.28238150272</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4588,10 +4588,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>37423.85708012903</v>
       </c>
       <c r="D103">
-        <v>135144.0000000001</v>
+        <v>121799.8570801291</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4602,10 +4602,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>26101.18721570482</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>129691.1872157047</v>
+        <v>142099.9999999999</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4616,10 +4616,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>47170.64043837992</v>
+        <v>40658.92183413683</v>
       </c>
       <c r="D105">
-        <v>137660.64043838</v>
+        <v>132518.9218341368</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>160876</v>
+        <v>134955.9999999999</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>78314.99999999999</v>
+        <v>66440.00000000003</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4658,10 +4658,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>8974.356099401666</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>63762.35609940171</v>
+        <v>67135.99999999997</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>105356</v>
+        <v>99028</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>86427.99999999996</v>
+        <v>107897.9999999999</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4700,10 +4700,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>18636.85744128298</v>
       </c>
       <c r="D111">
-        <v>189930</v>
+        <v>138131.857441283</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>121284.9999999999</v>
+        <v>105471.9999999999</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>71798.00000000003</v>
+        <v>72218.00000000004</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>79204.00000000006</v>
+        <v>92801.99999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>116140.0000000001</v>
+        <v>117610</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4770,10 +4770,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>2714.723910924818</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>81530.72391092477</v>
+        <v>90137.99999999994</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>165507.9999999999</v>
+        <v>162979.9999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>125469.9999999999</v>
+        <v>103015</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>94553.99999999994</v>
+        <v>95848.00000000007</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4826,10 +4826,10 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>36412.55892318916</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>131222.5589231892</v>
+        <v>154480.0000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>89107.99999999999</v>
+        <v>97777.99999999999</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>122405</v>
+        <v>124082</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4868,10 +4868,10 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>148.4989114274285</v>
       </c>
       <c r="D123">
-        <v>67194.99999999999</v>
+        <v>64602.49891142741</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>73688.00000000003</v>
+        <v>96225.99999999993</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>77405.99999999996</v>
+        <v>74854.00000000006</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>115183.9999999999</v>
+        <v>97800.00000000009</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>109878</v>
+        <v>88612.00000000004</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4938,10 +4938,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>19762.32749301015</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>116054.3274930101</v>
+        <v>122032</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>91878.00000000003</v>
+        <v>90976</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4966,10 +4966,10 @@
         <v>131</v>
       </c>
       <c r="C130">
-        <v>24801.56706157258</v>
+        <v>19290.71566048938</v>
       </c>
       <c r="D130">
-        <v>115393.5670615725</v>
+        <v>122098.7156604894</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>140756.0000000001</v>
+        <v>149040.0000000001</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>94145.99999999993</v>
+        <v>95296.00000000009</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>118128</v>
+        <v>157292</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>93918.00000000004</v>
+        <v>86877.99999999993</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>97620.00000000007</v>
+        <v>93844.00000000003</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>177300</v>
+        <v>141250.0000000001</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>70865.99999999999</v>
+        <v>73136.00000000003</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5078,10 +5078,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>3305.348639777112</v>
+        <v>9773.731812096084</v>
       </c>
       <c r="D138">
-        <v>64508.34863977706</v>
+        <v>65024.73181209608</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5092,10 +5092,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>14035.1789279311</v>
+        <v>7060.619106763028</v>
       </c>
       <c r="D139">
-        <v>77903.17892793115</v>
+        <v>83774.61910676303</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5106,10 +5106,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>15927.65987823764</v>
       </c>
       <c r="D140">
-        <v>110920</v>
+        <v>101209.6598782377</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>94075.99999999993</v>
+        <v>147884</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>111137</v>
+        <v>132953.0000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>153960.0000000001</v>
+        <v>137268.0000000001</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5162,10 +5162,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>17041.67240258308</v>
       </c>
       <c r="D144">
-        <v>186135.0000000001</v>
+        <v>135186.6724025831</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5176,10 +5176,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>23399.00538104751</v>
+        <v>32142.66990961239</v>
       </c>
       <c r="D145">
-        <v>130999.0053810475</v>
+        <v>135757.6699096125</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>84905</v>
+        <v>108521</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>143639.9999999999</v>
+        <v>132592.0000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>64734.00000000003</v>
+        <v>65884.99999999997</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>65506</v>
+        <v>70879.00000000004</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5246,10 +5246,10 @@
         <v>151</v>
       </c>
       <c r="C150">
-        <v>19121.5208961242</v>
+        <v>23143.55388581086</v>
       </c>
       <c r="D150">
-        <v>131186.5208961241</v>
+        <v>137198.5538858109</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5260,10 +5260,10 @@
         <v>152</v>
       </c>
       <c r="C151">
-        <v>1306.414038427851</v>
+        <v>8655.351772353875</v>
       </c>
       <c r="D151">
-        <v>64578.41403842784</v>
+        <v>65554.35177235387</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5274,10 +5274,10 @@
         <v>153</v>
       </c>
       <c r="C152">
-        <v>14514.19726395191</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>131489.1972639519</v>
+        <v>141639.9999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>127252.0000000001</v>
+        <v>150984</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5302,10 +5302,10 @@
         <v>155</v>
       </c>
       <c r="C154">
-        <v>4668.468138606957</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>77962.46813860693</v>
+        <v>85772.00000000006</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5316,10 +5316,10 @@
         <v>156</v>
       </c>
       <c r="C155">
-        <v>9362.738974508473</v>
+        <v>15797.67202304296</v>
       </c>
       <c r="D155">
-        <v>61711.73897450845</v>
+        <v>66208.67202304299</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>107464</v>
+        <v>85074.00000000001</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5344,10 +5344,10 @@
         <v>158</v>
       </c>
       <c r="C157">
-        <v>7100.685893739639</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>64684.68589373968</v>
+        <v>62638.00000000006</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>195680.0000000001</v>
+        <v>177330</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>61745.00000000002</v>
+        <v>79157.99999999999</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>121742.0000000001</v>
+        <v>94592.00000000003</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>78566.00000000006</v>
+        <v>105979.9999999999</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>183725</v>
+        <v>113905.0000000001</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5428,10 +5428,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>21839.67876742827</v>
+        <v>11857.38789335763</v>
       </c>
       <c r="D163">
-        <v>82277.6787674283</v>
+        <v>82793.38789335763</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>190540.0000000001</v>
+        <v>110310.0000000001</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>71051</v>
+        <v>61376.99999999998</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>169355.0000000001</v>
+        <v>130944.9999999999</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>92561.00000000007</v>
+        <v>101909.0000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>105350</v>
+        <v>106400.0000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>137582</v>
+        <v>110068.9999999999</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>103676</v>
+        <v>158863.9999999999</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>152547.9999999999</v>
+        <v>135375.9999999999</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5554,10 +5554,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>22084.78338396871</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>115352.7833839688</v>
+        <v>141744</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>149970.0000000001</v>
+        <v>105200</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>179214.9999999999</v>
+        <v>105840</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>112291.9999999999</v>
+        <v>168716</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>76594.99999999999</v>
+        <v>74799.00000000004</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5624,10 +5624,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>4978.500405353145</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>82306.50040535317</v>
+        <v>83699.99999999997</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>88718.00000000007</v>
+        <v>98533.99999999999</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>102317</v>
+        <v>136607.0000000001</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5666,10 +5666,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>9101.692513428963</v>
       </c>
       <c r="D180">
-        <v>86758.00000000006</v>
+        <v>84167.69251342896</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>73661.00000000003</v>
+        <v>61471.99999999999</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5694,10 +5694,10 @@
         <v>183</v>
       </c>
       <c r="C182">
-        <v>16418.30267064853</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>100431.3026706485</v>
+        <v>105024.9999999999</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>118305</v>
+        <v>110909.9999999999</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5722,10 +5722,10 @@
         <v>185</v>
       </c>
       <c r="C184">
-        <v>38660.21073251715</v>
+        <v>13427.58538686193</v>
       </c>
       <c r="D184">
-        <v>133650.2107325172</v>
+        <v>136597.5853868618</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5736,10 +5736,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1983.505982848423</v>
       </c>
       <c r="D185">
-        <v>68323.99999999997</v>
+        <v>62903.50598284846</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5750,10 +5750,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>3976.994157927737</v>
+        <v>12732.32164617239</v>
       </c>
       <c r="D186">
-        <v>61543.99415792771</v>
+        <v>64927.32164617242</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>106633.9999999999</v>
+        <v>86557.99999999993</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>78182.99999999999</v>
+        <v>70672.99999999996</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>94580.00000000006</v>
+        <v>75030.00000000006</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5806,10 +5806,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>23067.15545098162</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>95386.15545098162</v>
+        <v>120505</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5820,10 +5820,10 @@
         <v>192</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>395.4401409358397</v>
       </c>
       <c r="D191">
-        <v>65496</v>
+        <v>66101.44014093588</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>111620</v>
+        <v>96263.00000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>96319.99999999994</v>
+        <v>102707.0000000001</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5862,10 +5862,10 @@
         <v>195</v>
       </c>
       <c r="C194">
-        <v>18536.76195585391</v>
+        <v>4133.692513428992</v>
       </c>
       <c r="D194">
-        <v>78698.76195585396</v>
+        <v>84167.69251342896</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>113764</v>
+        <v>107335</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5890,10 +5890,10 @@
         <v>197</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>32359.27084147139</v>
       </c>
       <c r="D196">
-        <v>117055</v>
+        <v>102413.2708414714</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>108242</v>
+        <v>100966.9999999999</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5918,10 +5918,10 @@
         <v>199</v>
       </c>
       <c r="C198">
-        <v>38457.23963533176</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>118817.2396353318</v>
+        <v>138700</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>108975</v>
+        <v>128060.0000000001</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>171640.0000000001</v>
+        <v>164855</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>129083</v>
+        <v>102680</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>127075.0000000001</v>
+        <v>152325</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5988,10 +5988,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>3535.596844450338</v>
+        <v>8200.967150688259</v>
       </c>
       <c r="D203">
-        <v>79057.59684445035</v>
+        <v>82058.9671506883</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>90524.00000000001</v>
+        <v>168452</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>92013.99999999997</v>
+        <v>91764</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>77859.99999999999</v>
+        <v>60424.00000000002</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>64109.00000000003</v>
+        <v>66246.99999999996</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6058,10 +6058,10 @@
         <v>209</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>2800.67599730139</v>
       </c>
       <c r="D208">
-        <v>69861</v>
+        <v>64840.67599730138</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>135287.9999999999</v>
+        <v>141251.9999999999</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>86388.00000000001</v>
+        <v>77310.00000000003</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6100,10 +6100,10 @@
         <v>212</v>
       </c>
       <c r="C211">
-        <v>32660.51752530276</v>
+        <v>33137.8840683725</v>
       </c>
       <c r="D211">
-        <v>121576.5175253028</v>
+        <v>121437.8840683725</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6114,10 +6114,10 @@
         <v>213</v>
       </c>
       <c r="C212">
-        <v>1425.672078160307</v>
+        <v>1401.979795251857</v>
       </c>
       <c r="D212">
-        <v>77787.67207816037</v>
+        <v>82891.97979525181</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>144831.9999999999</v>
+        <v>169796.0000000001</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6142,10 +6142,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>9970.806847802218</v>
       </c>
       <c r="D214">
-        <v>79118.00000000004</v>
+        <v>85062.80684780223</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>168140.0000000001</v>
+        <v>152614.9999999999</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6170,10 +6170,10 @@
         <v>217</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>21390.14637860397</v>
       </c>
       <c r="D216">
-        <v>181189.9999999999</v>
+        <v>141130.146378604</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6184,10 +6184,10 @@
         <v>218</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>49912.92689268278</v>
       </c>
       <c r="D217">
-        <v>152550.0000000001</v>
+        <v>141692.9268926828</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>111332</v>
+        <v>118491.9999999999</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>114125</v>
+        <v>112996.9999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>101152.0000000001</v>
+        <v>137548.0000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>74103.00000000006</v>
+        <v>72429.99999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>153843.9999999999</v>
+        <v>138672.0000000001</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6268,10 +6268,10 @@
         <v>224</v>
       </c>
       <c r="C223">
-        <v>34500.80868316365</v>
+        <v>24639.48987421161</v>
       </c>
       <c r="D223">
-        <v>120984.8086831636</v>
+        <v>124255.4898742117</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6282,10 +6282,10 @@
         <v>225</v>
       </c>
       <c r="C224">
-        <v>6383.104859537561</v>
+        <v>20091.38513278575</v>
       </c>
       <c r="D224">
-        <v>80877.10485953756</v>
+        <v>81129.38513278576</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>125642.0000000001</v>
+        <v>127709.0000000001</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6310,10 +6310,10 @@
         <v>227</v>
       </c>
       <c r="C226">
-        <v>4613.468953588512</v>
+        <v>0</v>
       </c>
       <c r="D226">
-        <v>61351.46895358856</v>
+        <v>68746</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6324,10 +6324,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>5789.301235222243</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>78433.30123522223</v>
+        <v>93952.00000000001</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6338,10 +6338,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>38701.95338917983</v>
       </c>
       <c r="D228">
-        <v>145955.9999999999</v>
+        <v>125325.9533891798</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>120580</v>
+        <v>111571</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>83291</v>
+        <v>113701.9999999999</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>89573.99999999993</v>
+        <v>80887.99999999994</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>97495.99999999994</v>
+        <v>88522.00000000006</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>156895</v>
+        <v>150315.0000000001</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>177050.0000000001</v>
+        <v>131964.9999999999</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6436,10 +6436,10 @@
         <v>236</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>17321.61891955179</v>
       </c>
       <c r="D235">
-        <v>89703.99999999993</v>
+        <v>81925.61891955181</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6450,10 +6450,10 @@
         <v>237</v>
       </c>
       <c r="C236">
-        <v>32604.46131945678</v>
+        <v>9654.880530906987</v>
       </c>
       <c r="D236">
-        <v>135854.4613194569</v>
+        <v>135439.8805309071</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>105037.9999999999</v>
+        <v>86062.00000000004</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>152149.9999999999</v>
+        <v>163429.9999999999</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>95131.99999999999</v>
+        <v>89755.99999999999</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>68047.00000000004</v>
+        <v>69813.00000000003</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6520,10 +6520,10 @@
         <v>242</v>
       </c>
       <c r="C241">
-        <v>38941.65327380602</v>
+        <v>0</v>
       </c>
       <c r="D241">
-        <v>121017.653273806</v>
+        <v>155023.9999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>109872.0000000001</v>
+        <v>104812</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>114569.0000000001</v>
+        <v>85889.00000000006</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6562,10 +6562,10 @@
         <v>245</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>9004.423180522368</v>
       </c>
       <c r="D244">
-        <v>182520.0000000001</v>
+        <v>142389.4231805225</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>139728</v>
+        <v>168336.0000000001</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>75608.99999999999</v>
+        <v>66978.99999999994</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6604,10 +6604,10 @@
         <v>248</v>
       </c>
       <c r="C247">
-        <v>9009.497584015342</v>
+        <v>0</v>
       </c>
       <c r="D247">
-        <v>64699.49758401533</v>
+        <v>64377.99999999999</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6618,10 +6618,10 @@
         <v>249</v>
       </c>
       <c r="C248">
-        <v>6056.033301062016</v>
+        <v>7953.611507335714</v>
       </c>
       <c r="D248">
-        <v>61301.03330106197</v>
+        <v>64156.61150733575</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>198315.0000000002</v>
+        <v>142920.0000000001</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>124990</v>
+        <v>111430</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>63280.99999999995</v>
+        <v>65324.99999999999</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6674,10 +6674,10 @@
         <v>253</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>8910.435512716052</v>
       </c>
       <c r="D252">
-        <v>150779.9999999999</v>
+        <v>125834.435512716</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>77645.99999999994</v>
+        <v>82898.00000000006</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6702,10 +6702,10 @@
         <v>255</v>
       </c>
       <c r="C254">
-        <v>5963.434855281026</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>118831.4348552811</v>
+        <v>140019.9999999999</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>87948.00000000007</v>
+        <v>72369.99999999999</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>129732</v>
+        <v>96764.00000000001</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6744,10 +6744,10 @@
         <v>258</v>
       </c>
       <c r="C257">
-        <v>8899.376186527879</v>
+        <v>0</v>
       </c>
       <c r="D257">
-        <v>118855.3761865278</v>
+        <v>142776.0000000001</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6758,10 +6758,10 @@
         <v>259</v>
       </c>
       <c r="C258">
-        <v>19254.27689225158</v>
+        <v>2851.572353973621</v>
       </c>
       <c r="D258">
-        <v>115638.2768922516</v>
+        <v>123999.5723539736</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>179255.0000000001</v>
+        <v>160170</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6786,10 +6786,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>3900.8544146473</v>
+        <v>888.3810017173018</v>
       </c>
       <c r="D260">
-        <v>61737.85441464733</v>
+        <v>66423.38100171735</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6800,10 +6800,10 @@
         <v>262</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>7852.81006695838</v>
       </c>
       <c r="D261">
-        <v>89015.99999999996</v>
+        <v>82490.81006695844</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>110185</v>
+        <v>141955</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>191690.0000000001</v>
+        <v>124465</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6842,10 +6842,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>4181.978324463009</v>
+        <v>11763.26127248848</v>
       </c>
       <c r="D264">
-        <v>99414.97832446294</v>
+        <v>102562.2612724886</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>104656.0000000001</v>
+        <v>112756.0000000001</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6870,10 +6870,10 @@
         <v>267</v>
       </c>
       <c r="C266">
-        <v>5490.25655537883</v>
+        <v>0</v>
       </c>
       <c r="D266">
-        <v>130555.2565553789</v>
+        <v>187179.9999999999</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6884,10 +6884,10 @@
         <v>268</v>
       </c>
       <c r="C267">
-        <v>6038.283173370466</v>
+        <v>0</v>
       </c>
       <c r="D267">
-        <v>61467.28317337045</v>
+        <v>69229</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6898,10 +6898,10 @@
         <v>269</v>
       </c>
       <c r="C268">
-        <v>18554.23717890905</v>
+        <v>9776.269231692044</v>
       </c>
       <c r="D268">
-        <v>81182.23717890907</v>
+        <v>84482.26923169207</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>134935</v>
+        <v>183785.0000000001</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>62646.99999999998</v>
+        <v>69476.00000000001</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>154952</v>
+        <v>104304</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6954,10 +6954,10 @@
         <v>273</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>7295.029630117569</v>
       </c>
       <c r="D272">
-        <v>163899.9999999999</v>
+        <v>136375.0296301176</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6968,10 +6968,10 @@
         <v>274</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>2298.838058170899</v>
       </c>
       <c r="D273">
-        <v>68296.99999999999</v>
+        <v>65086.83805817092</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6982,10 +6982,10 @@
         <v>275</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>3495.665501570358</v>
       </c>
       <c r="D274">
-        <v>61293.99999999996</v>
+        <v>64994.66550157037</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>117385.0000000001</v>
+        <v>181379.9999999999</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>123292</v>
+        <v>142796</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>72257.99999999996</v>
+        <v>76448.00000000006</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>147325</v>
+        <v>173025.0000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>148315</v>
+        <v>143414.9999999999</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>77165.99999999994</v>
+        <v>74311.99999999994</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>68148.00000000004</v>
+        <v>62094</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7094,10 +7094,10 @@
         <v>283</v>
       </c>
       <c r="C282">
-        <v>3192.814694808854</v>
+        <v>22122.30446184764</v>
       </c>
       <c r="D282">
-        <v>96448.81469480881</v>
+        <v>101374.3044618477</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7108,10 +7108,10 @@
         <v>284</v>
       </c>
       <c r="C283">
-        <v>26557.12015599276</v>
+        <v>0</v>
       </c>
       <c r="D283">
-        <v>99143.12015599277</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7122,10 +7122,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>3082.829725278745</v>
+        <v>15913.95817092327</v>
       </c>
       <c r="D284">
-        <v>96020.82972527876</v>
+        <v>101210.9581709233</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7136,10 +7136,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>15128.93050036763</v>
+        <v>2282.429531568283</v>
       </c>
       <c r="D285">
-        <v>78508.93050036757</v>
+        <v>81620.4295315683</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>155392</v>
+        <v>120823.9999999999</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7164,10 +7164,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>4699.104859537576</v>
+        <v>2299.385132785726</v>
       </c>
       <c r="D287">
-        <v>80877.10485953756</v>
+        <v>81129.38513278576</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7178,10 +7178,10 @@
         <v>289</v>
       </c>
       <c r="C288">
-        <v>8401.760358973108</v>
+        <v>1183.658648203185</v>
       </c>
       <c r="D288">
-        <v>61538.76035897312</v>
+        <v>63998.65864820318</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>99734.00000000006</v>
+        <v>89634.00000000006</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>64151.00000000004</v>
+        <v>68432.00000000006</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>81193.99999999996</v>
+        <v>123647</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7234,10 +7234,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>18237.65146319044</v>
+        <v>7849.941407198276</v>
       </c>
       <c r="D292">
-        <v>80245.65146319044</v>
+        <v>83203.94140719826</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>116707.9999999999</v>
+        <v>125872</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>95275.99999999996</v>
+        <v>99658.99999999993</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7276,10 +7276,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>39786.31263242142</v>
       </c>
       <c r="D295">
-        <v>154351.9999999999</v>
+        <v>125250.3126324214</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>107268.0000000001</v>
+        <v>113420.0000000001</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>178235</v>
+        <v>140139.9999999999</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7318,10 +7318,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>45642.06229690861</v>
       </c>
       <c r="D298">
-        <v>153235</v>
+        <v>138052.0622969086</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>69382</v>
+        <v>64595.99999999995</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7346,10 +7346,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>12054.30916091258</v>
       </c>
       <c r="D300">
-        <v>67099.00000000004</v>
+        <v>62167.30916091258</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>118648.0000000001</v>
+        <v>144403.9999999999</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7374,10 +7374,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>0</v>
+        <v>13656.51245447386</v>
       </c>
       <c r="D302">
-        <v>97696.00000000009</v>
+        <v>102343.5124544739</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7388,10 +7388,10 @@
         <v>304</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>10042.32153630443</v>
       </c>
       <c r="D303">
-        <v>135892</v>
+        <v>124262.3215363044</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7402,10 +7402,10 @@
         <v>305</v>
       </c>
       <c r="C304">
-        <v>34418.74537513625</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>137878.7453751362</v>
+        <v>143240</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>93687.99999999991</v>
+        <v>161388.0000000001</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7430,10 +7430,10 @@
         <v>307</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>3785.414724436894</v>
       </c>
       <c r="D306">
-        <v>116761.0000000001</v>
+        <v>99261.41472443697</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>135068.0000000001</v>
+        <v>107777</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7458,10 +7458,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>26159.82536702006</v>
       </c>
       <c r="D308">
-        <v>103693</v>
+        <v>99666.82536702011</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>82510.00000000006</v>
+        <v>98388.00000000001</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7486,10 +7486,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>7727.443712847766</v>
+        <v>0</v>
       </c>
       <c r="D310">
-        <v>63484.44371284781</v>
+        <v>68796</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>116284.9999999999</v>
+        <v>173940.0000000001</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>157714.9999999999</v>
+        <v>160180</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7528,10 +7528,10 @@
         <v>314</v>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>38184.11615103466</v>
       </c>
       <c r="D313">
-        <v>137851.9999999999</v>
+        <v>122112.1161510347</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>95131.99999999999</v>
+        <v>104012</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7556,10 +7556,10 @@
         <v>316</v>
       </c>
       <c r="C315">
-        <v>0</v>
+        <v>13383.71047937615</v>
       </c>
       <c r="D315">
-        <v>64041.00000000001</v>
+        <v>64131.71047937615</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7570,10 +7570,10 @@
         <v>317</v>
       </c>
       <c r="C316">
-        <v>10405.30271202549</v>
+        <v>1018.499126987183</v>
       </c>
       <c r="D316">
-        <v>64427.30271202546</v>
+        <v>64444.49912698716</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>114050.0000000001</v>
+        <v>189555.0000000002</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>186140</v>
+        <v>141059.9999999999</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7612,10 +7612,10 @@
         <v>320</v>
       </c>
       <c r="C319">
-        <v>4382.250039540799</v>
+        <v>12423.41685869949</v>
       </c>
       <c r="D319">
-        <v>60845.25003954077</v>
+        <v>64047.41685869953</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>126315</v>
+        <v>150489.9999999999</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7640,10 +7640,10 @@
         <v>322</v>
       </c>
       <c r="C321">
-        <v>15035.84045730716</v>
+        <v>0</v>
       </c>
       <c r="D321">
-        <v>121483.8404573072</v>
+        <v>134520</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>119930</v>
+        <v>132545</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>106043</v>
+        <v>86308.99999999996</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>141652</v>
+        <v>95636.00000000006</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>76649.99999999999</v>
+        <v>67444.99999999996</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>79271.99999999999</v>
+        <v>61860</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>71454.00000000001</v>
+        <v>61159.99999999996</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7738,10 +7738,10 @@
         <v>329</v>
       </c>
       <c r="C328">
-        <v>0</v>
+        <v>7976.088280761622</v>
       </c>
       <c r="D328">
-        <v>64465.00000000005</v>
+        <v>63818.08828076161</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7752,10 +7752,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>13659.11093134908</v>
+        <v>0</v>
       </c>
       <c r="D329">
-        <v>78831.11093134906</v>
+        <v>90136.00000000003</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7766,10 +7766,10 @@
         <v>331</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>3630.222418012854</v>
       </c>
       <c r="D330">
-        <v>155489.9999999999</v>
+        <v>136270.2224180129</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>160223.9999999999</v>
+        <v>148988</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>65612.00000000004</v>
+        <v>74703.99999999994</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7808,10 +7808,10 @@
         <v>334</v>
       </c>
       <c r="C333">
-        <v>27589.67104066607</v>
+        <v>10763.63472401521</v>
       </c>
       <c r="D333">
-        <v>99344.67104066603</v>
+        <v>102060.6347240152</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>87815.00000000007</v>
+        <v>86728.99999999996</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7836,10 +7836,10 @@
         <v>336</v>
       </c>
       <c r="C335">
-        <v>8710.361845466381</v>
+        <v>0</v>
       </c>
       <c r="D335">
-        <v>78468.36184546634</v>
+        <v>84366</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>99507.99999999994</v>
+        <v>82229.99999999999</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7864,10 +7864,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>191.4173746841116</v>
+        <v>0</v>
       </c>
       <c r="D337">
-        <v>99054.41737468414</v>
+        <v>106786</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>138339.9999999999</v>
+        <v>184899.9999999999</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7892,10 +7892,10 @@
         <v>340</v>
       </c>
       <c r="C339">
-        <v>4893.519173852474</v>
+        <v>0</v>
       </c>
       <c r="D339">
-        <v>83071.51917385253</v>
+        <v>87130.00000000004</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>60221.99999999995</v>
+        <v>60908.99999999999</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>74889.00000000006</v>
+        <v>67552</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>128248.0000000001</v>
+        <v>167648.0000000001</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>162385.0000000001</v>
+        <v>190490.0000000001</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>99034.00000000004</v>
+        <v>106094</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="D345">
-        <v>159895.9999999999</v>
+        <v>143856.0000000001</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>347</v>
       </c>
       <c r="C346">
-        <v>0</v>
+        <v>15277.84958302767</v>
       </c>
       <c r="D346">
-        <v>92113.99999999999</v>
+        <v>83355.84958302762</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>166550.0000000001</v>
+        <v>100229.9999999999</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8018,10 +8018,10 @@
         <v>349</v>
       </c>
       <c r="C348">
-        <v>3863.337135617381</v>
+        <v>2670.635034213774</v>
       </c>
       <c r="D348">
-        <v>61783.33713561734</v>
+        <v>62992.63503421372</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8032,10 +8032,10 @@
         <v>350</v>
       </c>
       <c r="C349">
-        <v>9460.696569056556</v>
+        <v>0</v>
       </c>
       <c r="D349">
-        <v>99413.69656905661</v>
+        <v>116451.9999999999</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="D350">
-        <v>156609.9999999999</v>
+        <v>180300</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>87542.00000000006</v>
+        <v>84580.99999999994</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>144635.0000000001</v>
+        <v>160570.0000000001</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="D353">
-        <v>153968.0000000001</v>
+        <v>137139.9999999999</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>103165</v>
+        <v>161210.0000000001</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="D355">
-        <v>101824</v>
+        <v>158008.0000000001</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>357</v>
       </c>
       <c r="C356">
-        <v>7190.383881729198</v>
+        <v>0</v>
       </c>
       <c r="D356">
-        <v>80106.38388172917</v>
+        <v>99525.99999999999</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>80850.00000000001</v>
+        <v>71104</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8158,10 +8158,10 @@
         <v>359</v>
       </c>
       <c r="C358">
-        <v>7294.072815334788</v>
+        <v>0</v>
       </c>
       <c r="D358">
-        <v>96089.07281533479</v>
+        <v>106491.9999999999</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>118931.9999999999</v>
+        <v>163688.0000000001</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="D360">
-        <v>69562.99999999996</v>
+        <v>76213</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="D361">
-        <v>108994</v>
+        <v>102190</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="D362">
-        <v>138122.0000000001</v>
+        <v>117473.0000000001</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8228,10 +8228,10 @@
         <v>364</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>3972.062296908494</v>
       </c>
       <c r="D363">
-        <v>189289.9999999999</v>
+        <v>138052.0622969086</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8242,10 +8242,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>11016.10723072295</v>
+        <v>0</v>
       </c>
       <c r="D364">
-        <v>78324.10723072292</v>
+        <v>97733.99999999991</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>60828.00000000001</v>
+        <v>63897.00000000001</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>127128.0000000001</v>
+        <v>141092</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="D367">
-        <v>92182.00000000006</v>
+        <v>103740</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="D368">
-        <v>67527.00000000001</v>
+        <v>78520</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8312,10 +8312,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>4267.729586993955</v>
+        <v>0</v>
       </c>
       <c r="D369">
-        <v>95516.72958699396</v>
+        <v>114051.9999999999</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="D370">
-        <v>84521</v>
+        <v>116314.9999999999</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="D371">
-        <v>139630.0000000001</v>
+        <v>102510</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="D372">
-        <v>120799.0000000001</v>
+        <v>120559.0000000001</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="D373">
-        <v>70701.99999999996</v>
+        <v>76066.99999999994</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>96094.00000000009</v>
+        <v>79675.99999999997</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8396,10 +8396,10 @@
         <v>376</v>
       </c>
       <c r="C375">
-        <v>1806.77531082464</v>
+        <v>19851.31490290702</v>
       </c>
       <c r="D375">
-        <v>98287.77531082467</v>
+        <v>101173.314902907</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8410,10 +8410,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>28638.33994155447</v>
+        <v>6043.801551737168</v>
       </c>
       <c r="D376">
-        <v>134473.3399415544</v>
+        <v>135603.8015517371</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="D377">
-        <v>143009.9999999999</v>
+        <v>167100</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>72418</v>
+        <v>67949.00000000003</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>130088</v>
+        <v>133996</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="D380">
-        <v>65501.99999999996</v>
+        <v>60566.99999999998</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8480,10 +8480,10 @@
         <v>382</v>
       </c>
       <c r="C381">
-        <v>20315.09571534967</v>
+        <v>35114.26008848405</v>
       </c>
       <c r="D381">
-        <v>119739.0957153497</v>
+        <v>122310.260088484</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="D382">
-        <v>63125.99999999999</v>
+        <v>68986.99999999994</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="D383">
-        <v>76293.00000000003</v>
+        <v>64435.99999999996</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8522,10 +8522,10 @@
         <v>385</v>
       </c>
       <c r="C384">
-        <v>21598.76505739997</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>99866.7650574</v>
+        <v>116719.0000000001</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>98126.00000000006</v>
+        <v>103474.0000000001</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>169529.9999999999</v>
+        <v>172925</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="D387">
-        <v>148530</v>
+        <v>138124.9999999999</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="D388">
-        <v>100988</v>
+        <v>136030.9999999999</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>90040.00000000004</v>
+        <v>99782.00000000007</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8606,10 +8606,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>2271.091166839164</v>
+        <v>8953.481182506177</v>
       </c>
       <c r="D390">
-        <v>80087.09116683919</v>
+        <v>82057.48118250612</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="D391">
-        <v>108199.9999999999</v>
+        <v>182520.0000000001</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>161755</v>
+        <v>129130.0000000001</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>74203</v>
+        <v>65447.00000000004</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>75246.00000000006</v>
+        <v>85881.99999999999</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8676,10 +8676,10 @@
         <v>396</v>
       </c>
       <c r="C395">
-        <v>461.5032434638924</v>
+        <v>4726.079984997385</v>
       </c>
       <c r="D395">
-        <v>63667.50324346391</v>
+        <v>62766.07998499741</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>102239.9999999999</v>
+        <v>146483.9999999999</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="D397">
-        <v>98871.99999999993</v>
+        <v>122008.0000000001</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8718,10 +8718,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>0</v>
+        <v>32169.72513008369</v>
       </c>
       <c r="D398">
-        <v>102727</v>
+        <v>104788.7251300837</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="D399">
-        <v>162560</v>
+        <v>111916</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="D400">
-        <v>127960</v>
+        <v>149395</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>77864.99999999993</v>
+        <v>73269</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8774,10 +8774,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>19505.50512522053</v>
+        <v>0</v>
       </c>
       <c r="D402">
-        <v>96666.50512522059</v>
+        <v>104464</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>65699.00000000001</v>
+        <v>70489.99999999999</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8802,10 +8802,10 @@
         <v>405</v>
       </c>
       <c r="C404">
-        <v>0</v>
+        <v>2291.854887210022</v>
       </c>
       <c r="D404">
-        <v>62279.99999999997</v>
+        <v>66047.85488720998</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>128350</v>
+        <v>126774.9999999999</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8830,10 +8830,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>18105.30033770087</v>
+        <v>0</v>
       </c>
       <c r="D406">
-        <v>119713.3003377009</v>
+        <v>128480</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8844,10 +8844,10 @@
         <v>408</v>
       </c>
       <c r="C407">
-        <v>4435.060783211316</v>
+        <v>0</v>
       </c>
       <c r="D407">
-        <v>118915.0607832113</v>
+        <v>128311.9999999999</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="D408">
-        <v>95273</v>
+        <v>111176</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="D409">
-        <v>75879.99999999999</v>
+        <v>85929.99999999994</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8886,10 +8886,10 @@
         <v>411</v>
       </c>
       <c r="C410">
-        <v>0</v>
+        <v>3154.292824823249</v>
       </c>
       <c r="D410">
-        <v>82924</v>
+        <v>83136.29282482323</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="D411">
-        <v>168411.9999999999</v>
+        <v>109195.9999999999</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8914,10 +8914,10 @@
         <v>413</v>
       </c>
       <c r="C412">
-        <v>0</v>
+        <v>2941.50618738441</v>
       </c>
       <c r="D412">
-        <v>123090.9999999999</v>
+        <v>103208.5061873845</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="D413">
-        <v>103112.0000000001</v>
+        <v>128438</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8942,10 +8942,10 @@
         <v>415</v>
       </c>
       <c r="C414">
-        <v>43918.13962880435</v>
+        <v>0</v>
       </c>
       <c r="D414">
-        <v>136823.1396288043</v>
+        <v>180024.9999999999</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>96584.00000000007</v>
+        <v>98261.99999999996</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="D416">
-        <v>164367.9999999999</v>
+        <v>111059.9999999999</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="D417">
-        <v>101623.9999999999</v>
+        <v>89692.00000000001</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="D418">
-        <v>76240.00000000001</v>
+        <v>70156.99999999994</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>126599.9999999999</v>
+        <v>148600.0000000001</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>133859</v>
+        <v>113078</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>83161.99999999996</v>
+        <v>103463</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>90046.99999999993</v>
+        <v>114935</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9068,10 +9068,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>10237.01069072652</v>
+        <v>0</v>
       </c>
       <c r="D423">
-        <v>61602.01069072651</v>
+        <v>68006.99999999997</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>72170.00000000004</v>
+        <v>92614.00000000006</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <v>73889.99999999997</v>
+        <v>76915.00000000001</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9110,10 +9110,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>15459.84386822543</v>
+        <v>0</v>
       </c>
       <c r="D426">
-        <v>99466.84386822543</v>
+        <v>109287.9999999999</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <v>111590</v>
+        <v>91097.00000000006</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <v>151183.9999999999</v>
+        <v>92519.99999999996</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>76346.00000000006</v>
+        <v>79233.00000000001</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <v>191719.9999999999</v>
+        <v>153769.9999999999</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>432</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>4400.509992496518</v>
       </c>
       <c r="D431">
-        <v>177115.0000000001</v>
+        <v>139295.5099924965</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9194,10 +9194,10 @@
         <v>433</v>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>27860.797496218</v>
       </c>
       <c r="D432">
-        <v>181645.0000000001</v>
+        <v>135270.7974962179</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="D433">
-        <v>156409.9999999999</v>
+        <v>157510</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9222,10 +9222,10 @@
         <v>435</v>
       </c>
       <c r="C434">
-        <v>16470.13707011633</v>
+        <v>0</v>
       </c>
       <c r="D434">
-        <v>80350.13707011631</v>
+        <v>87105.99999999996</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="D435">
-        <v>117600</v>
+        <v>121480</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9250,10 +9250,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>6343.355971551762</v>
+        <v>0</v>
       </c>
       <c r="D436">
-        <v>82535.3559715517</v>
+        <v>96958.00000000006</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <v>87580.00000000007</v>
+        <v>78295.99999999999</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9278,10 +9278,10 @@
         <v>439</v>
       </c>
       <c r="C438">
-        <v>10339.6438137807</v>
+        <v>0</v>
       </c>
       <c r="D438">
-        <v>81033.64381378067</v>
+        <v>98218.00000000001</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9292,10 +9292,10 @@
         <v>440</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>5991.386954981557</v>
       </c>
       <c r="D439">
-        <v>141287.9999999999</v>
+        <v>128579.3869549815</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>66945</v>
+        <v>63562.99999999995</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>76120.00000000007</v>
+        <v>78837</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="D442">
-        <v>87362</v>
+        <v>122794.9999999999</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9348,10 +9348,10 @@
         <v>444</v>
       </c>
       <c r="C443">
-        <v>3552.012986755421</v>
+        <v>8114.766353845596</v>
       </c>
       <c r="D443">
-        <v>101350.0129867553</v>
+        <v>102918.7663538457</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9362,10 +9362,10 @@
         <v>445</v>
       </c>
       <c r="C444">
-        <v>20130.43044288299</v>
+        <v>31623.71071048737</v>
       </c>
       <c r="D444">
-        <v>118942.430442883</v>
+        <v>121859.7107104874</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <v>132674.9999999999</v>
+        <v>171349.9999999999</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="D446">
-        <v>129059</v>
+        <v>103820</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D447">
-        <v>90815.99999999996</v>
+        <v>145364.0000000001</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="D448">
-        <v>83939.99999999994</v>
+        <v>89380.00000000001</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9432,10 +9432,10 @@
         <v>450</v>
       </c>
       <c r="C449">
-        <v>11130.30395892927</v>
+        <v>3979.439272663556</v>
       </c>
       <c r="D449">
-        <v>61400.30395892926</v>
+        <v>64893.43927266352</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>120209.0000000001</v>
+        <v>131356.9999999999</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="D451">
-        <v>123410</v>
+        <v>179470</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="D452">
-        <v>133519.9999999999</v>
+        <v>136591.9999999999</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <v>90314.00000000006</v>
+        <v>137366</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9502,10 +9502,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>910.5096397920133</v>
+        <v>2123.692790219589</v>
       </c>
       <c r="D454">
-        <v>63350.509639792</v>
+        <v>63302.69279021964</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <v>156428</v>
+        <v>151764</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="D456">
-        <v>115208.0000000001</v>
+        <v>89609.00000000007</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>106130.0000000001</v>
+        <v>92160.00000000007</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9558,10 +9558,10 @@
         <v>459</v>
       </c>
       <c r="C458">
-        <v>0</v>
+        <v>7125.626715437786</v>
       </c>
       <c r="D458">
-        <v>94306.00000000006</v>
+        <v>82459.62671543779</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9572,10 +9572,10 @@
         <v>460</v>
       </c>
       <c r="C459">
-        <v>4064.71348656698</v>
+        <v>0</v>
       </c>
       <c r="D459">
-        <v>100614.7134865669</v>
+        <v>103251.9999999999</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9586,10 +9586,10 @@
         <v>461</v>
       </c>
       <c r="C460">
-        <v>0</v>
+        <v>5412.395628242812</v>
       </c>
       <c r="D460">
-        <v>129904</v>
+        <v>102499.3956282428</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9600,10 +9600,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>4001.183892492554</v>
+        <v>1011.044514454814</v>
       </c>
       <c r="D461">
-        <v>82753.18389249248</v>
+        <v>84707.04451445476</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9614,10 +9614,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>0</v>
+        <v>19500.2713765011</v>
       </c>
       <c r="D462">
-        <v>151595.9999999999</v>
+        <v>122452.271376501</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="D463">
-        <v>76417.99999999993</v>
+        <v>79488.00000000006</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="D464">
-        <v>143451.9999999999</v>
+        <v>130104</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>177190</v>
+        <v>167120.0000000001</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>148519.9999999999</v>
+        <v>110028</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>115564.0000000001</v>
+        <v>155187.9999999999</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>77846.99999999997</v>
+        <v>74760.99999999994</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9712,10 +9712,10 @@
         <v>470</v>
       </c>
       <c r="C469">
-        <v>35211.97559207758</v>
+        <v>17482.87338247237</v>
       </c>
       <c r="D469">
-        <v>137406.9755920777</v>
+        <v>140207.8733824725</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9726,10 +9726,10 @@
         <v>471</v>
       </c>
       <c r="C470">
-        <v>10317.40421973249</v>
+        <v>8016.091647041016</v>
       </c>
       <c r="D470">
-        <v>101419.4042197325</v>
+        <v>103423.0916470411</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>155208.0000000001</v>
+        <v>114688</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="D472">
-        <v>130363.9999999999</v>
+        <v>133640</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <v>137374.9999999999</v>
+        <v>152219.9999999999</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9782,10 +9782,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>4275.418142718059</v>
+        <v>35722.61307577099</v>
       </c>
       <c r="D474">
-        <v>121507.4181427181</v>
+        <v>125790.613075771</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <v>93398.00000000009</v>
+        <v>102929.0000000001</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="D476">
-        <v>74924.00000000001</v>
+        <v>92145.99999999997</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <v>77785</v>
+        <v>65719.00000000003</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>100348.0000000001</v>
+        <v>136651.9999999999</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>89336.00000000003</v>
+        <v>119663</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9866,10 +9866,10 @@
         <v>481</v>
       </c>
       <c r="C480">
-        <v>1630.963085675801</v>
+        <v>2065.914520776088</v>
       </c>
       <c r="D480">
-        <v>80938.96308567577</v>
+        <v>84089.9145207761</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9880,10 +9880,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>7409.096730824676</v>
+        <v>12506.44150864461</v>
       </c>
       <c r="D481">
-        <v>80191.09673082473</v>
+        <v>82798.44150864458</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9894,10 +9894,10 @@
         <v>483</v>
       </c>
       <c r="C482">
-        <v>7124.85222042448</v>
+        <v>0</v>
       </c>
       <c r="D482">
-        <v>81916.85222042451</v>
+        <v>99090.00000000006</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <v>90714</v>
+        <v>95869.99999999999</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="D484">
-        <v>138023.0000000001</v>
+        <v>129983</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>108272</v>
+        <v>127092.0000000001</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="D486">
-        <v>79923.00000000004</v>
+        <v>61797.00000000002</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <v>192669.9999999999</v>
+        <v>175659.9999999999</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="D488">
-        <v>97875.99999999997</v>
+        <v>162063.9999999999</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9992,10 +9992,10 @@
         <v>490</v>
       </c>
       <c r="C489">
-        <v>9805.904362362606</v>
+        <v>0</v>
       </c>
       <c r="D489">
-        <v>63332.90436236257</v>
+        <v>69326.00000000004</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="D490">
-        <v>131689.9999999999</v>
+        <v>99029.00000000006</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10020,10 +10020,10 @@
         <v>492</v>
       </c>
       <c r="C491">
-        <v>0</v>
+        <v>31308.71562717338</v>
       </c>
       <c r="D491">
-        <v>118771</v>
+        <v>102337.7156271734</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10034,10 +10034,10 @@
         <v>493</v>
       </c>
       <c r="C492">
-        <v>22095.15971136508</v>
+        <v>0</v>
       </c>
       <c r="D492">
-        <v>138600.1597113652</v>
+        <v>142664.9999999999</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>151530.0000000001</v>
+        <v>105395.0000000001</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10062,10 +10062,10 @@
         <v>495</v>
       </c>
       <c r="C494">
-        <v>7239.073819348123</v>
+        <v>37240.99038067921</v>
       </c>
       <c r="D494">
-        <v>120443.0738193482</v>
+        <v>123636.9903806793</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="D495">
-        <v>120013.9999999999</v>
+        <v>101738.0000000001</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10090,10 +10090,10 @@
         <v>497</v>
       </c>
       <c r="C496">
-        <v>6398.045486132047</v>
+        <v>3483.84413226544</v>
       </c>
       <c r="D496">
-        <v>78788.04548613206</v>
+        <v>84855.84413226538</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="D497">
-        <v>67727.99999999996</v>
+        <v>65992.99999999996</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10118,10 +10118,10 @@
         <v>499</v>
       </c>
       <c r="C498">
-        <v>0</v>
+        <v>17247.14050316184</v>
       </c>
       <c r="D498">
-        <v>90923.99999999999</v>
+        <v>82163.14050316185</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>139765.9999999999</v>
+        <v>132980</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10149,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="D500">
-        <v>102097</v>
+        <v>105805</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>136019.0000000001</v>
+        <v>102935</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>75131.00000000006</v>
+        <v>77451.99999999993</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>70386.00000000001</v>
+        <v>79611.99999999993</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>62121.00000000005</v>
+        <v>66392.99999999997</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="D505">
-        <v>122161</v>
+        <v>115582</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="D506">
-        <v>101900</v>
+        <v>87953.99999999994</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>94759.99999999996</v>
+        <v>133913.0000000001</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>66435</v>
+        <v>77181.00000000003</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>105092</v>
+        <v>75621.99999999994</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>98416.00000000003</v>
+        <v>137371.9999999999</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10300,10 +10300,10 @@
         <v>512</v>
       </c>
       <c r="C511">
-        <v>0</v>
+        <v>20202.89880421244</v>
       </c>
       <c r="D511">
-        <v>86380.00000000006</v>
+        <v>84550.89880421241</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>157714.9999999999</v>
+        <v>150410</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10328,10 +10328,10 @@
         <v>514</v>
       </c>
       <c r="C513">
-        <v>0</v>
+        <v>21680.03364849247</v>
       </c>
       <c r="D513">
-        <v>95576.00000000006</v>
+        <v>82696.03364849248</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10342,10 +10342,10 @@
         <v>515</v>
       </c>
       <c r="C514">
-        <v>0</v>
+        <v>11930.6661743439</v>
       </c>
       <c r="D514">
-        <v>67768.00000000004</v>
+        <v>65877.66617434387</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10356,10 +10356,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>14364.98391199906</v>
+        <v>0</v>
       </c>
       <c r="D515">
-        <v>81348.98391199911</v>
+        <v>95784.00000000007</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10373,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>100123.0000000001</v>
+        <v>114445</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10384,10 +10384,10 @@
         <v>518</v>
       </c>
       <c r="C517">
-        <v>47356.96399225354</v>
+        <v>0</v>
       </c>
       <c r="D517">
-        <v>138031.9639922535</v>
+        <v>185099.9999999999</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>91298.00000000004</v>
+        <v>112004.0000000001</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>73906.99999999999</v>
+        <v>76711.00000000004</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="D520">
-        <v>110332.9999999999</v>
+        <v>136787.0000000001</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>80638</v>
+        <v>107678</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10454,10 +10454,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>33425.84477040518</v>
+        <v>0</v>
       </c>
       <c r="D522">
-        <v>133885.8447704052</v>
+        <v>167994.9999999999</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10468,10 +10468,10 @@
         <v>524</v>
       </c>
       <c r="C523">
-        <v>37156.2781995312</v>
+        <v>28548.81070181385</v>
       </c>
       <c r="D523">
-        <v>130601.2781995312</v>
+        <v>136873.8107018138</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>92388</v>
+        <v>109366.0000000001</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>141255.9999999999</v>
+        <v>126067.9999999999</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>111021.9999999999</v>
+        <v>103510.0000000001</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10524,10 +10524,10 @@
         <v>528</v>
       </c>
       <c r="C527">
-        <v>29451.1130600179</v>
+        <v>18710.18055545153</v>
       </c>
       <c r="D527">
-        <v>99472.11306001786</v>
+        <v>102981.1805554515</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10538,10 +10538,10 @@
         <v>529</v>
       </c>
       <c r="C528">
-        <v>19492.01416209606</v>
+        <v>1413.790300805078</v>
       </c>
       <c r="D528">
-        <v>81100.01416209605</v>
+        <v>83865.79030080502</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="D529">
-        <v>77119.99999999997</v>
+        <v>74097.99999999994</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10566,10 +10566,10 @@
         <v>531</v>
       </c>
       <c r="C530">
-        <v>0</v>
+        <v>16351.33158242346</v>
       </c>
       <c r="D530">
-        <v>96532.00000000006</v>
+        <v>84445.33158242345</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>87859.99999999994</v>
+        <v>126698</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>161030</v>
+        <v>186475.0000000001</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>76879.00000000003</v>
+        <v>61507.00000000001</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="D534">
-        <v>130000.0000000001</v>
+        <v>160425</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="D535">
-        <v>155360</v>
+        <v>154780</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="D536">
-        <v>170494.9999999999</v>
+        <v>169659.9999999999</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10664,10 +10664,10 @@
         <v>538</v>
       </c>
       <c r="C537">
-        <v>15706.55421015424</v>
+        <v>11339.11618911395</v>
       </c>
       <c r="D537">
-        <v>81922.55421015427</v>
+        <v>82563.11618911398</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="D538">
-        <v>107688.0000000001</v>
+        <v>136952</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>63248.99999999999</v>
+        <v>71995.00000000004</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>72686.00000000001</v>
+        <v>108794</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10720,10 +10720,10 @@
         <v>542</v>
       </c>
       <c r="C541">
-        <v>15505.92549613414</v>
+        <v>28078.3070709266</v>
       </c>
       <c r="D541">
-        <v>98168.92549613415</v>
+        <v>99902.30707092657</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10734,10 +10734,10 @@
         <v>543</v>
       </c>
       <c r="C542">
-        <v>5792.32010010974</v>
+        <v>10930.56124429778</v>
       </c>
       <c r="D542">
-        <v>63208.32010010975</v>
+        <v>62482.56124429774</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10748,10 +10748,10 @@
         <v>544</v>
       </c>
       <c r="C543">
-        <v>40344.47667959318</v>
+        <v>0</v>
       </c>
       <c r="D543">
-        <v>135879.4766795932</v>
+        <v>165949.9999999999</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10762,10 +10762,10 @@
         <v>545</v>
       </c>
       <c r="C544">
-        <v>0</v>
+        <v>4506.933847055639</v>
       </c>
       <c r="D544">
-        <v>90046.00000000004</v>
+        <v>84652.93384705565</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>60974.00000000003</v>
+        <v>64864.99999999999</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="D546">
-        <v>120603.9999999999</v>
+        <v>154796.0000000001</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>70227.99999999997</v>
+        <v>63655.99999999999</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10818,10 +10818,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>0</v>
+        <v>30437.67762580531</v>
       </c>
       <c r="D548">
-        <v>169244.9999999999</v>
+        <v>133447.6776258053</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10832,10 +10832,10 @@
         <v>550</v>
       </c>
       <c r="C549">
-        <v>0</v>
+        <v>30187.3220402372</v>
       </c>
       <c r="D549">
-        <v>148024.9999999999</v>
+        <v>133727.3220402372</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>130430.0000000001</v>
+        <v>116879</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>89441.99999999993</v>
+        <v>91896.00000000006</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10874,10 +10874,10 @@
         <v>553</v>
       </c>
       <c r="C552">
-        <v>14346.21708659783</v>
+        <v>0</v>
       </c>
       <c r="D552">
-        <v>135011.2170865978</v>
+        <v>170789.9999999999</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>103189.9999999999</v>
+        <v>125152.9999999999</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>133940</v>
+        <v>130271.9999999999</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <v>66101.99999999994</v>
+        <v>73326.00000000006</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10930,10 +10930,10 @@
         <v>557</v>
       </c>
       <c r="C556">
-        <v>6890.736608348998</v>
+        <v>7662.6894036515</v>
       </c>
       <c r="D556">
-        <v>64640.73660834895</v>
+        <v>64974.68940365145</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>89501.99999999997</v>
+        <v>93874.00000000007</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>95618</v>
+        <v>108544</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>61056.99999999997</v>
+        <v>60471.99999999996</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>98630</v>
+        <v>132577.9999999999</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>147012.0000000001</v>
+        <v>110588</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>138025.9999999999</v>
+        <v>101161.9999999999</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11028,10 +11028,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>21140.99594253261</v>
+        <v>0</v>
       </c>
       <c r="D563">
-        <v>99678.99594253261</v>
+        <v>115339.0000000001</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>111944</v>
+        <v>97591.99999999999</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="D565">
-        <v>83265.99999999994</v>
+        <v>85419.99999999994</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>149559.9999999999</v>
+        <v>135688</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>125231.9999999999</v>
+        <v>96047.99999999997</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="D568">
-        <v>65757</v>
+        <v>62680.00000000003</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>121631</v>
+        <v>93848.00000000009</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="D570">
-        <v>96239.00000000006</v>
+        <v>112376</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11143,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="D571">
-        <v>118294</v>
+        <v>111352.0000000001</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11154,10 +11154,10 @@
         <v>573</v>
       </c>
       <c r="C572">
-        <v>3127.517656732336</v>
+        <v>18717.299887409</v>
       </c>
       <c r="D572">
-        <v>133542.5176567324</v>
+        <v>135317.2998874089</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11168,10 +11168,10 @@
         <v>574</v>
       </c>
       <c r="C573">
-        <v>28346.76236021555</v>
+        <v>9687.571914467379</v>
       </c>
       <c r="D573">
-        <v>134141.7623602156</v>
+        <v>137497.5719144673</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11182,10 +11182,10 @@
         <v>575</v>
       </c>
       <c r="C574">
-        <v>16348.35757991267</v>
+        <v>7536.842491174146</v>
       </c>
       <c r="D574">
-        <v>137563.3575799127</v>
+        <v>137496.8424911741</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>91700.00000000001</v>
+        <v>97486.99999999996</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11210,10 +11210,10 @@
         <v>577</v>
       </c>
       <c r="C576">
-        <v>11399.24604038569</v>
+        <v>11086.7624131964</v>
       </c>
       <c r="D576">
-        <v>63201.24604038567</v>
+        <v>62431.76241319636</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>114792</v>
+        <v>108224</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11238,10 +11238,10 @@
         <v>579</v>
       </c>
       <c r="C578">
-        <v>3416.377273345352</v>
+        <v>0</v>
       </c>
       <c r="D578">
-        <v>62305.37727334536</v>
+        <v>68468.00000000001</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11252,10 +11252,10 @@
         <v>580</v>
       </c>
       <c r="C579">
-        <v>0</v>
+        <v>15898.84938921493</v>
       </c>
       <c r="D579">
-        <v>134487.9999999999</v>
+        <v>127046.849389215</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>90420</v>
+        <v>99973.99999999997</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>135730.0000000001</v>
+        <v>127355</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>160344.9999999999</v>
+        <v>179880</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>108595.9999999999</v>
+        <v>89728.99999999999</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>158635.0000000001</v>
+        <v>105829.9999999999</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>121607</v>
+        <v>88825.99999999994</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>129419.9999999999</v>
+        <v>167136.0000000001</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="D587">
-        <v>67692.00000000003</v>
+        <v>65066</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>98787.99999999999</v>
+        <v>103829.9999999999</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>103644</v>
+        <v>164092.0000000001</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>95044</v>
+        <v>136588</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="D591">
-        <v>110610</v>
+        <v>121309.9999999999</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>135115.9999999999</v>
+        <v>99780</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="D593">
-        <v>135622.9999999999</v>
+        <v>103724.0000000001</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>160005.0000000001</v>
+        <v>187159.9999999999</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11476,10 +11476,10 @@
         <v>596</v>
       </c>
       <c r="C595">
-        <v>0</v>
+        <v>35697.27360135151</v>
       </c>
       <c r="D595">
-        <v>164205.0000000001</v>
+        <v>136752.2736013515</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>128834.9999999999</v>
+        <v>164174.9999999999</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11504,10 +11504,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>17918.04344968214</v>
+        <v>31270.73706339693</v>
       </c>
       <c r="D597">
-        <v>100887.0434496821</v>
+        <v>105824.7370633969</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>75818.00000000006</v>
+        <v>76951.99999999996</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11532,10 +11532,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>0</v>
+        <v>11148.61911805534</v>
       </c>
       <c r="D599">
-        <v>142960</v>
+        <v>137428.6191180554</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>135398.0000000001</v>
+        <v>89329.99999999996</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="D601">
-        <v>67207.00000000001</v>
+        <v>67911.99999999999</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>66664.99999999997</v>
+        <v>79141.99999999999</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="D603">
-        <v>93684.00000000001</v>
+        <v>93454.00000000007</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="D604">
-        <v>186160.0000000001</v>
+        <v>186295.0000000001</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11616,10 +11616,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>5322.21503944858</v>
+        <v>2993.275273848856</v>
       </c>
       <c r="D605">
-        <v>63121.21503944862</v>
+        <v>61874.27527384886</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>134272.9999999999</v>
+        <v>91498.99999999994</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11644,10 +11644,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>0</v>
+        <v>6337.481707679603</v>
       </c>
       <c r="D607">
-        <v>101173</v>
+        <v>101675.4817076796</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="D608">
-        <v>89167.99999999993</v>
+        <v>99718.99999999994</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <v>105429.9999999999</v>
+        <v>103456</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="D610">
-        <v>145767.9999999999</v>
+        <v>160707.9999999999</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11700,10 +11700,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>16098.90163260592</v>
+        <v>0</v>
       </c>
       <c r="D611">
-        <v>97495.90163260592</v>
+        <v>119871.9999999999</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11714,10 +11714,10 @@
         <v>613</v>
       </c>
       <c r="C612">
-        <v>9901.206251955475</v>
+        <v>0</v>
       </c>
       <c r="D612">
-        <v>81391.20625195549</v>
+        <v>87838.00000000006</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11728,10 +11728,10 @@
         <v>614</v>
       </c>
       <c r="C613">
-        <v>3297.84833329414</v>
+        <v>7619.035571796048</v>
       </c>
       <c r="D613">
-        <v>62958.84833329413</v>
+        <v>63528.03557179603</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="D614">
-        <v>70895.99999999994</v>
+        <v>106644.0000000001</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>95764.00000000007</v>
+        <v>91839.99999999993</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>116664.9999999999</v>
+        <v>118800.9999999999</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11784,10 +11784,10 @@
         <v>618</v>
       </c>
       <c r="C617">
-        <v>0</v>
+        <v>8875.635340257984</v>
       </c>
       <c r="D617">
-        <v>87722.00000000004</v>
+        <v>83643.63534025801</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="D618">
-        <v>64010.99999999999</v>
+        <v>67390.00000000004</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11812,10 +11812,10 @@
         <v>620</v>
       </c>
       <c r="C619">
-        <v>0</v>
+        <v>20090.43590241579</v>
       </c>
       <c r="D619">
-        <v>125683</v>
+        <v>103386.4359024157</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>74269.99999999994</v>
+        <v>62462.00000000001</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>139828.0000000001</v>
+        <v>101460</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11857,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>187980</v>
+        <v>179115</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>67775.99999999999</v>
+        <v>73460.99999999994</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="D624">
-        <v>83338.99999999994</v>
+        <v>128167.9999999999</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="D625">
-        <v>83180.00000000003</v>
+        <v>78920.00000000003</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>130547.9999999999</v>
+        <v>136616</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>102266</v>
+        <v>90422.00000000007</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>78671</v>
+        <v>76795.99999999994</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>92750.00000000003</v>
+        <v>97445</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>102051.9999999999</v>
+        <v>147367.9999999999</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11980,10 +11980,10 @@
         <v>632</v>
       </c>
       <c r="C631">
-        <v>5886.765882943611</v>
+        <v>5733.97664807018</v>
       </c>
       <c r="D631">
-        <v>135666.7658829436</v>
+        <v>136188.9766480701</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11994,10 +11994,10 @@
         <v>633</v>
       </c>
       <c r="C632">
-        <v>11736.09979486209</v>
+        <v>0</v>
       </c>
       <c r="D632">
-        <v>96046.09979486209</v>
+        <v>117157.0000000001</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12008,10 +12008,10 @@
         <v>634</v>
       </c>
       <c r="C633">
-        <v>9402.440805432227</v>
+        <v>12434.63493510446</v>
       </c>
       <c r="D633">
-        <v>82108.44080543228</v>
+        <v>83918.6349351044</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="D634">
-        <v>124260</v>
+        <v>120276</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="D635">
-        <v>147355.0000000001</v>
+        <v>187629.9999999999</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="D636">
-        <v>125075.0000000001</v>
+        <v>181570</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="D637">
-        <v>159490.0000000001</v>
+        <v>179870.0000000001</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="D638">
-        <v>120904.9999999999</v>
+        <v>107430.0000000001</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12092,10 +12092,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>719.8950684263255</v>
+        <v>0</v>
       </c>
       <c r="D639">
-        <v>82155.89506842634</v>
+        <v>98902.00000000007</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12106,10 +12106,10 @@
         <v>641</v>
       </c>
       <c r="C640">
-        <v>3442.463833630463</v>
+        <v>38483.81781276864</v>
       </c>
       <c r="D640">
-        <v>135652.4638336304</v>
+        <v>136078.8178127686</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12120,10 +12120,10 @@
         <v>642</v>
       </c>
       <c r="C641">
-        <v>9268.654680521737</v>
+        <v>10273.04832829187</v>
       </c>
       <c r="D641">
-        <v>80398.65468052168</v>
+        <v>81553.04832829181</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12134,10 +12134,10 @@
         <v>643</v>
       </c>
       <c r="C642">
-        <v>0</v>
+        <v>10666.17462892213</v>
       </c>
       <c r="D642">
-        <v>62548.99999999999</v>
+        <v>63656.17462892209</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12148,10 +12148,10 @@
         <v>644</v>
       </c>
       <c r="C643">
-        <v>17351.37048404482</v>
+        <v>11358.55042507678</v>
       </c>
       <c r="D643">
-        <v>100248.3704840448</v>
+        <v>99853.55042507676</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12162,10 +12162,10 @@
         <v>645</v>
       </c>
       <c r="C644">
-        <v>10467.60460922596</v>
+        <v>3436.557404810708</v>
       </c>
       <c r="D644">
-        <v>80423.60460922601</v>
+        <v>82146.55740481074</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="D645">
-        <v>68707.00000000003</v>
+        <v>78954.00000000004</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="D646">
-        <v>148359.9999999999</v>
+        <v>153284.9999999999</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -12204,10 +12204,10 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>1883.544230706844</v>
+        <v>0</v>
       </c>
       <c r="D647">
-        <v>81815.54423070692</v>
+        <v>85834.00000000004</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="D648">
-        <v>75891.99999999996</v>
+        <v>76402</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -12232,10 +12232,10 @@
         <v>650</v>
       </c>
       <c r="C649">
-        <v>18818.70205742827</v>
+        <v>0</v>
       </c>
       <c r="D649">
-        <v>100476.7020574283</v>
+        <v>106843</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="D650">
-        <v>74749.99999999994</v>
+        <v>108832</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="D651">
-        <v>162324.0000000001</v>
+        <v>104924</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="D652">
-        <v>66421.99999999997</v>
+        <v>68592.99999999999</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12288,10 +12288,10 @@
         <v>654</v>
       </c>
       <c r="C653">
-        <v>0</v>
+        <v>10323.76804006151</v>
       </c>
       <c r="D653">
-        <v>98445.99999999997</v>
+        <v>82131.76804006146</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="D654">
-        <v>86508.00000000006</v>
+        <v>83660</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -12316,10 +12316,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>0</v>
+        <v>22547.13276315319</v>
       </c>
       <c r="D655">
-        <v>101878.0000000001</v>
+        <v>103050.1327631532</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="D656">
-        <v>92348.00000000007</v>
+        <v>165516.0000000001</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12344,10 +12344,10 @@
         <v>658</v>
       </c>
       <c r="C657">
-        <v>0</v>
+        <v>27491.49158188463</v>
       </c>
       <c r="D657">
-        <v>181159.9999999999</v>
+        <v>134431.4915818847</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -12358,10 +12358,10 @@
         <v>659</v>
       </c>
       <c r="C658">
-        <v>7728.094578181292</v>
+        <v>0</v>
       </c>
       <c r="D658">
-        <v>80282.09457818131</v>
+        <v>98672.00000000009</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="D659">
-        <v>129136.9999999999</v>
+        <v>107294.0000000001</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12386,10 +12386,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>0</v>
+        <v>7099.903558363796</v>
       </c>
       <c r="D660">
-        <v>63918.99999999996</v>
+        <v>62401.90355836379</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="D661">
-        <v>76649</v>
+        <v>61814.99999999998</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="D662">
-        <v>111190</v>
+        <v>149615</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12428,10 +12428,10 @@
         <v>664</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>10430.68535445565</v>
       </c>
       <c r="D663">
-        <v>96336.00000000004</v>
+        <v>83986.68535445571</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="D664">
-        <v>107920</v>
+        <v>99813.99999999996</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12456,10 +12456,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>20211.46839806261</v>
+        <v>0</v>
       </c>
       <c r="D665">
-        <v>120571.4683980625</v>
+        <v>150644.0000000001</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="D666">
-        <v>89233.99999999993</v>
+        <v>80233.99999999996</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="D667">
-        <v>133716.0000000001</v>
+        <v>145352.0000000001</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="D668">
-        <v>85111.99999999996</v>
+        <v>88488.00000000004</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="D669">
-        <v>82619.99999999994</v>
+        <v>83510.00000000001</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="D670">
-        <v>112642.9999999999</v>
+        <v>126031.9999999999</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="D671">
-        <v>165880</v>
+        <v>153703.9999999999</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12554,10 +12554,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>0</v>
+        <v>7360.535285243575</v>
       </c>
       <c r="D672">
-        <v>133996</v>
+        <v>121604.5352852436</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="D673">
-        <v>185109.9999999999</v>
+        <v>161219.9999999999</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12582,10 +12582,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>0</v>
+        <v>35926.68850918318</v>
       </c>
       <c r="D674">
-        <v>143240</v>
+        <v>123458.6885091832</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="D675">
-        <v>98068.99999999996</v>
+        <v>105739.9999999999</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -12610,10 +12610,10 @@
         <v>677</v>
       </c>
       <c r="C676">
-        <v>0</v>
+        <v>21022.43659839008</v>
       </c>
       <c r="D676">
-        <v>118402.0000000001</v>
+        <v>101180.4365983901</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="D677">
-        <v>127366.9999999999</v>
+        <v>137236.9999999999</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12638,10 +12638,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>4562.166564540305</v>
+        <v>9008.368603108138</v>
       </c>
       <c r="D678">
-        <v>62791.16656454032</v>
+        <v>64208.36860310815</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12652,10 +12652,10 @@
         <v>680</v>
       </c>
       <c r="C679">
-        <v>0</v>
+        <v>17850.51035700642</v>
       </c>
       <c r="D679">
-        <v>134856</v>
+        <v>122702.5103570064</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12666,10 +12666,10 @@
         <v>681</v>
       </c>
       <c r="C680">
-        <v>0</v>
+        <v>10393.74446771988</v>
       </c>
       <c r="D680">
-        <v>185734.9999999999</v>
+        <v>135753.74446772</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12680,10 +12680,10 @@
         <v>682</v>
       </c>
       <c r="C681">
-        <v>151.7014948967553</v>
+        <v>37411.09229062135</v>
       </c>
       <c r="D681">
-        <v>119195.7014948967</v>
+        <v>120215.0922906213</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="D682">
-        <v>89939.99999999997</v>
+        <v>99691.99999999993</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="D683">
-        <v>141990.0000000001</v>
+        <v>118975</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="D684">
-        <v>99452.00000000009</v>
+        <v>93962.00000000001</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="D685">
-        <v>121464.0000000001</v>
+        <v>154428</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12750,10 +12750,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>7979.108442091208</v>
+        <v>0</v>
       </c>
       <c r="D686">
-        <v>64550.10844209123</v>
+        <v>68251.99999999997</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12764,10 +12764,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>16160.35258577144</v>
+        <v>5361.279756121396</v>
       </c>
       <c r="D687">
-        <v>99897.35258577146</v>
+        <v>103174.2797561214</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="D688">
-        <v>105471.9999999999</v>
+        <v>91380</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="D689">
-        <v>116884</v>
+        <v>127288</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12806,10 +12806,10 @@
         <v>691</v>
       </c>
       <c r="C690">
-        <v>1379.28587076586</v>
+        <v>4311.77660938607</v>
       </c>
       <c r="D690">
-        <v>101019.2858707659</v>
+        <v>100768.776609386</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12820,10 +12820,10 @@
         <v>692</v>
       </c>
       <c r="C691">
-        <v>3529.521291551326</v>
+        <v>16691.00833083827</v>
       </c>
       <c r="D691">
-        <v>118113.5212915512</v>
+        <v>122187.0083308383</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="D692">
-        <v>63703.00000000001</v>
+        <v>61923.99999999998</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="D693">
-        <v>144999.9999999999</v>
+        <v>143676</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -12862,10 +12862,10 @@
         <v>695</v>
       </c>
       <c r="C694">
-        <v>13798.86783777947</v>
+        <v>13314.47586486234</v>
       </c>
       <c r="D694">
-        <v>121218.8678377795</v>
+        <v>123966.4758648623</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -12876,10 +12876,10 @@
         <v>696</v>
       </c>
       <c r="C695">
-        <v>0</v>
+        <v>3613.09975310725</v>
       </c>
       <c r="D695">
-        <v>99299.99999999999</v>
+        <v>81021.09975310731</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="D696">
-        <v>70965</v>
+        <v>76988.99999999997</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -12904,10 +12904,10 @@
         <v>698</v>
       </c>
       <c r="C697">
-        <v>16190.87809260648</v>
+        <v>2281.292580468755</v>
       </c>
       <c r="D697">
-        <v>81904.87809260654</v>
+        <v>84953.29258046873</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="D698">
-        <v>92047.99999999999</v>
+        <v>123452</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12932,10 +12932,10 @@
         <v>700</v>
       </c>
       <c r="C699">
-        <v>0</v>
+        <v>17581.13906340751</v>
       </c>
       <c r="D699">
-        <v>127580</v>
+        <v>126633.1390634074</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -12946,10 +12946,10 @@
         <v>701</v>
       </c>
       <c r="C700">
-        <v>0</v>
+        <v>29635.9338407156</v>
       </c>
       <c r="D700">
-        <v>153848</v>
+        <v>119683.9338407157</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="D701">
-        <v>95462.00000000007</v>
+        <v>121094</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12974,10 +12974,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>5852.414127545053</v>
+        <v>0</v>
       </c>
       <c r="D702">
-        <v>80038.41412754505</v>
+        <v>89522.00000000004</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="D703">
-        <v>83155.99999999999</v>
+        <v>80480.00000000004</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -13002,10 +13002,10 @@
         <v>705</v>
       </c>
       <c r="C704">
-        <v>0</v>
+        <v>5511.251386928489</v>
       </c>
       <c r="D704">
-        <v>123856</v>
+        <v>101122.2513869285</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="D705">
-        <v>66116.99999999999</v>
+        <v>61149.99999999997</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13030,10 +13030,10 @@
         <v>707</v>
       </c>
       <c r="C706">
-        <v>28420.76161410227</v>
+        <v>0</v>
       </c>
       <c r="D706">
-        <v>98708.7616141023</v>
+        <v>124788.9999999999</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="D707">
-        <v>105284</v>
+        <v>81671.99999999994</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="D708">
-        <v>141656.0000000001</v>
+        <v>154060.0000000001</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13072,10 +13072,10 @@
         <v>710</v>
       </c>
       <c r="C709">
-        <v>0</v>
+        <v>12674.03809532805</v>
       </c>
       <c r="D709">
-        <v>91050.00000000007</v>
+        <v>82602.03809532803</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13086,10 +13086,10 @@
         <v>711</v>
       </c>
       <c r="C710">
-        <v>4646.739928560513</v>
+        <v>315.8785467114794</v>
       </c>
       <c r="D710">
-        <v>64384.73992856056</v>
+        <v>66916.87854671149</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="D711">
-        <v>129825</v>
+        <v>110610</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="D712">
-        <v>156704.9999999999</v>
+        <v>149939.9999999999</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="D713">
-        <v>105377.9999999999</v>
+        <v>103988.0000000001</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="D714">
-        <v>82413.99999999999</v>
+        <v>84610.00000000001</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="D715">
-        <v>103418</v>
+        <v>110654</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="D716">
-        <v>63917.00000000003</v>
+        <v>63232.00000000001</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="D717">
-        <v>109710.0000000001</v>
+        <v>149109.9999999999</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="D718">
-        <v>149260.0000000001</v>
+        <v>188209.9999999999</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="D719">
-        <v>116927</v>
+        <v>115504.9999999999</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13226,10 +13226,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>12113.66261274736</v>
+        <v>1149.599969878276</v>
       </c>
       <c r="D720">
-        <v>62964.66261274741</v>
+        <v>63886.59996987828</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13240,10 +13240,10 @@
         <v>722</v>
       </c>
       <c r="C721">
-        <v>4667.369426234603</v>
+        <v>3332.931087765777</v>
       </c>
       <c r="D721">
-        <v>63686.36942623457</v>
+        <v>63887.93108776578</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="D722">
-        <v>60350.00000000003</v>
+        <v>65946.99999999997</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="D723">
-        <v>95340.00000000001</v>
+        <v>73293.99999999997</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="D724">
-        <v>103784.9999999999</v>
+        <v>195980.0000000001</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="D725">
-        <v>91419.99999999996</v>
+        <v>83966.00000000001</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -13313,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="D726">
-        <v>163907.9999999999</v>
+        <v>161172.0000000001</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -13324,10 +13324,10 @@
         <v>728</v>
       </c>
       <c r="C727">
-        <v>20179.56177330804</v>
+        <v>3876.61052456098</v>
       </c>
       <c r="D727">
-        <v>82099.56177330803</v>
+        <v>83850.61052456101</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="D728">
-        <v>68091.99999999996</v>
+        <v>66420.99999999996</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="D729">
-        <v>115412.0000000001</v>
+        <v>158620</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="D730">
-        <v>120874.9999999999</v>
+        <v>87628.99999999999</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="D731">
-        <v>105308</v>
+        <v>98101.99999999997</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="D732">
-        <v>91750.00000000007</v>
+        <v>99843.99999999993</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="D733">
-        <v>68309.00000000001</v>
+        <v>78205.99999999996</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13422,10 +13422,10 @@
         <v>735</v>
       </c>
       <c r="C734">
-        <v>21660.11272392835</v>
+        <v>8915.418840314975</v>
       </c>
       <c r="D734">
-        <v>99388.11272392834</v>
+        <v>101121.418840315</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13436,10 +13436,10 @@
         <v>736</v>
       </c>
       <c r="C735">
-        <v>11818.20444888739</v>
+        <v>0</v>
       </c>
       <c r="D735">
-        <v>121070.2044488874</v>
+        <v>143416.0000000001</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -13450,10 +13450,10 @@
         <v>737</v>
       </c>
       <c r="C736">
-        <v>0</v>
+        <v>7806.209225871062</v>
       </c>
       <c r="D736">
-        <v>123128</v>
+        <v>126154.209225871</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13464,10 +13464,10 @@
         <v>738</v>
       </c>
       <c r="C737">
-        <v>8408.273559097768</v>
+        <v>0</v>
       </c>
       <c r="D737">
-        <v>62104.27355909773</v>
+        <v>63523.99999999999</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="D738">
-        <v>65381.99999999996</v>
+        <v>62864.99999999999</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="D739">
-        <v>97761.99999999999</v>
+        <v>83934.00000000001</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="D740">
-        <v>108352.9999999999</v>
+        <v>109946</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="D741">
-        <v>129388</v>
+        <v>168071.9999999999</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13534,10 +13534,10 @@
         <v>743</v>
       </c>
       <c r="C742">
-        <v>14477.35601894369</v>
+        <v>10063.32119253943</v>
       </c>
       <c r="D742">
-        <v>78783.35601894373</v>
+        <v>79379.32119253944</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13548,10 +13548,10 @@
         <v>744</v>
       </c>
       <c r="C743">
-        <v>5216.990474914783</v>
+        <v>0</v>
       </c>
       <c r="D743">
-        <v>132456.9904749149</v>
+        <v>163680</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13565,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="D744">
-        <v>68541.99999999999</v>
+        <v>60340.00000000001</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="D745">
-        <v>87107.00000000004</v>
+        <v>92785.99999999996</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>112543</v>
+        <v>103198.0000000001</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13607,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="D747">
-        <v>157820</v>
+        <v>152404.9999999999</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13618,10 +13618,10 @@
         <v>749</v>
       </c>
       <c r="C748">
-        <v>14683.1018720299</v>
+        <v>0</v>
       </c>
       <c r="D748">
-        <v>79233.10187202986</v>
+        <v>81450.00000000003</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13632,10 +13632,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>6279.660949415389</v>
+        <v>4665.913076003104</v>
       </c>
       <c r="D749">
-        <v>61595.6609494154</v>
+        <v>58929.91307600314</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13646,10 +13646,10 @@
         <v>751</v>
       </c>
       <c r="C750">
-        <v>0</v>
+        <v>29465.79501179562</v>
       </c>
       <c r="D750">
-        <v>146320</v>
+        <v>117305.7950117956</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="D751">
-        <v>74913.00000000003</v>
+        <v>69550.99999999997</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -13674,10 +13674,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>23504.4922699333</v>
+        <v>8952.928974151684</v>
       </c>
       <c r="D752">
-        <v>97953.49226993333</v>
+        <v>94702.92897415168</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13688,10 +13688,10 @@
         <v>754</v>
       </c>
       <c r="C753">
-        <v>12293.40586034885</v>
+        <v>11028.93735792786</v>
       </c>
       <c r="D753">
-        <v>115689.4058603488</v>
+        <v>113720.9373579278</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>147464</v>
+        <v>115272</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="D755">
-        <v>155972.0000000001</v>
+        <v>123496</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D756">
-        <v>105290</v>
+        <v>81704.00000000007</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13744,10 +13744,10 @@
         <v>758</v>
       </c>
       <c r="C757">
-        <v>18910.97284394797</v>
+        <v>0</v>
       </c>
       <c r="D757">
-        <v>80498.97284394794</v>
+        <v>98993.99999999991</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13758,10 +13758,10 @@
         <v>759</v>
       </c>
       <c r="C758">
-        <v>9726.790647004222</v>
+        <v>26748.52055015562</v>
       </c>
       <c r="D758">
-        <v>98812.79064700425</v>
+        <v>100660.5205501556</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="D759">
-        <v>113731</v>
+        <v>115144</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="D760">
-        <v>170675</v>
+        <v>163924.9999999999</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="D761">
-        <v>60035.00000000004</v>
+        <v>79321.99999999994</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="D762">
-        <v>90023.00000000007</v>
+        <v>128170.9999999999</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="D763">
-        <v>81254</v>
+        <v>82835.00000000001</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="D764">
-        <v>102618</v>
+        <v>101698</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="D765">
-        <v>182694.9999999999</v>
+        <v>101785</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="D766">
-        <v>171039.9999999999</v>
+        <v>153705.0000000001</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -13884,10 +13884,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>0</v>
+        <v>9903.512270073101</v>
       </c>
       <c r="D767">
-        <v>87960.00000000004</v>
+        <v>84001.51227007304</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="D768">
-        <v>137664</v>
+        <v>90268.00000000003</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="D769">
-        <v>192560.0000000001</v>
+        <v>169210.0000000001</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -13926,10 +13926,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>20249.94381998565</v>
+        <v>3834.803132881934</v>
       </c>
       <c r="D770">
-        <v>119085.9438199856</v>
+        <v>122186.803132882</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="D771">
-        <v>138980.0000000001</v>
+        <v>131160</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="D772">
-        <v>80945.99999999994</v>
+        <v>73422</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="D773">
-        <v>103920.0000000001</v>
+        <v>162340.0000000001</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="D774">
-        <v>71998</v>
+        <v>78715.00000000001</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="D775">
-        <v>178270.0000000001</v>
+        <v>152360.0000000001</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="D776">
-        <v>99864.00000000006</v>
+        <v>78889.99999999999</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14027,7 +14027,7 @@
         <v>0</v>
       </c>
       <c r="D777">
-        <v>83869.99999999997</v>
+        <v>99796.00000000007</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14038,10 +14038,10 @@
         <v>779</v>
       </c>
       <c r="C778">
-        <v>0</v>
+        <v>6680.505816824196</v>
       </c>
       <c r="D778">
-        <v>84267.99999999999</v>
+        <v>81814.5058168242</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="D779">
-        <v>96931.99999999993</v>
+        <v>123977</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="D780">
-        <v>75117.99999999994</v>
+        <v>108796.0000000001</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="D781">
-        <v>61269.00000000005</v>
+        <v>77652.99999999997</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
       <c r="D782">
-        <v>73080.00000000006</v>
+        <v>78885.99999999996</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="D783">
-        <v>113180.0000000001</v>
+        <v>113135.0000000001</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="D784">
-        <v>102128.0000000001</v>
+        <v>109502.0000000001</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="D785">
-        <v>122572.9999999999</v>
+        <v>115000.9999999999</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="D786">
-        <v>72101.99999999997</v>
+        <v>79255.99999999996</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="D787">
-        <v>114055</v>
+        <v>112345</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="D788">
-        <v>98374.99999999994</v>
+        <v>136694.0000000001</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="D789">
-        <v>164615</v>
+        <v>158040.0000000001</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14206,10 +14206,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>26001.08700609094</v>
+        <v>11514.31034092716</v>
       </c>
       <c r="D790">
-        <v>98743.08700609089</v>
+        <v>100168.3103409272</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="D791">
-        <v>123239.9999999999</v>
+        <v>152383.9999999999</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>106006.0000000001</v>
+        <v>121009.0000000001</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="D793">
-        <v>175334.9999999999</v>
+        <v>182634.9999999999</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="D794">
-        <v>101980.0000000001</v>
+        <v>189219.9999999999</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="D795">
-        <v>82768.00000000001</v>
+        <v>70752.00000000004</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14290,10 +14290,10 @@
         <v>797</v>
       </c>
       <c r="C796">
-        <v>0</v>
+        <v>36608.49788315175</v>
       </c>
       <c r="D796">
-        <v>151685</v>
+        <v>136563.4978831517</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14304,10 +14304,10 @@
         <v>798</v>
       </c>
       <c r="C797">
-        <v>19804.55428735205</v>
+        <v>0</v>
       </c>
       <c r="D797">
-        <v>119072.554287352</v>
+        <v>124736</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14318,10 +14318,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>0</v>
+        <v>12323.90283032747</v>
       </c>
       <c r="D798">
-        <v>116608.0000000001</v>
+        <v>105078.9028303275</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="D799">
-        <v>131264</v>
+        <v>165016.0000000001</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="D800">
-        <v>63984.00000000001</v>
+        <v>67773.99999999996</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="D801">
-        <v>86971.99999999997</v>
+        <v>91357.99999999996</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14374,10 +14374,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>35789.20516615447</v>
+        <v>0</v>
       </c>
       <c r="D802">
-        <v>133919.2051661545</v>
+        <v>147970</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="D803">
-        <v>91423.99999999994</v>
+        <v>85432.00000000007</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="D804">
-        <v>105857.9999999999</v>
+        <v>75665.99999999996</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14416,10 +14416,10 @@
         <v>806</v>
       </c>
       <c r="C805">
-        <v>27506.21243870619</v>
+        <v>47481.97991412708</v>
       </c>
       <c r="D805">
-        <v>134206.2124387063</v>
+        <v>138926.979914127</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14430,10 +14430,10 @@
         <v>807</v>
       </c>
       <c r="C806">
-        <v>0</v>
+        <v>6870.655052355614</v>
       </c>
       <c r="D806">
-        <v>64717.00000000006</v>
+        <v>65656.65505235565</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="D807">
-        <v>74854.00000000006</v>
+        <v>86223.99999999993</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="D808">
-        <v>83204.00000000003</v>
+        <v>86648.00000000006</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="D809">
-        <v>65265.99999999996</v>
+        <v>67036.99999999997</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="D810">
-        <v>105760</v>
+        <v>107595.9999999999</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="D811">
-        <v>178980</v>
+        <v>116089.9999999999</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14514,10 +14514,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>27010.91448100885</v>
+        <v>20758.37539474538</v>
       </c>
       <c r="D812">
-        <v>118578.9144810088</v>
+        <v>123930.3753947454</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="D813">
-        <v>64460.00000000005</v>
+        <v>73901</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14545,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="D814">
-        <v>100576</v>
+        <v>88450.00000000001</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="D815">
-        <v>85456.00000000003</v>
+        <v>73159.99999999999</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="D816">
-        <v>65780.00000000006</v>
+        <v>72994.99999999996</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14584,10 +14584,10 @@
         <v>818</v>
       </c>
       <c r="C817">
-        <v>4357.391933844716</v>
+        <v>305.051028867827</v>
       </c>
       <c r="D817">
-        <v>62523.39193384468</v>
+        <v>64959.05102886783</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="D818">
-        <v>89345.99999999993</v>
+        <v>100014</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14612,10 +14612,10 @@
         <v>820</v>
       </c>
       <c r="C819">
-        <v>8234.202216882208</v>
+        <v>99.55312921592849</v>
       </c>
       <c r="D819">
-        <v>63991.20221688225</v>
+        <v>64676.55312921593</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -14626,10 +14626,10 @@
         <v>821</v>
       </c>
       <c r="C820">
-        <v>0</v>
+        <v>9618.111165022703</v>
       </c>
       <c r="D820">
-        <v>65063.00000000003</v>
+        <v>63703.11116502267</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14640,10 +14640,10 @@
         <v>822</v>
       </c>
       <c r="C821">
-        <v>25934.94133576422</v>
+        <v>8873.879123808772</v>
       </c>
       <c r="D821">
-        <v>118906.9413357643</v>
+        <v>120897.8791238089</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="D822">
-        <v>61850</v>
+        <v>77947.00000000004</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="D823">
-        <v>89627.99999999999</v>
+        <v>91062.00000000004</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="D824">
-        <v>73706.00000000001</v>
+        <v>79289.00000000006</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14696,10 +14696,10 @@
         <v>826</v>
       </c>
       <c r="C825">
-        <v>0</v>
+        <v>17725.64126832098</v>
       </c>
       <c r="D825">
-        <v>119932</v>
+        <v>101900.6412683209</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14710,10 +14710,10 @@
         <v>827</v>
       </c>
       <c r="C826">
-        <v>0</v>
+        <v>41234.73098469703</v>
       </c>
       <c r="D826">
-        <v>125332</v>
+        <v>121530.730984697</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14724,10 +14724,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>18560.28711305132</v>
+        <v>36079.35067487587</v>
       </c>
       <c r="D827">
-        <v>118604.2871130513</v>
+        <v>124131.3506748758</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="D828">
-        <v>104896</v>
+        <v>77976</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="D829">
-        <v>80019.99999999999</v>
+        <v>107622</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14766,10 +14766,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>18816.32414788683</v>
+        <v>19869.42516314067</v>
       </c>
       <c r="D830">
-        <v>98689.32414788683</v>
+        <v>102817.4251631407</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14780,10 +14780,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>4925.025608138167</v>
+        <v>5940.276431264196</v>
       </c>
       <c r="D831">
-        <v>81177.02560813818</v>
+        <v>85320.27643126414</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14794,10 +14794,10 @@
         <v>833</v>
       </c>
       <c r="C832">
-        <v>214.2532131978442</v>
+        <v>0</v>
       </c>
       <c r="D832">
-        <v>62959.25321319779</v>
+        <v>65499.99999999996</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="D833">
-        <v>109012</v>
+        <v>92070.00000000004</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="D834">
-        <v>76160.99999999997</v>
+        <v>66012.00000000001</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14836,10 +14836,10 @@
         <v>836</v>
       </c>
       <c r="C835">
-        <v>712.1060488215953</v>
+        <v>0</v>
       </c>
       <c r="D835">
-        <v>62889.10604882164</v>
+        <v>69264</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="D836">
-        <v>73166.99999999996</v>
+        <v>66469.99999999997</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -14864,10 +14864,10 @@
         <v>838</v>
       </c>
       <c r="C837">
-        <v>19276.33252348744</v>
+        <v>0</v>
       </c>
       <c r="D837">
-        <v>98543.33252348748</v>
+        <v>115924</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -14878,10 +14878,10 @@
         <v>839</v>
       </c>
       <c r="C838">
-        <v>5363.90980569143</v>
+        <v>0</v>
       </c>
       <c r="D838">
-        <v>63354.90980569139</v>
+        <v>68432.00000000006</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -14892,10 +14892,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>0</v>
+        <v>9578.275168868378</v>
       </c>
       <c r="D839">
-        <v>142640</v>
+        <v>135018.2751688684</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14906,10 +14906,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>35627.77478254288</v>
+        <v>7835.478192993891</v>
       </c>
       <c r="D840">
-        <v>117371.7747825429</v>
+        <v>124943.478192994</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="D841">
-        <v>173710.0000000001</v>
+        <v>162005.0000000001</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -14934,10 +14934,10 @@
         <v>843</v>
       </c>
       <c r="C842">
-        <v>0</v>
+        <v>2614.149586905492</v>
       </c>
       <c r="D842">
-        <v>117742</v>
+        <v>102875.1495869054</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="D843">
-        <v>71789.99999999996</v>
+        <v>69287.00000000004</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="D844">
-        <v>68925.99999999997</v>
+        <v>67825.00000000006</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -14976,10 +14976,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>0</v>
+        <v>9691.90175145895</v>
       </c>
       <c r="D845">
-        <v>117451.0000000001</v>
+        <v>104339.9017514589</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="D846">
-        <v>73090.00000000006</v>
+        <v>79286.00000000001</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15004,10 +15004,10 @@
         <v>848</v>
       </c>
       <c r="C847">
-        <v>15273.95571621582</v>
+        <v>0</v>
       </c>
       <c r="D847">
-        <v>98890.95571621577</v>
+        <v>129184</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="D848">
-        <v>113523.9999999999</v>
+        <v>108462.9999999999</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="D849">
-        <v>89930.00000000003</v>
+        <v>117133.9999999999</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15046,10 +15046,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>21439.41166671852</v>
+        <v>0</v>
       </c>
       <c r="D850">
-        <v>118527.4116667184</v>
+        <v>157256.0000000001</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15060,10 +15060,10 @@
         <v>852</v>
       </c>
       <c r="C851">
-        <v>10518.45280575776</v>
+        <v>21190.53750545938</v>
       </c>
       <c r="D851">
-        <v>80874.45280575778</v>
+        <v>85432.53750545942</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="D852">
-        <v>154892</v>
+        <v>145416</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -15088,10 +15088,10 @@
         <v>854</v>
       </c>
       <c r="C853">
-        <v>19240.59758528433</v>
+        <v>16592.37303457024</v>
       </c>
       <c r="D853">
-        <v>135290.5975852843</v>
+        <v>136627.3730345702</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15102,10 +15102,10 @@
         <v>855</v>
       </c>
       <c r="C854">
-        <v>35609.05612075706</v>
+        <v>16696.02533932011</v>
       </c>
       <c r="D854">
-        <v>135209.0561207571</v>
+        <v>140181.0253393202</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="D855">
-        <v>159884</v>
+        <v>168143.9999999999</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="D856">
-        <v>151092.0000000001</v>
+        <v>105328</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="D857">
-        <v>157007.9999999999</v>
+        <v>153552.0000000001</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -15158,10 +15158,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>9800.085683205762</v>
+        <v>4547.236041723867</v>
       </c>
       <c r="D858">
-        <v>98520.08568320583</v>
+        <v>101568.236041724</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="D859">
-        <v>67282.00000000003</v>
+        <v>77035.99999999996</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15189,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="D860">
-        <v>89469.99999999999</v>
+        <v>75840</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="D861">
-        <v>123967</v>
+        <v>103125.9999999999</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="D862">
-        <v>69160.00000000006</v>
+        <v>71661.00000000001</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="D863">
-        <v>121040</v>
+        <v>120008</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -15245,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="D864">
-        <v>112414.0000000001</v>
+        <v>105886</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="D865">
-        <v>135686</v>
+        <v>81949.99999999997</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -15270,10 +15270,10 @@
         <v>867</v>
       </c>
       <c r="C866">
-        <v>12637.40919787533</v>
+        <v>2295.950468262425</v>
       </c>
       <c r="D866">
-        <v>63139.4091978753</v>
+        <v>66674.95046826241</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -15284,10 +15284,10 @@
         <v>868</v>
       </c>
       <c r="C867">
-        <v>10030.3849033783</v>
+        <v>20097.31889544595</v>
       </c>
       <c r="D867">
-        <v>79794.38490337829</v>
+        <v>83049.31889544596</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -15298,10 +15298,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>27502.09688912326</v>
+        <v>1563.73413612516</v>
       </c>
       <c r="D868">
-        <v>132972.0968891232</v>
+        <v>136898.7341361251</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15315,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="D869">
-        <v>92158.00000000004</v>
+        <v>94466.00000000007</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="D870">
-        <v>60351.00000000004</v>
+        <v>67365.00000000001</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="D871">
-        <v>116852</v>
+        <v>128840</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15354,10 +15354,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>0</v>
+        <v>9933.433086174366</v>
       </c>
       <c r="D872">
-        <v>112732</v>
+        <v>104140.4330861744</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15371,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="D873">
-        <v>66743.99999999999</v>
+        <v>64445.99999999998</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="D874">
-        <v>86096.00000000001</v>
+        <v>70015.99999999997</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="D875">
-        <v>106658</v>
+        <v>123290</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15410,10 +15410,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>0</v>
+        <v>7659.403414052045</v>
       </c>
       <c r="D876">
-        <v>66230.00000000003</v>
+        <v>64116.40341405203</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15424,10 +15424,10 @@
         <v>878</v>
       </c>
       <c r="C877">
-        <v>3138.0800045051</v>
+        <v>14854.10085677865</v>
       </c>
       <c r="D877">
-        <v>80752.08000450513</v>
+        <v>83388.10085677868</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="D878">
-        <v>124442.0000000001</v>
+        <v>127082.0000000001</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="D879">
-        <v>93373.99999999994</v>
+        <v>88982.00000000007</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="D880">
-        <v>63812.99999999997</v>
+        <v>67218.00000000003</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -15480,10 +15480,10 @@
         <v>882</v>
       </c>
       <c r="C881">
-        <v>6562.704290126872</v>
+        <v>0</v>
       </c>
       <c r="D881">
-        <v>80776.70429012686</v>
+        <v>91764</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -15494,10 +15494,10 @@
         <v>883</v>
       </c>
       <c r="C882">
-        <v>6847.64150496923</v>
+        <v>9775.36097022648</v>
       </c>
       <c r="D882">
-        <v>63527.64150496927</v>
+        <v>66140.36097022647</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="D883">
-        <v>120076.0000000001</v>
+        <v>128422</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="D884">
-        <v>93924.00000000001</v>
+        <v>89143.99999999994</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="D885">
-        <v>161128</v>
+        <v>141628.0000000001</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="D886">
-        <v>97886.00000000004</v>
+        <v>93965.00000000007</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -15564,10 +15564,10 @@
         <v>888</v>
       </c>
       <c r="C887">
-        <v>18244.37130487394</v>
+        <v>14506.98835874753</v>
       </c>
       <c r="D887">
-        <v>80758.37130487393</v>
+        <v>84534.98835874758</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="D888">
-        <v>78481.00000000001</v>
+        <v>71570</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -15592,10 +15592,10 @@
         <v>890</v>
       </c>
       <c r="C889">
-        <v>1300.276650144864</v>
+        <v>1397.69928252</v>
       </c>
       <c r="D889">
-        <v>63871.27665014488</v>
+        <v>67645.69928251998</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="D890">
-        <v>74351.99999999997</v>
+        <v>67615.00000000001</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -15620,10 +15620,10 @@
         <v>892</v>
       </c>
       <c r="C891">
-        <v>13176.83261239308</v>
+        <v>10466.41096811766</v>
       </c>
       <c r="D891">
-        <v>63184.83261239304</v>
+        <v>65424.41096811763</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="D892">
-        <v>146989.9999999999</v>
+        <v>159420.0000000001</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="D893">
-        <v>109898.0000000001</v>
+        <v>111368</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -15665,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="D894">
-        <v>69543.00000000003</v>
+        <v>64395.00000000003</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="D895">
-        <v>124907</v>
+        <v>137942.0000000001</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="D896">
-        <v>103742</v>
+        <v>132155</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="D897">
-        <v>106712</v>
+        <v>106022.0000000001</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -15721,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="D898">
-        <v>69020.99999999994</v>
+        <v>73518.00000000003</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="D899">
-        <v>116828.0000000001</v>
+        <v>83494.99999999997</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="D900">
-        <v>64743.99999999995</v>
+        <v>64120.99999999995</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="D901">
-        <v>72719.99999999997</v>
+        <v>88392.00000000001</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -15777,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="D902">
-        <v>87665</v>
+        <v>137648</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="D903">
-        <v>89663.00000000004</v>
+        <v>125437.9999999999</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="D904">
-        <v>108259.9999999999</v>
+        <v>112892.0000000001</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="D905">
-        <v>74255.00000000004</v>
+        <v>65198.00000000003</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="D906">
-        <v>76074</v>
+        <v>64694.99999999998</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="D907">
-        <v>123005.0000000001</v>
+        <v>126503</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="D908">
-        <v>60401.99999999999</v>
+        <v>79271.00000000003</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="D909">
-        <v>102526</v>
+        <v>97985.99999999997</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="D910">
-        <v>62919.99999999996</v>
+        <v>75641.99999999997</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="D911">
-        <v>101480</v>
+        <v>72114</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>92354.00000000007</v>
+        <v>104891.0000000001</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -15931,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="D913">
-        <v>86412.00000000001</v>
+        <v>84556</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="D914">
-        <v>104320.0000000001</v>
+        <v>77958.00000000007</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="D915">
-        <v>60987.99999999996</v>
+        <v>79308.99999999996</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -15973,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="D916">
-        <v>69548.99999999999</v>
+        <v>76593.00000000006</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="D917">
-        <v>89102.00000000006</v>
+        <v>97569.99999999993</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="D918">
-        <v>60356.99999999999</v>
+        <v>72214.00000000006</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="D919">
-        <v>101434.0000000001</v>
+        <v>75329.99999999994</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="D920">
-        <v>63344.00000000002</v>
+        <v>71690.00000000003</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="D921">
-        <v>80246.00000000004</v>
+        <v>100020</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -16057,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="D922">
-        <v>71494.99999999997</v>
+        <v>69788.00000000003</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="D923">
-        <v>62731.00000000002</v>
+        <v>74733.00000000003</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="D924">
-        <v>83973.99999999996</v>
+        <v>80733.99999999994</v>
       </c>
     </row>
   </sheetData>

--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>150279.9999999999</v>
+        <v>140588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3188,10 +3188,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4520.737241117778</v>
       </c>
       <c r="D3">
-        <v>90147.99999999993</v>
+        <v>90632.73724111784</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>81725.00000000004</v>
+        <v>138443.0000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>138010</v>
+        <v>128169.9999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3230,10 +3230,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>33743.04280613989</v>
       </c>
       <c r="D6">
-        <v>159764</v>
+        <v>130611.0428061399</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>77694.99999999994</v>
+        <v>79986.99999999993</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>103431.9999999999</v>
+        <v>109974</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>179625.0000000001</v>
+        <v>166580.0000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3286,10 +3286,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>251.1506129421832</v>
+        <v>15648.31193848635</v>
       </c>
       <c r="D10">
-        <v>64196.15061294223</v>
+        <v>70600.31193848631</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>108901.0000000001</v>
+        <v>117448</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>161445.0000000001</v>
+        <v>182585</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>60215.99999999996</v>
+        <v>67712.99999999996</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>115525</v>
+        <v>195055</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>106750.0000000001</v>
+        <v>94254.00000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3370,10 +3370,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>26745.30270910401</v>
+        <v>15522.66754862388</v>
       </c>
       <c r="D16">
-        <v>99925.30270910403</v>
+        <v>111661.6675486239</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3384,10 +3384,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>11082.21156925923</v>
       </c>
       <c r="D17">
-        <v>67268.99999999996</v>
+        <v>69647.21156925925</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>140184</v>
+        <v>156823.9999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>85274.00000000001</v>
+        <v>101641.9999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>129508</v>
+        <v>140176.0000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>181985</v>
+        <v>151409.9999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>155983.9999999999</v>
+        <v>135920</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>77400.00000000006</v>
+        <v>75255.99999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>162714.9999999999</v>
+        <v>167505.0000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3496,10 +3496,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>21808.5040406606</v>
+        <v>36812.86736254231</v>
       </c>
       <c r="D25">
-        <v>137403.5040406605</v>
+        <v>149057.8673625424</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3510,10 +3510,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>8815.518952620987</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>134085.5189526209</v>
+        <v>158345.0000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3524,10 +3524,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>17993.4194274293</v>
       </c>
       <c r="D27">
-        <v>103069</v>
+        <v>111771.4194274293</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3538,10 +3538,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>1367.223201725312</v>
+        <v>6763.864010220452</v>
       </c>
       <c r="D28">
-        <v>136507.2232017254</v>
+        <v>147288.8640102205</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3552,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>40837.72700387919</v>
       </c>
       <c r="D29">
-        <v>155195.9999999999</v>
+        <v>129513.7270038792</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>137363.9999999999</v>
+        <v>150283.9999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>63574.00000000002</v>
+        <v>67600.99999999994</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>76603.00000000006</v>
+        <v>72851.99999999996</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>64994.99999999999</v>
+        <v>78119.99999999996</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3622,10 +3622,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>3674.802676932479</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>136149.8026769325</v>
+        <v>148669.9999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>115200</v>
+        <v>148448</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>118532</v>
+        <v>109983.9999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3664,10 +3664,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2903.713206603745</v>
       </c>
       <c r="D37">
-        <v>115189</v>
+        <v>104784.7132066037</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3678,10 +3678,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>2818.425416216749</v>
+        <v>14312.01622055774</v>
       </c>
       <c r="D38">
-        <v>98633.42541621682</v>
+        <v>103713.0162205578</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3692,10 +3692,10 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>6840.210757654902</v>
+        <v>5585.959585715391</v>
       </c>
       <c r="D39">
-        <v>81538.21075765489</v>
+        <v>82851.95958571542</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3706,10 +3706,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>15332.1425896919</v>
       </c>
       <c r="D40">
-        <v>151451.9999999999</v>
+        <v>123500.1425896918</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3720,10 +3720,10 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>18056.84408316749</v>
       </c>
       <c r="D41">
-        <v>85488.00000000003</v>
+        <v>83264.84408316744</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3734,10 +3734,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>37809.46261560979</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>125521.4626156098</v>
+        <v>128540.0000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>109603</v>
+        <v>129313</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>109434</v>
+        <v>70545.99999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3776,10 +3776,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>7288.280200976282</v>
+        <v>18824.39285802505</v>
       </c>
       <c r="D45">
-        <v>81992.28020097622</v>
+        <v>84766.39285802501</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3790,10 +3790,10 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>9203.46078250061</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>100224.4607825006</v>
+        <v>106905.9999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>123436</v>
+        <v>123008.0000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>161972.0000000001</v>
+        <v>158988</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>108392</v>
+        <v>100385.9999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>97560.00000000003</v>
+        <v>98782.00000000009</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>196344.9999999999</v>
+        <v>101395</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3874,10 +3874,10 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>3087.623160127434</v>
+        <v>602.5434036991792</v>
       </c>
       <c r="D52">
-        <v>100126.6231601274</v>
+        <v>105150.5434036991</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3888,10 +3888,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>4470.853096502251</v>
       </c>
       <c r="D53">
-        <v>149164.0000000001</v>
+        <v>122642.8530965022</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>170990</v>
+        <v>184414.9999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>175149.9999999999</v>
+        <v>148705.0000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>115884</v>
+        <v>152048.0000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>179419.9999999999</v>
+        <v>177715</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3958,10 +3958,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>7427.80836096283</v>
+        <v>4026.91768243807</v>
       </c>
       <c r="D58">
-        <v>64251.80836096286</v>
+        <v>66038.91768243808</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>82073.00000000001</v>
+        <v>108362.0000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>63873.00000000003</v>
+        <v>64520.00000000004</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>82393.99999999994</v>
+        <v>85850.00000000006</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>160696</v>
+        <v>99492.00000000006</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>72473.99999999997</v>
+        <v>71520</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4042,10 +4042,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>23798.82474135706</v>
+        <v>47382.24748860789</v>
       </c>
       <c r="D64">
-        <v>135488.8247413572</v>
+        <v>139967.2474886079</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4056,10 +4056,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>4741.578043045563</v>
+        <v>4285.932959453843</v>
       </c>
       <c r="D65">
-        <v>64181.57804304554</v>
+        <v>64025.93295945385</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4070,10 +4070,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>31144.10358722045</v>
       </c>
       <c r="D66">
-        <v>158810.0000000001</v>
+        <v>137524.1035872205</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>128602</v>
+        <v>116563.0000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>97784.00000000006</v>
+        <v>94051.99999999994</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4112,10 +4112,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>17353.50404066061</v>
+        <v>11676.95223354302</v>
       </c>
       <c r="D69">
-        <v>137403.5040406605</v>
+        <v>139741.952233543</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>107425.9999999999</v>
+        <v>108390</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4140,10 +4140,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>26690.32153630444</v>
+        <v>42111.54660830405</v>
       </c>
       <c r="D71">
-        <v>124262.3215363044</v>
+        <v>122555.5466083041</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>69273.99999999999</v>
+        <v>72177.00000000003</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>125645.0000000001</v>
+        <v>93572.00000000007</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4182,10 +4182,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>1948.696603587901</v>
+        <v>8887.169323279537</v>
       </c>
       <c r="D74">
-        <v>83916.69660358797</v>
+        <v>85507.16932327952</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4196,10 +4196,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>28387.89249534257</v>
+        <v>10961.22948333714</v>
       </c>
       <c r="D75">
-        <v>122979.8924953426</v>
+        <v>122729.2294833371</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4210,10 +4210,10 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>978.6402332289872</v>
       </c>
       <c r="D76">
-        <v>126004</v>
+        <v>104464.640233229</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>121790</v>
+        <v>148785</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4238,10 +4238,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>11852.00882542802</v>
+        <v>13326.22554791432</v>
       </c>
       <c r="D78">
-        <v>63291.00882542798</v>
+        <v>65848.22554791435</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>66547</v>
+        <v>65853.99999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4266,10 +4266,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>15557.93082067328</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>80983.93082067324</v>
+        <v>90306.00000000007</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>111150</v>
+        <v>144215</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4294,10 +4294,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>39855.18814668855</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>135400.1881466886</v>
+        <v>163795</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>119072.0000000001</v>
+        <v>97346.00000000007</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>146064.0000000001</v>
+        <v>95296.00000000009</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4336,10 +4336,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>3112.695306374058</v>
+        <v>10534.30654254652</v>
       </c>
       <c r="D85">
-        <v>65104.69530637404</v>
+        <v>66918.30654254647</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>102817.0000000001</v>
+        <v>127042.0000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>101170.0000000001</v>
+        <v>112602.9999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>187580</v>
+        <v>196064.9999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>68598.00000000001</v>
+        <v>67157.99999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>114865</v>
+        <v>104349.9999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>60266.99999999999</v>
+        <v>75057.00000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>89879.99999999996</v>
+        <v>85935.99999999994</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>61962.99999999996</v>
+        <v>60659.99999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4462,10 +4462,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>3361.505982848415</v>
+        <v>10212.35890730783</v>
       </c>
       <c r="D94">
-        <v>62903.50598284846</v>
+        <v>65760.35890730782</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>162860</v>
+        <v>137036</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>69429</v>
+        <v>65485.99999999998</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>60765.00000000002</v>
+        <v>66686.99999999997</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>142875</v>
+        <v>142490.0000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4532,10 +4532,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>13419.17529799308</v>
       </c>
       <c r="D99">
-        <v>120043</v>
+        <v>105565.175297993</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>119396</v>
+        <v>117336</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4560,10 +4560,10 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>7699.480555311704</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>83027.48055531166</v>
+        <v>89216.00000000007</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4574,10 +4574,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>12040.28238150278</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>83200.28238150272</v>
+        <v>88224.00000000006</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4588,10 +4588,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>37423.85708012903</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>121799.8570801291</v>
+        <v>125291.9999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4602,10 +4602,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>40140.07621758198</v>
       </c>
       <c r="D104">
-        <v>142099.9999999999</v>
+        <v>139030.0762175819</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4616,10 +4616,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>40658.92183413683</v>
+        <v>41994.01629000397</v>
       </c>
       <c r="D105">
-        <v>132518.9218341368</v>
+        <v>137249.016290004</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>134955.9999999999</v>
+        <v>160552.0000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>66440.00000000003</v>
+        <v>79613.99999999997</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4658,10 +4658,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>12444.01777076941</v>
       </c>
       <c r="D108">
-        <v>67135.99999999997</v>
+        <v>65407.01777076939</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>99028</v>
+        <v>141924</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>107897.9999999999</v>
+        <v>82081.99999999993</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4700,10 +4700,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>18636.85744128298</v>
+        <v>10584.77325204341</v>
       </c>
       <c r="D111">
-        <v>138131.857441283</v>
+        <v>135884.7732520435</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4714,10 +4714,10 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>5252.205026395503</v>
       </c>
       <c r="D112">
-        <v>105471.9999999999</v>
+        <v>106137.2050263956</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>72218.00000000004</v>
+        <v>71669.99999999994</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>92801.99999999999</v>
+        <v>76798.00000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>117610</v>
+        <v>120280</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4770,10 +4770,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>21336.92423115313</v>
       </c>
       <c r="D116">
-        <v>90137.99999999994</v>
+        <v>83916.92423115313</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>162979.9999999999</v>
+        <v>167640.0000000001</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>103015</v>
+        <v>121735.0000000001</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>95848.00000000007</v>
+        <v>86235.99999999999</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4826,10 +4826,10 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>2974.254620532243</v>
       </c>
       <c r="D120">
-        <v>154480.0000000001</v>
+        <v>137444.2546205323</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>97777.99999999999</v>
+        <v>101752</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>124082</v>
+        <v>132832.9999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4868,10 +4868,10 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>148.4989114274285</v>
+        <v>4467.782350963193</v>
       </c>
       <c r="D123">
-        <v>64602.49891142741</v>
+        <v>64323.78235096319</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>96225.99999999993</v>
+        <v>72948.00000000004</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>74854.00000000006</v>
+        <v>88982.00000000007</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>97800.00000000009</v>
+        <v>163747.9999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>88612.00000000004</v>
+        <v>79304.00000000006</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4938,10 +4938,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>31849.56892991711</v>
       </c>
       <c r="D128">
-        <v>122032</v>
+        <v>123213.5689299171</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>90976</v>
+        <v>76189.99999999994</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4966,10 +4966,10 @@
         <v>131</v>
       </c>
       <c r="C130">
-        <v>19290.71566048938</v>
+        <v>39322.34824700824</v>
       </c>
       <c r="D130">
-        <v>122098.7156604894</v>
+        <v>123910.3482470083</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>149040.0000000001</v>
+        <v>130483.9999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4994,10 +4994,10 @@
         <v>133</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>12615.69780126728</v>
       </c>
       <c r="D132">
-        <v>95296.00000000009</v>
+        <v>83797.69780126729</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5008,10 +5008,10 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>16474.57423279643</v>
       </c>
       <c r="D133">
-        <v>157292</v>
+        <v>122958.5742327964</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>86877.99999999993</v>
+        <v>95025.99999999997</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>93844.00000000003</v>
+        <v>89258.00000000006</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5050,10 +5050,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>25773.86964513655</v>
       </c>
       <c r="D136">
-        <v>141250.0000000001</v>
+        <v>136648.8696451365</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>73136.00000000003</v>
+        <v>83347.99999999997</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5078,10 +5078,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>9773.731812096084</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>65024.73181209608</v>
+        <v>66686.00000000003</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5092,10 +5092,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>7060.619106763028</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>83774.61910676303</v>
+        <v>91684.00000000004</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5106,10 +5106,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>15927.65987823764</v>
+        <v>13591.87018564291</v>
       </c>
       <c r="D140">
-        <v>101209.6598782377</v>
+        <v>106364.8701856429</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>147884</v>
+        <v>146483.9999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>132953.0000000001</v>
+        <v>108797.0000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>137268.0000000001</v>
+        <v>150171.9999999999</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5162,10 +5162,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>17041.67240258308</v>
+        <v>23827.60833364225</v>
       </c>
       <c r="D144">
-        <v>135186.6724025831</v>
+        <v>138127.6083336422</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5176,10 +5176,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>32142.66990961239</v>
+        <v>48550.15072181114</v>
       </c>
       <c r="D145">
-        <v>135757.6699096125</v>
+        <v>140595.1507218111</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>108521</v>
+        <v>117476.0000000001</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>132592.0000000001</v>
+        <v>139364.0000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5218,10 +5218,10 @@
         <v>149</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>2080.990408732207</v>
       </c>
       <c r="D148">
-        <v>65884.99999999997</v>
+        <v>66288.99040873222</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>70879.00000000004</v>
+        <v>70993.99999999997</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5246,10 +5246,10 @@
         <v>151</v>
       </c>
       <c r="C150">
-        <v>23143.55388581086</v>
+        <v>36171.4760595105</v>
       </c>
       <c r="D150">
-        <v>137198.5538858109</v>
+        <v>141661.4760595106</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5260,10 +5260,10 @@
         <v>152</v>
       </c>
       <c r="C151">
-        <v>8655.351772353875</v>
+        <v>3300.150948480863</v>
       </c>
       <c r="D151">
-        <v>65554.35177235387</v>
+        <v>65000.15094848085</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5274,10 +5274,10 @@
         <v>153</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>44071.96172980951</v>
       </c>
       <c r="D152">
-        <v>141639.9999999999</v>
+        <v>138431.9617298095</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>150984</v>
+        <v>96867.99999999997</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>85772.00000000006</v>
+        <v>96209.99999999999</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5316,10 +5316,10 @@
         <v>156</v>
       </c>
       <c r="C155">
-        <v>15797.67202304296</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>66208.67202304299</v>
+        <v>67747.99999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>85074.00000000001</v>
+        <v>97517.99999999997</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>62638.00000000006</v>
+        <v>65905.00000000003</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>177330</v>
+        <v>131835.0000000001</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>79157.99999999999</v>
+        <v>72892.00000000006</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>94592.00000000003</v>
+        <v>116270.0000000001</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>105979.9999999999</v>
+        <v>98649.99999999994</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>113905.0000000001</v>
+        <v>190180</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5428,10 +5428,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>11857.38789335763</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>82793.38789335763</v>
+        <v>84177.99999999994</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>110310.0000000001</v>
+        <v>150260.0000000001</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>61376.99999999998</v>
+        <v>72451.99999999994</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>130944.9999999999</v>
+        <v>145725.0000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>101909.0000000001</v>
+        <v>105386</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>106400.0000000001</v>
+        <v>147295.0000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>110068.9999999999</v>
+        <v>127952</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>158863.9999999999</v>
+        <v>110768</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5540,10 +5540,10 @@
         <v>172</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>13860.75727804103</v>
       </c>
       <c r="D171">
-        <v>135375.9999999999</v>
+        <v>124364.757278041</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>141744</v>
+        <v>127272</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>105200</v>
+        <v>123944.9999999999</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>105840</v>
+        <v>188019.9999999999</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>168716</v>
+        <v>91684.00000000004</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>74799.00000000004</v>
+        <v>72078</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>83699.99999999997</v>
+        <v>97265.99999999991</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>98533.99999999999</v>
+        <v>102966.0000000001</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>136607.0000000001</v>
+        <v>131048</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5666,10 +5666,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>9101.692513428963</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>84167.69251342896</v>
+        <v>97859.99999999994</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>61471.99999999999</v>
+        <v>62638.00000000006</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5694,10 +5694,10 @@
         <v>183</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>20675.28197803078</v>
       </c>
       <c r="D182">
-        <v>105024.9999999999</v>
+        <v>103833.2819780308</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>110909.9999999999</v>
+        <v>188274.9999999999</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5722,10 +5722,10 @@
         <v>185</v>
       </c>
       <c r="C184">
-        <v>13427.58538686193</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>136597.5853868618</v>
+        <v>141865</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5736,10 +5736,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>1983.505982848423</v>
+        <v>15170.35890730777</v>
       </c>
       <c r="D185">
-        <v>62903.50598284846</v>
+        <v>65760.35890730782</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5750,10 +5750,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>12732.32164617239</v>
+        <v>3082.305532645645</v>
       </c>
       <c r="D186">
-        <v>64927.32164617242</v>
+        <v>64803.30553264567</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>86557.99999999993</v>
+        <v>120737</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>70672.99999999996</v>
+        <v>71780.00000000004</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>75030.00000000006</v>
+        <v>93325.99999999996</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>120505</v>
+        <v>116641.0000000001</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5820,10 +5820,10 @@
         <v>192</v>
       </c>
       <c r="C191">
-        <v>395.4401409358397</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>66101.44014093588</v>
+        <v>67036.00000000003</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>96263.00000000001</v>
+        <v>135895.9999999999</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>102707.0000000001</v>
+        <v>82334.00000000006</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5862,10 +5862,10 @@
         <v>195</v>
       </c>
       <c r="C194">
-        <v>4133.692513428992</v>
+        <v>6533.696685412055</v>
       </c>
       <c r="D194">
-        <v>84167.69251342896</v>
+        <v>83141.696685412</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>107335</v>
+        <v>111319</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5890,10 +5890,10 @@
         <v>197</v>
       </c>
       <c r="C196">
-        <v>32359.27084147139</v>
+        <v>27773.2175040596</v>
       </c>
       <c r="D196">
-        <v>102413.2708414714</v>
+        <v>102555.2175040596</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>100966.9999999999</v>
+        <v>90775.99999999997</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5918,10 +5918,10 @@
         <v>199</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>42108.17195582981</v>
       </c>
       <c r="D198">
-        <v>138700</v>
+        <v>123740.1719558297</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>128060.0000000001</v>
+        <v>176955.0000000001</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>164855</v>
+        <v>170120</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>102680</v>
+        <v>80125.99999999994</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>152325</v>
+        <v>146805</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5988,10 +5988,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>8200.967150688259</v>
+        <v>553.6581353951769</v>
       </c>
       <c r="D203">
-        <v>82058.9671506883</v>
+        <v>84815.65813539516</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>168452</v>
+        <v>141971.9999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>91764</v>
+        <v>74221.99999999999</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>60424.00000000002</v>
+        <v>69075.00000000004</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>66246.99999999996</v>
+        <v>73217.99999999996</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6058,10 +6058,10 @@
         <v>209</v>
       </c>
       <c r="C208">
-        <v>2800.67599730139</v>
+        <v>4490.163259219989</v>
       </c>
       <c r="D208">
-        <v>64840.67599730138</v>
+        <v>66724.16325922003</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>141251.9999999999</v>
+        <v>119400</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>77310.00000000003</v>
+        <v>72719.99999999997</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6100,10 +6100,10 @@
         <v>212</v>
       </c>
       <c r="C211">
-        <v>33137.8840683725</v>
+        <v>0</v>
       </c>
       <c r="D211">
-        <v>121437.8840683725</v>
+        <v>123683.9999999999</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6114,10 +6114,10 @@
         <v>213</v>
       </c>
       <c r="C212">
-        <v>1401.979795251857</v>
+        <v>22.05547810536518</v>
       </c>
       <c r="D212">
-        <v>82891.97979525181</v>
+        <v>84150.05547810529</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>169796.0000000001</v>
+        <v>143476</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6142,10 +6142,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>9970.806847802218</v>
+        <v>22647.8914083887</v>
       </c>
       <c r="D214">
-        <v>85062.80684780223</v>
+        <v>83771.89140838865</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>152614.9999999999</v>
+        <v>107085</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6170,10 +6170,10 @@
         <v>217</v>
       </c>
       <c r="C216">
-        <v>21390.14637860397</v>
+        <v>39783.65821380228</v>
       </c>
       <c r="D216">
-        <v>141130.146378604</v>
+        <v>138728.6582138024</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6184,10 +6184,10 @@
         <v>218</v>
       </c>
       <c r="C217">
-        <v>49912.92689268278</v>
+        <v>6317.577648689359</v>
       </c>
       <c r="D217">
-        <v>141692.9268926828</v>
+        <v>137617.5776486893</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>118491.9999999999</v>
+        <v>164592</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>112996.9999999999</v>
+        <v>111181.9999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>137548.0000000001</v>
+        <v>124892.0000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>72429.99999999999</v>
+        <v>72140</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>138672.0000000001</v>
+        <v>144100</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6268,10 +6268,10 @@
         <v>224</v>
       </c>
       <c r="C223">
-        <v>24639.48987421161</v>
+        <v>26031.28240159228</v>
       </c>
       <c r="D223">
-        <v>124255.4898742117</v>
+        <v>119959.2824015922</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6282,10 +6282,10 @@
         <v>225</v>
       </c>
       <c r="C224">
-        <v>20091.38513278575</v>
+        <v>9342.505622214419</v>
       </c>
       <c r="D224">
-        <v>81129.38513278576</v>
+        <v>83936.50562221445</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>127709.0000000001</v>
+        <v>86185.99999999993</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>68746</v>
+        <v>68968.00000000001</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6324,10 +6324,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>23467.5849486888</v>
       </c>
       <c r="D227">
-        <v>93952.00000000001</v>
+        <v>85209.58494868885</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6338,10 +6338,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>38701.95338917983</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>125325.9533891798</v>
+        <v>145196.0000000001</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>111571</v>
+        <v>104956</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>113701.9999999999</v>
+        <v>122197.9999999999</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>80887.99999999994</v>
+        <v>98686.00000000007</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>88522.00000000006</v>
+        <v>70390.00000000001</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>150315.0000000001</v>
+        <v>103974.9999999999</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>131964.9999999999</v>
+        <v>148874.9999999999</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6436,10 +6436,10 @@
         <v>236</v>
       </c>
       <c r="C235">
-        <v>17321.61891955179</v>
+        <v>813.1625029739662</v>
       </c>
       <c r="D235">
-        <v>81925.61891955181</v>
+        <v>84717.16250297394</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6450,10 +6450,10 @@
         <v>237</v>
       </c>
       <c r="C236">
-        <v>9654.880530906987</v>
+        <v>0</v>
       </c>
       <c r="D236">
-        <v>135439.8805309071</v>
+        <v>162610.0000000001</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>86062.00000000004</v>
+        <v>103833.9999999999</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>163429.9999999999</v>
+        <v>132335.0000000001</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6492,10 +6492,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>16153.19818170591</v>
       </c>
       <c r="D239">
-        <v>89755.99999999999</v>
+        <v>83207.19818170593</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6506,10 +6506,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>10406.14335362716</v>
       </c>
       <c r="D240">
-        <v>69813.00000000003</v>
+        <v>65256.14335362717</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6520,10 +6520,10 @@
         <v>242</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>39609.47921729146</v>
       </c>
       <c r="D241">
-        <v>155023.9999999999</v>
+        <v>121185.4792172914</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>104812</v>
+        <v>95420.00000000003</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>85889.00000000006</v>
+        <v>106084.9999999999</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6562,10 +6562,10 @@
         <v>245</v>
       </c>
       <c r="C244">
-        <v>9004.423180522368</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>142389.4231805225</v>
+        <v>152015</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>168336.0000000001</v>
+        <v>120443.9999999999</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>66978.99999999994</v>
+        <v>79391.99999999997</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6604,10 +6604,10 @@
         <v>248</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>11040.62578286523</v>
       </c>
       <c r="D247">
-        <v>64377.99999999999</v>
+        <v>65390.62578286526</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6618,10 +6618,10 @@
         <v>249</v>
       </c>
       <c r="C248">
-        <v>7953.611507335714</v>
+        <v>6530.59953577532</v>
       </c>
       <c r="D248">
-        <v>64156.61150733575</v>
+        <v>66222.5995357753</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>142920.0000000001</v>
+        <v>111380</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6646,10 +6646,10 @@
         <v>251</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>12749.67357812884</v>
       </c>
       <c r="D250">
-        <v>111430</v>
+        <v>102495.6735781288</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>65324.99999999999</v>
+        <v>78007.00000000006</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6674,10 +6674,10 @@
         <v>253</v>
       </c>
       <c r="C252">
-        <v>8910.435512716052</v>
+        <v>0</v>
       </c>
       <c r="D252">
-        <v>125834.435512716</v>
+        <v>138532</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>82898.00000000006</v>
+        <v>75852.00000000004</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>140019.9999999999</v>
+        <v>158124</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>72369.99999999999</v>
+        <v>89836.00000000006</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>96764.00000000001</v>
+        <v>146124.0000000001</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6744,10 +6744,10 @@
         <v>258</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>5032.270967167671</v>
       </c>
       <c r="D257">
-        <v>142776.0000000001</v>
+        <v>123956.2709671676</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6758,10 +6758,10 @@
         <v>259</v>
       </c>
       <c r="C258">
-        <v>2851.572353973621</v>
+        <v>2261.797268909198</v>
       </c>
       <c r="D258">
-        <v>123999.5723539736</v>
+        <v>125285.7972689092</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>160170</v>
+        <v>183424.9999999999</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6786,10 +6786,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>888.3810017173018</v>
+        <v>13358.95163159905</v>
       </c>
       <c r="D260">
-        <v>66423.38100171735</v>
+        <v>65865.95163159909</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6800,10 +6800,10 @@
         <v>262</v>
       </c>
       <c r="C261">
-        <v>7852.81006695838</v>
+        <v>0</v>
       </c>
       <c r="D261">
-        <v>82490.81006695844</v>
+        <v>97837.99999999994</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>141955</v>
+        <v>136455.0000000001</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>124465</v>
+        <v>162494.9999999999</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6842,10 +6842,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>11763.26127248848</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>102562.2612724886</v>
+        <v>118908.9999999999</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>112756.0000000001</v>
+        <v>117840</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>187179.9999999999</v>
+        <v>181309.9999999999</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>69229</v>
+        <v>67874.00000000004</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6898,10 +6898,10 @@
         <v>269</v>
       </c>
       <c r="C268">
-        <v>9776.269231692044</v>
+        <v>18095.4375624441</v>
       </c>
       <c r="D268">
-        <v>84482.26923169207</v>
+        <v>82917.43756244415</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>183785.0000000001</v>
+        <v>106714.9999999999</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>69476.00000000001</v>
+        <v>63804.99999999996</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>104304</v>
+        <v>100572</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6954,10 +6954,10 @@
         <v>273</v>
       </c>
       <c r="C272">
-        <v>7295.029630117569</v>
+        <v>0</v>
       </c>
       <c r="D272">
-        <v>136375.0296301176</v>
+        <v>157465.0000000001</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6968,10 +6968,10 @@
         <v>274</v>
       </c>
       <c r="C273">
-        <v>2298.838058170899</v>
+        <v>11960.15434473135</v>
       </c>
       <c r="D273">
-        <v>65086.83805817092</v>
+        <v>64916.15434473132</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6982,10 +6982,10 @@
         <v>275</v>
       </c>
       <c r="C274">
-        <v>3495.665501570358</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>64994.66550157037</v>
+        <v>69832.00000000003</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>181379.9999999999</v>
+        <v>100320.0000000001</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>142796</v>
+        <v>112587.9999999999</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>76448.00000000006</v>
+        <v>63443.99999999996</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>173025.0000000001</v>
+        <v>118510.0000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>143414.9999999999</v>
+        <v>151925</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>74311.99999999994</v>
+        <v>89942.00000000006</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>62094</v>
+        <v>62460.99999999997</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7094,10 +7094,10 @@
         <v>283</v>
       </c>
       <c r="C282">
-        <v>22122.30446184764</v>
+        <v>0</v>
       </c>
       <c r="D282">
-        <v>101374.3044618477</v>
+        <v>119848.0000000001</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7108,10 +7108,10 @@
         <v>284</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>19246.74882081844</v>
       </c>
       <c r="D283">
-        <v>123100</v>
+        <v>105419.7488208184</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7122,10 +7122,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>15913.95817092327</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>101210.9581709233</v>
+        <v>121309</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7136,10 +7136,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>2282.429531568283</v>
+        <v>0</v>
       </c>
       <c r="D285">
-        <v>81620.4295315683</v>
+        <v>85748.00000000006</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>120823.9999999999</v>
+        <v>91200</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7164,10 +7164,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>2299.385132785726</v>
+        <v>0</v>
       </c>
       <c r="D287">
-        <v>81129.38513278576</v>
+        <v>92436.00000000007</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7178,10 +7178,10 @@
         <v>289</v>
       </c>
       <c r="C288">
-        <v>1183.658648203185</v>
+        <v>6004.777449085559</v>
       </c>
       <c r="D288">
-        <v>63998.65864820318</v>
+        <v>66829.77744908555</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>89634.00000000006</v>
+        <v>98512.00000000007</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>68432.00000000006</v>
+        <v>75941.00000000003</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>123647</v>
+        <v>90718.99999999999</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7234,10 +7234,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>7849.941407198276</v>
+        <v>0</v>
       </c>
       <c r="D292">
-        <v>83203.94140719826</v>
+        <v>83932.00000000006</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7248,10 +7248,10 @@
         <v>294</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>37135.71862517155</v>
       </c>
       <c r="D293">
-        <v>125872</v>
+        <v>123427.7186251716</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>99658.99999999993</v>
+        <v>113438</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7276,10 +7276,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>39786.31263242142</v>
+        <v>20624.39042336642</v>
       </c>
       <c r="D295">
-        <v>125250.3126324214</v>
+        <v>120456.3904233664</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>113420.0000000001</v>
+        <v>123736.0000000001</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>140139.9999999999</v>
+        <v>147480.0000000001</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7318,10 +7318,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>45642.06229690861</v>
+        <v>22459.5028764965</v>
       </c>
       <c r="D298">
-        <v>138052.0622969086</v>
+        <v>137559.5028764965</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>64595.99999999995</v>
+        <v>65737.00000000004</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7346,10 +7346,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>12054.30916091258</v>
+        <v>6083.254565414783</v>
       </c>
       <c r="D300">
-        <v>62167.30916091258</v>
+        <v>65012.25456541479</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>144403.9999999999</v>
+        <v>117359.9999999999</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7374,10 +7374,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>13656.51245447386</v>
+        <v>22271.45963631438</v>
       </c>
       <c r="D302">
-        <v>102343.5124544739</v>
+        <v>102900.4596363144</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7388,10 +7388,10 @@
         <v>304</v>
       </c>
       <c r="C303">
-        <v>10042.32153630443</v>
+        <v>0</v>
       </c>
       <c r="D303">
-        <v>124262.3215363044</v>
+        <v>137316.0000000001</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7402,10 +7402,10 @@
         <v>305</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>2441.250528307719</v>
       </c>
       <c r="D304">
-        <v>143240</v>
+        <v>138521.2505283078</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>161388.0000000001</v>
+        <v>142040.0000000001</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7430,10 +7430,10 @@
         <v>307</v>
       </c>
       <c r="C306">
-        <v>3785.414724436894</v>
+        <v>0</v>
       </c>
       <c r="D306">
-        <v>99261.41472443697</v>
+        <v>119298.9999999999</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>107777</v>
+        <v>107084.0000000001</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7458,10 +7458,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>26159.82536702006</v>
+        <v>0</v>
       </c>
       <c r="D308">
-        <v>99666.82536702011</v>
+        <v>116374.0000000001</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>98388.00000000001</v>
+        <v>72486.00000000006</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>68796</v>
+        <v>67649.00000000003</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>173940.0000000001</v>
+        <v>171305.0000000001</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>160180</v>
+        <v>129025</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7528,10 +7528,10 @@
         <v>314</v>
       </c>
       <c r="C313">
-        <v>38184.11615103466</v>
+        <v>0</v>
       </c>
       <c r="D313">
-        <v>122112.1161510347</v>
+        <v>130948</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>104012</v>
+        <v>130730</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7556,10 +7556,10 @@
         <v>316</v>
       </c>
       <c r="C315">
-        <v>13383.71047937615</v>
+        <v>0</v>
       </c>
       <c r="D315">
-        <v>64131.71047937615</v>
+        <v>68822.99999999994</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7570,10 +7570,10 @@
         <v>317</v>
       </c>
       <c r="C316">
-        <v>1018.499126987183</v>
+        <v>11443.89100668121</v>
       </c>
       <c r="D316">
-        <v>64444.49912698716</v>
+        <v>64211.89100668119</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>189555.0000000002</v>
+        <v>164849.9999999999</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7598,10 +7598,10 @@
         <v>319</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>32850.46757955072</v>
       </c>
       <c r="D318">
-        <v>141059.9999999999</v>
+        <v>136490.4675795507</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7612,10 +7612,10 @@
         <v>320</v>
       </c>
       <c r="C319">
-        <v>12423.41685869949</v>
+        <v>1282.488069704479</v>
       </c>
       <c r="D319">
-        <v>64047.41685869953</v>
+        <v>65665.48806970443</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>150489.9999999999</v>
+        <v>143404.9999999999</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7640,10 +7640,10 @@
         <v>322</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>16879.31975388041</v>
       </c>
       <c r="D321">
-        <v>134520</v>
+        <v>118519.3197538803</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>132545</v>
+        <v>91493</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>86308.99999999996</v>
+        <v>97748.00000000009</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>95636.00000000006</v>
+        <v>111028</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>67444.99999999996</v>
+        <v>78739.00000000003</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>61860</v>
+        <v>73405.00000000006</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>61159.99999999996</v>
+        <v>62646.99999999998</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7738,10 +7738,10 @@
         <v>329</v>
       </c>
       <c r="C328">
-        <v>7976.088280761622</v>
+        <v>0</v>
       </c>
       <c r="D328">
-        <v>63818.08828076161</v>
+        <v>69401.99999999999</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>90136.00000000003</v>
+        <v>91821.99999999996</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7766,10 +7766,10 @@
         <v>331</v>
       </c>
       <c r="C330">
-        <v>3630.222418012854</v>
+        <v>0</v>
       </c>
       <c r="D330">
-        <v>136270.2224180129</v>
+        <v>153675</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>148988</v>
+        <v>155016.0000000001</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>74703.99999999994</v>
+        <v>61643.99999999999</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7808,10 +7808,10 @@
         <v>334</v>
       </c>
       <c r="C333">
-        <v>10763.63472401521</v>
+        <v>16189.87440055344</v>
       </c>
       <c r="D333">
-        <v>102060.6347240152</v>
+        <v>102146.8744005534</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>86728.99999999996</v>
+        <v>118382</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>84366</v>
+        <v>98505.99999999999</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>82229.99999999999</v>
+        <v>90318.00000000004</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7864,10 +7864,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>16492.93501473647</v>
       </c>
       <c r="D337">
-        <v>106786</v>
+        <v>104930.9350147365</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>184899.9999999999</v>
+        <v>100310</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>87130.00000000004</v>
+        <v>91858.00000000007</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>60908.99999999999</v>
+        <v>79443.00000000003</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>67552</v>
+        <v>63082.99999999997</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>167648.0000000001</v>
+        <v>152927.9999999999</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>190490.0000000001</v>
+        <v>160539.9999999999</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>106094</v>
+        <v>102358</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7976,10 +7976,10 @@
         <v>346</v>
       </c>
       <c r="C345">
-        <v>0</v>
+        <v>851.5302217980643</v>
       </c>
       <c r="D345">
-        <v>143856.0000000001</v>
+        <v>123787.5302217981</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>347</v>
       </c>
       <c r="C346">
-        <v>15277.84958302767</v>
+        <v>15415.06895825693</v>
       </c>
       <c r="D346">
-        <v>83355.84958302762</v>
+        <v>84777.06895825689</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>100229.9999999999</v>
+        <v>138800</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8018,10 +8018,10 @@
         <v>349</v>
       </c>
       <c r="C348">
-        <v>2670.635034213774</v>
+        <v>0</v>
       </c>
       <c r="D348">
-        <v>62992.63503421372</v>
+        <v>69450.99999999999</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="D349">
-        <v>116451.9999999999</v>
+        <v>109033</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="D350">
-        <v>180300</v>
+        <v>144720</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>84580.99999999994</v>
+        <v>80971.99999999994</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>160570.0000000001</v>
+        <v>157135</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="D353">
-        <v>137139.9999999999</v>
+        <v>108687.9999999999</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>161210.0000000001</v>
+        <v>150755.0000000001</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="D355">
-        <v>158008.0000000001</v>
+        <v>117184</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="D356">
-        <v>99525.99999999999</v>
+        <v>86608.00000000003</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>71104</v>
+        <v>84455.99999999996</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="D358">
-        <v>106491.9999999999</v>
+        <v>110155.0000000001</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>163688.0000000001</v>
+        <v>162227.9999999999</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="D360">
-        <v>76213</v>
+        <v>66645.99999999999</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="D361">
-        <v>102190</v>
+        <v>79619.99999999996</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="D362">
-        <v>117473.0000000001</v>
+        <v>113173.9999999999</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8228,10 +8228,10 @@
         <v>364</v>
       </c>
       <c r="C363">
-        <v>3972.062296908494</v>
+        <v>0</v>
       </c>
       <c r="D363">
-        <v>138052.0622969086</v>
+        <v>184954.9999999999</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8242,10 +8242,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>14376.20012637645</v>
       </c>
       <c r="D364">
-        <v>97733.99999999991</v>
+        <v>84618.2001263764</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>63897.00000000001</v>
+        <v>65281.99999999999</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>141092</v>
+        <v>134495.9999999999</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="D367">
-        <v>103740</v>
+        <v>72777.99999999996</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="D368">
-        <v>78520</v>
+        <v>69585.99999999997</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="D369">
-        <v>114051.9999999999</v>
+        <v>120108.9999999999</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="D370">
-        <v>116314.9999999999</v>
+        <v>90398.00000000006</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="D371">
-        <v>102510</v>
+        <v>153125</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8354,10 +8354,10 @@
         <v>373</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>20856.87864875713</v>
       </c>
       <c r="D372">
-        <v>120559.0000000001</v>
+        <v>105052.8786487571</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="D373">
-        <v>76066.99999999994</v>
+        <v>69053.99999999997</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>79675.99999999997</v>
+        <v>100922</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8396,10 +8396,10 @@
         <v>376</v>
       </c>
       <c r="C375">
-        <v>19851.31490290702</v>
+        <v>1025.567634895284</v>
       </c>
       <c r="D375">
-        <v>101173.314902907</v>
+        <v>103866.5676348952</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8410,10 +8410,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>6043.801551737168</v>
+        <v>17817.68132216926</v>
       </c>
       <c r="D376">
-        <v>135603.8015517371</v>
+        <v>138217.6813221693</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8424,10 +8424,10 @@
         <v>378</v>
       </c>
       <c r="C377">
-        <v>0</v>
+        <v>14653.72065995094</v>
       </c>
       <c r="D377">
-        <v>167100</v>
+        <v>136048.7206599509</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>67949.00000000003</v>
+        <v>62898.00000000001</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>133996</v>
+        <v>137904</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="D380">
-        <v>60566.99999999998</v>
+        <v>61870.00000000001</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8480,10 +8480,10 @@
         <v>382</v>
       </c>
       <c r="C381">
-        <v>35114.26008848405</v>
+        <v>39748.67613900351</v>
       </c>
       <c r="D381">
-        <v>122310.260088484</v>
+        <v>123024.6761390035</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="D382">
-        <v>68986.99999999994</v>
+        <v>65548</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="D383">
-        <v>64435.99999999996</v>
+        <v>78684.00000000006</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="D384">
-        <v>116719.0000000001</v>
+        <v>107655.9999999999</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>103474.0000000001</v>
+        <v>71648.00000000003</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>172925</v>
+        <v>104779.9999999999</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="D387">
-        <v>138124.9999999999</v>
+        <v>129524.9999999999</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="D388">
-        <v>136030.9999999999</v>
+        <v>138398.0000000001</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>99782.00000000007</v>
+        <v>104514</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8606,10 +8606,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>8953.481182506177</v>
+        <v>7606.707448841873</v>
       </c>
       <c r="D390">
-        <v>82057.48118250612</v>
+        <v>83098.70744884189</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="D391">
-        <v>182520.0000000001</v>
+        <v>155934.9999999999</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>129130.0000000001</v>
+        <v>167405</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>65447.00000000004</v>
+        <v>76897.99999999999</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>85881.99999999999</v>
+        <v>99264.00000000009</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8676,10 +8676,10 @@
         <v>396</v>
       </c>
       <c r="C395">
-        <v>4726.079984997385</v>
+        <v>10821.86394457149</v>
       </c>
       <c r="D395">
-        <v>62766.07998499741</v>
+        <v>65357.86394457147</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>146483.9999999999</v>
+        <v>118548</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="D397">
-        <v>122008.0000000001</v>
+        <v>118113.9999999999</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8718,10 +8718,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>32169.72513008369</v>
+        <v>27553.21699338855</v>
       </c>
       <c r="D398">
-        <v>104788.7251300837</v>
+        <v>104648.2169933886</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="D399">
-        <v>111916</v>
+        <v>137844</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="D400">
-        <v>149395</v>
+        <v>171400</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>73269</v>
+        <v>76003.99999999996</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8774,10 +8774,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>0</v>
+        <v>18235.00480449514</v>
       </c>
       <c r="D402">
-        <v>104464</v>
+        <v>104405.0048044952</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>70489.99999999999</v>
+        <v>71492.00000000004</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8802,10 +8802,10 @@
         <v>405</v>
       </c>
       <c r="C404">
-        <v>2291.854887210022</v>
+        <v>5215.308716108353</v>
       </c>
       <c r="D404">
-        <v>66047.85488720998</v>
+        <v>65598.30871610837</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>126774.9999999999</v>
+        <v>153575.0000000001</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8830,10 +8830,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>28589.67672066492</v>
       </c>
       <c r="D406">
-        <v>128480</v>
+        <v>122881.6767206649</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8844,10 +8844,10 @@
         <v>408</v>
       </c>
       <c r="C407">
-        <v>0</v>
+        <v>24771.67844613055</v>
       </c>
       <c r="D407">
-        <v>128311.9999999999</v>
+        <v>122931.6784461306</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="D408">
-        <v>111176</v>
+        <v>95267.00000000006</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="D409">
-        <v>85929.99999999994</v>
+        <v>95898.00000000001</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8886,10 +8886,10 @@
         <v>411</v>
       </c>
       <c r="C410">
-        <v>3154.292824823249</v>
+        <v>0</v>
       </c>
       <c r="D410">
-        <v>83136.29282482323</v>
+        <v>99813.99999999996</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="D411">
-        <v>109195.9999999999</v>
+        <v>151888</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8914,10 +8914,10 @@
         <v>413</v>
       </c>
       <c r="C412">
-        <v>2941.50618738441</v>
+        <v>0</v>
       </c>
       <c r="D412">
-        <v>103208.5061873845</v>
+        <v>119548</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="D413">
-        <v>128438</v>
+        <v>129257</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8942,10 +8942,10 @@
         <v>415</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>12274.83842752065</v>
       </c>
       <c r="D414">
-        <v>180024.9999999999</v>
+        <v>136029.8384275206</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>98261.99999999996</v>
+        <v>82417.99999999997</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="D416">
-        <v>111059.9999999999</v>
+        <v>164760</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="D417">
-        <v>89692.00000000001</v>
+        <v>95849.99999999996</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="D418">
-        <v>70156.99999999994</v>
+        <v>61935.99999999999</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>148600.0000000001</v>
+        <v>128888</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>113078</v>
+        <v>94097.00000000003</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>103463</v>
+        <v>123212.0000000001</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>114935</v>
+        <v>113626.9999999999</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9068,10 +9068,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>0</v>
+        <v>1142.769380427228</v>
       </c>
       <c r="D423">
-        <v>68006.99999999997</v>
+        <v>65104.76938042721</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>92614.00000000006</v>
+        <v>102717.9999999999</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <v>76915.00000000001</v>
+        <v>72563.00000000006</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9110,10 +9110,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>0</v>
+        <v>25317.46472978847</v>
       </c>
       <c r="D426">
-        <v>109287.9999999999</v>
+        <v>106078.4647297885</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <v>91097.00000000006</v>
+        <v>100181</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <v>92519.99999999996</v>
+        <v>146127.9999999999</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>79233.00000000001</v>
+        <v>67049.00000000001</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <v>153769.9999999999</v>
+        <v>150659.9999999999</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>432</v>
       </c>
       <c r="C431">
-        <v>4400.509992496518</v>
+        <v>0</v>
       </c>
       <c r="D431">
-        <v>139295.5099924965</v>
+        <v>180145</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9194,10 +9194,10 @@
         <v>433</v>
       </c>
       <c r="C432">
-        <v>27860.797496218</v>
+        <v>0</v>
       </c>
       <c r="D432">
-        <v>135270.7974962179</v>
+        <v>163475.0000000001</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9208,10 +9208,10 @@
         <v>434</v>
       </c>
       <c r="C433">
-        <v>0</v>
+        <v>31497.86612223937</v>
       </c>
       <c r="D433">
-        <v>157510</v>
+        <v>138297.8661222394</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="D434">
-        <v>87105.99999999996</v>
+        <v>84826.00000000003</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="D435">
-        <v>121480</v>
+        <v>120940.0000000001</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="D436">
-        <v>96958.00000000006</v>
+        <v>90355.99999999997</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <v>78295.99999999999</v>
+        <v>73326.00000000006</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9278,10 +9278,10 @@
         <v>439</v>
       </c>
       <c r="C438">
-        <v>0</v>
+        <v>11894.74226222711</v>
       </c>
       <c r="D438">
-        <v>98218.00000000001</v>
+        <v>82150.74226222708</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9292,10 +9292,10 @@
         <v>440</v>
       </c>
       <c r="C439">
-        <v>5991.386954981557</v>
+        <v>12732.25101345414</v>
       </c>
       <c r="D439">
-        <v>128579.3869549815</v>
+        <v>122064.2510134541</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>63562.99999999995</v>
+        <v>61143.00000000003</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>78837</v>
+        <v>74428.99999999996</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="D442">
-        <v>122794.9999999999</v>
+        <v>93439.99999999997</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9348,10 +9348,10 @@
         <v>444</v>
       </c>
       <c r="C443">
-        <v>8114.766353845596</v>
+        <v>29385.63264333741</v>
       </c>
       <c r="D443">
-        <v>102918.7663538457</v>
+        <v>104068.6326433374</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9362,10 +9362,10 @@
         <v>445</v>
       </c>
       <c r="C444">
-        <v>31623.71071048737</v>
+        <v>0</v>
       </c>
       <c r="D444">
-        <v>121859.7107104874</v>
+        <v>127212.0000000001</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <v>171349.9999999999</v>
+        <v>192720.0000000001</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="D446">
-        <v>103820</v>
+        <v>114098.0000000001</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D447">
-        <v>145364.0000000001</v>
+        <v>165424</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="D448">
-        <v>89380.00000000001</v>
+        <v>90106.00000000001</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9432,10 +9432,10 @@
         <v>450</v>
       </c>
       <c r="C449">
-        <v>3979.439272663556</v>
+        <v>14229.93686026803</v>
       </c>
       <c r="D449">
-        <v>64893.43927266352</v>
+        <v>66762.936860268</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>131356.9999999999</v>
+        <v>117605</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="D451">
-        <v>179470</v>
+        <v>170134.9999999999</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="D452">
-        <v>136591.9999999999</v>
+        <v>87241.99999999994</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <v>137366</v>
+        <v>113336</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9502,10 +9502,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>2123.692790219589</v>
+        <v>6466.535380799156</v>
       </c>
       <c r="D454">
-        <v>63302.69279021964</v>
+        <v>65956.53538079918</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <v>151764</v>
+        <v>128276.0000000001</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="D456">
-        <v>89609.00000000007</v>
+        <v>109814</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>92160.00000000007</v>
+        <v>83562.00000000007</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9558,10 +9558,10 @@
         <v>459</v>
       </c>
       <c r="C458">
-        <v>7125.626715437786</v>
+        <v>11103.98465818327</v>
       </c>
       <c r="D458">
-        <v>82459.62671543779</v>
+        <v>85111.98465818325</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9572,10 +9572,10 @@
         <v>460</v>
       </c>
       <c r="C459">
-        <v>0</v>
+        <v>22332.2794515553</v>
       </c>
       <c r="D459">
-        <v>103251.9999999999</v>
+        <v>105700.2794515553</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9586,10 +9586,10 @@
         <v>461</v>
       </c>
       <c r="C460">
-        <v>5412.395628242812</v>
+        <v>24521.14297215131</v>
       </c>
       <c r="D460">
-        <v>102499.3956282428</v>
+        <v>103767.1429721514</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9600,10 +9600,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>1011.044514454814</v>
+        <v>17732.98952535096</v>
       </c>
       <c r="D461">
-        <v>84707.04451445476</v>
+        <v>84134.9895253509</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9614,10 +9614,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>19500.2713765011</v>
+        <v>0</v>
       </c>
       <c r="D462">
-        <v>122452.271376501</v>
+        <v>123288</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="D463">
-        <v>79488.00000000006</v>
+        <v>86468.00000000003</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9642,10 +9642,10 @@
         <v>465</v>
       </c>
       <c r="C464">
-        <v>0</v>
+        <v>37072.88030707343</v>
       </c>
       <c r="D464">
-        <v>130104</v>
+        <v>122840.8803070735</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>167120.0000000001</v>
+        <v>101455</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>110028</v>
+        <v>108496</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>155187.9999999999</v>
+        <v>93695.99999999994</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>74760.99999999994</v>
+        <v>78587.99999999997</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9712,10 +9712,10 @@
         <v>470</v>
       </c>
       <c r="C469">
-        <v>17482.87338247237</v>
+        <v>44792.17190058136</v>
       </c>
       <c r="D469">
-        <v>140207.8733824725</v>
+        <v>137582.1719005813</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9726,10 +9726,10 @@
         <v>471</v>
       </c>
       <c r="C470">
-        <v>8016.091647041016</v>
+        <v>0</v>
       </c>
       <c r="D470">
-        <v>103423.0916470411</v>
+        <v>126744.9999999999</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>114688</v>
+        <v>129796.0000000001</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="D472">
-        <v>133640</v>
+        <v>84427.99999999999</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <v>152219.9999999999</v>
+        <v>138570.0000000001</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9782,10 +9782,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>35722.61307577099</v>
+        <v>0</v>
       </c>
       <c r="D474">
-        <v>125790.613075771</v>
+        <v>125748</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <v>102929.0000000001</v>
+        <v>114509.0000000001</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="D476">
-        <v>92145.99999999997</v>
+        <v>86071.99999999999</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <v>65719.00000000003</v>
+        <v>69829.00000000001</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>136651.9999999999</v>
+        <v>109324</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>119663</v>
+        <v>137771</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9866,10 +9866,10 @@
         <v>481</v>
       </c>
       <c r="C480">
-        <v>2065.914520776088</v>
+        <v>0</v>
       </c>
       <c r="D480">
-        <v>84089.9145207761</v>
+        <v>97228</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9880,10 +9880,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>12506.44150864461</v>
+        <v>16746.68525607506</v>
       </c>
       <c r="D481">
-        <v>82798.44150864458</v>
+        <v>83630.68525607506</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9894,10 +9894,10 @@
         <v>483</v>
       </c>
       <c r="C482">
-        <v>0</v>
+        <v>22090.23199560516</v>
       </c>
       <c r="D482">
-        <v>99090.00000000006</v>
+        <v>83150.23199560515</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <v>95869.99999999999</v>
+        <v>83631.99999999996</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="D484">
-        <v>129983</v>
+        <v>92038.99999999996</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>127092.0000000001</v>
+        <v>93924.00000000001</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="D486">
-        <v>61797.00000000002</v>
+        <v>78847.99999999996</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <v>175659.9999999999</v>
+        <v>191835</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="D488">
-        <v>162063.9999999999</v>
+        <v>156076.0000000001</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9992,10 +9992,10 @@
         <v>490</v>
       </c>
       <c r="C489">
-        <v>0</v>
+        <v>13987.57004258221</v>
       </c>
       <c r="D489">
-        <v>69326.00000000004</v>
+        <v>66583.57004258221</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="D490">
-        <v>99029.00000000006</v>
+        <v>131653.9999999999</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10020,10 +10020,10 @@
         <v>492</v>
       </c>
       <c r="C491">
-        <v>31308.71562717338</v>
+        <v>18123.0457609639</v>
       </c>
       <c r="D491">
-        <v>102337.7156271734</v>
+        <v>105481.0457609639</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="D492">
-        <v>142664.9999999999</v>
+        <v>168035</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>105395.0000000001</v>
+        <v>139280.0000000001</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10062,10 +10062,10 @@
         <v>495</v>
       </c>
       <c r="C494">
-        <v>37240.99038067921</v>
+        <v>1305.649402215058</v>
       </c>
       <c r="D494">
-        <v>123636.9903806793</v>
+        <v>123277.649402215</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="D495">
-        <v>101738.0000000001</v>
+        <v>119552.0000000001</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10090,10 +10090,10 @@
         <v>497</v>
       </c>
       <c r="C496">
-        <v>3483.84413226544</v>
+        <v>0</v>
       </c>
       <c r="D496">
-        <v>84855.84413226538</v>
+        <v>88312.00000000004</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="D497">
-        <v>65992.99999999996</v>
+        <v>66896</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10118,10 +10118,10 @@
         <v>499</v>
       </c>
       <c r="C498">
-        <v>17247.14050316184</v>
+        <v>0</v>
       </c>
       <c r="D498">
-        <v>82163.14050316185</v>
+        <v>89152.00000000004</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>132980</v>
+        <v>118705.9999999999</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10146,10 +10146,10 @@
         <v>501</v>
       </c>
       <c r="C500">
-        <v>0</v>
+        <v>19389.97089983686</v>
       </c>
       <c r="D500">
-        <v>105805</v>
+        <v>103159.9708998369</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>102935</v>
+        <v>137324</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>77451.99999999993</v>
+        <v>77214.00000000001</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>79611.99999999993</v>
+        <v>98477.99999999991</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>66392.99999999997</v>
+        <v>63345.99999999995</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10216,10 +10216,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>0</v>
+        <v>22598.9401927579</v>
       </c>
       <c r="D505">
-        <v>115582</v>
+        <v>105831.9401927579</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="D506">
-        <v>87953.99999999994</v>
+        <v>81902</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>133913.0000000001</v>
+        <v>120160.9999999999</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>77181.00000000003</v>
+        <v>79096.99999999994</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>75621.99999999994</v>
+        <v>84648.00000000003</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>137371.9999999999</v>
+        <v>159151.9999999999</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10300,10 +10300,10 @@
         <v>512</v>
       </c>
       <c r="C511">
-        <v>20202.89880421244</v>
+        <v>0</v>
       </c>
       <c r="D511">
-        <v>84550.89880421241</v>
+        <v>99956</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>150410</v>
+        <v>181585.0000000001</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10328,10 +10328,10 @@
         <v>514</v>
       </c>
       <c r="C513">
-        <v>21680.03364849247</v>
+        <v>5771.200392421626</v>
       </c>
       <c r="D513">
-        <v>82696.03364849248</v>
+        <v>82457.20039242157</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10342,10 +10342,10 @@
         <v>515</v>
       </c>
       <c r="C514">
-        <v>11930.6661743439</v>
+        <v>9482.723385470992</v>
       </c>
       <c r="D514">
-        <v>65877.66617434387</v>
+        <v>65246.72338547103</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10356,10 +10356,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <v>2755.077212847464</v>
       </c>
       <c r="D515">
-        <v>95784.00000000007</v>
+        <v>83513.07721284742</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10370,10 +10370,10 @@
         <v>517</v>
       </c>
       <c r="C516">
-        <v>0</v>
+        <v>18245.9401927578</v>
       </c>
       <c r="D516">
-        <v>114445</v>
+        <v>105831.9401927579</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10384,10 +10384,10 @@
         <v>518</v>
       </c>
       <c r="C517">
-        <v>0</v>
+        <v>4594.706511795637</v>
       </c>
       <c r="D517">
-        <v>185099.9999999999</v>
+        <v>135024.7065117957</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>112004.0000000001</v>
+        <v>103754</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>76711.00000000004</v>
+        <v>60417.00000000001</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="D520">
-        <v>136787.0000000001</v>
+        <v>85127.00000000007</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>107678</v>
+        <v>80931.99999999993</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10454,10 +10454,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>0</v>
+        <v>14950.43767626393</v>
       </c>
       <c r="D522">
-        <v>167994.9999999999</v>
+        <v>139220.437676264</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10468,10 +10468,10 @@
         <v>524</v>
       </c>
       <c r="C523">
-        <v>28548.81070181385</v>
+        <v>0</v>
       </c>
       <c r="D523">
-        <v>136873.8107018138</v>
+        <v>163364.9999999999</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>109366.0000000001</v>
+        <v>74168</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>126067.9999999999</v>
+        <v>165492.0000000001</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10510,10 +10510,10 @@
         <v>527</v>
       </c>
       <c r="C526">
-        <v>0</v>
+        <v>11214.53793511787</v>
       </c>
       <c r="D526">
-        <v>103510.0000000001</v>
+        <v>106798.5379351178</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10524,10 +10524,10 @@
         <v>528</v>
       </c>
       <c r="C527">
-        <v>18710.18055545153</v>
+        <v>4259.012604544492</v>
       </c>
       <c r="D527">
-        <v>102981.1805554515</v>
+        <v>102801.0126045444</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10538,10 +10538,10 @@
         <v>529</v>
       </c>
       <c r="C528">
-        <v>1413.790300805078</v>
+        <v>17571.10188314019</v>
       </c>
       <c r="D528">
-        <v>83865.79030080502</v>
+        <v>82485.1018831402</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="D529">
-        <v>74097.99999999994</v>
+        <v>109103.9999999999</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10566,10 +10566,10 @@
         <v>531</v>
       </c>
       <c r="C530">
-        <v>16351.33158242346</v>
+        <v>0</v>
       </c>
       <c r="D530">
-        <v>84445.33158242345</v>
+        <v>97892.00000000007</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>126698</v>
+        <v>92644.99999999997</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10594,10 +10594,10 @@
         <v>533</v>
       </c>
       <c r="C532">
-        <v>0</v>
+        <v>22778.57285889219</v>
       </c>
       <c r="D532">
-        <v>186475.0000000001</v>
+        <v>137228.5728588921</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>61507.00000000001</v>
+        <v>67306.00000000006</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="D534">
-        <v>160425</v>
+        <v>146450</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="D535">
-        <v>154780</v>
+        <v>113080.0000000001</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="D536">
-        <v>169659.9999999999</v>
+        <v>189540.0000000002</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10664,10 +10664,10 @@
         <v>538</v>
       </c>
       <c r="C537">
-        <v>11339.11618911395</v>
+        <v>17517.43766104651</v>
       </c>
       <c r="D537">
-        <v>82563.11618911398</v>
+        <v>83529.43766104653</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="D538">
-        <v>136952</v>
+        <v>135900</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>71995.00000000004</v>
+        <v>64328.99999999999</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>108794</v>
+        <v>78189.99999999997</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10720,10 +10720,10 @@
         <v>542</v>
       </c>
       <c r="C541">
-        <v>28078.3070709266</v>
+        <v>0</v>
       </c>
       <c r="D541">
-        <v>99902.30707092657</v>
+        <v>105904.0000000001</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10734,10 +10734,10 @@
         <v>543</v>
       </c>
       <c r="C542">
-        <v>10930.56124429778</v>
+        <v>0</v>
       </c>
       <c r="D542">
-        <v>62482.56124429774</v>
+        <v>65876.00000000001</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10748,10 +10748,10 @@
         <v>544</v>
       </c>
       <c r="C543">
-        <v>0</v>
+        <v>12554.93647869023</v>
       </c>
       <c r="D543">
-        <v>165949.9999999999</v>
+        <v>137264.9364786903</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10762,10 +10762,10 @@
         <v>545</v>
       </c>
       <c r="C544">
-        <v>4506.933847055639</v>
+        <v>7338.330638050189</v>
       </c>
       <c r="D544">
-        <v>84652.93384705565</v>
+        <v>81610.33063805017</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>64864.99999999999</v>
+        <v>71397.00000000003</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10790,10 +10790,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>0</v>
+        <v>12562.06715742446</v>
       </c>
       <c r="D546">
-        <v>154796.0000000001</v>
+        <v>119578.0671574244</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>63655.99999999999</v>
+        <v>79312.00000000004</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10818,10 +10818,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>30437.67762580531</v>
+        <v>0</v>
       </c>
       <c r="D548">
-        <v>133447.6776258053</v>
+        <v>162634.9999999999</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10832,10 +10832,10 @@
         <v>550</v>
       </c>
       <c r="C549">
-        <v>30187.3220402372</v>
+        <v>37907.27332554043</v>
       </c>
       <c r="D549">
-        <v>133727.3220402372</v>
+        <v>139477.2733255405</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>116879</v>
+        <v>97216.99999999997</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>91896.00000000006</v>
+        <v>101028</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10874,10 +10874,10 @@
         <v>553</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>12339.73632368038</v>
       </c>
       <c r="D552">
-        <v>170789.9999999999</v>
+        <v>138489.7363236803</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>125152.9999999999</v>
+        <v>125108</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>130271.9999999999</v>
+        <v>144035.9999999999</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <v>73326.00000000006</v>
+        <v>67027.00000000001</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10930,10 +10930,10 @@
         <v>557</v>
       </c>
       <c r="C556">
-        <v>7662.6894036515</v>
+        <v>10087.45784889252</v>
       </c>
       <c r="D556">
-        <v>64974.68940365145</v>
+        <v>65839.45784889256</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10944,10 +10944,10 @@
         <v>558</v>
       </c>
       <c r="C557">
-        <v>0</v>
+        <v>21696.46809590483</v>
       </c>
       <c r="D557">
-        <v>93874.00000000007</v>
+        <v>81942.46809590481</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>108544</v>
+        <v>73309.99999999996</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>60471.99999999996</v>
+        <v>62699.99999999999</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>132577.9999999999</v>
+        <v>126125.0000000001</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>110588</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>101161.9999999999</v>
+        <v>125566.9999999999</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11028,10 +11028,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>0</v>
+        <v>23192.76513452573</v>
       </c>
       <c r="D563">
-        <v>115339.0000000001</v>
+        <v>104025.7651345257</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>97591.99999999999</v>
+        <v>136456.9999999999</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="D565">
-        <v>85419.99999999994</v>
+        <v>86596.00000000004</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>135688</v>
+        <v>169279.9999999999</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>96047.99999999997</v>
+        <v>103543.9999999999</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="D568">
-        <v>62680.00000000003</v>
+        <v>69993.99999999994</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>93848.00000000009</v>
+        <v>135091.9999999999</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="D570">
-        <v>112376</v>
+        <v>94484.00000000006</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11140,10 +11140,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>0</v>
+        <v>21633.32176473379</v>
       </c>
       <c r="D571">
-        <v>111352.0000000001</v>
+        <v>103918.3217647338</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11154,10 +11154,10 @@
         <v>573</v>
       </c>
       <c r="C572">
-        <v>18717.299887409</v>
+        <v>44601.30803534377</v>
       </c>
       <c r="D572">
-        <v>135317.2998874089</v>
+        <v>139556.3080353438</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11168,10 +11168,10 @@
         <v>574</v>
       </c>
       <c r="C573">
-        <v>9687.571914467379</v>
+        <v>0</v>
       </c>
       <c r="D573">
-        <v>137497.5719144673</v>
+        <v>162759.9999999999</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11182,10 +11182,10 @@
         <v>575</v>
       </c>
       <c r="C574">
-        <v>7536.842491174146</v>
+        <v>13779.48439148345</v>
       </c>
       <c r="D574">
-        <v>137496.8424911741</v>
+        <v>138269.4843914834</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>97486.99999999996</v>
+        <v>125143.9999999999</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11210,10 +11210,10 @@
         <v>577</v>
       </c>
       <c r="C576">
-        <v>11086.7624131964</v>
+        <v>4015.27766324945</v>
       </c>
       <c r="D576">
-        <v>62431.76241319636</v>
+        <v>65837.27766324948</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>108224</v>
+        <v>159567.9999999999</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11238,10 +11238,10 @@
         <v>579</v>
       </c>
       <c r="C578">
-        <v>0</v>
+        <v>5169.781980971376</v>
       </c>
       <c r="D578">
-        <v>68468.00000000001</v>
+        <v>65968.7819809714</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11252,10 +11252,10 @@
         <v>580</v>
       </c>
       <c r="C579">
-        <v>15898.84938921493</v>
+        <v>24814.56466840646</v>
       </c>
       <c r="D579">
-        <v>127046.849389215</v>
+        <v>119594.5646684065</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>99973.99999999997</v>
+        <v>74843.99999999996</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>127355</v>
+        <v>189850</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11294,10 +11294,10 @@
         <v>583</v>
       </c>
       <c r="C582">
-        <v>0</v>
+        <v>13561.56970042012</v>
       </c>
       <c r="D582">
-        <v>179880</v>
+        <v>135521.56970042</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>89728.99999999999</v>
+        <v>84422.00000000006</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>105829.9999999999</v>
+        <v>115444.9999999999</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>88825.99999999994</v>
+        <v>123164</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>167136.0000000001</v>
+        <v>150459.9999999999</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="D587">
-        <v>65066</v>
+        <v>75677.00000000006</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>103829.9999999999</v>
+        <v>79276.00000000003</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>164092.0000000001</v>
+        <v>137024.0000000001</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>136588</v>
+        <v>136639.9999999999</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="D591">
-        <v>121309.9999999999</v>
+        <v>137260</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>99780</v>
+        <v>96180.00000000001</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="D593">
-        <v>103724.0000000001</v>
+        <v>104945</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11462,10 +11462,10 @@
         <v>595</v>
       </c>
       <c r="C594">
-        <v>0</v>
+        <v>42494.88000936285</v>
       </c>
       <c r="D594">
-        <v>187159.9999999999</v>
+        <v>137289.8800093629</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11476,10 +11476,10 @@
         <v>596</v>
       </c>
       <c r="C595">
-        <v>35697.27360135151</v>
+        <v>0</v>
       </c>
       <c r="D595">
-        <v>136752.2736013515</v>
+        <v>183725</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>164174.9999999999</v>
+        <v>136735.0000000001</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11504,10 +11504,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>31270.73706339693</v>
+        <v>22783.01880288834</v>
       </c>
       <c r="D597">
-        <v>105824.7370633969</v>
+        <v>103019.0188028884</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>76951.99999999996</v>
+        <v>63462.00000000005</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11532,10 +11532,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>11148.61911805534</v>
+        <v>0</v>
       </c>
       <c r="D599">
-        <v>137428.6191180554</v>
+        <v>162804.9999999999</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>89329.99999999996</v>
+        <v>84607.99999999994</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11560,10 +11560,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>0</v>
+        <v>2550.844204747998</v>
       </c>
       <c r="D601">
-        <v>67911.99999999999</v>
+        <v>66028.84420474805</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>79141.99999999999</v>
+        <v>68613.00000000004</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11588,10 +11588,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>0</v>
+        <v>21928.03593656184</v>
       </c>
       <c r="D603">
-        <v>93454.00000000007</v>
+        <v>84358.03593656179</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="D604">
-        <v>186295.0000000001</v>
+        <v>126625</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11616,10 +11616,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>2993.275273848856</v>
+        <v>6685.212836902239</v>
       </c>
       <c r="D605">
-        <v>61874.27527384886</v>
+        <v>65418.21283690228</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>91498.99999999994</v>
+        <v>88022.00000000004</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11644,10 +11644,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>6337.481707679603</v>
+        <v>20610.60981105048</v>
       </c>
       <c r="D607">
-        <v>101675.4817076796</v>
+        <v>103999.6098110505</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="D608">
-        <v>99718.99999999994</v>
+        <v>138206.0000000001</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11672,10 +11672,10 @@
         <v>610</v>
       </c>
       <c r="C609">
-        <v>0</v>
+        <v>17966.70754847409</v>
       </c>
       <c r="D609">
-        <v>103456</v>
+        <v>104241.7075484741</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="D610">
-        <v>160707.9999999999</v>
+        <v>130483.9999999999</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11700,10 +11700,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>0</v>
+        <v>16604.35055027348</v>
       </c>
       <c r="D611">
-        <v>119871.9999999999</v>
+        <v>104265.3505502735</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>87838.00000000006</v>
+        <v>89945.99999999999</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11728,10 +11728,10 @@
         <v>614</v>
       </c>
       <c r="C613">
-        <v>7619.035571796048</v>
+        <v>11757.03706781762</v>
       </c>
       <c r="D613">
-        <v>63528.03557179603</v>
+        <v>66867.03706781763</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="D614">
-        <v>106644.0000000001</v>
+        <v>83114.00000000007</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>91839.99999999993</v>
+        <v>92306.00000000003</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11770,10 +11770,10 @@
         <v>617</v>
       </c>
       <c r="C616">
-        <v>0</v>
+        <v>21304.92767201109</v>
       </c>
       <c r="D616">
-        <v>118800.9999999999</v>
+        <v>104300.9276720111</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11784,10 +11784,10 @@
         <v>618</v>
       </c>
       <c r="C617">
-        <v>8875.635340257984</v>
+        <v>0</v>
       </c>
       <c r="D617">
-        <v>83643.63534025801</v>
+        <v>97941.99999999993</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11798,10 +11798,10 @@
         <v>619</v>
       </c>
       <c r="C618">
-        <v>0</v>
+        <v>7298.323123910559</v>
       </c>
       <c r="D618">
-        <v>67390.00000000004</v>
+        <v>66115.32312391054</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11812,10 +11812,10 @@
         <v>620</v>
       </c>
       <c r="C619">
-        <v>20090.43590241579</v>
+        <v>15219.14633944747</v>
       </c>
       <c r="D619">
-        <v>103386.4359024157</v>
+        <v>104422.1463394474</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>62462.00000000001</v>
+        <v>74428.99999999996</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>101460</v>
+        <v>126180</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11854,10 +11854,10 @@
         <v>623</v>
       </c>
       <c r="C622">
-        <v>0</v>
+        <v>32382.06836450794</v>
       </c>
       <c r="D622">
-        <v>179115</v>
+        <v>138027.068364508</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>73460.99999999994</v>
+        <v>60375.00000000005</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="D624">
-        <v>128167.9999999999</v>
+        <v>126428</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="D625">
-        <v>78920.00000000003</v>
+        <v>88283.99999999993</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>136616</v>
+        <v>125788</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>90422.00000000007</v>
+        <v>136319</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>76795.99999999994</v>
+        <v>78413.99999999996</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>97445</v>
+        <v>102191</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>147367.9999999999</v>
+        <v>139252</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11980,10 +11980,10 @@
         <v>632</v>
       </c>
       <c r="C631">
-        <v>5733.97664807018</v>
+        <v>32062.79676626941</v>
       </c>
       <c r="D631">
-        <v>136188.9766480701</v>
+        <v>140492.7967662693</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="D632">
-        <v>117157.0000000001</v>
+        <v>109270</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12008,10 +12008,10 @@
         <v>634</v>
       </c>
       <c r="C633">
-        <v>12434.63493510446</v>
+        <v>22367.29862460093</v>
       </c>
       <c r="D633">
-        <v>83918.6349351044</v>
+        <v>84505.29862460088</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="D634">
-        <v>120276</v>
+        <v>151644</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="D635">
-        <v>187629.9999999999</v>
+        <v>162180</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="D636">
-        <v>181570</v>
+        <v>134565.0000000001</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="D637">
-        <v>179870.0000000001</v>
+        <v>197074.9999999999</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="D638">
-        <v>107430.0000000001</v>
+        <v>174610</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12095,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="D639">
-        <v>98902.00000000007</v>
+        <v>88502.00000000001</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12106,10 +12106,10 @@
         <v>641</v>
       </c>
       <c r="C640">
-        <v>38483.81781276864</v>
+        <v>16896.07677168697</v>
       </c>
       <c r="D640">
-        <v>136078.8178127686</v>
+        <v>140411.076771687</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12120,10 +12120,10 @@
         <v>642</v>
       </c>
       <c r="C641">
-        <v>10273.04832829187</v>
+        <v>7443.626060074603</v>
       </c>
       <c r="D641">
-        <v>81553.04832829181</v>
+        <v>85193.62606007462</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12134,10 +12134,10 @@
         <v>643</v>
       </c>
       <c r="C642">
-        <v>10666.17462892213</v>
+        <v>4160.914968303761</v>
       </c>
       <c r="D642">
-        <v>63656.17462892209</v>
+        <v>66592.91496830377</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12148,10 +12148,10 @@
         <v>644</v>
       </c>
       <c r="C643">
-        <v>11358.55042507678</v>
+        <v>25826.95693415798</v>
       </c>
       <c r="D643">
-        <v>99853.55042507676</v>
+        <v>104712.9569341579</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12162,10 +12162,10 @@
         <v>645</v>
       </c>
       <c r="C644">
-        <v>3436.557404810708</v>
+        <v>0</v>
       </c>
       <c r="D644">
-        <v>82146.55740481074</v>
+        <v>89133.99999999996</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="D645">
-        <v>78954.00000000004</v>
+        <v>69621.99999999999</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="D646">
-        <v>153284.9999999999</v>
+        <v>153569.9999999999</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -12204,10 +12204,10 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>0</v>
+        <v>20767.61658739059</v>
       </c>
       <c r="D647">
-        <v>85834.00000000004</v>
+        <v>84459.61658739058</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="D648">
-        <v>76402</v>
+        <v>70924.00000000003</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -12232,10 +12232,10 @@
         <v>650</v>
       </c>
       <c r="C649">
-        <v>0</v>
+        <v>24342.27185873648</v>
       </c>
       <c r="D649">
-        <v>106843</v>
+        <v>105214.2718587364</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="D650">
-        <v>108832</v>
+        <v>93052.00000000001</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="D651">
-        <v>104924</v>
+        <v>168512</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="D652">
-        <v>68592.99999999999</v>
+        <v>65844.99999999997</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12288,10 +12288,10 @@
         <v>654</v>
       </c>
       <c r="C653">
-        <v>10323.76804006151</v>
+        <v>0</v>
       </c>
       <c r="D653">
-        <v>82131.76804006146</v>
+        <v>93083.99999999996</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="D654">
-        <v>83660</v>
+        <v>94352</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -12316,10 +12316,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>22547.13276315319</v>
+        <v>0</v>
       </c>
       <c r="D655">
-        <v>103050.1327631532</v>
+        <v>110326</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="D656">
-        <v>165516.0000000001</v>
+        <v>100103.9999999999</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12344,10 +12344,10 @@
         <v>658</v>
       </c>
       <c r="C657">
-        <v>27491.49158188463</v>
+        <v>0</v>
       </c>
       <c r="D657">
-        <v>134431.4915818847</v>
+        <v>167555.0000000001</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="D658">
-        <v>98672.00000000009</v>
+        <v>97587.99999999993</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="D659">
-        <v>107294.0000000001</v>
+        <v>116891</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12386,10 +12386,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>7099.903558363796</v>
+        <v>2009.745199743971</v>
       </c>
       <c r="D660">
-        <v>62401.90355836379</v>
+        <v>66017.74519974392</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="D661">
-        <v>61814.99999999998</v>
+        <v>70628.99999999997</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="D662">
-        <v>149615</v>
+        <v>190610</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12428,10 +12428,10 @@
         <v>664</v>
       </c>
       <c r="C663">
-        <v>10430.68535445565</v>
+        <v>8754.455855533699</v>
       </c>
       <c r="D663">
-        <v>83986.68535445571</v>
+        <v>84554.45585553367</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="D664">
-        <v>99813.99999999996</v>
+        <v>103446</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="D665">
-        <v>150644.0000000001</v>
+        <v>136456.0000000001</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="D666">
-        <v>80233.99999999996</v>
+        <v>90059.99999999996</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12484,10 +12484,10 @@
         <v>668</v>
       </c>
       <c r="C667">
-        <v>0</v>
+        <v>15297.2873327025</v>
       </c>
       <c r="D667">
-        <v>145352.0000000001</v>
+        <v>122745.2873327024</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12498,10 +12498,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>0</v>
+        <v>13626.29571669383</v>
       </c>
       <c r="D668">
-        <v>88488.00000000004</v>
+        <v>82504.29571669386</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="D669">
-        <v>83510.00000000001</v>
+        <v>107751.9999999999</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="D670">
-        <v>126031.9999999999</v>
+        <v>82003.99999999999</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="D671">
-        <v>153703.9999999999</v>
+        <v>132728.0000000001</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12554,10 +12554,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>7360.535285243575</v>
+        <v>23671.18621577107</v>
       </c>
       <c r="D672">
-        <v>121604.5352852436</v>
+        <v>122923.186215771</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="D673">
-        <v>161219.9999999999</v>
+        <v>188350</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12582,10 +12582,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>35926.68850918318</v>
+        <v>0</v>
       </c>
       <c r="D674">
-        <v>123458.6885091832</v>
+        <v>124016</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="D675">
-        <v>105739.9999999999</v>
+        <v>124292</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -12610,10 +12610,10 @@
         <v>677</v>
       </c>
       <c r="C676">
-        <v>21022.43659839008</v>
+        <v>0</v>
       </c>
       <c r="D676">
-        <v>101180.4365983901</v>
+        <v>108475</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="D677">
-        <v>137236.9999999999</v>
+        <v>124748</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12638,10 +12638,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>9008.368603108138</v>
+        <v>0</v>
       </c>
       <c r="D678">
-        <v>64208.36860310815</v>
+        <v>67347.00000000004</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12652,10 +12652,10 @@
         <v>680</v>
       </c>
       <c r="C679">
-        <v>17850.51035700642</v>
+        <v>0</v>
       </c>
       <c r="D679">
-        <v>122702.5103570064</v>
+        <v>157123.9999999999</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12666,10 +12666,10 @@
         <v>681</v>
       </c>
       <c r="C680">
-        <v>10393.74446771988</v>
+        <v>27125.57159174142</v>
       </c>
       <c r="D680">
-        <v>135753.74446772</v>
+        <v>138650.5715917414</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12680,10 +12680,10 @@
         <v>682</v>
       </c>
       <c r="C681">
-        <v>37411.09229062135</v>
+        <v>33685.02957556174</v>
       </c>
       <c r="D681">
-        <v>120215.0922906213</v>
+        <v>122177.0295755617</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12694,10 +12694,10 @@
         <v>683</v>
       </c>
       <c r="C682">
-        <v>0</v>
+        <v>11394.524850346</v>
       </c>
       <c r="D682">
-        <v>99691.99999999993</v>
+        <v>84116.52485034594</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="D683">
-        <v>118975</v>
+        <v>197110.0000000001</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="D684">
-        <v>93962.00000000001</v>
+        <v>87304.00000000004</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12736,10 +12736,10 @@
         <v>686</v>
       </c>
       <c r="C685">
-        <v>0</v>
+        <v>9988.341994790695</v>
       </c>
       <c r="D685">
-        <v>154428</v>
+        <v>122640.3419947907</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12750,10 +12750,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>0</v>
+        <v>14499.62928573175</v>
       </c>
       <c r="D686">
-        <v>68251.99999999997</v>
+        <v>65343.62928573172</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12764,10 +12764,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>5361.279756121396</v>
+        <v>0</v>
       </c>
       <c r="D687">
-        <v>103174.2797561214</v>
+        <v>106572.9999999999</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="D688">
-        <v>91380</v>
+        <v>99838.00000000004</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="D689">
-        <v>127288</v>
+        <v>143728</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12806,10 +12806,10 @@
         <v>691</v>
       </c>
       <c r="C690">
-        <v>4311.77660938607</v>
+        <v>0</v>
       </c>
       <c r="D690">
-        <v>100768.776609386</v>
+        <v>118111</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12820,10 +12820,10 @@
         <v>692</v>
       </c>
       <c r="C691">
-        <v>16691.00833083827</v>
+        <v>12699.49173911847</v>
       </c>
       <c r="D691">
-        <v>122187.0083308383</v>
+        <v>121379.4917391186</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="D692">
-        <v>61923.99999999998</v>
+        <v>75472.00000000006</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="D693">
-        <v>143676</v>
+        <v>157675.9999999999</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -12862,10 +12862,10 @@
         <v>695</v>
       </c>
       <c r="C694">
-        <v>13314.47586486234</v>
+        <v>0</v>
       </c>
       <c r="D694">
-        <v>123966.4758648623</v>
+        <v>125327.9999999999</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -12876,10 +12876,10 @@
         <v>696</v>
       </c>
       <c r="C695">
-        <v>3613.09975310725</v>
+        <v>0</v>
       </c>
       <c r="D695">
-        <v>81021.09975310731</v>
+        <v>83950.00000000001</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="D696">
-        <v>76988.99999999997</v>
+        <v>79297</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -12904,10 +12904,10 @@
         <v>698</v>
       </c>
       <c r="C697">
-        <v>2281.292580468755</v>
+        <v>18772.82626915112</v>
       </c>
       <c r="D697">
-        <v>84953.29258046873</v>
+        <v>84322.82626915109</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="D698">
-        <v>123452</v>
+        <v>139688.0000000001</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12932,10 +12932,10 @@
         <v>700</v>
       </c>
       <c r="C699">
-        <v>17581.13906340751</v>
+        <v>29401.18698267434</v>
       </c>
       <c r="D699">
-        <v>126633.1390634074</v>
+        <v>119317.1869826744</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -12946,10 +12946,10 @@
         <v>701</v>
       </c>
       <c r="C700">
-        <v>29635.9338407156</v>
+        <v>639.7673939970409</v>
       </c>
       <c r="D700">
-        <v>119683.9338407157</v>
+        <v>121419.767393997</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="D701">
-        <v>121094</v>
+        <v>94766.00000000003</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12974,10 +12974,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>0</v>
+        <v>13441.27639953911</v>
       </c>
       <c r="D702">
-        <v>89522.00000000004</v>
+        <v>84125.27639953911</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="D703">
-        <v>80480.00000000004</v>
+        <v>87164.00000000004</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -13002,10 +13002,10 @@
         <v>705</v>
       </c>
       <c r="C704">
-        <v>5511.251386928489</v>
+        <v>10709.79273007918</v>
       </c>
       <c r="D704">
-        <v>101122.2513869285</v>
+        <v>104994.7927300792</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="D705">
-        <v>61149.99999999997</v>
+        <v>74316</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13030,10 +13030,10 @@
         <v>707</v>
       </c>
       <c r="C706">
-        <v>0</v>
+        <v>23663.3052800312</v>
       </c>
       <c r="D706">
-        <v>124788.9999999999</v>
+        <v>104253.3052800312</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="D707">
-        <v>81671.99999999994</v>
+        <v>79210.00000000006</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="D708">
-        <v>154060.0000000001</v>
+        <v>155948.0000000001</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13072,10 +13072,10 @@
         <v>710</v>
       </c>
       <c r="C709">
-        <v>12674.03809532805</v>
+        <v>21403.23043809955</v>
       </c>
       <c r="D709">
-        <v>82602.03809532803</v>
+        <v>83301.23043809953</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13086,10 +13086,10 @@
         <v>711</v>
       </c>
       <c r="C710">
-        <v>315.8785467114794</v>
+        <v>7828.571429138137</v>
       </c>
       <c r="D710">
-        <v>66916.87854671149</v>
+        <v>64727.57142913813</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="D711">
-        <v>110610</v>
+        <v>167790.0000000001</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13114,10 +13114,10 @@
         <v>713</v>
       </c>
       <c r="C712">
-        <v>0</v>
+        <v>30965.22546581354</v>
       </c>
       <c r="D712">
-        <v>149939.9999999999</v>
+        <v>135600.2254658135</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="D713">
-        <v>103988.0000000001</v>
+        <v>72096.00000000003</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13142,10 +13142,10 @@
         <v>715</v>
       </c>
       <c r="C714">
-        <v>0</v>
+        <v>2716.310101906216</v>
       </c>
       <c r="D714">
-        <v>84610.00000000001</v>
+        <v>84262.31010190623</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="D715">
-        <v>110654</v>
+        <v>93358.99999999993</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="D716">
-        <v>63232.00000000001</v>
+        <v>68910.00000000001</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="D717">
-        <v>149109.9999999999</v>
+        <v>186620</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="D718">
-        <v>188209.9999999999</v>
+        <v>179994.9999999999</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="D719">
-        <v>115504.9999999999</v>
+        <v>119543</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13226,10 +13226,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>1149.599969878276</v>
+        <v>5313.300330677921</v>
       </c>
       <c r="D720">
-        <v>63886.59996987828</v>
+        <v>65351.30033067795</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13240,10 +13240,10 @@
         <v>722</v>
       </c>
       <c r="C721">
-        <v>3332.931087765777</v>
+        <v>10253.1116066461</v>
       </c>
       <c r="D721">
-        <v>63887.93108776578</v>
+        <v>66549.11160664613</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="D722">
-        <v>65946.99999999997</v>
+        <v>78022.00000000006</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="D723">
-        <v>73293.99999999997</v>
+        <v>81849.99999999996</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="D724">
-        <v>195980.0000000001</v>
+        <v>135285</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="D725">
-        <v>83966.00000000001</v>
+        <v>82481.99999999994</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -13313,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="D726">
-        <v>161172.0000000001</v>
+        <v>122352.0000000001</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -13324,10 +13324,10 @@
         <v>728</v>
       </c>
       <c r="C727">
-        <v>3876.61052456098</v>
+        <v>21630.1762446635</v>
       </c>
       <c r="D727">
-        <v>83850.61052456101</v>
+        <v>84456.17624466355</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -13338,10 +13338,10 @@
         <v>729</v>
       </c>
       <c r="C728">
-        <v>0</v>
+        <v>10132.11049132393</v>
       </c>
       <c r="D728">
-        <v>66420.99999999996</v>
+        <v>66144.11049132397</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="D729">
-        <v>158620</v>
+        <v>131676</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="D730">
-        <v>87628.99999999999</v>
+        <v>89446.99999999997</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="D731">
-        <v>98101.99999999997</v>
+        <v>120452.0000000001</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="D732">
-        <v>99843.99999999993</v>
+        <v>96473.99999999993</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="D733">
-        <v>78205.99999999996</v>
+        <v>60481.00000000004</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13422,10 +13422,10 @@
         <v>735</v>
       </c>
       <c r="C734">
-        <v>8915.418840314975</v>
+        <v>27141.51274784144</v>
       </c>
       <c r="D734">
-        <v>101121.418840315</v>
+        <v>104833.5127478415</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13436,10 +13436,10 @@
         <v>736</v>
       </c>
       <c r="C735">
-        <v>0</v>
+        <v>29243.28595185073</v>
       </c>
       <c r="D735">
-        <v>143416.0000000001</v>
+        <v>121295.2859518508</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -13450,10 +13450,10 @@
         <v>737</v>
       </c>
       <c r="C736">
-        <v>7806.209225871062</v>
+        <v>28532.3419947907</v>
       </c>
       <c r="D736">
-        <v>126154.209225871</v>
+        <v>122640.3419947907</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13464,10 +13464,10 @@
         <v>738</v>
       </c>
       <c r="C737">
-        <v>0</v>
+        <v>1395.209499324541</v>
       </c>
       <c r="D737">
-        <v>63523.99999999999</v>
+        <v>65920.20949932458</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="D738">
-        <v>62864.99999999999</v>
+        <v>62752.99999999999</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13492,10 +13492,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>0</v>
+        <v>2270.4109049744</v>
       </c>
       <c r="D739">
-        <v>83934.00000000001</v>
+        <v>84220.41090497437</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="D740">
-        <v>109946</v>
+        <v>125284.9999999999</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="D741">
-        <v>168071.9999999999</v>
+        <v>157527.9999999999</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13534,10 +13534,10 @@
         <v>743</v>
       </c>
       <c r="C742">
-        <v>10063.32119253943</v>
+        <v>0</v>
       </c>
       <c r="D742">
-        <v>79379.32119253944</v>
+        <v>98576.00000000007</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13548,10 +13548,10 @@
         <v>744</v>
       </c>
       <c r="C743">
-        <v>0</v>
+        <v>44083.07974034814</v>
       </c>
       <c r="D743">
-        <v>163680</v>
+        <v>134378.0797403482</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13562,10 +13562,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>0</v>
+        <v>4211.537597926683</v>
       </c>
       <c r="D744">
-        <v>60340.00000000001</v>
+        <v>65949.53759792673</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="D745">
-        <v>92785.99999999996</v>
+        <v>121796</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>103198.0000000001</v>
+        <v>108099.9999999999</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13604,10 +13604,10 @@
         <v>748</v>
       </c>
       <c r="C747">
-        <v>0</v>
+        <v>2080.45377049729</v>
       </c>
       <c r="D747">
-        <v>152404.9999999999</v>
+        <v>138180.4537704972</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="D748">
-        <v>81450.00000000003</v>
+        <v>94246</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13632,10 +13632,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>4665.913076003104</v>
+        <v>3569.638501697387</v>
       </c>
       <c r="D749">
-        <v>58929.91307600314</v>
+        <v>65900.63850169737</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13646,10 +13646,10 @@
         <v>751</v>
       </c>
       <c r="C750">
-        <v>29465.79501179562</v>
+        <v>33389.93877106562</v>
       </c>
       <c r="D750">
-        <v>117305.7950117956</v>
+        <v>121265.9387710656</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="D751">
-        <v>69550.99999999997</v>
+        <v>76800.00000000004</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -13674,10 +13674,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>8952.928974151684</v>
+        <v>0</v>
       </c>
       <c r="D752">
-        <v>94702.92897415168</v>
+        <v>117307.0000000001</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13688,10 +13688,10 @@
         <v>754</v>
       </c>
       <c r="C753">
-        <v>11028.93735792786</v>
+        <v>41724.26458769813</v>
       </c>
       <c r="D753">
-        <v>113720.9373579278</v>
+        <v>123184.2645876981</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>115272</v>
+        <v>129008</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -13716,10 +13716,10 @@
         <v>756</v>
       </c>
       <c r="C755">
-        <v>0</v>
+        <v>1839.060676414461</v>
       </c>
       <c r="D755">
-        <v>123496</v>
+        <v>122279.0606764144</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D756">
-        <v>81704.00000000007</v>
+        <v>104135</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13744,10 +13744,10 @@
         <v>758</v>
       </c>
       <c r="C757">
-        <v>0</v>
+        <v>9947.287028756909</v>
       </c>
       <c r="D757">
-        <v>98993.99999999991</v>
+        <v>85709.28702875687</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13758,10 +13758,10 @@
         <v>759</v>
       </c>
       <c r="C758">
-        <v>26748.52055015562</v>
+        <v>10579.94896510012</v>
       </c>
       <c r="D758">
-        <v>100660.5205501556</v>
+        <v>108443.9489651001</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13772,10 +13772,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>0</v>
+        <v>16235.24050885455</v>
       </c>
       <c r="D759">
-        <v>115144</v>
+        <v>108795.2405088546</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13786,10 +13786,10 @@
         <v>761</v>
       </c>
       <c r="C760">
-        <v>0</v>
+        <v>29515.2082532386</v>
       </c>
       <c r="D760">
-        <v>163924.9999999999</v>
+        <v>142160.2082532386</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="D761">
-        <v>79321.99999999994</v>
+        <v>63786.00000000002</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="D762">
-        <v>128170.9999999999</v>
+        <v>113765</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="D763">
-        <v>82835.00000000001</v>
+        <v>124939.9999999999</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="D764">
-        <v>101698</v>
+        <v>85405.99999999996</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="D765">
-        <v>101785</v>
+        <v>113295.0000000001</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13870,10 +13870,10 @@
         <v>767</v>
       </c>
       <c r="C766">
-        <v>0</v>
+        <v>13954.98792202956</v>
       </c>
       <c r="D766">
-        <v>153705.0000000001</v>
+        <v>142514.9879220295</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -13884,10 +13884,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>9903.512270073101</v>
+        <v>0</v>
       </c>
       <c r="D767">
-        <v>84001.51227007304</v>
+        <v>96934</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="D768">
-        <v>90268.00000000003</v>
+        <v>152080</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="D769">
-        <v>169210.0000000001</v>
+        <v>136635.0000000001</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -13926,10 +13926,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>3834.803132881934</v>
+        <v>9388.682792083549</v>
       </c>
       <c r="D770">
-        <v>122186.803132882</v>
+        <v>126500.6827920835</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="D771">
-        <v>131160</v>
+        <v>178844.9999999999</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="D772">
-        <v>73422</v>
+        <v>89286.00000000007</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="D773">
-        <v>162340.0000000001</v>
+        <v>137920</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="D774">
-        <v>78715.00000000001</v>
+        <v>73699.00000000006</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -13996,10 +13996,10 @@
         <v>776</v>
       </c>
       <c r="C775">
-        <v>0</v>
+        <v>5320.948973055405</v>
       </c>
       <c r="D775">
-        <v>152360.0000000001</v>
+        <v>141850.9489730555</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="D776">
-        <v>78889.99999999999</v>
+        <v>82997.99999999996</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14027,7 +14027,7 @@
         <v>0</v>
       </c>
       <c r="D777">
-        <v>99796.00000000007</v>
+        <v>70155.99999999994</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14038,10 +14038,10 @@
         <v>779</v>
       </c>
       <c r="C778">
-        <v>6680.505816824196</v>
+        <v>0</v>
       </c>
       <c r="D778">
-        <v>81814.5058168242</v>
+        <v>91953.99999999997</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="D779">
-        <v>123977</v>
+        <v>98276</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="D780">
-        <v>108796.0000000001</v>
+        <v>85363.99999999999</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="D781">
-        <v>77652.99999999997</v>
+        <v>61957.99999999996</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
       <c r="D782">
-        <v>78885.99999999996</v>
+        <v>107904</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="D783">
-        <v>113135.0000000001</v>
+        <v>157490</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="D784">
-        <v>109502.0000000001</v>
+        <v>81478.99999999997</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="D785">
-        <v>115000.9999999999</v>
+        <v>106943</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="D786">
-        <v>79255.99999999996</v>
+        <v>64022.00000000001</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="D787">
-        <v>112345</v>
+        <v>105460</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="D788">
-        <v>136694.0000000001</v>
+        <v>128111</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14192,10 +14192,10 @@
         <v>790</v>
       </c>
       <c r="C789">
-        <v>0</v>
+        <v>10397.72238537137</v>
       </c>
       <c r="D789">
-        <v>158040.0000000001</v>
+        <v>142242.7223853715</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14206,10 +14206,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>11514.31034092716</v>
+        <v>0</v>
       </c>
       <c r="D790">
-        <v>100168.3103409272</v>
+        <v>121351</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14220,10 +14220,10 @@
         <v>792</v>
       </c>
       <c r="C791">
-        <v>0</v>
+        <v>23576.43392943082</v>
       </c>
       <c r="D791">
-        <v>152383.9999999999</v>
+        <v>127196.4339294309</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>121009.0000000001</v>
+        <v>126700</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14248,10 +14248,10 @@
         <v>794</v>
       </c>
       <c r="C793">
-        <v>0</v>
+        <v>11914.50309870206</v>
       </c>
       <c r="D793">
-        <v>182634.9999999999</v>
+        <v>143309.503098702</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="D794">
-        <v>189219.9999999999</v>
+        <v>148734.9999999999</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="D795">
-        <v>70752.00000000004</v>
+        <v>89924.00000000006</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14290,10 +14290,10 @@
         <v>797</v>
       </c>
       <c r="C796">
-        <v>36608.49788315175</v>
+        <v>18578.0161303507</v>
       </c>
       <c r="D796">
-        <v>136563.4978831517</v>
+        <v>141913.0161303506</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14304,10 +14304,10 @@
         <v>798</v>
       </c>
       <c r="C797">
-        <v>0</v>
+        <v>2019.222815460816</v>
       </c>
       <c r="D797">
-        <v>124736</v>
+        <v>126427.2228154608</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14318,10 +14318,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>12323.90283032747</v>
+        <v>0</v>
       </c>
       <c r="D798">
-        <v>105078.9028303275</v>
+        <v>108943</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="D799">
-        <v>165016.0000000001</v>
+        <v>154176</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="D800">
-        <v>67773.99999999996</v>
+        <v>69437.99999999997</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="D801">
-        <v>91357.99999999996</v>
+        <v>135632</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14374,10 +14374,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>0</v>
+        <v>25067.27010803022</v>
       </c>
       <c r="D802">
-        <v>147970</v>
+        <v>143117.2701080302</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="D803">
-        <v>85432.00000000007</v>
+        <v>104330</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="D804">
-        <v>75665.99999999996</v>
+        <v>100496</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14416,10 +14416,10 @@
         <v>806</v>
       </c>
       <c r="C805">
-        <v>47481.97991412708</v>
+        <v>0</v>
       </c>
       <c r="D805">
-        <v>138926.979914127</v>
+        <v>178609.9999999999</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14430,10 +14430,10 @@
         <v>807</v>
       </c>
       <c r="C806">
-        <v>6870.655052355614</v>
+        <v>10111.92516929496</v>
       </c>
       <c r="D806">
-        <v>65656.65505235565</v>
+        <v>67566.92516929496</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="D807">
-        <v>86223.99999999993</v>
+        <v>87438</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="D808">
-        <v>86648.00000000006</v>
+        <v>112624.9999999999</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="D809">
-        <v>67036.99999999997</v>
+        <v>76744.00000000001</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14486,10 +14486,10 @@
         <v>811</v>
       </c>
       <c r="C810">
-        <v>0</v>
+        <v>15121.49700000472</v>
       </c>
       <c r="D810">
-        <v>107595.9999999999</v>
+        <v>107942.4970000046</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="D811">
-        <v>116089.9999999999</v>
+        <v>189529.9999999999</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14514,10 +14514,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>20758.37539474538</v>
+        <v>42268.66342429248</v>
       </c>
       <c r="D812">
-        <v>123930.3753947454</v>
+        <v>128180.6634242925</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="D813">
-        <v>73901</v>
+        <v>71185.00000000001</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14545,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="D814">
-        <v>88450.00000000001</v>
+        <v>71673.99999999997</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="D815">
-        <v>73159.99999999999</v>
+        <v>106798.0000000001</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="D816">
-        <v>72994.99999999996</v>
+        <v>73374.99999999999</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14584,10 +14584,10 @@
         <v>818</v>
       </c>
       <c r="C817">
-        <v>305.051028867827</v>
+        <v>1274.246881161103</v>
       </c>
       <c r="D817">
-        <v>64959.05102886783</v>
+        <v>67888.24688116109</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="D818">
-        <v>100014</v>
+        <v>108880</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14612,10 +14612,10 @@
         <v>820</v>
       </c>
       <c r="C819">
-        <v>99.55312921592849</v>
+        <v>14043.46261708271</v>
       </c>
       <c r="D819">
-        <v>64676.55312921593</v>
+        <v>67371.46261708267</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -14626,10 +14626,10 @@
         <v>821</v>
       </c>
       <c r="C820">
-        <v>9618.111165022703</v>
+        <v>1112.701285901581</v>
       </c>
       <c r="D820">
-        <v>63703.11116502267</v>
+        <v>68175.70128590157</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14640,10 +14640,10 @@
         <v>822</v>
       </c>
       <c r="C821">
-        <v>8873.879123808772</v>
+        <v>0</v>
       </c>
       <c r="D821">
-        <v>120897.8791238089</v>
+        <v>150752</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="D822">
-        <v>77947.00000000004</v>
+        <v>61350.99999999995</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14668,10 +14668,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>0</v>
+        <v>23433.85459778584</v>
       </c>
       <c r="D823">
-        <v>91062.00000000004</v>
+        <v>87113.85459778582</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="D824">
-        <v>79289.00000000006</v>
+        <v>76473.99999999996</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14696,10 +14696,10 @@
         <v>826</v>
       </c>
       <c r="C825">
-        <v>17725.64126832098</v>
+        <v>10028.00760520682</v>
       </c>
       <c r="D825">
-        <v>101900.6412683209</v>
+        <v>108210.0076052068</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14710,10 +14710,10 @@
         <v>827</v>
       </c>
       <c r="C826">
-        <v>41234.73098469703</v>
+        <v>0</v>
       </c>
       <c r="D826">
-        <v>121530.730984697</v>
+        <v>141283.9999999999</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14724,10 +14724,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>36079.35067487587</v>
+        <v>8009.856248073658</v>
       </c>
       <c r="D827">
-        <v>124131.3506748758</v>
+        <v>128329.8562480737</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="D828">
-        <v>77976</v>
+        <v>97956.00000000007</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="D829">
-        <v>107622</v>
+        <v>70898</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14766,10 +14766,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>19869.42516314067</v>
+        <v>6473.499002207333</v>
       </c>
       <c r="D830">
-        <v>102817.4251631407</v>
+        <v>108903.4990022073</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14780,10 +14780,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>5940.276431264196</v>
+        <v>0</v>
       </c>
       <c r="D831">
-        <v>85320.27643126414</v>
+        <v>87232</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14794,10 +14794,10 @@
         <v>833</v>
       </c>
       <c r="C832">
-        <v>0</v>
+        <v>14956.33199138872</v>
       </c>
       <c r="D832">
-        <v>65499.99999999996</v>
+        <v>66843.33199138875</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="D833">
-        <v>92070.00000000004</v>
+        <v>104040</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="D834">
-        <v>66012.00000000001</v>
+        <v>70170.99999999999</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14836,10 +14836,10 @@
         <v>836</v>
       </c>
       <c r="C835">
-        <v>0</v>
+        <v>3143.233686445776</v>
       </c>
       <c r="D835">
-        <v>69264</v>
+        <v>67910.23368644583</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="D836">
-        <v>66469.99999999997</v>
+        <v>65595.99999999996</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -14864,10 +14864,10 @@
         <v>838</v>
       </c>
       <c r="C837">
-        <v>0</v>
+        <v>34928.49804939871</v>
       </c>
       <c r="D837">
-        <v>115924</v>
+        <v>108084.4980493987</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -14878,10 +14878,10 @@
         <v>839</v>
       </c>
       <c r="C838">
-        <v>0</v>
+        <v>4393.123535541752</v>
       </c>
       <c r="D838">
-        <v>68432.00000000006</v>
+        <v>67400.12353554176</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -14892,10 +14892,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>9578.275168868378</v>
+        <v>51678.92758094703</v>
       </c>
       <c r="D839">
-        <v>135018.2751688684</v>
+        <v>143343.927580947</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14906,10 +14906,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>7835.478192993891</v>
+        <v>15762.15540710161</v>
       </c>
       <c r="D840">
-        <v>124943.478192994</v>
+        <v>126606.1554071017</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="D841">
-        <v>162005.0000000001</v>
+        <v>102815</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -14934,10 +14934,10 @@
         <v>843</v>
       </c>
       <c r="C842">
-        <v>2614.149586905492</v>
+        <v>6891.069274954818</v>
       </c>
       <c r="D842">
-        <v>102875.1495869054</v>
+        <v>105706.0692749548</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="D843">
-        <v>69287.00000000004</v>
+        <v>79788.99999999994</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="D844">
-        <v>67825.00000000006</v>
+        <v>75218.00000000006</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -14976,10 +14976,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>9691.90175145895</v>
+        <v>24431.5357320628</v>
       </c>
       <c r="D845">
-        <v>104339.9017514589</v>
+        <v>107913.5357320628</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="D846">
-        <v>79286.00000000001</v>
+        <v>71680.00000000003</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15004,10 +15004,10 @@
         <v>848</v>
       </c>
       <c r="C847">
-        <v>0</v>
+        <v>21092.32168067459</v>
       </c>
       <c r="D847">
-        <v>129184</v>
+        <v>105522.3216806747</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="D848">
-        <v>108462.9999999999</v>
+        <v>118612</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="D849">
-        <v>117133.9999999999</v>
+        <v>121196.0000000001</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15046,10 +15046,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>0</v>
+        <v>6370.911769886399</v>
       </c>
       <c r="D850">
-        <v>157256.0000000001</v>
+        <v>127882.9117698863</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15060,10 +15060,10 @@
         <v>852</v>
       </c>
       <c r="C851">
-        <v>21190.53750545938</v>
+        <v>6386.54323776724</v>
       </c>
       <c r="D851">
-        <v>85432.53750545942</v>
+        <v>86006.5432377672</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="D852">
-        <v>145416</v>
+        <v>152184</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -15088,10 +15088,10 @@
         <v>854</v>
       </c>
       <c r="C853">
-        <v>16592.37303457024</v>
+        <v>0</v>
       </c>
       <c r="D853">
-        <v>136627.3730345702</v>
+        <v>183195.0000000001</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15102,10 +15102,10 @@
         <v>855</v>
       </c>
       <c r="C854">
-        <v>16696.02533932011</v>
+        <v>23703.72757404399</v>
       </c>
       <c r="D854">
-        <v>140181.0253393202</v>
+        <v>142808.7275740441</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="D855">
-        <v>168143.9999999999</v>
+        <v>134271.9999999999</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="D856">
-        <v>105328</v>
+        <v>109723.9999999999</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="D857">
-        <v>153552.0000000001</v>
+        <v>99020.00000000006</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -15158,10 +15158,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>4547.236041723867</v>
+        <v>37254.16615053732</v>
       </c>
       <c r="D858">
-        <v>101568.236041724</v>
+        <v>107959.1661505373</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="D859">
-        <v>77035.99999999996</v>
+        <v>79762</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15189,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="D860">
-        <v>75840</v>
+        <v>73001.99999999996</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -15200,10 +15200,10 @@
         <v>862</v>
       </c>
       <c r="C861">
-        <v>0</v>
+        <v>7755.456164155781</v>
       </c>
       <c r="D861">
-        <v>103125.9999999999</v>
+        <v>108004.4561641558</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="D862">
-        <v>71661.00000000001</v>
+        <v>78881.00000000003</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="D863">
-        <v>120008</v>
+        <v>127568</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -15245,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="D864">
-        <v>105886</v>
+        <v>119326</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="D865">
-        <v>81949.99999999997</v>
+        <v>127343</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -15270,10 +15270,10 @@
         <v>867</v>
       </c>
       <c r="C866">
-        <v>2295.950468262425</v>
+        <v>10528.68363875607</v>
       </c>
       <c r="D866">
-        <v>66674.95046826241</v>
+        <v>67820.68363875602</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -15284,10 +15284,10 @@
         <v>868</v>
       </c>
       <c r="C867">
-        <v>20097.31889544595</v>
+        <v>0</v>
       </c>
       <c r="D867">
-        <v>83049.31889544596</v>
+        <v>90919.99999999993</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -15298,10 +15298,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>1563.73413612516</v>
+        <v>51290.20825323858</v>
       </c>
       <c r="D868">
-        <v>136898.7341361251</v>
+        <v>142160.2082532386</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15315,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="D869">
-        <v>94466.00000000007</v>
+        <v>75085.99999999996</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="D870">
-        <v>67365.00000000001</v>
+        <v>79817.99999999997</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="D871">
-        <v>128840</v>
+        <v>136046.0000000001</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15354,10 +15354,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>9933.433086174366</v>
+        <v>0</v>
       </c>
       <c r="D872">
-        <v>104140.4330861744</v>
+        <v>114412</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15371,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="D873">
-        <v>64445.99999999998</v>
+        <v>70799.99999999996</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="D874">
-        <v>70015.99999999997</v>
+        <v>82832.00000000006</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="D875">
-        <v>123290</v>
+        <v>113594</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15410,10 +15410,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>7659.403414052045</v>
+        <v>2902.760873723819</v>
       </c>
       <c r="D876">
-        <v>64116.40341405203</v>
+        <v>67260.76087372383</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15424,10 +15424,10 @@
         <v>878</v>
       </c>
       <c r="C877">
-        <v>14854.10085677865</v>
+        <v>8850.907717865426</v>
       </c>
       <c r="D877">
-        <v>83388.10085677868</v>
+        <v>88080.90771786543</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="D878">
-        <v>127082.0000000001</v>
+        <v>137093.0000000001</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="D879">
-        <v>88982.00000000007</v>
+        <v>93662.00000000004</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15466,10 +15466,10 @@
         <v>881</v>
       </c>
       <c r="C880">
-        <v>0</v>
+        <v>9332.692209971967</v>
       </c>
       <c r="D880">
-        <v>67218.00000000003</v>
+        <v>67556.69220997201</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -15480,10 +15480,10 @@
         <v>882</v>
       </c>
       <c r="C881">
-        <v>0</v>
+        <v>456.4252785051067</v>
       </c>
       <c r="D881">
-        <v>91764</v>
+        <v>85458.42527850518</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -15494,10 +15494,10 @@
         <v>883</v>
       </c>
       <c r="C882">
-        <v>9775.36097022648</v>
+        <v>16196.83289576609</v>
       </c>
       <c r="D882">
-        <v>66140.36097022647</v>
+        <v>67920.83289576613</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="D883">
-        <v>128422</v>
+        <v>128554.0000000001</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -15522,10 +15522,10 @@
         <v>885</v>
       </c>
       <c r="C884">
-        <v>0</v>
+        <v>9325.523914830454</v>
       </c>
       <c r="D884">
-        <v>89143.99999999994</v>
+        <v>87839.5239148304</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="D885">
-        <v>141628.0000000001</v>
+        <v>140508.0000000001</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="D886">
-        <v>93965.00000000007</v>
+        <v>123412.9999999999</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -15564,10 +15564,10 @@
         <v>888</v>
       </c>
       <c r="C887">
-        <v>14506.98835874753</v>
+        <v>0</v>
       </c>
       <c r="D887">
-        <v>84534.98835874758</v>
+        <v>95692.00000000006</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="D888">
-        <v>71570</v>
+        <v>75502.99999999997</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -15592,10 +15592,10 @@
         <v>890</v>
       </c>
       <c r="C889">
-        <v>1397.69928252</v>
+        <v>15421.15365379519</v>
       </c>
       <c r="D889">
-        <v>67645.69928251998</v>
+        <v>66969.15365379518</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="D890">
-        <v>67615.00000000001</v>
+        <v>64279</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -15620,10 +15620,10 @@
         <v>892</v>
       </c>
       <c r="C891">
-        <v>10466.41096811766</v>
+        <v>13398.2317565538</v>
       </c>
       <c r="D891">
-        <v>65424.41096811763</v>
+        <v>66686.23175655378</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="D892">
-        <v>159420.0000000001</v>
+        <v>191600.0000000001</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="D893">
-        <v>111368</v>
+        <v>131035.9999999999</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -15665,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="D894">
-        <v>64395.00000000003</v>
+        <v>69877.00000000004</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="D895">
-        <v>137942.0000000001</v>
+        <v>130612.9999999999</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="D896">
-        <v>132155</v>
+        <v>112349</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="D897">
-        <v>106022.0000000001</v>
+        <v>86223.99999999993</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -15721,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="D898">
-        <v>73518.00000000003</v>
+        <v>66107.99999999997</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="D899">
-        <v>83494.99999999997</v>
+        <v>126467</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="D900">
-        <v>64120.99999999995</v>
+        <v>69852.00000000001</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="D901">
-        <v>88392.00000000001</v>
+        <v>71132.00000000004</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -15777,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="D902">
-        <v>137648</v>
+        <v>118931.0000000001</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="D903">
-        <v>125437.9999999999</v>
+        <v>118384.9999999999</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="D904">
-        <v>112892.0000000001</v>
+        <v>105032</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="D905">
-        <v>65198.00000000003</v>
+        <v>79298.99999999996</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="D906">
-        <v>64694.99999999998</v>
+        <v>62749.99999999995</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="D907">
-        <v>126503</v>
+        <v>139871.0000000001</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="D908">
-        <v>79271.00000000003</v>
+        <v>67513.00000000004</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="D909">
-        <v>97985.99999999997</v>
+        <v>107024</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="D910">
-        <v>75641.99999999997</v>
+        <v>60871.00000000004</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="D911">
-        <v>72114</v>
+        <v>107980</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>104891.0000000001</v>
+        <v>100496</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -15931,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="D913">
-        <v>84556</v>
+        <v>80331.99999999994</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="D914">
-        <v>77958.00000000007</v>
+        <v>75689.99999999994</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="D915">
-        <v>79308.99999999996</v>
+        <v>61890.00000000002</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -15973,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="D916">
-        <v>76593.00000000006</v>
+        <v>78079.99999999993</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="D917">
-        <v>97569.99999999993</v>
+        <v>97901.99999999999</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="D918">
-        <v>72214.00000000006</v>
+        <v>73955.99999999997</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="D919">
-        <v>75329.99999999994</v>
+        <v>105526</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="D920">
-        <v>71690.00000000003</v>
+        <v>75994.99999999999</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="D921">
-        <v>100020</v>
+        <v>75353.99999999999</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -16057,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="D922">
-        <v>69788.00000000003</v>
+        <v>61059.99999999999</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="D923">
-        <v>74733.00000000003</v>
+        <v>72460.00000000003</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="D924">
-        <v>80733.99999999994</v>
+        <v>103564.0000000001</v>
       </c>
     </row>
   </sheetData>

--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3173,10 +3173,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>16698.86209635707</v>
+        <v>10310.74452024206</v>
       </c>
       <c r="D3">
-        <v>88110.86209635709</v>
+        <v>81722.74452024208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3229,10 +3229,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>5420.47264565259</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>66484.47264565263</v>
+        <v>61064.00000000004</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3299,10 +3299,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>19098.63534724858</v>
+        <v>24632.54430747434</v>
       </c>
       <c r="D12">
-        <v>94744.63534724864</v>
+        <v>100278.5443074744</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3313,10 +3313,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>19221.10066393644</v>
+        <v>17184.23350088808</v>
       </c>
       <c r="D13">
-        <v>70435.10066393645</v>
+        <v>68398.23350088809</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3355,10 +3355,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>9693.863064852179</v>
+        <v>6999.875757875547</v>
       </c>
       <c r="D16">
-        <v>134681.8630648523</v>
+        <v>131987.8757578756</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3383,10 +3383,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>6639.728202537328</v>
       </c>
       <c r="D18">
-        <v>118432</v>
+        <v>125071.7282025373</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3453,10 +3453,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>20087.38498029145</v>
+        <v>20412.62409761836</v>
       </c>
       <c r="D23">
-        <v>92493.38498029151</v>
+        <v>92818.62409761842</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3467,10 +3467,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>28292.87651835471</v>
+        <v>32432.61276673521</v>
       </c>
       <c r="D24">
-        <v>123982.8765183548</v>
+        <v>128122.6127667353</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3593,10 +3593,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>3939.454583229759</v>
+        <v>5002.500825538416</v>
       </c>
       <c r="D33">
-        <v>101542.4545832298</v>
+        <v>102605.5008255384</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3607,10 +3607,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>22432.28145282198</v>
+        <v>24596.72543835631</v>
       </c>
       <c r="D34">
-        <v>89002.281452822</v>
+        <v>91166.72543835634</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3635,10 +3635,10 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>20496.09813026955</v>
+        <v>17717.41850443788</v>
       </c>
       <c r="D36">
-        <v>81550.09813026957</v>
+        <v>78771.4185044379</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3649,10 +3649,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>30548.63731233554</v>
+        <v>25970.14507274142</v>
       </c>
       <c r="D37">
-        <v>120952.6373123356</v>
+        <v>116374.1450727415</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3663,10 +3663,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>28671.80040253754</v>
+        <v>33460.38408634771</v>
       </c>
       <c r="D38">
-        <v>98716.80040253754</v>
+        <v>103505.3840863477</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3691,10 +3691,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1303.995332589868</v>
       </c>
       <c r="D40">
-        <v>87988.00000000001</v>
+        <v>89291.99533258988</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3705,10 +3705,10 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>7607.569353497238</v>
+        <v>4883.359453771554</v>
       </c>
       <c r="D41">
-        <v>105642.5693534973</v>
+        <v>102918.3594537716</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3761,10 +3761,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>4578.643732307362</v>
+        <v>3822.256103792271</v>
       </c>
       <c r="D45">
-        <v>82796.64373230741</v>
+        <v>82040.25610379232</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3803,10 +3803,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>36608.33823294265</v>
+        <v>31675.40785123214</v>
       </c>
       <c r="D48">
-        <v>119452.3382329427</v>
+        <v>114519.4078512322</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3873,10 +3873,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>38.13827702227718</v>
+        <v>168.1106835784449</v>
       </c>
       <c r="D53">
-        <v>64930.13827702228</v>
+        <v>65060.11068357844</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3971,10 +3971,10 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>7237.235665471089</v>
+        <v>4628.460359945951</v>
       </c>
       <c r="D60">
-        <v>67403.23566547109</v>
+        <v>64794.46035994595</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3985,10 +3985,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>36037.65620061594</v>
+        <v>38546.36207689503</v>
       </c>
       <c r="D61">
-        <v>136712.656200616</v>
+        <v>139221.3620768951</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4027,10 +4027,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>20315.00388834588</v>
+        <v>10691.73328011626</v>
       </c>
       <c r="D64">
-        <v>145275.003888346</v>
+        <v>135651.7332801163</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4055,10 +4055,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>10674.12876724622</v>
+        <v>16420.88175832681</v>
       </c>
       <c r="D66">
-        <v>113222.1287672461</v>
+        <v>118968.8817583267</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4097,10 +4097,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>1000.105070271442</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>86390.10507027144</v>
+        <v>85390</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4125,10 +4125,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>17379.82616108131</v>
+        <v>19860.47135293043</v>
       </c>
       <c r="D71">
-        <v>100396.8261610813</v>
+        <v>102877.4713529304</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4153,10 +4153,10 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>3165.40577536323</v>
       </c>
       <c r="D73">
-        <v>62310.00000000001</v>
+        <v>65475.40577536324</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4167,10 +4167,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>10350.24936595742</v>
+        <v>7638.717566030165</v>
       </c>
       <c r="D74">
-        <v>64154.24936595741</v>
+        <v>61442.71756603016</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4181,10 +4181,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>2967.671807949548</v>
+        <v>8869.716752633656</v>
       </c>
       <c r="D75">
-        <v>78235.67180794958</v>
+        <v>84137.71675263369</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4209,10 +4209,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>4800.904666353861</v>
+        <v>10416.11969991622</v>
       </c>
       <c r="D77">
-        <v>135860.9046663538</v>
+        <v>141476.1196999162</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4349,10 +4349,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>18860.40322388376</v>
+        <v>18018.61052396085</v>
       </c>
       <c r="D87">
-        <v>83396.40322388378</v>
+        <v>82554.61052396087</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4377,10 +4377,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>14574.07976312323</v>
+        <v>17309.14851720356</v>
       </c>
       <c r="D89">
-        <v>65309.07976312326</v>
+        <v>68044.14851720359</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4433,10 +4433,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>16658.44825050719</v>
+        <v>19920.95968930247</v>
       </c>
       <c r="D93">
-        <v>142603.4482505071</v>
+        <v>145865.9596893024</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4447,10 +4447,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1388.820871988224</v>
       </c>
       <c r="D94">
-        <v>99270.99999999993</v>
+        <v>100659.8208719882</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4475,10 +4475,10 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>16652.82824075558</v>
+        <v>20424.20086070918</v>
       </c>
       <c r="D96">
-        <v>82294.8282407556</v>
+        <v>86066.2008607092</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4517,10 +4517,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>8733.17024990989</v>
+        <v>25794.96121597865</v>
       </c>
       <c r="D99">
-        <v>129433.17024991</v>
+        <v>146494.9612159787</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4531,10 +4531,10 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1991.590886476013</v>
       </c>
       <c r="D100">
-        <v>145859.9999999999</v>
+        <v>147851.5908864759</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4573,10 +4573,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1955.876765919718</v>
       </c>
       <c r="D103">
-        <v>67321.00000000004</v>
+        <v>69276.87676591976</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4615,10 +4615,10 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>39669.44892412687</v>
+        <v>34378.08014635595</v>
       </c>
       <c r="D106">
-        <v>137064.4489241269</v>
+        <v>131773.080146356</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4629,10 +4629,10 @@
         <v>108</v>
       </c>
       <c r="C107">
-        <v>20518.25039385742</v>
+        <v>26371.14358453598</v>
       </c>
       <c r="D107">
-        <v>98015.25039385744</v>
+        <v>103868.143584536</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4685,10 +4685,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1924.037950277794</v>
       </c>
       <c r="D111">
-        <v>81798.00000000006</v>
+        <v>83722.03795027785</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4783,10 +4783,10 @@
         <v>119</v>
       </c>
       <c r="C118">
-        <v>5609.097802255441</v>
+        <v>6726.28418428461</v>
       </c>
       <c r="D118">
-        <v>64569.09780225546</v>
+        <v>65686.28418428462</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4881,10 +4881,10 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>27009.35546204849</v>
+        <v>15207.73604456538</v>
       </c>
       <c r="D125">
-        <v>133061.3554620484</v>
+        <v>121259.7360445653</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4909,10 +4909,10 @@
         <v>128</v>
       </c>
       <c r="C127">
-        <v>2848.504363884029</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>90572.504363884</v>
+        <v>87723.99999999997</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4965,10 +4965,10 @@
         <v>132</v>
       </c>
       <c r="C131">
-        <v>30471.01399548569</v>
+        <v>36802.89411868904</v>
       </c>
       <c r="D131">
-        <v>139736.0139954858</v>
+        <v>146067.8941186891</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4993,10 +4993,10 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1826.278195191451</v>
       </c>
       <c r="D133">
-        <v>64010</v>
+        <v>65836.27819519145</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5077,10 +5077,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>20550.64190765025</v>
+        <v>25255.7076919676</v>
       </c>
       <c r="D139">
-        <v>146875.6419076503</v>
+        <v>151580.7076919676</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5091,10 +5091,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>24733.53078608916</v>
+        <v>27753.75968762257</v>
       </c>
       <c r="D140">
-        <v>149863.5307860892</v>
+        <v>152883.7596876226</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5133,10 +5133,10 @@
         <v>144</v>
       </c>
       <c r="C143">
-        <v>3189.410365328564</v>
+        <v>742.5357140327251</v>
       </c>
       <c r="D143">
-        <v>67037.41036532853</v>
+        <v>64590.53571403269</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5161,10 +5161,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>45293.62989344078</v>
+        <v>53157.66628130688</v>
       </c>
       <c r="D145">
-        <v>145258.6298934408</v>
+        <v>153122.6662813069</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5189,10 +5189,10 @@
         <v>148</v>
       </c>
       <c r="C147">
-        <v>48065.95596345057</v>
+        <v>39402.53368012083</v>
       </c>
       <c r="D147">
-        <v>142280.9559634506</v>
+        <v>133617.5336801208</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5217,10 +5217,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>6566.129674062424</v>
+        <v>8229.647188698204</v>
       </c>
       <c r="D149">
-        <v>84932.12967406247</v>
+        <v>86595.64718869825</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5259,10 +5259,10 @@
         <v>153</v>
       </c>
       <c r="C152">
-        <v>7823.860400646823</v>
+        <v>13185.72007038342</v>
       </c>
       <c r="D152">
-        <v>62557.86040064685</v>
+        <v>67919.72007038345</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5455,10 +5455,10 @@
         <v>167</v>
       </c>
       <c r="C166">
-        <v>32562.93880808075</v>
+        <v>32786.41053968086</v>
       </c>
       <c r="D166">
-        <v>117874.9388080807</v>
+        <v>118098.4105396808</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5539,10 +5539,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>26753.72537094336</v>
+        <v>24265.94435151627</v>
       </c>
       <c r="D172">
-        <v>91463.72537094331</v>
+        <v>88975.94435151623</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5581,10 +5581,10 @@
         <v>176</v>
       </c>
       <c r="C175">
-        <v>20455.82215361787</v>
+        <v>17218.8677659032</v>
       </c>
       <c r="D175">
-        <v>84591.82215361786</v>
+        <v>81354.8677659032</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5609,10 +5609,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>10093.66953094256</v>
+        <v>12487.40728389617</v>
       </c>
       <c r="D177">
-        <v>103103.6695309425</v>
+        <v>105497.4072838962</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5637,10 +5637,10 @@
         <v>180</v>
       </c>
       <c r="C179">
-        <v>21772.71305094659</v>
+        <v>30299.38462962565</v>
       </c>
       <c r="D179">
-        <v>134082.7130509465</v>
+        <v>142609.3846296256</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5651,10 +5651,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>5322.346994041676</v>
+        <v>3674.104198554887</v>
       </c>
       <c r="D180">
-        <v>68301.3469940417</v>
+        <v>66653.10419855491</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5665,10 +5665,10 @@
         <v>182</v>
       </c>
       <c r="C181">
-        <v>12024.76217457431</v>
+        <v>8306.214462119431</v>
       </c>
       <c r="D181">
-        <v>63691.76217457429</v>
+        <v>59973.21446211941</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5735,10 +5735,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>7261.955533965411</v>
+        <v>7134.741144223291</v>
       </c>
       <c r="D186">
-        <v>65951.95553396543</v>
+        <v>65824.74114422331</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5777,10 +5777,10 @@
         <v>190</v>
       </c>
       <c r="C189">
-        <v>15168.65877183579</v>
+        <v>7403.780193905739</v>
       </c>
       <c r="D189">
-        <v>88034.65877183576</v>
+        <v>80269.78019390571</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5791,10 +5791,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>797.9748204329662</v>
       </c>
       <c r="D190">
-        <v>104476</v>
+        <v>105273.9748204329</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5833,10 +5833,10 @@
         <v>194</v>
       </c>
       <c r="C193">
-        <v>8433.82730625046</v>
+        <v>8471.691574864002</v>
       </c>
       <c r="D193">
-        <v>119969.8273062505</v>
+        <v>120007.691574864</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5861,10 +5861,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>15955.42998563871</v>
+        <v>16467.38404528328</v>
       </c>
       <c r="D195">
-        <v>149285.4299856387</v>
+        <v>149797.3840452833</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5903,10 +5903,10 @@
         <v>199</v>
       </c>
       <c r="C198">
-        <v>21290.98521790141</v>
+        <v>25089.99852502172</v>
       </c>
       <c r="D198">
-        <v>86342.98521790141</v>
+        <v>90141.99852502173</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6015,10 +6015,10 @@
         <v>207</v>
       </c>
       <c r="C206">
-        <v>27672.90712995599</v>
+        <v>24953.99836465191</v>
       </c>
       <c r="D206">
-        <v>123860.9071299559</v>
+        <v>121141.9983646519</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6029,10 +6029,10 @@
         <v>208</v>
       </c>
       <c r="C207">
-        <v>15780.54035680437</v>
+        <v>18217.38532972807</v>
       </c>
       <c r="D207">
-        <v>80714.54035680433</v>
+        <v>83151.38532972803</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6057,10 +6057,10 @@
         <v>210</v>
       </c>
       <c r="C209">
-        <v>3432.339535592488</v>
+        <v>2760.148141083133</v>
       </c>
       <c r="D209">
-        <v>86124.33953559252</v>
+        <v>85452.14814108316</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6099,10 +6099,10 @@
         <v>213</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>6850.074186441547</v>
       </c>
       <c r="D212">
-        <v>138165.0000000001</v>
+        <v>145015.0741864416</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6169,10 +6169,10 @@
         <v>218</v>
       </c>
       <c r="C217">
-        <v>24594.44809216875</v>
+        <v>33729.96745405367</v>
       </c>
       <c r="D217">
-        <v>121962.4480921688</v>
+        <v>131097.9674540537</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6183,10 +6183,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>18520.12185335404</v>
+        <v>16824.4381411842</v>
       </c>
       <c r="D218">
-        <v>117816.121853354</v>
+        <v>116120.4381411842</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6225,10 +6225,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>9000.263777159736</v>
+        <v>12562.08844051984</v>
       </c>
       <c r="D221">
-        <v>59967.26377715976</v>
+        <v>63529.08844051987</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6239,10 +6239,10 @@
         <v>223</v>
       </c>
       <c r="C222">
-        <v>4359.591212488827</v>
+        <v>5358.714018135157</v>
       </c>
       <c r="D222">
-        <v>90123.59121248878</v>
+        <v>91122.71401813511</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6253,10 +6253,10 @@
         <v>224</v>
       </c>
       <c r="C223">
-        <v>16255.31926204206</v>
+        <v>21596.6555573143</v>
       </c>
       <c r="D223">
-        <v>117411.3192620421</v>
+        <v>122752.6555573143</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6267,10 +6267,10 @@
         <v>225</v>
       </c>
       <c r="C224">
-        <v>8639.739880789217</v>
+        <v>14387.50032577988</v>
       </c>
       <c r="D224">
-        <v>101085.7398807892</v>
+        <v>106833.5003257798</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6351,10 +6351,10 @@
         <v>231</v>
       </c>
       <c r="C230">
-        <v>15027.84017958131</v>
+        <v>18166.46610850737</v>
       </c>
       <c r="D230">
-        <v>83665.84017958128</v>
+        <v>86804.46610850735</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6365,10 +6365,10 @@
         <v>232</v>
       </c>
       <c r="C231">
-        <v>13814.47409259902</v>
+        <v>17963.53195810258</v>
       </c>
       <c r="D231">
-        <v>129119.4740925991</v>
+        <v>133268.5319581027</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6421,10 +6421,10 @@
         <v>236</v>
       </c>
       <c r="C235">
-        <v>7954.682321999091</v>
+        <v>7662.80833277147</v>
       </c>
       <c r="D235">
-        <v>62879.68232199913</v>
+        <v>62587.80833277151</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6435,10 +6435,10 @@
         <v>237</v>
       </c>
       <c r="C236">
-        <v>7369.706321329024</v>
+        <v>8866.033706293747</v>
       </c>
       <c r="D236">
-        <v>113177.706321329</v>
+        <v>114674.0337062937</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6519,10 +6519,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>6110.991828233775</v>
+        <v>5932.757701149218</v>
       </c>
       <c r="D242">
-        <v>62415.9918282338</v>
+        <v>62237.75770114924</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6533,10 +6533,10 @@
         <v>244</v>
       </c>
       <c r="C243">
-        <v>11047.43608551549</v>
+        <v>11805.23377956103</v>
       </c>
       <c r="D243">
-        <v>68680.43608551547</v>
+        <v>69438.23377956101</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6561,10 +6561,10 @@
         <v>246</v>
       </c>
       <c r="C245">
-        <v>15881.48764146713</v>
+        <v>17962.77424645313</v>
       </c>
       <c r="D245">
-        <v>95595.48764146717</v>
+        <v>97676.77424645318</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6617,10 +6617,10 @@
         <v>250</v>
       </c>
       <c r="C249">
-        <v>27930.67518003193</v>
+        <v>41039.05617773722</v>
       </c>
       <c r="D249">
-        <v>116170.675180032</v>
+        <v>129279.0561777373</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6715,10 +6715,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>24009.19518630997</v>
+        <v>27067.59669936824</v>
       </c>
       <c r="D256">
-        <v>87681.19518631001</v>
+        <v>90739.59669936828</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6757,10 +6757,10 @@
         <v>260</v>
       </c>
       <c r="C259">
-        <v>17713.5037865364</v>
+        <v>15581.83101964564</v>
       </c>
       <c r="D259">
-        <v>94100.50378653636</v>
+        <v>91968.8310196456</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6799,10 +6799,10 @@
         <v>263</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>463.0660093195766</v>
       </c>
       <c r="D262">
-        <v>67105.00000000003</v>
+        <v>67568.06600931961</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6813,10 +6813,10 @@
         <v>264</v>
       </c>
       <c r="C263">
-        <v>1919.620085311923</v>
+        <v>0</v>
       </c>
       <c r="D263">
-        <v>81077.62008531191</v>
+        <v>79157.99999999999</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6869,10 +6869,10 @@
         <v>268</v>
       </c>
       <c r="C267">
-        <v>6171.531052281061</v>
+        <v>12825.70191842108</v>
       </c>
       <c r="D267">
-        <v>142021.531052281</v>
+        <v>148675.7019184211</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6883,10 +6883,10 @@
         <v>269</v>
       </c>
       <c r="C268">
-        <v>7292.523580388741</v>
+        <v>4759.346293572853</v>
       </c>
       <c r="D268">
-        <v>68841.52358038878</v>
+        <v>66308.34629357289</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6897,10 +6897,10 @@
         <v>270</v>
       </c>
       <c r="C269">
-        <v>198.185201872664</v>
+        <v>0</v>
       </c>
       <c r="D269">
-        <v>66796.18520187266</v>
+        <v>66598</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6967,10 +6967,10 @@
         <v>275</v>
       </c>
       <c r="C274">
-        <v>13794.67630112852</v>
+        <v>33052.7385870712</v>
       </c>
       <c r="D274">
-        <v>126619.6763011286</v>
+        <v>145877.7385870712</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7023,10 +7023,10 @@
         <v>279</v>
       </c>
       <c r="C278">
-        <v>18694.57524568231</v>
+        <v>17012.96300119202</v>
       </c>
       <c r="D278">
-        <v>96176.57524568227</v>
+        <v>94494.96300119198</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7051,10 +7051,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>2325.871805310395</v>
+        <v>0</v>
       </c>
       <c r="D280">
-        <v>96477.87180531045</v>
+        <v>94152.00000000006</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7093,10 +7093,10 @@
         <v>284</v>
       </c>
       <c r="C283">
-        <v>2633.585803993992</v>
+        <v>11683.74226514508</v>
       </c>
       <c r="D283">
-        <v>60181.58580399394</v>
+        <v>69231.74226514503</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7107,10 +7107,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>1059.280992352418</v>
       </c>
       <c r="D284">
-        <v>84137.99999999999</v>
+        <v>85197.2809923524</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7149,10 +7149,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>5455.052253714486</v>
+        <v>6015.687955004323</v>
       </c>
       <c r="D287">
-        <v>84729.05225371444</v>
+        <v>85289.68795500428</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7163,10 +7163,10 @@
         <v>289</v>
       </c>
       <c r="C288">
-        <v>22466.80271832227</v>
+        <v>24403.39197730798</v>
       </c>
       <c r="D288">
-        <v>119334.8027183222</v>
+        <v>121271.391977308</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7191,10 +7191,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>9596.928564307964</v>
+        <v>14131.90251112528</v>
       </c>
       <c r="D290">
-        <v>116488.9285643081</v>
+        <v>121023.9025111254</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7233,10 +7233,10 @@
         <v>294</v>
       </c>
       <c r="C293">
-        <v>22832.54235200286</v>
+        <v>9401.668201975073</v>
       </c>
       <c r="D293">
-        <v>151502.5423520028</v>
+        <v>138071.6682019751</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7261,10 +7261,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>13229.32550891432</v>
+        <v>13908.08603979654</v>
       </c>
       <c r="D295">
-        <v>64785.32550891434</v>
+        <v>65464.08603979657</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7303,10 +7303,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>26150.15251116162</v>
+        <v>24598.13300356816</v>
       </c>
       <c r="D298">
-        <v>114638.1525111617</v>
+        <v>113086.1330035682</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7345,10 +7345,10 @@
         <v>302</v>
       </c>
       <c r="C301">
-        <v>15222.72031757294</v>
+        <v>18775.56428908258</v>
       </c>
       <c r="D301">
-        <v>95377.72031757289</v>
+        <v>98930.56428908254</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7373,10 +7373,10 @@
         <v>304</v>
       </c>
       <c r="C303">
-        <v>11222.83571573405</v>
+        <v>9081.485638400598</v>
       </c>
       <c r="D303">
-        <v>93432.83571573401</v>
+        <v>91291.48563840055</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7401,10 +7401,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>2298.525373514865</v>
+        <v>6574.337335028307</v>
       </c>
       <c r="D305">
-        <v>64731.52537351482</v>
+        <v>69007.33733502826</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7443,10 +7443,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>34150.5126040242</v>
+        <v>24238.02750022923</v>
       </c>
       <c r="D308">
-        <v>118326.5126040242</v>
+        <v>108414.0275002292</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7471,10 +7471,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>7332.362698205063</v>
+        <v>7565.144947982793</v>
       </c>
       <c r="D310">
-        <v>64057.36269820511</v>
+        <v>64290.14494798284</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7485,10 +7485,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>12725.87128623429</v>
+        <v>12736.4194974276</v>
       </c>
       <c r="D311">
-        <v>65123.87128623424</v>
+        <v>65134.41949742755</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7513,10 +7513,10 @@
         <v>314</v>
       </c>
       <c r="C313">
-        <v>19986.29881400526</v>
+        <v>29459.83897936587</v>
       </c>
       <c r="D313">
-        <v>138441.2988140053</v>
+        <v>147914.8389793659</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7527,10 +7527,10 @@
         <v>315</v>
       </c>
       <c r="C314">
-        <v>5445.537131893063</v>
+        <v>6024.891728888833</v>
       </c>
       <c r="D314">
-        <v>62384.53713189308</v>
+        <v>62963.89172888885</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7653,10 +7653,10 @@
         <v>324</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>3365.541556868855</v>
       </c>
       <c r="D323">
-        <v>61013.00000000003</v>
+        <v>64378.54155686888</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7667,10 +7667,10 @@
         <v>325</v>
       </c>
       <c r="C324">
-        <v>789.5105475726596</v>
+        <v>3385.070643664672</v>
       </c>
       <c r="D324">
-        <v>83985.51054757259</v>
+        <v>86581.0706436646</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7723,10 +7723,10 @@
         <v>329</v>
       </c>
       <c r="C328">
-        <v>16490.23281480954</v>
+        <v>16678.88478740382</v>
       </c>
       <c r="D328">
-        <v>99582.23281480948</v>
+        <v>99770.88478740376</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7751,10 +7751,10 @@
         <v>331</v>
       </c>
       <c r="C330">
-        <v>17495.58463795178</v>
+        <v>16550.95661356105</v>
       </c>
       <c r="D330">
-        <v>81601.58463795176</v>
+        <v>80656.95661356104</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7779,10 +7779,10 @@
         <v>333</v>
       </c>
       <c r="C332">
-        <v>10606.23886221161</v>
+        <v>554.0414608656429</v>
       </c>
       <c r="D332">
-        <v>105878.2388622115</v>
+        <v>95826.04146086557</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7891,10 +7891,10 @@
         <v>341</v>
       </c>
       <c r="C340">
-        <v>26008.36142899399</v>
+        <v>21234.44025008516</v>
       </c>
       <c r="D340">
-        <v>123124.361428994</v>
+        <v>118350.4402500852</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7905,10 +7905,10 @@
         <v>342</v>
       </c>
       <c r="C341">
-        <v>11688.34286756521</v>
+        <v>8808.851774055453</v>
       </c>
       <c r="D341">
-        <v>90510.34286756524</v>
+        <v>87630.85177405548</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7933,10 +7933,10 @@
         <v>344</v>
       </c>
       <c r="C343">
-        <v>5072.307666876084</v>
+        <v>0</v>
       </c>
       <c r="D343">
-        <v>67620.30766687608</v>
+        <v>62547.99999999999</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7989,10 +7989,10 @@
         <v>348</v>
       </c>
       <c r="C347">
-        <v>13717.20789942188</v>
+        <v>4549.721098736904</v>
       </c>
       <c r="D347">
-        <v>137877.2078994219</v>
+        <v>128709.7210987369</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8143,10 +8143,10 @@
         <v>359</v>
       </c>
       <c r="C358">
-        <v>13038.09792455458</v>
+        <v>15908.06361977043</v>
       </c>
       <c r="D358">
-        <v>146913.0979245545</v>
+        <v>149783.0636197704</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8227,10 +8227,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>8778.25673530795</v>
+        <v>11212.05080056167</v>
       </c>
       <c r="D364">
-        <v>99928.25673530798</v>
+        <v>102362.0508005617</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8269,10 +8269,10 @@
         <v>368</v>
       </c>
       <c r="C367">
-        <v>12360.26453898841</v>
+        <v>13869.4334164196</v>
       </c>
       <c r="D367">
-        <v>102505.2645389885</v>
+        <v>104014.4334164196</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8325,10 +8325,10 @@
         <v>372</v>
       </c>
       <c r="C371">
-        <v>32951.07912506507</v>
+        <v>25608.97878422876</v>
       </c>
       <c r="D371">
-        <v>149926.0791250651</v>
+        <v>142583.9787842288</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8339,10 +8339,10 @@
         <v>373</v>
       </c>
       <c r="C372">
-        <v>7621.633807311562</v>
+        <v>6533.98887759322</v>
       </c>
       <c r="D372">
-        <v>139346.6338073116</v>
+        <v>138258.9888775932</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8395,10 +8395,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>10577.69969620131</v>
+        <v>6808.40951780093</v>
       </c>
       <c r="D376">
-        <v>118541.6996962013</v>
+        <v>114772.4095178009</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8437,10 +8437,10 @@
         <v>380</v>
       </c>
       <c r="C379">
-        <v>2344.742907850887</v>
+        <v>3869.529511920395</v>
       </c>
       <c r="D379">
-        <v>100058.7429078509</v>
+        <v>101583.5295119204</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8521,10 +8521,10 @@
         <v>386</v>
       </c>
       <c r="C385">
-        <v>17468.02306577973</v>
+        <v>21309.08347347451</v>
       </c>
       <c r="D385">
-        <v>82480.02306577975</v>
+        <v>86321.08347347453</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8633,10 +8633,10 @@
         <v>394</v>
       </c>
       <c r="C393">
-        <v>15218.44179261617</v>
+        <v>15651.70723398385</v>
       </c>
       <c r="D393">
-        <v>103392.4417926162</v>
+        <v>103825.7072339839</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8689,10 +8689,10 @@
         <v>398</v>
       </c>
       <c r="C397">
-        <v>23394.202278029</v>
+        <v>23189.57325478591</v>
       </c>
       <c r="D397">
-        <v>94663.20227802894</v>
+        <v>94458.57325478585</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8717,10 +8717,10 @@
         <v>400</v>
       </c>
       <c r="C399">
-        <v>318.8149968886937</v>
+        <v>1727.091690769725</v>
       </c>
       <c r="D399">
-        <v>64425.81499688872</v>
+        <v>65834.09169076975</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8745,10 +8745,10 @@
         <v>402</v>
       </c>
       <c r="C401">
-        <v>23660.83136394735</v>
+        <v>31005.95249977503</v>
       </c>
       <c r="D401">
-        <v>110164.8313639474</v>
+        <v>117509.9524997751</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8801,10 +8801,10 @@
         <v>406</v>
       </c>
       <c r="C405">
-        <v>24349.80736536923</v>
+        <v>22971.52173871046</v>
       </c>
       <c r="D405">
-        <v>84889.80736536924</v>
+        <v>83511.52173871048</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8829,10 +8829,10 @@
         <v>408</v>
       </c>
       <c r="C407">
-        <v>4260.308178402585</v>
+        <v>2666.306780144121</v>
       </c>
       <c r="D407">
-        <v>105457.3081784025</v>
+        <v>103863.306780144</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8857,10 +8857,10 @@
         <v>410</v>
       </c>
       <c r="C409">
-        <v>39486.6641135044</v>
+        <v>35303.53426244925</v>
       </c>
       <c r="D409">
-        <v>137161.6641135044</v>
+        <v>132978.5342624493</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8927,10 +8927,10 @@
         <v>415</v>
       </c>
       <c r="C414">
-        <v>28298.17188413431</v>
+        <v>35987.56291175151</v>
       </c>
       <c r="D414">
-        <v>114846.1718841343</v>
+        <v>122535.5629117515</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9025,10 +9025,10 @@
         <v>422</v>
       </c>
       <c r="C421">
-        <v>29790.01508136802</v>
+        <v>18637.16379586648</v>
       </c>
       <c r="D421">
-        <v>107713.0150813681</v>
+        <v>96560.16379586655</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9095,10 +9095,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>58160.60751968998</v>
+        <v>42208.46064864096</v>
       </c>
       <c r="D426">
-        <v>153735.6075196899</v>
+        <v>137783.4606486409</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9137,10 +9137,10 @@
         <v>430</v>
       </c>
       <c r="C429">
-        <v>3525.933131433208</v>
+        <v>7560.635008123922</v>
       </c>
       <c r="D429">
-        <v>80045.93313143322</v>
+        <v>84080.63500812394</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9277,10 +9277,10 @@
         <v>440</v>
       </c>
       <c r="C439">
-        <v>22235.20484383003</v>
+        <v>28976.0321119705</v>
       </c>
       <c r="D439">
-        <v>118779.20484383</v>
+        <v>125520.0321119704</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9417,10 +9417,10 @@
         <v>450</v>
       </c>
       <c r="C449">
-        <v>9220.979640228339</v>
+        <v>8471.899191865523</v>
       </c>
       <c r="D449">
-        <v>63990.97964022835</v>
+        <v>63241.89919186553</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9473,10 +9473,10 @@
         <v>454</v>
       </c>
       <c r="C453">
-        <v>2337.777783491998</v>
+        <v>1012.176160468051</v>
       </c>
       <c r="D453">
-        <v>86431.77778349193</v>
+        <v>85106.17616046798</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9487,10 +9487,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>16983.96884641831</v>
+        <v>21982.09571102799</v>
       </c>
       <c r="D454">
-        <v>98587.9688464183</v>
+        <v>103586.095711028</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9501,10 +9501,10 @@
         <v>456</v>
       </c>
       <c r="C455">
-        <v>19917.75519803396</v>
+        <v>12359.72009958867</v>
       </c>
       <c r="D455">
-        <v>105223.755198034</v>
+        <v>97665.72009958873</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9529,10 +9529,10 @@
         <v>458</v>
       </c>
       <c r="C457">
-        <v>27825.07411537036</v>
+        <v>31911.8379179254</v>
       </c>
       <c r="D457">
-        <v>117345.0741153704</v>
+        <v>121431.8379179254</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9557,10 +9557,10 @@
         <v>460</v>
       </c>
       <c r="C459">
-        <v>36868.32669451331</v>
+        <v>39107.99159602774</v>
       </c>
       <c r="D459">
-        <v>117260.3266945132</v>
+        <v>119499.9915960277</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9627,10 +9627,10 @@
         <v>465</v>
       </c>
       <c r="C464">
-        <v>31412.92217600159</v>
+        <v>25321.31370860961</v>
       </c>
       <c r="D464">
-        <v>148847.9221760017</v>
+        <v>142756.3137086097</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9641,10 +9641,10 @@
         <v>466</v>
       </c>
       <c r="C465">
-        <v>19499.44220751344</v>
+        <v>22241.56786933719</v>
       </c>
       <c r="D465">
-        <v>97839.44220751346</v>
+        <v>100581.5678693372</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9809,10 +9809,10 @@
         <v>478</v>
       </c>
       <c r="C477">
-        <v>14097.61676536172</v>
+        <v>14954.88697641947</v>
       </c>
       <c r="D477">
-        <v>80417.61676536176</v>
+        <v>81274.88697641951</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9907,10 +9907,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>7336.333245065303</v>
+        <v>5536.487234849934</v>
       </c>
       <c r="D484">
-        <v>62091.33324506533</v>
+        <v>60291.48723484996</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9949,10 +9949,10 @@
         <v>488</v>
       </c>
       <c r="C487">
-        <v>40998.28381144215</v>
+        <v>38211.19264753564</v>
       </c>
       <c r="D487">
-        <v>134993.2838114421</v>
+        <v>132206.1926475356</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9977,10 +9977,10 @@
         <v>490</v>
       </c>
       <c r="C489">
-        <v>27885.35642022629</v>
+        <v>31380.26924003793</v>
       </c>
       <c r="D489">
-        <v>114649.3564202263</v>
+        <v>118144.2692400379</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10005,10 +10005,10 @@
         <v>492</v>
       </c>
       <c r="C491">
-        <v>25106.37614758914</v>
+        <v>20174.52562535698</v>
       </c>
       <c r="D491">
-        <v>90296.37614758917</v>
+        <v>85364.525625357</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10033,10 +10033,10 @@
         <v>494</v>
       </c>
       <c r="C493">
-        <v>7378.920698675211</v>
+        <v>8875.811281937466</v>
       </c>
       <c r="D493">
-        <v>80480.92069867518</v>
+        <v>81977.81128193744</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10061,10 +10061,10 @@
         <v>496</v>
       </c>
       <c r="C495">
-        <v>0</v>
+        <v>3102.220049240263</v>
       </c>
       <c r="D495">
-        <v>98388.99999999997</v>
+        <v>101491.2200492402</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10243,10 +10243,10 @@
         <v>509</v>
       </c>
       <c r="C508">
-        <v>7377.844787776907</v>
+        <v>9258.414092220628</v>
       </c>
       <c r="D508">
-        <v>82983.84478777689</v>
+        <v>84864.41409222061</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10257,10 +10257,10 @@
         <v>510</v>
       </c>
       <c r="C509">
-        <v>12066.16037618463</v>
+        <v>12919.06628088199</v>
       </c>
       <c r="D509">
-        <v>63817.16037618465</v>
+        <v>64670.06628088201</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10383,10 +10383,10 @@
         <v>519</v>
       </c>
       <c r="C518">
-        <v>26496.19805193442</v>
+        <v>33608.21391165801</v>
       </c>
       <c r="D518">
-        <v>138956.1980519344</v>
+        <v>146068.213911658</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10453,10 +10453,10 @@
         <v>524</v>
       </c>
       <c r="C523">
-        <v>5354.466059886501</v>
+        <v>15585.8499038976</v>
       </c>
       <c r="D523">
-        <v>78060.46605988656</v>
+        <v>88291.84990389766</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10481,10 +10481,10 @@
         <v>526</v>
       </c>
       <c r="C525">
-        <v>14718.12475444595</v>
+        <v>14112.73457659115</v>
       </c>
       <c r="D525">
-        <v>87640.12475444601</v>
+        <v>87034.7345765912</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10579,10 +10579,10 @@
         <v>533</v>
       </c>
       <c r="C532">
-        <v>2284.094416919237</v>
+        <v>0</v>
       </c>
       <c r="D532">
-        <v>88980.09441691928</v>
+        <v>86696.00000000004</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10649,10 +10649,10 @@
         <v>538</v>
       </c>
       <c r="C537">
-        <v>8606.890240991102</v>
+        <v>12492.53902850661</v>
       </c>
       <c r="D537">
-        <v>61555.89024099107</v>
+        <v>65441.53902850658</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10663,10 +10663,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>35121.15833944838</v>
+        <v>24996.57516582975</v>
       </c>
       <c r="D538">
-        <v>148876.1583394484</v>
+        <v>138751.5751658297</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10677,10 +10677,10 @@
         <v>540</v>
       </c>
       <c r="C539">
-        <v>7713.756917596358</v>
+        <v>14841.26469397916</v>
       </c>
       <c r="D539">
-        <v>79941.7569175963</v>
+        <v>87069.2646939791</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10705,10 +10705,10 @@
         <v>542</v>
       </c>
       <c r="C541">
-        <v>20914.71877168048</v>
+        <v>16852.75054699836</v>
       </c>
       <c r="D541">
-        <v>118174.7187716805</v>
+        <v>114112.7505469983</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10789,10 +10789,10 @@
         <v>548</v>
       </c>
       <c r="C547">
-        <v>0</v>
+        <v>119.6075703223469</v>
       </c>
       <c r="D547">
-        <v>148409.9999999999</v>
+        <v>148529.6075703222</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10817,10 +10817,10 @@
         <v>550</v>
       </c>
       <c r="C549">
-        <v>10993.6039437468</v>
+        <v>12663.06924617999</v>
       </c>
       <c r="D549">
-        <v>119229.6039437469</v>
+        <v>120899.06924618</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10845,10 +10845,10 @@
         <v>552</v>
       </c>
       <c r="C551">
-        <v>12527.85419268133</v>
+        <v>10257.792085828</v>
       </c>
       <c r="D551">
-        <v>65217.85419268128</v>
+        <v>62947.79208582795</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10943,10 +10943,10 @@
         <v>559</v>
       </c>
       <c r="C558">
-        <v>16963.91741339862</v>
+        <v>10578.29006142284</v>
       </c>
       <c r="D558">
-        <v>110888.9174133986</v>
+        <v>104503.2900614228</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -11055,10 +11055,10 @@
         <v>567</v>
       </c>
       <c r="C566">
-        <v>19696.42173680163</v>
+        <v>18114.17599239427</v>
       </c>
       <c r="D566">
-        <v>94871.42173680158</v>
+        <v>93289.17599239423</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11083,10 +11083,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>1258.984447694645</v>
+        <v>11288.32514658009</v>
       </c>
       <c r="D568">
-        <v>136693.9844476947</v>
+        <v>146723.3251465802</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11125,10 +11125,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>6164.654005636541</v>
+        <v>1846.368116881851</v>
       </c>
       <c r="D571">
-        <v>64175.65400563655</v>
+        <v>59857.36811688186</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11153,10 +11153,10 @@
         <v>574</v>
       </c>
       <c r="C573">
-        <v>8021.95934564148</v>
+        <v>6926.812844081542</v>
       </c>
       <c r="D573">
-        <v>64868.95934564144</v>
+        <v>63773.8128440815</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11167,10 +11167,10 @@
         <v>575</v>
       </c>
       <c r="C574">
-        <v>39350.10085980032</v>
+        <v>44676.95429480725</v>
       </c>
       <c r="D574">
-        <v>120262.1008598004</v>
+        <v>125588.9542948073</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11391,10 +11391,10 @@
         <v>591</v>
       </c>
       <c r="C590">
-        <v>49221.35966271664</v>
+        <v>38347.3622858236</v>
       </c>
       <c r="D590">
-        <v>143991.3596627167</v>
+        <v>133117.3622858237</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11447,10 +11447,10 @@
         <v>595</v>
       </c>
       <c r="C594">
-        <v>17252.61608872845</v>
+        <v>20883.40181749561</v>
       </c>
       <c r="D594">
-        <v>147132.6160887285</v>
+        <v>150763.4018174957</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11475,10 +11475,10 @@
         <v>597</v>
       </c>
       <c r="C596">
-        <v>9898.40710371374</v>
+        <v>6625.390665554194</v>
       </c>
       <c r="D596">
-        <v>68429.40710371373</v>
+        <v>65156.39066555419</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11531,10 +11531,10 @@
         <v>601</v>
       </c>
       <c r="C600">
-        <v>0</v>
+        <v>2008.302223653984</v>
       </c>
       <c r="D600">
-        <v>63424.99999999994</v>
+        <v>65433.30222365393</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11559,10 +11559,10 @@
         <v>603</v>
       </c>
       <c r="C602">
-        <v>10857.20223289696</v>
+        <v>12608.64858472512</v>
       </c>
       <c r="D602">
-        <v>99268.20223289693</v>
+        <v>101019.6485847251</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11587,10 +11587,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>8800.054019365896</v>
+        <v>17290.49389072457</v>
       </c>
       <c r="D604">
-        <v>96815.05401936597</v>
+        <v>105305.4938907246</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11615,10 +11615,10 @@
         <v>607</v>
       </c>
       <c r="C606">
-        <v>16576.99729894751</v>
+        <v>17939.21894500464</v>
       </c>
       <c r="D606">
-        <v>102983.9972989476</v>
+        <v>104346.2189450047</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11629,10 +11629,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>0</v>
+        <v>61.1671398167673</v>
       </c>
       <c r="D607">
-        <v>88583.99999999996</v>
+        <v>88645.16713981672</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11643,10 +11643,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>12707.71564638503</v>
+        <v>13454.30871747142</v>
       </c>
       <c r="D608">
-        <v>68370.71564638501</v>
+        <v>69117.3087174714</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11671,10 +11671,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>852.3354162562464</v>
+        <v>2067.765251156292</v>
       </c>
       <c r="D610">
-        <v>89714.33541625623</v>
+        <v>90929.76525115628</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11685,10 +11685,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>12288.99368968247</v>
+        <v>11592.27160820078</v>
       </c>
       <c r="D611">
-        <v>108685.9936896825</v>
+        <v>107989.2716082008</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11713,10 +11713,10 @@
         <v>614</v>
       </c>
       <c r="C613">
-        <v>10653.56237332268</v>
+        <v>13396.14227164399</v>
       </c>
       <c r="D613">
-        <v>63504.5623733227</v>
+        <v>66247.14227164401</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11727,10 +11727,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>721.229792896047</v>
+        <v>3955.322216523637</v>
       </c>
       <c r="D614">
-        <v>109502.229792896</v>
+        <v>112736.3222165236</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11769,10 +11769,10 @@
         <v>618</v>
       </c>
       <c r="C617">
-        <v>15508.92015797365</v>
+        <v>26596.33651468679</v>
       </c>
       <c r="D617">
-        <v>140633.9201579736</v>
+        <v>151721.3365146867</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11909,10 +11909,10 @@
         <v>628</v>
       </c>
       <c r="C627">
-        <v>9331.184297271975</v>
+        <v>7173.222501689685</v>
       </c>
       <c r="D627">
-        <v>108581.184297272</v>
+        <v>106423.2225016897</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -12021,10 +12021,10 @@
         <v>636</v>
       </c>
       <c r="C635">
-        <v>45418.68778175369</v>
+        <v>47659.66186161406</v>
       </c>
       <c r="D635">
-        <v>147483.6877817536</v>
+        <v>149724.661861614</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12035,10 +12035,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>3910.689982789918</v>
+        <v>0</v>
       </c>
       <c r="D636">
-        <v>92672.68998278998</v>
+        <v>88762.00000000006</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12049,10 +12049,10 @@
         <v>638</v>
       </c>
       <c r="C637">
-        <v>4393.059702302678</v>
+        <v>2963.120402431232</v>
       </c>
       <c r="D637">
-        <v>71435.05970230263</v>
+        <v>70005.12040243119</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12077,10 +12077,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>22383.00663022716</v>
+        <v>18902.98720829087</v>
       </c>
       <c r="D639">
-        <v>89457.00663022714</v>
+        <v>85976.98720829086</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12119,10 +12119,10 @@
         <v>643</v>
       </c>
       <c r="C642">
-        <v>8163.827781995831</v>
+        <v>1634.374780484082</v>
       </c>
       <c r="D642">
-        <v>82089.82778199589</v>
+        <v>75560.37478048414</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12147,10 +12147,10 @@
         <v>645</v>
       </c>
       <c r="C644">
-        <v>0</v>
+        <v>2325.382853680727</v>
       </c>
       <c r="D644">
-        <v>102376.0000000001</v>
+        <v>104701.3828536808</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12231,10 +12231,10 @@
         <v>651</v>
       </c>
       <c r="C650">
-        <v>5648.259474683087</v>
+        <v>2440.487718870078</v>
       </c>
       <c r="D650">
-        <v>103341.259474683</v>
+        <v>100133.48771887</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12273,10 +12273,10 @@
         <v>654</v>
       </c>
       <c r="C653">
-        <v>2266.626196260782</v>
+        <v>195.6081948234932</v>
       </c>
       <c r="D653">
-        <v>93712.62619626078</v>
+        <v>91641.60819482349</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12343,10 +12343,10 @@
         <v>659</v>
       </c>
       <c r="C658">
-        <v>16425.88810197465</v>
+        <v>19887.30045424167</v>
       </c>
       <c r="D658">
-        <v>87957.8881019746</v>
+        <v>91419.30045424163</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12413,10 +12413,10 @@
         <v>664</v>
       </c>
       <c r="C663">
-        <v>10710.49222555844</v>
+        <v>15769.6056979117</v>
       </c>
       <c r="D663">
-        <v>88456.49222555841</v>
+        <v>93515.60569791167</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12469,10 +12469,10 @@
         <v>668</v>
       </c>
       <c r="C667">
-        <v>30520.71154711396</v>
+        <v>40288.69007042941</v>
       </c>
       <c r="D667">
-        <v>115092.7115471139</v>
+        <v>124860.6900704293</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12483,10 +12483,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>32935.98820320907</v>
+        <v>33480.0974435173</v>
       </c>
       <c r="D668">
-        <v>144200.988203209</v>
+        <v>144745.0974435173</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12525,10 +12525,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>22.35553258853906</v>
+        <v>7062.123215906642</v>
       </c>
       <c r="D671">
-        <v>97010.35553258845</v>
+        <v>104050.1232159066</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12553,10 +12553,10 @@
         <v>674</v>
       </c>
       <c r="C673">
-        <v>14569.85323761199</v>
+        <v>12657.3585856462</v>
       </c>
       <c r="D673">
-        <v>65792.85323761197</v>
+        <v>63880.35858564618</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12567,10 +12567,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>15462.60000408921</v>
+        <v>25098.86587633721</v>
       </c>
       <c r="D674">
-        <v>119986.6000040893</v>
+        <v>129622.8658763373</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12581,10 +12581,10 @@
         <v>676</v>
       </c>
       <c r="C675">
-        <v>31412.33218880746</v>
+        <v>13946.16052424852</v>
       </c>
       <c r="D675">
-        <v>153797.3321888074</v>
+        <v>136331.1605242485</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -12609,10 +12609,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>8034.368978842656</v>
+        <v>8199.172307592875</v>
       </c>
       <c r="D677">
-        <v>85726.36897884269</v>
+        <v>85891.1723075929</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12651,10 +12651,10 @@
         <v>681</v>
       </c>
       <c r="C680">
-        <v>11277.91384029639</v>
+        <v>19628.53312979071</v>
       </c>
       <c r="D680">
-        <v>117845.9138402964</v>
+        <v>126196.5331297907</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12665,10 +12665,10 @@
         <v>682</v>
       </c>
       <c r="C681">
-        <v>6978.897024317055</v>
+        <v>1883.713888428829</v>
       </c>
       <c r="D681">
-        <v>65421.89702431704</v>
+        <v>60326.71388842881</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12721,10 +12721,10 @@
         <v>686</v>
       </c>
       <c r="C685">
-        <v>4128.833076209194</v>
+        <v>7741.462185155906</v>
       </c>
       <c r="D685">
-        <v>101884.8330762092</v>
+        <v>105497.4621851559</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12777,10 +12777,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>26591.16838583954</v>
+        <v>32097.1470361825</v>
       </c>
       <c r="D689">
-        <v>117411.1683858395</v>
+        <v>122917.1470361825</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12791,10 +12791,10 @@
         <v>691</v>
       </c>
       <c r="C690">
-        <v>362.5786101726117</v>
+        <v>8142.503753274534</v>
       </c>
       <c r="D690">
-        <v>78968.57861017257</v>
+        <v>86748.50375327449</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12819,10 +12819,10 @@
         <v>693</v>
       </c>
       <c r="C692">
-        <v>9699.924683905192</v>
+        <v>12893.78857142779</v>
       </c>
       <c r="D692">
-        <v>81227.92468390524</v>
+        <v>84421.78857142784</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12945,10 +12945,10 @@
         <v>702</v>
       </c>
       <c r="C701">
-        <v>26915.2298036468</v>
+        <v>31349.37724911487</v>
       </c>
       <c r="D701">
-        <v>101211.2298036468</v>
+        <v>105645.3772491148</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12987,10 +12987,10 @@
         <v>705</v>
       </c>
       <c r="C704">
-        <v>2935.926962838945</v>
+        <v>2426.301998057097</v>
       </c>
       <c r="D704">
-        <v>86871.92696283887</v>
+        <v>86362.30199805702</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13001,10 +13001,10 @@
         <v>706</v>
       </c>
       <c r="C705">
-        <v>4995.49837826172</v>
+        <v>3638.423639626883</v>
       </c>
       <c r="D705">
-        <v>66621.49837826173</v>
+        <v>65264.4236396269</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13141,10 +13141,10 @@
         <v>716</v>
       </c>
       <c r="C715">
-        <v>1638.872755629811</v>
+        <v>0</v>
       </c>
       <c r="D715">
-        <v>67582.8727556298</v>
+        <v>65943.99999999999</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13155,10 +13155,10 @@
         <v>717</v>
       </c>
       <c r="C716">
-        <v>0</v>
+        <v>2231.333403299192</v>
       </c>
       <c r="D716">
-        <v>65123.99999999998</v>
+        <v>67355.33340329917</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13239,10 +13239,10 @@
         <v>723</v>
       </c>
       <c r="C722">
-        <v>8966.244890717426</v>
+        <v>16061.95211811435</v>
       </c>
       <c r="D722">
-        <v>88508.24489071744</v>
+        <v>95603.95211811436</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13253,10 +13253,10 @@
         <v>724</v>
       </c>
       <c r="C723">
-        <v>2342.129716367403</v>
+        <v>10186.93184167828</v>
       </c>
       <c r="D723">
-        <v>57378.12971636742</v>
+        <v>65222.9318416783</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13337,10 +13337,10 @@
         <v>730</v>
       </c>
       <c r="C729">
-        <v>0</v>
+        <v>662.3556902190467</v>
       </c>
       <c r="D729">
-        <v>104707.0000000001</v>
+        <v>105369.3556902191</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13365,10 +13365,10 @@
         <v>732</v>
       </c>
       <c r="C731">
-        <v>0</v>
+        <v>4850.398823197553</v>
       </c>
       <c r="D731">
-        <v>123764.0000000001</v>
+        <v>128614.3988231976</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13379,10 +13379,10 @@
         <v>733</v>
       </c>
       <c r="C732">
-        <v>3119.463818209821</v>
+        <v>5325.052561238066</v>
       </c>
       <c r="D732">
-        <v>64957.46381820987</v>
+        <v>67163.05256123812</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13449,10 +13449,10 @@
         <v>738</v>
       </c>
       <c r="C737">
-        <v>0</v>
+        <v>2125.046131270516</v>
       </c>
       <c r="D737">
-        <v>83209.99999999996</v>
+        <v>85335.04613127047</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13477,10 +13477,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>3617.939571791023</v>
+        <v>0</v>
       </c>
       <c r="D739">
-        <v>64866.93957179099</v>
+        <v>61248.99999999997</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13505,10 +13505,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>19008.33117891591</v>
+        <v>25242.43921332051</v>
       </c>
       <c r="D741">
-        <v>91873.33117891589</v>
+        <v>98107.4392133205</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13519,10 +13519,10 @@
         <v>743</v>
       </c>
       <c r="C742">
-        <v>31957.81387990004</v>
+        <v>23551.53213879118</v>
       </c>
       <c r="D742">
-        <v>138327.8138799</v>
+        <v>129921.5321387911</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13533,10 +13533,10 @@
         <v>744</v>
       </c>
       <c r="C743">
-        <v>15564.34925831945</v>
+        <v>20203.63541939882</v>
       </c>
       <c r="D743">
-        <v>77590.34925831947</v>
+        <v>82229.63541939885</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13547,10 +13547,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>9358.632206790804</v>
+        <v>8102.687347235216</v>
       </c>
       <c r="D744">
-        <v>63911.6322067908</v>
+        <v>62655.68734723521</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13589,10 +13589,10 @@
         <v>748</v>
       </c>
       <c r="C747">
-        <v>19128.16499277914</v>
+        <v>19243.32630723782</v>
       </c>
       <c r="D747">
-        <v>103138.1649927792</v>
+        <v>103253.3263072378</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13603,10 +13603,10 @@
         <v>749</v>
       </c>
       <c r="C748">
-        <v>15242.73000505441</v>
+        <v>11477.99760734006</v>
       </c>
       <c r="D748">
-        <v>126834.7300050544</v>
+        <v>123069.99760734</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13659,10 +13659,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>9135.48901222182</v>
+        <v>10237.70385730917</v>
       </c>
       <c r="D752">
-        <v>89081.48901222178</v>
+        <v>90183.70385730913</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13701,10 +13701,10 @@
         <v>756</v>
       </c>
       <c r="C755">
-        <v>47384.98928824539</v>
+        <v>55934.21031562038</v>
       </c>
       <c r="D755">
-        <v>139924.9892882454</v>
+        <v>148474.2103156204</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13799,10 +13799,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>4510.055555137966</v>
+        <v>3083.930873758029</v>
       </c>
       <c r="D762">
-        <v>90000.05555513795</v>
+        <v>88573.93087375801</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13841,10 +13841,10 @@
         <v>766</v>
       </c>
       <c r="C765">
-        <v>9984.056281225814</v>
+        <v>12989.4783783927</v>
       </c>
       <c r="D765">
-        <v>121608.0562812258</v>
+        <v>124613.4783783927</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13911,10 +13911,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>48089.82081933212</v>
+        <v>38863.7018325066</v>
       </c>
       <c r="D770">
-        <v>145939.8208193321</v>
+        <v>136713.7018325066</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14107,10 +14107,10 @@
         <v>785</v>
       </c>
       <c r="C784">
-        <v>5512.73523651305</v>
+        <v>430.790560932568</v>
       </c>
       <c r="D784">
-        <v>145687.7352365132</v>
+        <v>140605.7905609327</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14135,10 +14135,10 @@
         <v>787</v>
       </c>
       <c r="C786">
-        <v>0</v>
+        <v>5008.250600928252</v>
       </c>
       <c r="D786">
-        <v>122059.9999999999</v>
+        <v>127068.2506009282</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14149,10 +14149,10 @@
         <v>788</v>
       </c>
       <c r="C787">
-        <v>7512.897800005958</v>
+        <v>7067.984926374163</v>
       </c>
       <c r="D787">
-        <v>104101.8978000059</v>
+        <v>103656.9849263741</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14233,10 +14233,10 @@
         <v>794</v>
       </c>
       <c r="C793">
-        <v>22484.82175106966</v>
+        <v>14918.77479136456</v>
       </c>
       <c r="D793">
-        <v>110223.8217510696</v>
+        <v>102657.7747913645</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -14261,10 +14261,10 @@
         <v>796</v>
       </c>
       <c r="C795">
-        <v>1280.826757007628</v>
+        <v>501.6521211033833</v>
       </c>
       <c r="D795">
-        <v>70643.82675700761</v>
+        <v>69864.65212110337</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14289,10 +14289,10 @@
         <v>798</v>
       </c>
       <c r="C797">
-        <v>42456.42626923134</v>
+        <v>44333.78059621711</v>
       </c>
       <c r="D797">
-        <v>132986.4262692313</v>
+        <v>134863.7805962171</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14345,10 +14345,10 @@
         <v>802</v>
       </c>
       <c r="C801">
-        <v>1472.091007911426</v>
+        <v>8310.289296519026</v>
       </c>
       <c r="D801">
-        <v>64108.09100791147</v>
+        <v>70946.28929651907</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14401,10 +14401,10 @@
         <v>806</v>
       </c>
       <c r="C805">
-        <v>3053.224831333951</v>
+        <v>6772.192761315862</v>
       </c>
       <c r="D805">
-        <v>105498.224831334</v>
+        <v>109217.1927613159</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14429,10 +14429,10 @@
         <v>808</v>
       </c>
       <c r="C807">
-        <v>40455.1465821319</v>
+        <v>37784.74983794217</v>
       </c>
       <c r="D807">
-        <v>127175.1465821319</v>
+        <v>124504.7498379422</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14499,10 +14499,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>7226.550129266558</v>
+        <v>4524.299863094311</v>
       </c>
       <c r="D812">
-        <v>68165.55012926659</v>
+        <v>65463.29986309434</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14527,10 +14527,10 @@
         <v>815</v>
       </c>
       <c r="C814">
-        <v>10517.87496754795</v>
+        <v>17044.17789797381</v>
       </c>
       <c r="D814">
-        <v>62573.87496754796</v>
+        <v>69100.17789797382</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14541,10 +14541,10 @@
         <v>816</v>
       </c>
       <c r="C815">
-        <v>10703.92697141113</v>
+        <v>7041.714737938149</v>
       </c>
       <c r="D815">
-        <v>72423.92697141114</v>
+        <v>68761.71473793816</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14555,10 +14555,10 @@
         <v>817</v>
       </c>
       <c r="C816">
-        <v>39692.35865346053</v>
+        <v>26730.51075671976</v>
       </c>
       <c r="D816">
-        <v>129804.3586534605</v>
+        <v>116842.5107567197</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14583,10 +14583,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>0</v>
+        <v>548.7235012909223</v>
       </c>
       <c r="D818">
-        <v>91841.99999999993</v>
+        <v>92390.72350129085</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14611,10 +14611,10 @@
         <v>821</v>
       </c>
       <c r="C820">
-        <v>1604.209586403085</v>
+        <v>0</v>
       </c>
       <c r="D820">
-        <v>109869.2095864031</v>
+        <v>108265</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14625,10 +14625,10 @@
         <v>822</v>
       </c>
       <c r="C821">
-        <v>18290.05504125089</v>
+        <v>16857.84743748065</v>
       </c>
       <c r="D821">
-        <v>123606.0550412508</v>
+        <v>122173.8474374806</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14681,10 +14681,10 @@
         <v>826</v>
       </c>
       <c r="C825">
-        <v>10020.81454309009</v>
+        <v>11190.13573381194</v>
       </c>
       <c r="D825">
-        <v>96757.81454309015</v>
+        <v>97927.135733812</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14695,10 +14695,10 @@
         <v>827</v>
       </c>
       <c r="C826">
-        <v>11056.61038055671</v>
+        <v>9962.157569879026</v>
       </c>
       <c r="D826">
-        <v>91332.61038055674</v>
+        <v>90238.15756987905</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14709,10 +14709,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>5551.23408752559</v>
+        <v>216.847616300387</v>
       </c>
       <c r="D827">
-        <v>70305.23408752556</v>
+        <v>64970.84761630036</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14751,10 +14751,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>5040.718885581329</v>
+        <v>7263.921301432623</v>
       </c>
       <c r="D830">
-        <v>67132.71888558129</v>
+        <v>69355.92130143258</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14779,10 +14779,10 @@
         <v>833</v>
       </c>
       <c r="C832">
-        <v>16688.240480055</v>
+        <v>15823.46986541856</v>
       </c>
       <c r="D832">
-        <v>107889.2404800549</v>
+        <v>107024.4698654185</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14793,10 +14793,10 @@
         <v>834</v>
       </c>
       <c r="C833">
-        <v>1572.38981793823</v>
+        <v>5289.097876847416</v>
       </c>
       <c r="D833">
-        <v>62570.38981793823</v>
+        <v>66287.09787684742</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14807,10 +14807,10 @@
         <v>835</v>
       </c>
       <c r="C834">
-        <v>42563.45294995094</v>
+        <v>41245.29256689531</v>
       </c>
       <c r="D834">
-        <v>145618.4529499509</v>
+        <v>144300.2925668953</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14849,10 +14849,10 @@
         <v>838</v>
       </c>
       <c r="C837">
-        <v>9041.057469992302</v>
+        <v>2752.93100724426</v>
       </c>
       <c r="D837">
-        <v>101139.0574699923</v>
+        <v>94850.93100724426</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -14891,10 +14891,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>1844.708765646268</v>
+        <v>0</v>
       </c>
       <c r="D840">
-        <v>113421.7087656464</v>
+        <v>111577.0000000001</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14919,10 +14919,10 @@
         <v>843</v>
       </c>
       <c r="C842">
-        <v>16137.67536268148</v>
+        <v>23250.82985159084</v>
       </c>
       <c r="D842">
-        <v>99211.67536268153</v>
+        <v>106324.8298515909</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14975,10 +14975,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>7955.61407268187</v>
+        <v>9867.619900495934</v>
       </c>
       <c r="D846">
-        <v>85921.61407268191</v>
+        <v>87833.61990049598</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15003,10 +15003,10 @@
         <v>849</v>
       </c>
       <c r="C848">
-        <v>19009.86263894412</v>
+        <v>23259.24803697056</v>
       </c>
       <c r="D848">
-        <v>149364.8626389441</v>
+        <v>153614.2480369705</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15017,10 +15017,10 @@
         <v>850</v>
       </c>
       <c r="C849">
-        <v>40437.38759777468</v>
+        <v>43014.36369261518</v>
       </c>
       <c r="D849">
-        <v>147662.3875977747</v>
+        <v>150239.3636926152</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15073,10 +15073,10 @@
         <v>854</v>
       </c>
       <c r="C853">
-        <v>26916.69066178791</v>
+        <v>25539.46958889578</v>
       </c>
       <c r="D853">
-        <v>100837.6906617879</v>
+        <v>99460.46958889575</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15185,10 +15185,10 @@
         <v>862</v>
       </c>
       <c r="C861">
-        <v>9296.832524526908</v>
+        <v>10990.0046875663</v>
       </c>
       <c r="D861">
-        <v>68402.83252452689</v>
+        <v>70096.00468756628</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -15199,10 +15199,10 @@
         <v>863</v>
       </c>
       <c r="C862">
-        <v>14659.30980566429</v>
+        <v>16778.83694889347</v>
       </c>
       <c r="D862">
-        <v>85773.30980566426</v>
+        <v>87892.83694889344</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -15269,10 +15269,10 @@
         <v>868</v>
       </c>
       <c r="C867">
-        <v>13648.81314571715</v>
+        <v>5777.933628504688</v>
       </c>
       <c r="D867">
-        <v>109223.8131457171</v>
+        <v>101352.9336285046</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -15325,10 +15325,10 @@
         <v>872</v>
       </c>
       <c r="C871">
-        <v>16462.01037463379</v>
+        <v>13824.34021896891</v>
       </c>
       <c r="D871">
-        <v>70317.01037463377</v>
+        <v>67679.34021896889</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15339,10 +15339,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>16856.01010909004</v>
+        <v>17673.57372019917</v>
       </c>
       <c r="D872">
-        <v>95276.01010909007</v>
+        <v>96093.5737201992</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15381,10 +15381,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>4290.377613623052</v>
+        <v>667.6547390472697</v>
       </c>
       <c r="D875">
-        <v>65771.37761362306</v>
+        <v>62148.65473904728</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15395,10 +15395,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>20234.31000202325</v>
+        <v>17702.73434941111</v>
       </c>
       <c r="D876">
-        <v>90942.31000202327</v>
+        <v>88410.73434941113</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15409,10 +15409,10 @@
         <v>878</v>
       </c>
       <c r="C877">
-        <v>0</v>
+        <v>4897.03800820648</v>
       </c>
       <c r="D877">
-        <v>68744.99999999997</v>
+        <v>73642.03800820645</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -15423,10 +15423,10 @@
         <v>879</v>
       </c>
       <c r="C878">
-        <v>27093.20127690116</v>
+        <v>32966.55309488549</v>
       </c>
       <c r="D878">
-        <v>100651.2012769011</v>
+        <v>106524.5530948854</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15437,10 +15437,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>0</v>
+        <v>1380.578268862897</v>
       </c>
       <c r="D879">
-        <v>87139.99999999993</v>
+        <v>88520.57826886282</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15479,10 +15479,10 @@
         <v>883</v>
       </c>
       <c r="C882">
-        <v>22776.6133436628</v>
+        <v>25894.65938858176</v>
       </c>
       <c r="D882">
-        <v>85966.6133436628</v>
+        <v>89084.65938858176</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -15507,10 +15507,10 @@
         <v>885</v>
       </c>
       <c r="C884">
-        <v>0</v>
+        <v>710.5065741153958</v>
       </c>
       <c r="D884">
-        <v>69094</v>
+        <v>69804.5065741154</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15535,10 +15535,10 @@
         <v>887</v>
       </c>
       <c r="C886">
-        <v>4199.087856380276</v>
+        <v>8970.011004739317</v>
       </c>
       <c r="D886">
-        <v>65901.08785638033</v>
+        <v>70672.01100473937</v>
       </c>
     </row>
     <row r="887" spans="1:4">

--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>9222.584858528498</v>
+        <v>8678.114322450347</v>
       </c>
       <c r="D4">
-        <v>80634.58485852851</v>
+        <v>80090.11432245036</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>23797.85574900635</v>
+        <v>24672.66877095102</v>
       </c>
       <c r="D9">
-        <v>99443.85574900641</v>
+        <v>100318.6687709511</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>12416.05751982045</v>
+        <v>12946.03055624528</v>
       </c>
       <c r="D10">
-        <v>63630.05751982047</v>
+        <v>64160.03055624529</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3542,10 +3542,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>197.3786132628447</v>
       </c>
       <c r="D30">
-        <v>97603.00000000001</v>
+        <v>97800.37861326286</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>16427.7310046466</v>
+        <v>15710.18272052061</v>
       </c>
       <c r="D31">
-        <v>82997.73100464663</v>
+        <v>82280.18272052064</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3584,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>20910.12045313953</v>
+        <v>19718.21232691622</v>
       </c>
       <c r="D33">
-        <v>81964.12045313955</v>
+        <v>80772.21232691624</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>26928.6640452002</v>
+        <v>25655.13265201823</v>
       </c>
       <c r="D34">
-        <v>117332.6640452003</v>
+        <v>116059.1326520183</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>28471.08249439261</v>
+        <v>27771.81735711609</v>
       </c>
       <c r="D35">
-        <v>98516.08249439261</v>
+        <v>97816.81735711609</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>4217.837937545395</v>
+        <v>4542.648262053204</v>
       </c>
       <c r="D38">
-        <v>102252.8379375455</v>
+        <v>102577.6482620533</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>15392.29184387227</v>
+        <v>15442.70156375725</v>
       </c>
       <c r="D68">
-        <v>98409.29184387224</v>
+        <v>98459.70156375722</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>10715.17084777686</v>
+        <v>11604.35403126015</v>
       </c>
       <c r="D71">
-        <v>64519.17084777686</v>
+        <v>65408.35403126014</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>5716.809113632495</v>
+        <v>6071.049950383516</v>
       </c>
       <c r="D72">
-        <v>80984.80911363252</v>
+        <v>81339.04995038355</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>8545.752348747425</v>
+        <v>8424.481222018891</v>
       </c>
       <c r="D74">
-        <v>139605.7523487474</v>
+        <v>139484.4812220189</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>17375.12743164722</v>
+        <v>17006.75190877828</v>
       </c>
       <c r="D84">
-        <v>81911.12743164724</v>
+        <v>81542.7519087783</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>13594.22724679521</v>
+        <v>14744.29791384457</v>
       </c>
       <c r="D86">
-        <v>64329.22724679524</v>
+        <v>65479.2979138446</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>7459.678149440922</v>
+        <v>6960.631677601559</v>
       </c>
       <c r="D90">
-        <v>133404.6781494408</v>
+        <v>132905.6316776015</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4634,10 +4634,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>973.279584378397</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>82771.27958437846</v>
+        <v>81798.00000000006</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>2684.227861949999</v>
+        <v>2856.588599063049</v>
       </c>
       <c r="D115">
-        <v>61644.22786195001</v>
+        <v>61816.58859906306</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>5931.853792370894</v>
+        <v>5492.690010430175</v>
       </c>
       <c r="D117">
-        <v>81525.85379237091</v>
+        <v>81086.69001043019</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4830,10 +4830,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>15351.54692643038</v>
+        <v>16730.11737530708</v>
       </c>
       <c r="D122">
-        <v>121403.5469264303</v>
+        <v>122782.117375307</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>28796.15490537319</v>
+        <v>29949.98393888889</v>
       </c>
       <c r="D128">
-        <v>138061.1549053733</v>
+        <v>139214.983938889</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>15293.47395716401</v>
+        <v>15436.0898941294</v>
       </c>
       <c r="D136">
-        <v>141618.473957164</v>
+        <v>141761.0898941294</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>20012.28188015998</v>
+        <v>18691.33452952822</v>
       </c>
       <c r="D137">
-        <v>145142.28188016</v>
+        <v>143821.3345295282</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>950.6931772173702</v>
+        <v>1479.863556262411</v>
       </c>
       <c r="D140">
-        <v>64798.69317721733</v>
+        <v>65327.86355626237</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>43909.16467531305</v>
+        <v>45526.13857780711</v>
       </c>
       <c r="D142">
-        <v>143874.164675313</v>
+        <v>145491.1385778071</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>43417.13055444261</v>
+        <v>43737.18692947883</v>
       </c>
       <c r="D144">
-        <v>137632.1305544426</v>
+        <v>137952.1869294788</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>3491.453997901976</v>
+        <v>3998.633830664505</v>
       </c>
       <c r="D146">
-        <v>81857.45399790202</v>
+        <v>82364.63383066455</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>6685.92786574582</v>
+        <v>6875.134987278514</v>
       </c>
       <c r="D149">
-        <v>61419.92786574585</v>
+        <v>61609.13498727854</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>30236.72519952302</v>
+        <v>28538.46207563688</v>
       </c>
       <c r="D163">
-        <v>115548.7251995229</v>
+        <v>113850.4620756368</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>20578.57552569192</v>
+        <v>21666.65967575077</v>
       </c>
       <c r="D169">
-        <v>85288.57552569188</v>
+        <v>86376.65967575072</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>17721.89155385666</v>
+        <v>17270.97517966633</v>
       </c>
       <c r="D172">
-        <v>81857.89155385665</v>
+        <v>81406.97517966632</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>7182.090299850126</v>
+        <v>7198.19828623932</v>
       </c>
       <c r="D174">
-        <v>100192.0902998501</v>
+        <v>100208.1982862393</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>20431.53521076561</v>
+        <v>22071.27948268285</v>
       </c>
       <c r="D176">
-        <v>132741.5352107655</v>
+        <v>134381.2794826828</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>2015.474356765902</v>
+        <v>2075.079317806405</v>
       </c>
       <c r="D177">
-        <v>64994.47435676592</v>
+        <v>65054.07931780643</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>10010.19112457287</v>
+        <v>9982.367702287906</v>
       </c>
       <c r="D178">
-        <v>61677.19112457285</v>
+        <v>61649.36770228788</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>2821.56805248779</v>
+        <v>3942.161772824104</v>
       </c>
       <c r="D183">
-        <v>61511.56805248781</v>
+        <v>62632.16177282413</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>9395.399705574091</v>
+        <v>9885.594373759726</v>
       </c>
       <c r="D186">
-        <v>82261.39970557406</v>
+        <v>82751.5943737597</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>1070.14307597412</v>
+        <v>2958.735859992914</v>
       </c>
       <c r="D190">
-        <v>112606.1430759741</v>
+        <v>114494.7358599929</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>3275.098035721079</v>
+        <v>3942.7693241378</v>
       </c>
       <c r="D192">
-        <v>136605.0980357211</v>
+        <v>137272.7693241378</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>16344.18251768241</v>
+        <v>15468.86128419334</v>
       </c>
       <c r="D195">
-        <v>81396.18251768242</v>
+        <v>80520.86128419335</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>19506.73822125909</v>
+        <v>19749.64856843917</v>
       </c>
       <c r="D203">
-        <v>115694.738221259</v>
+        <v>115937.6485684391</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>18011.71759742679</v>
+        <v>17038.45595578922</v>
       </c>
       <c r="D204">
-        <v>82945.71759742674</v>
+        <v>81972.45595578918</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>20592.20935604151</v>
+        <v>20816.96809308795</v>
       </c>
       <c r="D214">
-        <v>117960.2093560416</v>
+        <v>118184.968093088</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>216</v>
       </c>
       <c r="C215">
-        <v>18235.21169936705</v>
+        <v>19012.01016041491</v>
       </c>
       <c r="D215">
-        <v>117531.211699367</v>
+        <v>118308.0101604149</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>12013.30933686628</v>
+        <v>11215.00482225032</v>
       </c>
       <c r="D218">
-        <v>62980.3093368663</v>
+        <v>62182.00482225034</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>17216.24956560394</v>
+        <v>18289.50998940296</v>
       </c>
       <c r="D220">
-        <v>118372.249565604</v>
+        <v>119445.509989403</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>2311.124245578583</v>
+        <v>2051.167959639992</v>
       </c>
       <c r="D221">
-        <v>94757.12424557853</v>
+        <v>94497.16795963993</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>12271.35861227923</v>
+        <v>11693.96871576353</v>
       </c>
       <c r="D227">
-        <v>80909.3586122792</v>
+        <v>80331.96871576351</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>15495.86391481769</v>
+        <v>15063.97586538973</v>
       </c>
       <c r="D228">
-        <v>130800.8639148178</v>
+        <v>130368.9758653898</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>6878.300400918575</v>
+        <v>6918.356883137865</v>
       </c>
       <c r="D232">
-        <v>61803.30040091861</v>
+        <v>61843.3568831379</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>234</v>
       </c>
       <c r="C233">
-        <v>11219.81726286135</v>
+        <v>11607.64318538466</v>
       </c>
       <c r="D233">
-        <v>117027.8172628614</v>
+        <v>117415.6431853847</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>5384.188990697563</v>
+        <v>5885.349333820224</v>
       </c>
       <c r="D239">
-        <v>61689.18899069758</v>
+        <v>62190.34933382025</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>5495.76081635525</v>
+        <v>5903.137136476777</v>
       </c>
       <c r="D240">
-        <v>63128.76081635523</v>
+        <v>63536.13713647675</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>19046.51757122971</v>
+        <v>19322.02606913316</v>
       </c>
       <c r="D242">
-        <v>98760.51757122975</v>
+        <v>99036.02606913321</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>28567.10609373701</v>
+        <v>27377.81285536953</v>
       </c>
       <c r="D246">
-        <v>116807.1060937371</v>
+        <v>115617.8128553696</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>21605.01051130486</v>
+        <v>22101.38853427242</v>
       </c>
       <c r="D253">
-        <v>85277.01051130491</v>
+        <v>85773.38853427247</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6706,10 +6706,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>17912.01925590709</v>
+        <v>18498.53145581816</v>
       </c>
       <c r="D256">
-        <v>94299.01925590704</v>
+        <v>94885.53145581811</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6832,10 +6832,10 @@
         <v>266</v>
       </c>
       <c r="C265">
-        <v>362.3222035920699</v>
+        <v>98.70517282187939</v>
       </c>
       <c r="D265">
-        <v>61911.32220359211</v>
+        <v>61647.70517282192</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>21219.85764045951</v>
+        <v>21397.99805980381</v>
       </c>
       <c r="D271">
-        <v>134044.8576404596</v>
+        <v>134222.9980598039</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>17957.44174668753</v>
+        <v>17935.75033419993</v>
       </c>
       <c r="D275">
-        <v>95439.44174668749</v>
+        <v>95417.75033419988</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>7116.277369401541</v>
+        <v>6649.875802315211</v>
       </c>
       <c r="D280">
-        <v>64664.27736940149</v>
+        <v>64197.87580231516</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>21503.83000161467</v>
+        <v>20463.35734192465</v>
       </c>
       <c r="D285">
-        <v>118371.8300016146</v>
+        <v>117331.3573419246</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>4988.595793924731</v>
+        <v>4467.416292475929</v>
       </c>
       <c r="D287">
-        <v>111880.5957939248</v>
+        <v>111359.416292476</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>13551.28530276452</v>
+        <v>14413.5463603284</v>
       </c>
       <c r="D290">
-        <v>142221.2853027645</v>
+        <v>143083.5463603284</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>9859.206457533022</v>
+        <v>9812.681519149373</v>
       </c>
       <c r="D292">
-        <v>61415.20645753304</v>
+        <v>61368.6815191494</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>23630.11955255593</v>
+        <v>22716.42098956405</v>
       </c>
       <c r="D295">
-        <v>112118.119552556</v>
+        <v>111204.4209895641</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>13047.33757137202</v>
+        <v>14221.53055341083</v>
       </c>
       <c r="D298">
-        <v>93202.33757137197</v>
+        <v>94376.53055341079</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7322,10 +7322,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>10313.82359434868</v>
+        <v>12022.74300807214</v>
       </c>
       <c r="D300">
-        <v>92523.82359434864</v>
+        <v>94232.7430080721</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>26650.29433831987</v>
+        <v>26816.79570421304</v>
       </c>
       <c r="D305">
-        <v>110826.2943383198</v>
+        <v>110992.795704213</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>2535.023877202431</v>
+        <v>3056.153148078505</v>
       </c>
       <c r="D307">
-        <v>59260.02387720247</v>
+        <v>59781.15314807855</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>9277.189630194924</v>
+        <v>9150.467420473949</v>
       </c>
       <c r="D308">
-        <v>61675.18963019488</v>
+        <v>61548.46742047391</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>20295.74141727122</v>
+        <v>21724.87409601639</v>
       </c>
       <c r="D310">
-        <v>138750.7414172712</v>
+        <v>140179.8740960164</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>5251.930029322473</v>
+        <v>5317.894346294088</v>
       </c>
       <c r="D311">
-        <v>62190.93002932249</v>
+        <v>62256.8943462941</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>326</v>
       </c>
       <c r="C325">
-        <v>11322.97990522704</v>
+        <v>11387.81522219343</v>
       </c>
       <c r="D325">
-        <v>94414.97990522698</v>
+        <v>94479.81522219337</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>18561.03822120273</v>
+        <v>17879.45790584463</v>
       </c>
       <c r="D327">
-        <v>82667.03822120272</v>
+        <v>81985.45790584461</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>230.2382539027749</v>
+        <v>0</v>
       </c>
       <c r="D329">
-        <v>95502.2382539027</v>
+        <v>95271.99999999993</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>18148.52859404439</v>
+        <v>17170.48491102332</v>
       </c>
       <c r="D337">
-        <v>115264.5285940444</v>
+        <v>114286.4849110233</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>4314.473305159801</v>
+        <v>3332.870164319625</v>
       </c>
       <c r="D338">
-        <v>83136.47330515983</v>
+        <v>82154.87016431965</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>345</v>
       </c>
       <c r="C344">
-        <v>11024.4959321741</v>
+        <v>10232.65905443516</v>
       </c>
       <c r="D344">
-        <v>135184.4959321741</v>
+        <v>134392.6590544351</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>8821.145293232898</v>
+        <v>8508.884637124691</v>
       </c>
       <c r="D355">
-        <v>142696.1452932328</v>
+        <v>142383.8846371246</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>7727.29144379987</v>
+        <v>7780.931264483763</v>
       </c>
       <c r="D361">
-        <v>98877.2914437999</v>
+        <v>98930.93126448379</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>5436.592511078037</v>
+        <v>4037.397908209547</v>
       </c>
       <c r="D364">
-        <v>95581.59251107808</v>
+        <v>94182.39790820959</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>17465.50114658827</v>
+        <v>18082.37349482079</v>
       </c>
       <c r="D368">
-        <v>134440.5011465883</v>
+        <v>135057.3734948208</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>3821.898297608976</v>
+        <v>5871.746667518833</v>
       </c>
       <c r="D369">
-        <v>135546.898297609</v>
+        <v>137596.7466675188</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>374</v>
       </c>
       <c r="C373">
-        <v>2585.888065936524</v>
+        <v>1235.859443380774</v>
       </c>
       <c r="D373">
-        <v>110549.8880659365</v>
+        <v>109199.8594433808</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>383</v>
       </c>
       <c r="C382">
-        <v>13979.36223890489</v>
+        <v>14520.97429835638</v>
       </c>
       <c r="D382">
-        <v>78991.36223890491</v>
+        <v>79532.97429835641</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>9994.809359084335</v>
+        <v>9187.717278204844</v>
       </c>
       <c r="D390">
-        <v>98168.80935908435</v>
+        <v>97361.71727820486</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>26695.75456441072</v>
+        <v>27509.41271627809</v>
       </c>
       <c r="D394">
-        <v>97964.75456441066</v>
+        <v>98778.41271627804</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>23978.37798878856</v>
+        <v>23101.02931478385</v>
       </c>
       <c r="D398">
-        <v>110482.3779887886</v>
+        <v>109605.0293147839</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>17949.80990478287</v>
+        <v>18832.27493300092</v>
       </c>
       <c r="D402">
-        <v>78489.80990478289</v>
+        <v>79372.27493300094</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>37356.2422757936</v>
+        <v>36895.59962892527</v>
       </c>
       <c r="D406">
-        <v>135031.2422757936</v>
+        <v>134570.5996289253</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>412</v>
       </c>
       <c r="C411">
-        <v>33246.21170742635</v>
+        <v>33815.24833467153</v>
       </c>
       <c r="D411">
-        <v>119794.2117074264</v>
+        <v>120363.2483346715</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8974,10 +8974,10 @@
         <v>419</v>
       </c>
       <c r="C418">
-        <v>19932.54351973209</v>
+        <v>18785.16729965314</v>
       </c>
       <c r="D418">
-        <v>97855.54351973216</v>
+        <v>96708.16729965321</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9044,10 +9044,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>46073.1859519385</v>
+        <v>46501.86649679524</v>
       </c>
       <c r="D423">
-        <v>141648.1859519384</v>
+        <v>142076.8664967951</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>2432.800453376025</v>
+        <v>1956.06284012481</v>
       </c>
       <c r="D426">
-        <v>78952.80045337604</v>
+        <v>78476.06284012483</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>20114.60693177831</v>
+        <v>19784.15461140547</v>
       </c>
       <c r="D436">
-        <v>116658.6069317783</v>
+        <v>116328.1546114054</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>447</v>
       </c>
       <c r="C446">
-        <v>7224.354291409254</v>
+        <v>7122.506898079373</v>
       </c>
       <c r="D446">
-        <v>61994.35429140926</v>
+        <v>61892.50689807938</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9436,10 +9436,10 @@
         <v>452</v>
       </c>
       <c r="C451">
-        <v>17345.75972085043</v>
+        <v>16555.03340704957</v>
       </c>
       <c r="D451">
-        <v>98949.75972085042</v>
+        <v>98159.03340704956</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>15833.03441018511</v>
+        <v>16157.57128169983</v>
       </c>
       <c r="D452">
-        <v>101139.0344101852</v>
+        <v>101463.5712816999</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>23617.88160987127</v>
+        <v>22076.95348589118</v>
       </c>
       <c r="D454">
-        <v>113137.8816098713</v>
+        <v>111596.9534858912</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>457</v>
       </c>
       <c r="C456">
-        <v>32037.26535676302</v>
+        <v>31088.89044487836</v>
       </c>
       <c r="D456">
-        <v>112429.265356763</v>
+        <v>111480.8904448783</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9576,10 +9576,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>21050.03080990582</v>
+        <v>22344.83256798409</v>
       </c>
       <c r="D461">
-        <v>138485.0308099059</v>
+        <v>139779.8325679842</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>22527.87794831916</v>
+        <v>22740.19190152311</v>
       </c>
       <c r="D462">
-        <v>100867.8779483192</v>
+        <v>101080.1919015231</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>14376.57377774609</v>
+        <v>14295.40011047493</v>
       </c>
       <c r="D474">
-        <v>80696.57377774613</v>
+        <v>80615.40011047498</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>5051.756617826832</v>
+        <v>4797.781820782067</v>
       </c>
       <c r="D481">
-        <v>59806.75661782685</v>
+        <v>59552.78182078209</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>41324.46649697024</v>
+        <v>41094.39972603892</v>
       </c>
       <c r="D484">
-        <v>135319.4664969702</v>
+        <v>135089.3997260389</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>32347.93414115213</v>
+        <v>33045.47307626093</v>
       </c>
       <c r="D486">
-        <v>119111.9341411521</v>
+        <v>119809.4730762609</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>489</v>
       </c>
       <c r="C488">
-        <v>16941.73515220533</v>
+        <v>17936.9593366689</v>
       </c>
       <c r="D488">
-        <v>82131.73515220535</v>
+        <v>83126.95933666892</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>491</v>
       </c>
       <c r="C490">
-        <v>4730.305658374942</v>
+        <v>4339.529919378256</v>
       </c>
       <c r="D490">
-        <v>77832.30565837491</v>
+        <v>77441.52991937823</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>86282.00000000003</v>
+        <v>88282.00000000001</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>126100</v>
+        <v>128099.9999999999</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>79665.99999999994</v>
+        <v>81666.00000000001</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>171290</v>
+        <v>173289.9999999999</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>14997.81847790055</v>
+        <v>12319.52049136754</v>
       </c>
       <c r="D505">
-        <v>80603.81847790057</v>
+        <v>79925.52049136757</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10206,10 +10206,10 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>19806.25350665132</v>
+        <v>17641.20460914136</v>
       </c>
       <c r="D506">
-        <v>61557.25350665133</v>
+        <v>61392.20460914138</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>81949.99999999997</v>
+        <v>83950.00000000001</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>119370</v>
+        <v>121369.9999999999</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>160070</v>
+        <v>162070</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>71959.00000000006</v>
+        <v>73959.00000000001</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>67945.99999999997</v>
+        <v>69946.00000000003</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>76671.99999999997</v>
+        <v>78672.00000000007</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>88702.00000000003</v>
+        <v>90702.00000000003</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>143030.0000000001</v>
+        <v>145030.0000000001</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>38686.16081537765</v>
+        <v>34846.69367330566</v>
       </c>
       <c r="D515">
-        <v>141146.1608153776</v>
+        <v>139306.6936733056</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>76258.00000000003</v>
+        <v>78258.00000000004</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>115108.0000000001</v>
+        <v>117108.0000000001</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>113082</v>
+        <v>115082.0000000001</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>99311.99999999994</v>
+        <v>101312.0000000001</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>521</v>
       </c>
       <c r="C520">
-        <v>15530.45238821971</v>
+        <v>14026.80854027288</v>
       </c>
       <c r="D520">
-        <v>78236.45238821974</v>
+        <v>78732.8085402729</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>65050.00000000006</v>
+        <v>67050.00000000001</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10430,10 +10430,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>15907.22787250282</v>
+        <v>13830.20211979207</v>
       </c>
       <c r="D522">
-        <v>78829.22787250284</v>
+        <v>78752.20211979201</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>122473.0000000001</v>
+        <v>124473.0000000001</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>169200</v>
+        <v>171199.9999999999</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>59913.99999999999</v>
+        <v>61913.99999999998</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>116000.0000000001</v>
+        <v>117999.9999999999</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>124156.0000000001</v>
+        <v>126156.0000000001</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>182075.0000000001</v>
+        <v>184074.9999999999</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>5965.537691733713</v>
+        <v>5242.351909616787</v>
       </c>
       <c r="D529">
-        <v>82661.53769173379</v>
+        <v>83938.35190961682</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>158100</v>
+        <v>160099.9999999999</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>57185.99999999996</v>
+        <v>59186.00000000004</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>75952.00000000003</v>
+        <v>77952.00000000006</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>118502.9999999999</v>
+        <v>120503.0000000001</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10598,10 +10598,10 @@
         <v>535</v>
       </c>
       <c r="C534">
-        <v>13833.33480324145</v>
+        <v>13031.0487771977</v>
       </c>
       <c r="D534">
-        <v>56782.33480324149</v>
+        <v>57980.04877719769</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>536</v>
       </c>
       <c r="C535">
-        <v>27218.01520676796</v>
+        <v>25413.24078551795</v>
       </c>
       <c r="D535">
-        <v>130973.015206768</v>
+        <v>131168.240785518</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>537</v>
       </c>
       <c r="C536">
-        <v>16224.94394040215</v>
+        <v>15737.48357561664</v>
       </c>
       <c r="D536">
-        <v>78452.94394040221</v>
+        <v>79965.48357561661</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>66826.99999999996</v>
+        <v>68827.00000000006</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>23619.94987526794</v>
+        <v>21640.33463510226</v>
       </c>
       <c r="D538">
-        <v>110879.9498752679</v>
+        <v>110900.3346351023</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>68416.00000000003</v>
+        <v>70415.99999999997</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>178139.9999999999</v>
+        <v>180140.0000000001</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>136530.0000000001</v>
+        <v>138529.9999999999</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>84712.00000000003</v>
+        <v>86712.00000000007</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>85582</v>
+        <v>87582.00000000001</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>138410.0000000001</v>
+        <v>140410.0000000001</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>124477.0000000001</v>
+        <v>126476.9999999999</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10766,10 +10766,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>17949.91537364025</v>
+        <v>14632.3242732847</v>
       </c>
       <c r="D546">
-        <v>116185.9153736403</v>
+        <v>114868.3242732847</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>55583.00000000001</v>
+        <v>57582.99999999996</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10794,10 +10794,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>15493.24701322105</v>
+        <v>13750.55970319402</v>
       </c>
       <c r="D548">
-        <v>58183.24701322103</v>
+        <v>58440.55970319403</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>84588.00000000001</v>
+        <v>86588.00000000004</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>62060.00000000003</v>
+        <v>64059.99999999997</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>52653.99999999999</v>
+        <v>54653.99999999999</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>106453</v>
+        <v>108453</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>103400</v>
+        <v>105400.0000000001</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>106876</v>
+        <v>108876</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>10280.74346124067</v>
+        <v>10569.80554210207</v>
       </c>
       <c r="D555">
-        <v>94205.74346124069</v>
+        <v>96494.80554210201</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>123136</v>
+        <v>125136</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>90844.00000000001</v>
+        <v>92843.99999999996</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>144428.0000000001</v>
+        <v>146428</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>114291.9999999999</v>
+        <v>116292</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>69440.99999999999</v>
+        <v>71441.00000000003</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>106132.0000000001</v>
+        <v>108132</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>76792.00000000006</v>
+        <v>78792.00000000004</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11004,10 +11004,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>26195.15453573824</v>
+        <v>26209.23156953197</v>
       </c>
       <c r="D563">
-        <v>91370.15453573829</v>
+        <v>93384.23156953201</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>150544.9999999999</v>
+        <v>152544.9999999999</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11032,10 +11032,10 @@
         <v>566</v>
       </c>
       <c r="C565">
-        <v>3502.12543964597</v>
+        <v>1378.364528696577</v>
       </c>
       <c r="D565">
-        <v>128937.125439646</v>
+        <v>128813.3645286965</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>166185.0000000001</v>
+        <v>168185.0000000001</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>95380.00000000006</v>
+        <v>97380.00000000004</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11074,10 +11074,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>8772.430877707491</v>
+        <v>7223.916281263329</v>
       </c>
       <c r="D568">
-        <v>56783.43087770749</v>
+        <v>57234.91628126337</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>131299.9999999999</v>
+        <v>133300.0000000001</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11102,10 +11102,10 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>11308.08584944376</v>
+        <v>9574.958788704025</v>
       </c>
       <c r="D570">
-        <v>58155.08584944373</v>
+        <v>58421.95878870402</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11116,10 +11116,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>40615.14774184264</v>
+        <v>39137.25732048573</v>
       </c>
       <c r="D571">
-        <v>111527.1477418426</v>
+        <v>112049.2573204857</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>61585.99999999996</v>
+        <v>63585.99999999996</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>189495.0000000001</v>
+        <v>191495.0000000001</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>176795.0000000001</v>
+        <v>178795</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>108075.9999999999</v>
+        <v>110076.0000000001</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>130634.9999999999</v>
+        <v>132635</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>82314.99999999996</v>
+        <v>84315.00000000004</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>132952</v>
+        <v>134952.0000000001</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="D579">
-        <v>66812</v>
+        <v>68811.99999999999</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>75590.00000000001</v>
+        <v>77589.99999999999</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>128864.0000000001</v>
+        <v>130864</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>142976.0000000001</v>
+        <v>144976</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>136769.9999999999</v>
+        <v>138770</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>142640</v>
+        <v>144640</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>76450.00000000001</v>
+        <v>78449.99999999994</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>164055</v>
+        <v>166055.0000000001</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11340,10 +11340,10 @@
         <v>588</v>
       </c>
       <c r="C587">
-        <v>47825.84289894953</v>
+        <v>47684.95139255011</v>
       </c>
       <c r="D587">
-        <v>132595.8428989496</v>
+        <v>134454.9513925501</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>144615</v>
+        <v>146614.9999999999</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>103644</v>
+        <v>105643.9999999999</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>54311</v>
+        <v>56311.00000000001</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11396,10 +11396,10 @@
         <v>592</v>
       </c>
       <c r="C591">
-        <v>14435.07681823184</v>
+        <v>11758.29258049659</v>
       </c>
       <c r="D591">
-        <v>134315.0768182319</v>
+        <v>133638.2925804967</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>110230</v>
+        <v>112230</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11424,10 +11424,10 @@
         <v>594</v>
       </c>
       <c r="C593">
-        <v>8807.279279746253</v>
+        <v>6489.831354896902</v>
       </c>
       <c r="D593">
-        <v>57338.27927974624</v>
+        <v>57020.83135489692</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>52943.99999999996</v>
+        <v>54944.00000000004</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>86071.99999999999</v>
+        <v>88071.99999999994</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>154360</v>
+        <v>156360.0000000001</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11480,10 +11480,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>3692.589371086484</v>
+        <v>2786.726301265502</v>
       </c>
       <c r="D597">
-        <v>57117.58937108651</v>
+        <v>58211.72630126547</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>126595</v>
+        <v>128595.0000000001</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11508,10 +11508,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>15037.75143635979</v>
+        <v>13354.21847016102</v>
       </c>
       <c r="D599">
-        <v>93448.75143635983</v>
+        <v>93765.21847016101</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>81508.00000000004</v>
+        <v>83507.99999999999</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11536,10 +11536,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>15195.60011284084</v>
+        <v>12754.22928542951</v>
       </c>
       <c r="D601">
-        <v>93210.60011284088</v>
+        <v>92769.22928542951</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>142599.9999999999</v>
+        <v>144600</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11564,10 +11564,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>20682.2822349598</v>
+        <v>21891.49082270051</v>
       </c>
       <c r="D603">
-        <v>92089.28223495984</v>
+        <v>93298.49082270055</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11578,10 +11578,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>7059.784824352872</v>
+        <v>8372.559598747801</v>
       </c>
       <c r="D604">
-        <v>80643.78482435281</v>
+        <v>81956.55959874774</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11592,10 +11592,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>19380.31052510754</v>
+        <v>20551.84400856999</v>
       </c>
       <c r="D605">
-        <v>60043.31052510751</v>
+        <v>61214.84400856996</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11620,10 +11620,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>7902.439482022717</v>
+        <v>8329.493673842924</v>
       </c>
       <c r="D607">
-        <v>81764.43948202266</v>
+        <v>82191.49367384287</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11634,10 +11634,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>13761.21279833997</v>
+        <v>13578.32944525166</v>
       </c>
       <c r="D608">
-        <v>95158.21279833997</v>
+        <v>94975.32944525166</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11662,10 +11662,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>20767.67204395423</v>
+        <v>21726.41738172427</v>
       </c>
       <c r="D610">
-        <v>58618.67204395423</v>
+        <v>59577.41738172427</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11676,10 +11676,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>1437.92208459368</v>
+        <v>1941.605095930674</v>
       </c>
       <c r="D611">
-        <v>95218.92208459374</v>
+        <v>95722.60509593073</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11718,10 +11718,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>24138.77327115303</v>
+        <v>26771.3903699745</v>
       </c>
       <c r="D614">
-        <v>134263.773271153</v>
+        <v>136896.3903699745</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11858,10 +11858,10 @@
         <v>625</v>
       </c>
       <c r="C624">
-        <v>10626.78740993718</v>
+        <v>12499.6508177645</v>
       </c>
       <c r="D624">
-        <v>94876.78740993714</v>
+        <v>96749.65081776446</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11872,10 +11872,10 @@
         <v>626</v>
       </c>
       <c r="C625">
-        <v>3999.36856828368</v>
+        <v>5132.901036458119</v>
       </c>
       <c r="D625">
-        <v>82201.36856828368</v>
+        <v>83334.90103645812</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -12026,10 +12026,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>11234.69682907284</v>
+        <v>11466.60602242884</v>
       </c>
       <c r="D636">
-        <v>78308.69682907283</v>
+        <v>78540.60602242882</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12068,10 +12068,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>3243.131170969398</v>
+        <v>4056.33423124181</v>
       </c>
       <c r="D639">
-        <v>77169.13117096946</v>
+        <v>77982.33423124187</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12292,10 +12292,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>9804.416725573334</v>
+        <v>10613.34082008064</v>
       </c>
       <c r="D655">
-        <v>81336.41672557329</v>
+        <v>82145.3408200806</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12362,10 +12362,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>1722.384486599389</v>
+        <v>1712.959800508441</v>
       </c>
       <c r="D660">
-        <v>79468.38448659936</v>
+        <v>79458.95980050841</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12418,10 +12418,10 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>26156.19694800414</v>
+        <v>28412.0082037785</v>
       </c>
       <c r="D664">
-        <v>110728.1969480041</v>
+        <v>112984.0082037784</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12432,10 +12432,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>20335.60587147632</v>
+        <v>21842.6667911851</v>
       </c>
       <c r="D665">
-        <v>131600.6058714763</v>
+        <v>133107.6667911851</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12502,10 +12502,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>7216.004665425455</v>
+        <v>7942.257902598169</v>
       </c>
       <c r="D670">
-        <v>58439.00466542543</v>
+        <v>59165.25790259815</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12516,10 +12516,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>12781.91753161105</v>
+        <v>15118.33229823499</v>
       </c>
       <c r="D671">
-        <v>117305.9175316111</v>
+        <v>119642.332298235</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12530,10 +12530,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>11496.43512799442</v>
+        <v>10260.5114203406</v>
       </c>
       <c r="D672">
-        <v>133881.4351279944</v>
+        <v>132645.5114203405</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12558,10 +12558,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>0</v>
+        <v>1082.623192518411</v>
       </c>
       <c r="D674">
-        <v>77692.00000000003</v>
+        <v>78774.62319251844</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12600,10 +12600,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>6349.631957839156</v>
+        <v>7651.519710587585</v>
       </c>
       <c r="D677">
-        <v>112917.6319578392</v>
+        <v>114219.5197105876</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12614,10 +12614,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>353.5644398385557</v>
+        <v>1544.228540394557</v>
       </c>
       <c r="D678">
-        <v>58796.56443983854</v>
+        <v>59987.22854039454</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12726,10 +12726,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>20378.18929584589</v>
+        <v>19868.67871670992</v>
       </c>
       <c r="D686">
-        <v>111198.1892958458</v>
+        <v>110688.6787167099</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12768,10 +12768,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>8275.322037012244</v>
+        <v>9552.169177037009</v>
       </c>
       <c r="D689">
-        <v>79803.32203701229</v>
+        <v>81080.16917703705</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12894,10 +12894,10 @@
         <v>699</v>
       </c>
       <c r="C698">
-        <v>19376.0915905359</v>
+        <v>19075.36467624908</v>
       </c>
       <c r="D698">
-        <v>93672.09159053586</v>
+        <v>93371.36467624904</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -13188,10 +13188,10 @@
         <v>720</v>
       </c>
       <c r="C719">
-        <v>2223.989565653392</v>
+        <v>3357.856016850943</v>
       </c>
       <c r="D719">
-        <v>81765.98956565341</v>
+        <v>82899.85601685096</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13202,10 +13202,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>2133.183306711246</v>
+        <v>2232.777906155476</v>
       </c>
       <c r="D720">
-        <v>57169.18330671127</v>
+        <v>57268.7779061555</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13454,10 +13454,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>22186.2846606205</v>
+        <v>23323.01340515466</v>
       </c>
       <c r="D738">
-        <v>95051.28466062048</v>
+        <v>96188.01340515465</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13468,10 +13468,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>28322.64258105627</v>
+        <v>28659.41540487822</v>
       </c>
       <c r="D739">
-        <v>134692.6425810562</v>
+        <v>135029.4154048781</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13482,10 +13482,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>18104.54209442536</v>
+        <v>18130.24935803075</v>
       </c>
       <c r="D740">
-        <v>80130.54209442539</v>
+        <v>80156.24935803078</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13496,10 +13496,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>7008.863052381472</v>
+        <v>7305.288871934805</v>
       </c>
       <c r="D741">
-        <v>61561.86305238146</v>
+        <v>61858.2888719348</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13538,10 +13538,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>9754.236936101428</v>
+        <v>10536.65463637313</v>
       </c>
       <c r="D744">
-        <v>93764.23693610146</v>
+        <v>94546.65463637316</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13552,10 +13552,10 @@
         <v>746</v>
       </c>
       <c r="C745">
-        <v>4477.404040325171</v>
+        <v>3974.351302273033</v>
       </c>
       <c r="D745">
-        <v>116069.4040403252</v>
+        <v>115566.351302273</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13608,10 +13608,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>6643.538899948995</v>
+        <v>7186.402306136559</v>
       </c>
       <c r="D749">
-        <v>86589.53889994895</v>
+        <v>87132.40230613652</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13650,10 +13650,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>52439.96958679284</v>
+        <v>51009.44210769446</v>
       </c>
       <c r="D752">
-        <v>144979.9695867928</v>
+        <v>143549.4421076945</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13748,10 +13748,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>543.3990612078196</v>
+        <v>107.9745811121393</v>
       </c>
       <c r="D759">
-        <v>86033.39906120781</v>
+        <v>85597.97458111212</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13790,10 +13790,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>8461.381780471886</v>
+        <v>8166.55064135071</v>
       </c>
       <c r="D762">
-        <v>120085.3817804719</v>
+        <v>119790.5506413507</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13860,10 +13860,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>46093.64562404875</v>
+        <v>43915.27392823016</v>
       </c>
       <c r="D767">
-        <v>143943.6456240488</v>
+        <v>141765.2739282302</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14056,10 +14056,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>4443.845969493443</v>
+        <v>2795.748881738196</v>
       </c>
       <c r="D781">
-        <v>144618.8459694936</v>
+        <v>142970.7488817383</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14084,10 +14084,10 @@
         <v>784</v>
       </c>
       <c r="C783">
-        <v>325.8602459588437</v>
+        <v>0</v>
       </c>
       <c r="D783">
-        <v>122385.8602459588</v>
+        <v>122059.9999999999</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14182,10 +14182,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>15258.50708969499</v>
+        <v>15641.49241488312</v>
       </c>
       <c r="D790">
-        <v>102997.507089695</v>
+        <v>103380.4924148831</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14238,10 +14238,10 @@
         <v>795</v>
       </c>
       <c r="C794">
-        <v>55694.83507288422</v>
+        <v>56219.31988973726</v>
       </c>
       <c r="D794">
-        <v>146224.8350728842</v>
+        <v>146749.3198897372</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14294,10 +14294,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>3426.028754768355</v>
+        <v>2542.766883758974</v>
       </c>
       <c r="D798">
-        <v>66062.0287547684</v>
+        <v>65178.76688375902</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14350,10 +14350,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>1257.739750826135</v>
+        <v>386.8250907781185</v>
       </c>
       <c r="D802">
-        <v>103702.7397508261</v>
+        <v>102831.8250907781</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14378,10 +14378,10 @@
         <v>805</v>
       </c>
       <c r="C804">
-        <v>39332.24899846755</v>
+        <v>39284.51234307649</v>
       </c>
       <c r="D804">
-        <v>126052.2489984675</v>
+        <v>126004.5123430765</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14448,10 +14448,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>3523.374514534393</v>
+        <v>3917.937786116607</v>
       </c>
       <c r="D809">
-        <v>64462.37451453442</v>
+        <v>64856.93778611664</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14476,10 +14476,10 @@
         <v>812</v>
       </c>
       <c r="C811">
-        <v>12214.47166866886</v>
+        <v>12646.49360911183</v>
       </c>
       <c r="D811">
-        <v>64270.47166866887</v>
+        <v>64702.49360911184</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14490,10 +14490,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>5231.923800535544</v>
+        <v>5644.206205991184</v>
       </c>
       <c r="D812">
-        <v>66951.92380053556</v>
+        <v>67364.2062059912</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14504,10 +14504,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>30409.20926400751</v>
+        <v>30970.72696959093</v>
       </c>
       <c r="D813">
-        <v>120521.2092640075</v>
+        <v>121082.7269695909</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14574,10 +14574,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>21481.39159974105</v>
+        <v>20110.33001476779</v>
       </c>
       <c r="D818">
-        <v>126797.391599741</v>
+        <v>125426.3300147677</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14630,10 +14630,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>16570.89730343464</v>
+        <v>15670.93014553454</v>
       </c>
       <c r="D822">
-        <v>103307.8973034347</v>
+        <v>102407.9301455346</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14644,10 +14644,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>6981.074208303166</v>
+        <v>7354.983102676924</v>
       </c>
       <c r="D823">
-        <v>87257.07420830319</v>
+        <v>87630.98310267695</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14658,10 +14658,10 @@
         <v>825</v>
       </c>
       <c r="C824">
-        <v>413.7476403226974</v>
+        <v>1540.824393282921</v>
       </c>
       <c r="D824">
-        <v>65167.74764032267</v>
+        <v>66294.82439328289</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14700,10 +14700,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>3319.289379237242</v>
+        <v>3523.561661203741</v>
       </c>
       <c r="D827">
-        <v>65411.2893792372</v>
+        <v>65615.5616612037</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14728,10 +14728,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>13107.84367943478</v>
+        <v>11412.9945039765</v>
       </c>
       <c r="D829">
-        <v>104308.8436794347</v>
+        <v>102613.9945039764</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14868,10 +14868,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>19968.07119354641</v>
+        <v>18494.260437932</v>
       </c>
       <c r="D839">
-        <v>103042.0711935465</v>
+        <v>101568.2604379321</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14924,10 +14924,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>6779.34642132149</v>
+        <v>7285.848567462992</v>
       </c>
       <c r="D843">
-        <v>84745.34642132153</v>
+        <v>85251.84856746304</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14952,10 +14952,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>11331.17828299152</v>
+        <v>13707.35728773632</v>
       </c>
       <c r="D845">
-        <v>141686.1782829915</v>
+        <v>144062.3572877363</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14966,10 +14966,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>41084.14884879577</v>
+        <v>41776.62483283132</v>
       </c>
       <c r="D846">
-        <v>148309.1488487957</v>
+        <v>149001.6248328313</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15022,10 +15022,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>30023.36734772824</v>
+        <v>28282.14575117125</v>
       </c>
       <c r="D850">
-        <v>103944.3673477282</v>
+        <v>102203.1457511712</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15134,10 +15134,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>6245.595485692618</v>
+        <v>5616.478822979239</v>
       </c>
       <c r="D858">
-        <v>65351.5954856926</v>
+        <v>64722.47882297922</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15148,10 +15148,10 @@
         <v>860</v>
       </c>
       <c r="C859">
-        <v>15273.149991684</v>
+        <v>15942.71724145656</v>
       </c>
       <c r="D859">
-        <v>86387.14999168397</v>
+        <v>87056.71724145653</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15218,10 +15218,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>6495.442291880623</v>
+        <v>6470.112413677751</v>
       </c>
       <c r="D864">
-        <v>102070.4422918805</v>
+        <v>102045.1124136777</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15274,10 +15274,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>11422.56580525143</v>
+        <v>11204.43129927955</v>
       </c>
       <c r="D868">
-        <v>65277.56580525141</v>
+        <v>65059.43129927952</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15288,10 +15288,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>10705.54589742051</v>
+        <v>10269.40736175051</v>
       </c>
       <c r="D869">
-        <v>89125.54589742054</v>
+        <v>88689.40736175053</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15330,10 +15330,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>2660.115195751663</v>
+        <v>1738.501619266957</v>
       </c>
       <c r="D872">
-        <v>64141.11519575167</v>
+        <v>63219.50161926696</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15344,10 +15344,10 @@
         <v>874</v>
       </c>
       <c r="C873">
-        <v>14863.22714874348</v>
+        <v>15479.31430367574</v>
       </c>
       <c r="D873">
-        <v>85571.22714874349</v>
+        <v>86187.31430367575</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15372,10 +15372,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>28507.9990798498</v>
+        <v>27801.29733196502</v>
       </c>
       <c r="D875">
-        <v>102065.9990798497</v>
+        <v>101359.297331965</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15428,10 +15428,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>21830.30672632348</v>
+        <v>21865.3462136999</v>
       </c>
       <c r="D879">
-        <v>85020.30672632348</v>
+        <v>85055.3462136999</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15484,10 +15484,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>2557.822183092561</v>
+        <v>2871.647631494401</v>
       </c>
       <c r="D883">
-        <v>64259.82218309261</v>
+        <v>64573.64763149445</v>
       </c>
     </row>
     <row r="884" spans="1:4">

--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>8678.114322450347</v>
+        <v>9222.584858528498</v>
       </c>
       <c r="D4">
-        <v>80090.11432245036</v>
+        <v>80634.58485852851</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>24672.66877095102</v>
+        <v>23797.85574900635</v>
       </c>
       <c r="D9">
-        <v>100318.6687709511</v>
+        <v>99443.85574900641</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>12946.03055624528</v>
+        <v>12416.05751982045</v>
       </c>
       <c r="D10">
-        <v>64160.03055624529</v>
+        <v>63630.05751982047</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3542,10 +3542,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>197.3786132628447</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>97800.37861326286</v>
+        <v>97603.00000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>15710.18272052061</v>
+        <v>16427.7310046466</v>
       </c>
       <c r="D31">
-        <v>82280.18272052064</v>
+        <v>82997.73100464663</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3584,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>19718.21232691622</v>
+        <v>20910.12045313953</v>
       </c>
       <c r="D33">
-        <v>80772.21232691624</v>
+        <v>81964.12045313955</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>25655.13265201823</v>
+        <v>26928.6640452002</v>
       </c>
       <c r="D34">
-        <v>116059.1326520183</v>
+        <v>117332.6640452003</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>27771.81735711609</v>
+        <v>28471.08249439261</v>
       </c>
       <c r="D35">
-        <v>97816.81735711609</v>
+        <v>98516.08249439261</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>4542.648262053204</v>
+        <v>4217.837937545395</v>
       </c>
       <c r="D38">
-        <v>102577.6482620533</v>
+        <v>102252.8379375455</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>15442.70156375725</v>
+        <v>15392.29184387227</v>
       </c>
       <c r="D68">
-        <v>98459.70156375722</v>
+        <v>98409.29184387224</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>11604.35403126015</v>
+        <v>10715.17084777686</v>
       </c>
       <c r="D71">
-        <v>65408.35403126014</v>
+        <v>64519.17084777686</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>6071.049950383516</v>
+        <v>5716.809113632495</v>
       </c>
       <c r="D72">
-        <v>81339.04995038355</v>
+        <v>80984.80911363252</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>8424.481222018891</v>
+        <v>8545.752348747425</v>
       </c>
       <c r="D74">
-        <v>139484.4812220189</v>
+        <v>139605.7523487474</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>17006.75190877828</v>
+        <v>17375.12743164722</v>
       </c>
       <c r="D84">
-        <v>81542.7519087783</v>
+        <v>81911.12743164724</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>14744.29791384457</v>
+        <v>13594.22724679521</v>
       </c>
       <c r="D86">
-        <v>65479.2979138446</v>
+        <v>64329.22724679524</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>6960.631677601559</v>
+        <v>7459.678149440922</v>
       </c>
       <c r="D90">
-        <v>132905.6316776015</v>
+        <v>133404.6781494408</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4634,10 +4634,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>973.279584378397</v>
       </c>
       <c r="D108">
-        <v>81798.00000000006</v>
+        <v>82771.27958437846</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>2856.588599063049</v>
+        <v>2684.227861949999</v>
       </c>
       <c r="D115">
-        <v>61816.58859906306</v>
+        <v>61644.22786195001</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>5492.690010430175</v>
+        <v>5931.853792370894</v>
       </c>
       <c r="D117">
-        <v>81086.69001043019</v>
+        <v>81525.85379237091</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4830,10 +4830,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>16730.11737530708</v>
+        <v>15351.54692643038</v>
       </c>
       <c r="D122">
-        <v>122782.117375307</v>
+        <v>121403.5469264303</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>29949.98393888889</v>
+        <v>28796.15490537319</v>
       </c>
       <c r="D128">
-        <v>139214.983938889</v>
+        <v>138061.1549053733</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>15436.0898941294</v>
+        <v>15293.47395716401</v>
       </c>
       <c r="D136">
-        <v>141761.0898941294</v>
+        <v>141618.473957164</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>18691.33452952822</v>
+        <v>20012.28188015998</v>
       </c>
       <c r="D137">
-        <v>143821.3345295282</v>
+        <v>145142.28188016</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>1479.863556262411</v>
+        <v>950.6931772173702</v>
       </c>
       <c r="D140">
-        <v>65327.86355626237</v>
+        <v>64798.69317721733</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>45526.13857780711</v>
+        <v>43909.16467531305</v>
       </c>
       <c r="D142">
-        <v>145491.1385778071</v>
+        <v>143874.164675313</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>43737.18692947883</v>
+        <v>43417.13055444261</v>
       </c>
       <c r="D144">
-        <v>137952.1869294788</v>
+        <v>137632.1305544426</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>3998.633830664505</v>
+        <v>3491.453997901976</v>
       </c>
       <c r="D146">
-        <v>82364.63383066455</v>
+        <v>81857.45399790202</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>6875.134987278514</v>
+        <v>6685.92786574582</v>
       </c>
       <c r="D149">
-        <v>61609.13498727854</v>
+        <v>61419.92786574585</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>28538.46207563688</v>
+        <v>30236.72519952302</v>
       </c>
       <c r="D163">
-        <v>113850.4620756368</v>
+        <v>115548.7251995229</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>21666.65967575077</v>
+        <v>20578.57552569192</v>
       </c>
       <c r="D169">
-        <v>86376.65967575072</v>
+        <v>85288.57552569188</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>17270.97517966633</v>
+        <v>17721.89155385666</v>
       </c>
       <c r="D172">
-        <v>81406.97517966632</v>
+        <v>81857.89155385665</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>7198.19828623932</v>
+        <v>7182.090299850126</v>
       </c>
       <c r="D174">
-        <v>100208.1982862393</v>
+        <v>100192.0902998501</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>22071.27948268285</v>
+        <v>20431.53521076561</v>
       </c>
       <c r="D176">
-        <v>134381.2794826828</v>
+        <v>132741.5352107655</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>2075.079317806405</v>
+        <v>2015.474356765902</v>
       </c>
       <c r="D177">
-        <v>65054.07931780643</v>
+        <v>64994.47435676592</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>9982.367702287906</v>
+        <v>10010.19112457287</v>
       </c>
       <c r="D178">
-        <v>61649.36770228788</v>
+        <v>61677.19112457285</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>3942.161772824104</v>
+        <v>2821.56805248779</v>
       </c>
       <c r="D183">
-        <v>62632.16177282413</v>
+        <v>61511.56805248781</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>9885.594373759726</v>
+        <v>9395.399705574091</v>
       </c>
       <c r="D186">
-        <v>82751.5943737597</v>
+        <v>82261.39970557406</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>2958.735859992914</v>
+        <v>1070.14307597412</v>
       </c>
       <c r="D190">
-        <v>114494.7358599929</v>
+        <v>112606.1430759741</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>3942.7693241378</v>
+        <v>3275.098035721079</v>
       </c>
       <c r="D192">
-        <v>137272.7693241378</v>
+        <v>136605.0980357211</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>15468.86128419334</v>
+        <v>16344.18251768241</v>
       </c>
       <c r="D195">
-        <v>80520.86128419335</v>
+        <v>81396.18251768242</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>19749.64856843917</v>
+        <v>19506.73822125909</v>
       </c>
       <c r="D203">
-        <v>115937.6485684391</v>
+        <v>115694.738221259</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>17038.45595578922</v>
+        <v>18011.71759742679</v>
       </c>
       <c r="D204">
-        <v>81972.45595578918</v>
+        <v>82945.71759742674</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>20816.96809308795</v>
+        <v>20592.20935604151</v>
       </c>
       <c r="D214">
-        <v>118184.968093088</v>
+        <v>117960.2093560416</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>216</v>
       </c>
       <c r="C215">
-        <v>19012.01016041491</v>
+        <v>18235.21169936705</v>
       </c>
       <c r="D215">
-        <v>118308.0101604149</v>
+        <v>117531.211699367</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>11215.00482225032</v>
+        <v>12013.30933686628</v>
       </c>
       <c r="D218">
-        <v>62182.00482225034</v>
+        <v>62980.3093368663</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>18289.50998940296</v>
+        <v>17216.24956560394</v>
       </c>
       <c r="D220">
-        <v>119445.509989403</v>
+        <v>118372.249565604</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>2051.167959639992</v>
+        <v>2311.124245578583</v>
       </c>
       <c r="D221">
-        <v>94497.16795963993</v>
+        <v>94757.12424557853</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>11693.96871576353</v>
+        <v>12271.35861227923</v>
       </c>
       <c r="D227">
-        <v>80331.96871576351</v>
+        <v>80909.3586122792</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>15063.97586538973</v>
+        <v>15495.86391481769</v>
       </c>
       <c r="D228">
-        <v>130368.9758653898</v>
+        <v>130800.8639148178</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>6918.356883137865</v>
+        <v>6878.300400918575</v>
       </c>
       <c r="D232">
-        <v>61843.3568831379</v>
+        <v>61803.30040091861</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>234</v>
       </c>
       <c r="C233">
-        <v>11607.64318538466</v>
+        <v>11219.81726286135</v>
       </c>
       <c r="D233">
-        <v>117415.6431853847</v>
+        <v>117027.8172628614</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>5885.349333820224</v>
+        <v>5384.188990697563</v>
       </c>
       <c r="D239">
-        <v>62190.34933382025</v>
+        <v>61689.18899069758</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>5903.137136476777</v>
+        <v>5495.76081635525</v>
       </c>
       <c r="D240">
-        <v>63536.13713647675</v>
+        <v>63128.76081635523</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>19322.02606913316</v>
+        <v>19046.51757122971</v>
       </c>
       <c r="D242">
-        <v>99036.02606913321</v>
+        <v>98760.51757122975</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>27377.81285536953</v>
+        <v>28567.10609373701</v>
       </c>
       <c r="D246">
-        <v>115617.8128553696</v>
+        <v>116807.1060937371</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>22101.38853427242</v>
+        <v>21605.01051130486</v>
       </c>
       <c r="D253">
-        <v>85773.38853427247</v>
+        <v>85277.01051130491</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6706,10 +6706,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>18498.53145581816</v>
+        <v>17912.01925590709</v>
       </c>
       <c r="D256">
-        <v>94885.53145581811</v>
+        <v>94299.01925590704</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6832,10 +6832,10 @@
         <v>266</v>
       </c>
       <c r="C265">
-        <v>98.70517282187939</v>
+        <v>362.3222035920699</v>
       </c>
       <c r="D265">
-        <v>61647.70517282192</v>
+        <v>61911.32220359211</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>21397.99805980381</v>
+        <v>21219.85764045951</v>
       </c>
       <c r="D271">
-        <v>134222.9980598039</v>
+        <v>134044.8576404596</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>17935.75033419993</v>
+        <v>17957.44174668753</v>
       </c>
       <c r="D275">
-        <v>95417.75033419988</v>
+        <v>95439.44174668749</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>6649.875802315211</v>
+        <v>7116.277369401541</v>
       </c>
       <c r="D280">
-        <v>64197.87580231516</v>
+        <v>64664.27736940149</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>20463.35734192465</v>
+        <v>21503.83000161467</v>
       </c>
       <c r="D285">
-        <v>117331.3573419246</v>
+        <v>118371.8300016146</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>4467.416292475929</v>
+        <v>4988.595793924731</v>
       </c>
       <c r="D287">
-        <v>111359.416292476</v>
+        <v>111880.5957939248</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>14413.5463603284</v>
+        <v>13551.28530276452</v>
       </c>
       <c r="D290">
-        <v>143083.5463603284</v>
+        <v>142221.2853027645</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>9812.681519149373</v>
+        <v>9859.206457533022</v>
       </c>
       <c r="D292">
-        <v>61368.6815191494</v>
+        <v>61415.20645753304</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>22716.42098956405</v>
+        <v>23630.11955255593</v>
       </c>
       <c r="D295">
-        <v>111204.4209895641</v>
+        <v>112118.119552556</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>14221.53055341083</v>
+        <v>13047.33757137202</v>
       </c>
       <c r="D298">
-        <v>94376.53055341079</v>
+        <v>93202.33757137197</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7322,10 +7322,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>12022.74300807214</v>
+        <v>10313.82359434868</v>
       </c>
       <c r="D300">
-        <v>94232.7430080721</v>
+        <v>92523.82359434864</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>26816.79570421304</v>
+        <v>26650.29433831987</v>
       </c>
       <c r="D305">
-        <v>110992.795704213</v>
+        <v>110826.2943383198</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>3056.153148078505</v>
+        <v>2535.023877202431</v>
       </c>
       <c r="D307">
-        <v>59781.15314807855</v>
+        <v>59260.02387720247</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>9150.467420473949</v>
+        <v>9277.189630194924</v>
       </c>
       <c r="D308">
-        <v>61548.46742047391</v>
+        <v>61675.18963019488</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>21724.87409601639</v>
+        <v>20295.74141727122</v>
       </c>
       <c r="D310">
-        <v>140179.8740960164</v>
+        <v>138750.7414172712</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>5317.894346294088</v>
+        <v>5251.930029322473</v>
       </c>
       <c r="D311">
-        <v>62256.8943462941</v>
+        <v>62190.93002932249</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>326</v>
       </c>
       <c r="C325">
-        <v>11387.81522219343</v>
+        <v>11322.97990522704</v>
       </c>
       <c r="D325">
-        <v>94479.81522219337</v>
+        <v>94414.97990522698</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>17879.45790584463</v>
+        <v>18561.03822120273</v>
       </c>
       <c r="D327">
-        <v>81985.45790584461</v>
+        <v>82667.03822120272</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>230.2382539027749</v>
       </c>
       <c r="D329">
-        <v>95271.99999999993</v>
+        <v>95502.2382539027</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>17170.48491102332</v>
+        <v>18148.52859404439</v>
       </c>
       <c r="D337">
-        <v>114286.4849110233</v>
+        <v>115264.5285940444</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>3332.870164319625</v>
+        <v>4314.473305159801</v>
       </c>
       <c r="D338">
-        <v>82154.87016431965</v>
+        <v>83136.47330515983</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>345</v>
       </c>
       <c r="C344">
-        <v>10232.65905443516</v>
+        <v>11024.4959321741</v>
       </c>
       <c r="D344">
-        <v>134392.6590544351</v>
+        <v>135184.4959321741</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>8508.884637124691</v>
+        <v>8821.145293232898</v>
       </c>
       <c r="D355">
-        <v>142383.8846371246</v>
+        <v>142696.1452932328</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>7780.931264483763</v>
+        <v>7727.29144379987</v>
       </c>
       <c r="D361">
-        <v>98930.93126448379</v>
+        <v>98877.2914437999</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>4037.397908209547</v>
+        <v>5436.592511078037</v>
       </c>
       <c r="D364">
-        <v>94182.39790820959</v>
+        <v>95581.59251107808</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>18082.37349482079</v>
+        <v>17465.50114658827</v>
       </c>
       <c r="D368">
-        <v>135057.3734948208</v>
+        <v>134440.5011465883</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>5871.746667518833</v>
+        <v>3821.898297608976</v>
       </c>
       <c r="D369">
-        <v>137596.7466675188</v>
+        <v>135546.898297609</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>374</v>
       </c>
       <c r="C373">
-        <v>1235.859443380774</v>
+        <v>2585.888065936524</v>
       </c>
       <c r="D373">
-        <v>109199.8594433808</v>
+        <v>110549.8880659365</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>383</v>
       </c>
       <c r="C382">
-        <v>14520.97429835638</v>
+        <v>13979.36223890489</v>
       </c>
       <c r="D382">
-        <v>79532.97429835641</v>
+        <v>78991.36223890491</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>9187.717278204844</v>
+        <v>9994.809359084335</v>
       </c>
       <c r="D390">
-        <v>97361.71727820486</v>
+        <v>98168.80935908435</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>27509.41271627809</v>
+        <v>26695.75456441072</v>
       </c>
       <c r="D394">
-        <v>98778.41271627804</v>
+        <v>97964.75456441066</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>23101.02931478385</v>
+        <v>23978.37798878856</v>
       </c>
       <c r="D398">
-        <v>109605.0293147839</v>
+        <v>110482.3779887886</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>18832.27493300092</v>
+        <v>17949.80990478287</v>
       </c>
       <c r="D402">
-        <v>79372.27493300094</v>
+        <v>78489.80990478289</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>36895.59962892527</v>
+        <v>37356.2422757936</v>
       </c>
       <c r="D406">
-        <v>134570.5996289253</v>
+        <v>135031.2422757936</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>412</v>
       </c>
       <c r="C411">
-        <v>33815.24833467153</v>
+        <v>33246.21170742635</v>
       </c>
       <c r="D411">
-        <v>120363.2483346715</v>
+        <v>119794.2117074264</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8974,10 +8974,10 @@
         <v>419</v>
       </c>
       <c r="C418">
-        <v>18785.16729965314</v>
+        <v>19932.54351973209</v>
       </c>
       <c r="D418">
-        <v>96708.16729965321</v>
+        <v>97855.54351973216</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9044,10 +9044,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>46501.86649679524</v>
+        <v>46073.1859519385</v>
       </c>
       <c r="D423">
-        <v>142076.8664967951</v>
+        <v>141648.1859519384</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>1956.06284012481</v>
+        <v>2432.800453376025</v>
       </c>
       <c r="D426">
-        <v>78476.06284012483</v>
+        <v>78952.80045337604</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>19784.15461140547</v>
+        <v>20114.60693177831</v>
       </c>
       <c r="D436">
-        <v>116328.1546114054</v>
+        <v>116658.6069317783</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>447</v>
       </c>
       <c r="C446">
-        <v>7122.506898079373</v>
+        <v>7224.354291409254</v>
       </c>
       <c r="D446">
-        <v>61892.50689807938</v>
+        <v>61994.35429140926</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9436,10 +9436,10 @@
         <v>452</v>
       </c>
       <c r="C451">
-        <v>16555.03340704957</v>
+        <v>17345.75972085043</v>
       </c>
       <c r="D451">
-        <v>98159.03340704956</v>
+        <v>98949.75972085042</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>16157.57128169983</v>
+        <v>15833.03441018511</v>
       </c>
       <c r="D452">
-        <v>101463.5712816999</v>
+        <v>101139.0344101852</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>22076.95348589118</v>
+        <v>23617.88160987127</v>
       </c>
       <c r="D454">
-        <v>111596.9534858912</v>
+        <v>113137.8816098713</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>457</v>
       </c>
       <c r="C456">
-        <v>31088.89044487836</v>
+        <v>32037.26535676302</v>
       </c>
       <c r="D456">
-        <v>111480.8904448783</v>
+        <v>112429.265356763</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9576,10 +9576,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>22344.83256798409</v>
+        <v>21050.03080990582</v>
       </c>
       <c r="D461">
-        <v>139779.8325679842</v>
+        <v>138485.0308099059</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>22740.19190152311</v>
+        <v>22527.87794831916</v>
       </c>
       <c r="D462">
-        <v>101080.1919015231</v>
+        <v>100867.8779483192</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>14295.40011047493</v>
+        <v>14376.57377774609</v>
       </c>
       <c r="D474">
-        <v>80615.40011047498</v>
+        <v>80696.57377774613</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>4797.781820782067</v>
+        <v>5051.756617826832</v>
       </c>
       <c r="D481">
-        <v>59552.78182078209</v>
+        <v>59806.75661782685</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>41094.39972603892</v>
+        <v>41324.46649697024</v>
       </c>
       <c r="D484">
-        <v>135089.3997260389</v>
+        <v>135319.4664969702</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>33045.47307626093</v>
+        <v>32347.93414115213</v>
       </c>
       <c r="D486">
-        <v>119809.4730762609</v>
+        <v>119111.9341411521</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>489</v>
       </c>
       <c r="C488">
-        <v>17936.9593366689</v>
+        <v>16941.73515220533</v>
       </c>
       <c r="D488">
-        <v>83126.95933666892</v>
+        <v>82131.73515220535</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>491</v>
       </c>
       <c r="C490">
-        <v>4339.529919378256</v>
+        <v>4730.305658374942</v>
       </c>
       <c r="D490">
-        <v>77441.52991937823</v>
+        <v>77832.30565837491</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>88282.00000000001</v>
+        <v>86282.00000000003</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>128099.9999999999</v>
+        <v>126100</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>81666.00000000001</v>
+        <v>79665.99999999994</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>173289.9999999999</v>
+        <v>171290</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>12319.52049136754</v>
+        <v>14997.81847790055</v>
       </c>
       <c r="D505">
-        <v>79925.52049136757</v>
+        <v>80603.81847790057</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10206,10 +10206,10 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>17641.20460914136</v>
+        <v>19806.25350665132</v>
       </c>
       <c r="D506">
-        <v>61392.20460914138</v>
+        <v>61557.25350665133</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>83950.00000000001</v>
+        <v>81949.99999999997</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>121369.9999999999</v>
+        <v>119370</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>162070</v>
+        <v>160070</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>73959.00000000001</v>
+        <v>71959.00000000006</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>69946.00000000003</v>
+        <v>67945.99999999997</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>78672.00000000007</v>
+        <v>76671.99999999997</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>90702.00000000003</v>
+        <v>88702.00000000003</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>145030.0000000001</v>
+        <v>143030.0000000001</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>34846.69367330566</v>
+        <v>38686.16081537765</v>
       </c>
       <c r="D515">
-        <v>139306.6936733056</v>
+        <v>141146.1608153776</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>78258.00000000004</v>
+        <v>76258.00000000003</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>117108.0000000001</v>
+        <v>115108.0000000001</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>115082.0000000001</v>
+        <v>113082</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>101312.0000000001</v>
+        <v>99311.99999999994</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>521</v>
       </c>
       <c r="C520">
-        <v>14026.80854027288</v>
+        <v>15530.45238821971</v>
       </c>
       <c r="D520">
-        <v>78732.8085402729</v>
+        <v>78236.45238821974</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>67050.00000000001</v>
+        <v>65050.00000000006</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10430,10 +10430,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>13830.20211979207</v>
+        <v>15907.22787250282</v>
       </c>
       <c r="D522">
-        <v>78752.20211979201</v>
+        <v>78829.22787250284</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>124473.0000000001</v>
+        <v>122473.0000000001</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>171199.9999999999</v>
+        <v>169200</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>61913.99999999998</v>
+        <v>59913.99999999999</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>117999.9999999999</v>
+        <v>116000.0000000001</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>126156.0000000001</v>
+        <v>124156.0000000001</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>184074.9999999999</v>
+        <v>182075.0000000001</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>5242.351909616787</v>
+        <v>5965.537691733713</v>
       </c>
       <c r="D529">
-        <v>83938.35190961682</v>
+        <v>82661.53769173379</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>160099.9999999999</v>
+        <v>158100</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>59186.00000000004</v>
+        <v>57185.99999999996</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>77952.00000000006</v>
+        <v>75952.00000000003</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>120503.0000000001</v>
+        <v>118502.9999999999</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10598,10 +10598,10 @@
         <v>535</v>
       </c>
       <c r="C534">
-        <v>13031.0487771977</v>
+        <v>13833.33480324145</v>
       </c>
       <c r="D534">
-        <v>57980.04877719769</v>
+        <v>56782.33480324149</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>536</v>
       </c>
       <c r="C535">
-        <v>25413.24078551795</v>
+        <v>27218.01520676796</v>
       </c>
       <c r="D535">
-        <v>131168.240785518</v>
+        <v>130973.015206768</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>537</v>
       </c>
       <c r="C536">
-        <v>15737.48357561664</v>
+        <v>16224.94394040215</v>
       </c>
       <c r="D536">
-        <v>79965.48357561661</v>
+        <v>78452.94394040221</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>68827.00000000006</v>
+        <v>66826.99999999996</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>21640.33463510226</v>
+        <v>23619.94987526794</v>
       </c>
       <c r="D538">
-        <v>110900.3346351023</v>
+        <v>110879.9498752679</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>70415.99999999997</v>
+        <v>68416.00000000003</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>180140.0000000001</v>
+        <v>178139.9999999999</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>138529.9999999999</v>
+        <v>136530.0000000001</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>86712.00000000007</v>
+        <v>84712.00000000003</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>87582.00000000001</v>
+        <v>85582</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>140410.0000000001</v>
+        <v>138410.0000000001</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>126476.9999999999</v>
+        <v>124477.0000000001</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10766,10 +10766,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>14632.3242732847</v>
+        <v>17949.91537364025</v>
       </c>
       <c r="D546">
-        <v>114868.3242732847</v>
+        <v>116185.9153736403</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>57582.99999999996</v>
+        <v>55583.00000000001</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10794,10 +10794,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>13750.55970319402</v>
+        <v>15493.24701322105</v>
       </c>
       <c r="D548">
-        <v>58440.55970319403</v>
+        <v>58183.24701322103</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>86588.00000000004</v>
+        <v>84588.00000000001</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>64059.99999999997</v>
+        <v>62060.00000000003</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>54653.99999999999</v>
+        <v>52653.99999999999</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>108453</v>
+        <v>106453</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>105400.0000000001</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>108876</v>
+        <v>106876</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>10569.80554210207</v>
+        <v>10280.74346124067</v>
       </c>
       <c r="D555">
-        <v>96494.80554210201</v>
+        <v>94205.74346124069</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>125136</v>
+        <v>123136</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>92843.99999999996</v>
+        <v>90844.00000000001</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>146428</v>
+        <v>144428.0000000001</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>116292</v>
+        <v>114291.9999999999</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>71441.00000000003</v>
+        <v>69440.99999999999</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>108132</v>
+        <v>106132.0000000001</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>78792.00000000004</v>
+        <v>76792.00000000006</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11004,10 +11004,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>26209.23156953197</v>
+        <v>26195.15453573824</v>
       </c>
       <c r="D563">
-        <v>93384.23156953201</v>
+        <v>91370.15453573829</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>152544.9999999999</v>
+        <v>150544.9999999999</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11032,10 +11032,10 @@
         <v>566</v>
       </c>
       <c r="C565">
-        <v>1378.364528696577</v>
+        <v>3502.12543964597</v>
       </c>
       <c r="D565">
-        <v>128813.3645286965</v>
+        <v>128937.125439646</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>168185.0000000001</v>
+        <v>166185.0000000001</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>97380.00000000004</v>
+        <v>95380.00000000006</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11074,10 +11074,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>7223.916281263329</v>
+        <v>8772.430877707491</v>
       </c>
       <c r="D568">
-        <v>57234.91628126337</v>
+        <v>56783.43087770749</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>133300.0000000001</v>
+        <v>131299.9999999999</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11102,10 +11102,10 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>9574.958788704025</v>
+        <v>11308.08584944376</v>
       </c>
       <c r="D570">
-        <v>58421.95878870402</v>
+        <v>58155.08584944373</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11116,10 +11116,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>39137.25732048573</v>
+        <v>40615.14774184264</v>
       </c>
       <c r="D571">
-        <v>112049.2573204857</v>
+        <v>111527.1477418426</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>63585.99999999996</v>
+        <v>61585.99999999996</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>191495.0000000001</v>
+        <v>189495.0000000001</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>178795</v>
+        <v>176795.0000000001</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>110076.0000000001</v>
+        <v>108075.9999999999</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>132635</v>
+        <v>130634.9999999999</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>84315.00000000004</v>
+        <v>82314.99999999996</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>134952.0000000001</v>
+        <v>132952</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="D579">
-        <v>68811.99999999999</v>
+        <v>66812</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>77589.99999999999</v>
+        <v>75590.00000000001</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>130864</v>
+        <v>128864.0000000001</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>144976</v>
+        <v>142976.0000000001</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>138770</v>
+        <v>136769.9999999999</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>144640</v>
+        <v>142640</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>78449.99999999994</v>
+        <v>76450.00000000001</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>166055.0000000001</v>
+        <v>164055</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11340,10 +11340,10 @@
         <v>588</v>
       </c>
       <c r="C587">
-        <v>47684.95139255011</v>
+        <v>47825.84289894953</v>
       </c>
       <c r="D587">
-        <v>134454.9513925501</v>
+        <v>132595.8428989496</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>146614.9999999999</v>
+        <v>144615</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>105643.9999999999</v>
+        <v>103644</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>56311.00000000001</v>
+        <v>54311</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11396,10 +11396,10 @@
         <v>592</v>
       </c>
       <c r="C591">
-        <v>11758.29258049659</v>
+        <v>14435.07681823184</v>
       </c>
       <c r="D591">
-        <v>133638.2925804967</v>
+        <v>134315.0768182319</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>112230</v>
+        <v>110230</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11424,10 +11424,10 @@
         <v>594</v>
       </c>
       <c r="C593">
-        <v>6489.831354896902</v>
+        <v>8807.279279746253</v>
       </c>
       <c r="D593">
-        <v>57020.83135489692</v>
+        <v>57338.27927974624</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>54944.00000000004</v>
+        <v>52943.99999999996</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>88071.99999999994</v>
+        <v>86071.99999999999</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>156360.0000000001</v>
+        <v>154360</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11480,10 +11480,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>2786.726301265502</v>
+        <v>3692.589371086484</v>
       </c>
       <c r="D597">
-        <v>58211.72630126547</v>
+        <v>57117.58937108651</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>128595.0000000001</v>
+        <v>126595</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11508,10 +11508,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>13354.21847016102</v>
+        <v>15037.75143635979</v>
       </c>
       <c r="D599">
-        <v>93765.21847016101</v>
+        <v>93448.75143635983</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>83507.99999999999</v>
+        <v>81508.00000000004</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11536,10 +11536,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>12754.22928542951</v>
+        <v>15195.60011284084</v>
       </c>
       <c r="D601">
-        <v>92769.22928542951</v>
+        <v>93210.60011284088</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>144600</v>
+        <v>142599.9999999999</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11564,10 +11564,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>21891.49082270051</v>
+        <v>20682.2822349598</v>
       </c>
       <c r="D603">
-        <v>93298.49082270055</v>
+        <v>92089.28223495984</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11578,10 +11578,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>8372.559598747801</v>
+        <v>7059.784824352872</v>
       </c>
       <c r="D604">
-        <v>81956.55959874774</v>
+        <v>80643.78482435281</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11592,10 +11592,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>20551.84400856999</v>
+        <v>19380.31052510754</v>
       </c>
       <c r="D605">
-        <v>61214.84400856996</v>
+        <v>60043.31052510751</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11620,10 +11620,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>8329.493673842924</v>
+        <v>7902.439482022717</v>
       </c>
       <c r="D607">
-        <v>82191.49367384287</v>
+        <v>81764.43948202266</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11634,10 +11634,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>13578.32944525166</v>
+        <v>13761.21279833997</v>
       </c>
       <c r="D608">
-        <v>94975.32944525166</v>
+        <v>95158.21279833997</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11662,10 +11662,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>21726.41738172427</v>
+        <v>20767.67204395423</v>
       </c>
       <c r="D610">
-        <v>59577.41738172427</v>
+        <v>58618.67204395423</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11676,10 +11676,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>1941.605095930674</v>
+        <v>1437.92208459368</v>
       </c>
       <c r="D611">
-        <v>95722.60509593073</v>
+        <v>95218.92208459374</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11718,10 +11718,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>26771.3903699745</v>
+        <v>24138.77327115303</v>
       </c>
       <c r="D614">
-        <v>136896.3903699745</v>
+        <v>134263.773271153</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11858,10 +11858,10 @@
         <v>625</v>
       </c>
       <c r="C624">
-        <v>12499.6508177645</v>
+        <v>10626.78740993718</v>
       </c>
       <c r="D624">
-        <v>96749.65081776446</v>
+        <v>94876.78740993714</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11872,10 +11872,10 @@
         <v>626</v>
       </c>
       <c r="C625">
-        <v>5132.901036458119</v>
+        <v>3999.36856828368</v>
       </c>
       <c r="D625">
-        <v>83334.90103645812</v>
+        <v>82201.36856828368</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -12026,10 +12026,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>11466.60602242884</v>
+        <v>11234.69682907284</v>
       </c>
       <c r="D636">
-        <v>78540.60602242882</v>
+        <v>78308.69682907283</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12068,10 +12068,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>4056.33423124181</v>
+        <v>3243.131170969398</v>
       </c>
       <c r="D639">
-        <v>77982.33423124187</v>
+        <v>77169.13117096946</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12292,10 +12292,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>10613.34082008064</v>
+        <v>9804.416725573334</v>
       </c>
       <c r="D655">
-        <v>82145.3408200806</v>
+        <v>81336.41672557329</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12362,10 +12362,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>1712.959800508441</v>
+        <v>1722.384486599389</v>
       </c>
       <c r="D660">
-        <v>79458.95980050841</v>
+        <v>79468.38448659936</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12418,10 +12418,10 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>28412.0082037785</v>
+        <v>26156.19694800414</v>
       </c>
       <c r="D664">
-        <v>112984.0082037784</v>
+        <v>110728.1969480041</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12432,10 +12432,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>21842.6667911851</v>
+        <v>20335.60587147632</v>
       </c>
       <c r="D665">
-        <v>133107.6667911851</v>
+        <v>131600.6058714763</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12502,10 +12502,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>7942.257902598169</v>
+        <v>7216.004665425455</v>
       </c>
       <c r="D670">
-        <v>59165.25790259815</v>
+        <v>58439.00466542543</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12516,10 +12516,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>15118.33229823499</v>
+        <v>12781.91753161105</v>
       </c>
       <c r="D671">
-        <v>119642.332298235</v>
+        <v>117305.9175316111</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12530,10 +12530,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>10260.5114203406</v>
+        <v>11496.43512799442</v>
       </c>
       <c r="D672">
-        <v>132645.5114203405</v>
+        <v>133881.4351279944</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12558,10 +12558,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>1082.623192518411</v>
+        <v>0</v>
       </c>
       <c r="D674">
-        <v>78774.62319251844</v>
+        <v>77692.00000000003</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12600,10 +12600,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>7651.519710587585</v>
+        <v>6349.631957839156</v>
       </c>
       <c r="D677">
-        <v>114219.5197105876</v>
+        <v>112917.6319578392</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12614,10 +12614,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>1544.228540394557</v>
+        <v>353.5644398385557</v>
       </c>
       <c r="D678">
-        <v>59987.22854039454</v>
+        <v>58796.56443983854</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12726,10 +12726,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>19868.67871670992</v>
+        <v>20378.18929584589</v>
       </c>
       <c r="D686">
-        <v>110688.6787167099</v>
+        <v>111198.1892958458</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12768,10 +12768,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>9552.169177037009</v>
+        <v>8275.322037012244</v>
       </c>
       <c r="D689">
-        <v>81080.16917703705</v>
+        <v>79803.32203701229</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12894,10 +12894,10 @@
         <v>699</v>
       </c>
       <c r="C698">
-        <v>19075.36467624908</v>
+        <v>19376.0915905359</v>
       </c>
       <c r="D698">
-        <v>93371.36467624904</v>
+        <v>93672.09159053586</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -13188,10 +13188,10 @@
         <v>720</v>
       </c>
       <c r="C719">
-        <v>3357.856016850943</v>
+        <v>2223.989565653392</v>
       </c>
       <c r="D719">
-        <v>82899.85601685096</v>
+        <v>81765.98956565341</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13202,10 +13202,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>2232.777906155476</v>
+        <v>2133.183306711246</v>
       </c>
       <c r="D720">
-        <v>57268.7779061555</v>
+        <v>57169.18330671127</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13454,10 +13454,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>23323.01340515466</v>
+        <v>22186.2846606205</v>
       </c>
       <c r="D738">
-        <v>96188.01340515465</v>
+        <v>95051.28466062048</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13468,10 +13468,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>28659.41540487822</v>
+        <v>28322.64258105627</v>
       </c>
       <c r="D739">
-        <v>135029.4154048781</v>
+        <v>134692.6425810562</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13482,10 +13482,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>18130.24935803075</v>
+        <v>18104.54209442536</v>
       </c>
       <c r="D740">
-        <v>80156.24935803078</v>
+        <v>80130.54209442539</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13496,10 +13496,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>7305.288871934805</v>
+        <v>7008.863052381472</v>
       </c>
       <c r="D741">
-        <v>61858.2888719348</v>
+        <v>61561.86305238146</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13538,10 +13538,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>10536.65463637313</v>
+        <v>9754.236936101428</v>
       </c>
       <c r="D744">
-        <v>94546.65463637316</v>
+        <v>93764.23693610146</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13552,10 +13552,10 @@
         <v>746</v>
       </c>
       <c r="C745">
-        <v>3974.351302273033</v>
+        <v>4477.404040325171</v>
       </c>
       <c r="D745">
-        <v>115566.351302273</v>
+        <v>116069.4040403252</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13608,10 +13608,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>7186.402306136559</v>
+        <v>6643.538899948995</v>
       </c>
       <c r="D749">
-        <v>87132.40230613652</v>
+        <v>86589.53889994895</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13650,10 +13650,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>51009.44210769446</v>
+        <v>52439.96958679284</v>
       </c>
       <c r="D752">
-        <v>143549.4421076945</v>
+        <v>144979.9695867928</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13748,10 +13748,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>107.9745811121393</v>
+        <v>543.3990612078196</v>
       </c>
       <c r="D759">
-        <v>85597.97458111212</v>
+        <v>86033.39906120781</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13790,10 +13790,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>8166.55064135071</v>
+        <v>8461.381780471886</v>
       </c>
       <c r="D762">
-        <v>119790.5506413507</v>
+        <v>120085.3817804719</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13860,10 +13860,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>43915.27392823016</v>
+        <v>46093.64562404875</v>
       </c>
       <c r="D767">
-        <v>141765.2739282302</v>
+        <v>143943.6456240488</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14056,10 +14056,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>2795.748881738196</v>
+        <v>4443.845969493443</v>
       </c>
       <c r="D781">
-        <v>142970.7488817383</v>
+        <v>144618.8459694936</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14084,10 +14084,10 @@
         <v>784</v>
       </c>
       <c r="C783">
-        <v>0</v>
+        <v>325.8602459588437</v>
       </c>
       <c r="D783">
-        <v>122059.9999999999</v>
+        <v>122385.8602459588</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14182,10 +14182,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>15641.49241488312</v>
+        <v>15258.50708969499</v>
       </c>
       <c r="D790">
-        <v>103380.4924148831</v>
+        <v>102997.507089695</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14238,10 +14238,10 @@
         <v>795</v>
       </c>
       <c r="C794">
-        <v>56219.31988973726</v>
+        <v>55694.83507288422</v>
       </c>
       <c r="D794">
-        <v>146749.3198897372</v>
+        <v>146224.8350728842</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14294,10 +14294,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>2542.766883758974</v>
+        <v>3426.028754768355</v>
       </c>
       <c r="D798">
-        <v>65178.76688375902</v>
+        <v>66062.0287547684</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14350,10 +14350,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>386.8250907781185</v>
+        <v>1257.739750826135</v>
       </c>
       <c r="D802">
-        <v>102831.8250907781</v>
+        <v>103702.7397508261</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14378,10 +14378,10 @@
         <v>805</v>
       </c>
       <c r="C804">
-        <v>39284.51234307649</v>
+        <v>39332.24899846755</v>
       </c>
       <c r="D804">
-        <v>126004.5123430765</v>
+        <v>126052.2489984675</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14448,10 +14448,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>3917.937786116607</v>
+        <v>3523.374514534393</v>
       </c>
       <c r="D809">
-        <v>64856.93778611664</v>
+        <v>64462.37451453442</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14476,10 +14476,10 @@
         <v>812</v>
       </c>
       <c r="C811">
-        <v>12646.49360911183</v>
+        <v>12214.47166866886</v>
       </c>
       <c r="D811">
-        <v>64702.49360911184</v>
+        <v>64270.47166866887</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14490,10 +14490,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>5644.206205991184</v>
+        <v>5231.923800535544</v>
       </c>
       <c r="D812">
-        <v>67364.2062059912</v>
+        <v>66951.92380053556</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14504,10 +14504,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>30970.72696959093</v>
+        <v>30409.20926400751</v>
       </c>
       <c r="D813">
-        <v>121082.7269695909</v>
+        <v>120521.2092640075</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14574,10 +14574,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>20110.33001476779</v>
+        <v>21481.39159974105</v>
       </c>
       <c r="D818">
-        <v>125426.3300147677</v>
+        <v>126797.391599741</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14630,10 +14630,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>15670.93014553454</v>
+        <v>16570.89730343464</v>
       </c>
       <c r="D822">
-        <v>102407.9301455346</v>
+        <v>103307.8973034347</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14644,10 +14644,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>7354.983102676924</v>
+        <v>6981.074208303166</v>
       </c>
       <c r="D823">
-        <v>87630.98310267695</v>
+        <v>87257.07420830319</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14658,10 +14658,10 @@
         <v>825</v>
       </c>
       <c r="C824">
-        <v>1540.824393282921</v>
+        <v>413.7476403226974</v>
       </c>
       <c r="D824">
-        <v>66294.82439328289</v>
+        <v>65167.74764032267</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14700,10 +14700,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>3523.561661203741</v>
+        <v>3319.289379237242</v>
       </c>
       <c r="D827">
-        <v>65615.5616612037</v>
+        <v>65411.2893792372</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14728,10 +14728,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>11412.9945039765</v>
+        <v>13107.84367943478</v>
       </c>
       <c r="D829">
-        <v>102613.9945039764</v>
+        <v>104308.8436794347</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14868,10 +14868,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>18494.260437932</v>
+        <v>19968.07119354641</v>
       </c>
       <c r="D839">
-        <v>101568.2604379321</v>
+        <v>103042.0711935465</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14924,10 +14924,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>7285.848567462992</v>
+        <v>6779.34642132149</v>
       </c>
       <c r="D843">
-        <v>85251.84856746304</v>
+        <v>84745.34642132153</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14952,10 +14952,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>13707.35728773632</v>
+        <v>11331.17828299152</v>
       </c>
       <c r="D845">
-        <v>144062.3572877363</v>
+        <v>141686.1782829915</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14966,10 +14966,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>41776.62483283132</v>
+        <v>41084.14884879577</v>
       </c>
       <c r="D846">
-        <v>149001.6248328313</v>
+        <v>148309.1488487957</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15022,10 +15022,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>28282.14575117125</v>
+        <v>30023.36734772824</v>
       </c>
       <c r="D850">
-        <v>102203.1457511712</v>
+        <v>103944.3673477282</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15134,10 +15134,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>5616.478822979239</v>
+        <v>6245.595485692618</v>
       </c>
       <c r="D858">
-        <v>64722.47882297922</v>
+        <v>65351.5954856926</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15148,10 +15148,10 @@
         <v>860</v>
       </c>
       <c r="C859">
-        <v>15942.71724145656</v>
+        <v>15273.149991684</v>
       </c>
       <c r="D859">
-        <v>87056.71724145653</v>
+        <v>86387.14999168397</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15218,10 +15218,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>6470.112413677751</v>
+        <v>6495.442291880623</v>
       </c>
       <c r="D864">
-        <v>102045.1124136777</v>
+        <v>102070.4422918805</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15274,10 +15274,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>11204.43129927955</v>
+        <v>11422.56580525143</v>
       </c>
       <c r="D868">
-        <v>65059.43129927952</v>
+        <v>65277.56580525141</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15288,10 +15288,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>10269.40736175051</v>
+        <v>10705.54589742051</v>
       </c>
       <c r="D869">
-        <v>88689.40736175053</v>
+        <v>89125.54589742054</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15330,10 +15330,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>1738.501619266957</v>
+        <v>2660.115195751663</v>
       </c>
       <c r="D872">
-        <v>63219.50161926696</v>
+        <v>64141.11519575167</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15344,10 +15344,10 @@
         <v>874</v>
       </c>
       <c r="C873">
-        <v>15479.31430367574</v>
+        <v>14863.22714874348</v>
       </c>
       <c r="D873">
-        <v>86187.31430367575</v>
+        <v>85571.22714874349</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15372,10 +15372,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>27801.29733196502</v>
+        <v>28507.9990798498</v>
       </c>
       <c r="D875">
-        <v>101359.297331965</v>
+        <v>102065.9990798497</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15428,10 +15428,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>21865.3462136999</v>
+        <v>21830.30672632348</v>
       </c>
       <c r="D879">
-        <v>85055.3462136999</v>
+        <v>85020.30672632348</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15484,10 +15484,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>2871.647631494401</v>
+        <v>2557.822183092561</v>
       </c>
       <c r="D883">
-        <v>64573.64763149445</v>
+        <v>64259.82218309261</v>
       </c>
     </row>
     <row r="884" spans="1:4">

--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>9222.584858528498</v>
+        <v>9086.3871524961</v>
       </c>
       <c r="D4">
-        <v>80634.58485852851</v>
+        <v>80498.38715249611</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>23797.85574900635</v>
+        <v>27679.4139296287</v>
       </c>
       <c r="D9">
-        <v>99443.85574900641</v>
+        <v>103325.4139296288</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>12416.05751982045</v>
+        <v>14708.33113658143</v>
       </c>
       <c r="D10">
-        <v>63630.05751982047</v>
+        <v>65922.33113658144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>97603.00000000001</v>
+        <v>197603.0000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>16427.7310046466</v>
+        <v>17350.77369150045</v>
       </c>
       <c r="D31">
-        <v>82997.73100464663</v>
+        <v>83920.77369150048</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3584,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>20910.12045313953</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>81964.12045313955</v>
+        <v>161054</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>26928.6640452002</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>117332.6640452003</v>
+        <v>290404</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>28471.08249439261</v>
+        <v>31028.08145212414</v>
       </c>
       <c r="D35">
-        <v>98516.08249439261</v>
+        <v>101073.0814521241</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>4217.837937545395</v>
+        <v>7780.185152320963</v>
       </c>
       <c r="D38">
-        <v>102252.8379375455</v>
+        <v>105815.185152321</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4046,10 +4046,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>947.5225126104051</v>
       </c>
       <c r="D66">
-        <v>85390</v>
+        <v>86337.52251261041</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>15392.29184387227</v>
+        <v>17579.30955942215</v>
       </c>
       <c r="D68">
-        <v>98409.29184387224</v>
+        <v>100596.3095594221</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>10715.17084777686</v>
+        <v>12065.01796248982</v>
       </c>
       <c r="D71">
-        <v>64519.17084777686</v>
+        <v>65869.01796248982</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>5716.809113632495</v>
+        <v>10521.52725822447</v>
       </c>
       <c r="D72">
-        <v>80984.80911363252</v>
+        <v>85789.52725822449</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>8545.752348747425</v>
+        <v>8733.82932272242</v>
       </c>
       <c r="D74">
-        <v>139605.7523487474</v>
+        <v>139793.8293227224</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>121891</v>
+        <v>221891</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>17375.12743164722</v>
+        <v>17849.35673262471</v>
       </c>
       <c r="D84">
-        <v>81911.12743164724</v>
+        <v>82385.35673262473</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>13594.22724679521</v>
+        <v>14432.35608224108</v>
       </c>
       <c r="D86">
-        <v>64329.22724679524</v>
+        <v>65167.35608224111</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>7459.678149440922</v>
+        <v>8419.193669961838</v>
       </c>
       <c r="D90">
-        <v>133404.6781494408</v>
+        <v>134364.1936699618</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4634,10 +4634,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>973.279584378397</v>
+        <v>2262.50236839593</v>
       </c>
       <c r="D108">
-        <v>82771.27958437846</v>
+        <v>84060.50236839599</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>2684.227861949999</v>
+        <v>5092.990425043899</v>
       </c>
       <c r="D115">
-        <v>61644.22786195001</v>
+        <v>64052.99042504391</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>5931.853792370894</v>
+        <v>10225.81406895214</v>
       </c>
       <c r="D117">
-        <v>81525.85379237091</v>
+        <v>85819.81406895215</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4830,10 +4830,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>15351.54692643038</v>
+        <v>18326.32299523873</v>
       </c>
       <c r="D122">
-        <v>121403.5469264303</v>
+        <v>124378.3229952386</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>28796.15490537319</v>
+        <v>32113.73226732483</v>
       </c>
       <c r="D128">
-        <v>138061.1549053733</v>
+        <v>141378.7322673249</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>15293.47395716401</v>
+        <v>19805.63862469737</v>
       </c>
       <c r="D136">
-        <v>141618.473957164</v>
+        <v>146130.6386246974</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>20012.28188015998</v>
+        <v>22588.58971134957</v>
       </c>
       <c r="D137">
-        <v>145142.28188016</v>
+        <v>147718.5897113496</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>950.6931772173702</v>
+        <v>1406.774785213478</v>
       </c>
       <c r="D140">
-        <v>64798.69317721733</v>
+        <v>65254.77478521344</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>43909.16467531305</v>
+        <v>48209.58571893227</v>
       </c>
       <c r="D142">
-        <v>143874.164675313</v>
+        <v>148174.5857189322</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>43417.13055444261</v>
+        <v>44912.0578064516</v>
       </c>
       <c r="D144">
-        <v>137632.1305544426</v>
+        <v>139127.0578064516</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>3491.453997901976</v>
+        <v>6740.794089151648</v>
       </c>
       <c r="D146">
-        <v>81857.45399790202</v>
+        <v>85106.79408915169</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>6685.92786574582</v>
+        <v>8344.088104072092</v>
       </c>
       <c r="D149">
-        <v>61419.92786574585</v>
+        <v>63078.08810407212</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>30236.72519952302</v>
+        <v>34829.19690164168</v>
       </c>
       <c r="D163">
-        <v>115548.7251995229</v>
+        <v>120141.1969016416</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>20578.57552569192</v>
+        <v>22265.90514543217</v>
       </c>
       <c r="D169">
-        <v>85288.57552569188</v>
+        <v>86975.90514543213</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>17721.89155385666</v>
+        <v>17036.60173997304</v>
       </c>
       <c r="D172">
-        <v>81857.89155385665</v>
+        <v>81172.60173997303</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>7182.090299850126</v>
+        <v>11253.85058843801</v>
       </c>
       <c r="D174">
-        <v>100192.0902998501</v>
+        <v>104263.850588438</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>20431.53521076561</v>
+        <v>21652.63980801773</v>
       </c>
       <c r="D176">
-        <v>132741.5352107655</v>
+        <v>133962.6398080176</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>2015.474356765902</v>
+        <v>2506.504149484404</v>
       </c>
       <c r="D177">
-        <v>64994.47435676592</v>
+        <v>65485.50414948443</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>10010.19112457287</v>
+        <v>12038.5394709307</v>
       </c>
       <c r="D178">
-        <v>61677.19112457285</v>
+        <v>63705.53947093068</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>2821.56805248779</v>
+        <v>3467.71675817309</v>
       </c>
       <c r="D183">
-        <v>61511.56805248781</v>
+        <v>62157.71675817311</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>9395.399705574091</v>
+        <v>8465.045722575203</v>
       </c>
       <c r="D186">
-        <v>82261.39970557406</v>
+        <v>81331.04572257517</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>1070.14307597412</v>
+        <v>4297.821933735439</v>
       </c>
       <c r="D190">
-        <v>112606.1430759741</v>
+        <v>115833.8219337354</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>3275.098035721079</v>
+        <v>8320.995820747776</v>
       </c>
       <c r="D192">
-        <v>136605.0980357211</v>
+        <v>141650.9958207477</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>16344.18251768241</v>
+        <v>17294.27408802688</v>
       </c>
       <c r="D195">
-        <v>81396.18251768242</v>
+        <v>82346.27408802688</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>19506.73822125909</v>
+        <v>21899.10067790793</v>
       </c>
       <c r="D203">
-        <v>115694.738221259</v>
+        <v>118087.1006779079</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>18011.71759742679</v>
+        <v>19286.06198570697</v>
       </c>
       <c r="D204">
-        <v>82945.71759742674</v>
+        <v>84220.06198570693</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>20592.20935604151</v>
+        <v>22081.37045436497</v>
       </c>
       <c r="D214">
-        <v>117960.2093560416</v>
+        <v>119449.370454365</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>216</v>
       </c>
       <c r="C215">
-        <v>18235.21169936705</v>
+        <v>22218.78000056994</v>
       </c>
       <c r="D215">
-        <v>117531.211699367</v>
+        <v>121514.7800005699</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>12013.30933686628</v>
+        <v>11920.1288550362</v>
       </c>
       <c r="D218">
-        <v>62980.3093368663</v>
+        <v>62887.12885503622</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>17216.24956560394</v>
+        <v>17259.74118533233</v>
       </c>
       <c r="D220">
-        <v>118372.249565604</v>
+        <v>118415.7411853324</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>2311.124245578583</v>
+        <v>6737.357160863306</v>
       </c>
       <c r="D221">
-        <v>94757.12424557853</v>
+        <v>99183.35716086325</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>12271.35861227923</v>
+        <v>16649.11161843037</v>
       </c>
       <c r="D227">
-        <v>80909.3586122792</v>
+        <v>85287.11161843034</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>15495.86391481769</v>
+        <v>16550.80046875226</v>
       </c>
       <c r="D228">
-        <v>130800.8639148178</v>
+        <v>131855.8004687523</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>6878.300400918575</v>
+        <v>8491.156436158431</v>
       </c>
       <c r="D232">
-        <v>61803.30040091861</v>
+        <v>63416.15643615847</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>234</v>
       </c>
       <c r="C233">
-        <v>11219.81726286135</v>
+        <v>10089.36834441897</v>
       </c>
       <c r="D233">
-        <v>117027.8172628614</v>
+        <v>115897.368344419</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>5384.188990697563</v>
+        <v>7135.252286973409</v>
       </c>
       <c r="D239">
-        <v>61689.18899069758</v>
+        <v>63440.25228697343</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>5495.76081635525</v>
+        <v>6204.541951846208</v>
       </c>
       <c r="D240">
-        <v>63128.76081635523</v>
+        <v>63837.54195184619</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>19046.51757122971</v>
+        <v>21854.29371228095</v>
       </c>
       <c r="D242">
-        <v>98760.51757122975</v>
+        <v>101568.293712281</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>28567.10609373701</v>
+        <v>28924.07105652633</v>
       </c>
       <c r="D246">
-        <v>116807.1060937371</v>
+        <v>117164.0710565264</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>21605.01051130486</v>
+        <v>21735.20014195163</v>
       </c>
       <c r="D253">
-        <v>85277.01051130491</v>
+        <v>85407.20014195167</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6706,10 +6706,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>17912.01925590709</v>
+        <v>19667.98266564592</v>
       </c>
       <c r="D256">
-        <v>94299.01925590704</v>
+        <v>96054.98266564588</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6818,10 +6818,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>2496.350637967465</v>
       </c>
       <c r="D264">
-        <v>135850</v>
+        <v>138346.3506379674</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6832,10 +6832,10 @@
         <v>266</v>
       </c>
       <c r="C265">
-        <v>362.3222035920699</v>
+        <v>0</v>
       </c>
       <c r="D265">
-        <v>61911.32220359211</v>
+        <v>61549.00000000004</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>21219.85764045951</v>
+        <v>22040.36159286807</v>
       </c>
       <c r="D271">
-        <v>134044.8576404596</v>
+        <v>134865.3615928681</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>17957.44174668753</v>
+        <v>18610.59860212082</v>
       </c>
       <c r="D275">
-        <v>95439.44174668749</v>
+        <v>96092.59860212078</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>7116.277369401541</v>
+        <v>7528.663165875078</v>
       </c>
       <c r="D280">
-        <v>64664.27736940149</v>
+        <v>65076.66316587503</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7098,10 +7098,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>2737.577301266196</v>
       </c>
       <c r="D284">
-        <v>79273.99999999996</v>
+        <v>82011.57730126615</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>21503.83000161467</v>
+        <v>25672.75704599349</v>
       </c>
       <c r="D285">
-        <v>118371.8300016146</v>
+        <v>122540.7570459935</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>4988.595793924731</v>
+        <v>4353.614331732664</v>
       </c>
       <c r="D287">
-        <v>111880.5957939248</v>
+        <v>111245.6143317328</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>13551.28530276452</v>
+        <v>14955.57202438316</v>
       </c>
       <c r="D290">
-        <v>142221.2853027645</v>
+        <v>143625.5720243831</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>9859.206457533022</v>
+        <v>11858.06456245927</v>
       </c>
       <c r="D292">
-        <v>61415.20645753304</v>
+        <v>63414.06456245929</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>23630.11955255593</v>
+        <v>26540.18322705581</v>
       </c>
       <c r="D295">
-        <v>112118.119552556</v>
+        <v>115028.1832270559</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>13047.33757137202</v>
+        <v>15180.43504422285</v>
       </c>
       <c r="D298">
-        <v>93202.33757137197</v>
+        <v>95335.4350442228</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7322,10 +7322,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>10313.82359434868</v>
+        <v>14311.12106258117</v>
       </c>
       <c r="D300">
-        <v>92523.82359434864</v>
+        <v>96521.12106258112</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7350,10 +7350,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>0</v>
+        <v>1670.882526682217</v>
       </c>
       <c r="D302">
-        <v>62432.99999999996</v>
+        <v>64103.88252668217</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>26650.29433831987</v>
+        <v>29891.89399371628</v>
       </c>
       <c r="D305">
-        <v>110826.2943383198</v>
+        <v>114067.8939937162</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>2535.023877202431</v>
+        <v>3699.740293760442</v>
       </c>
       <c r="D307">
-        <v>59260.02387720247</v>
+        <v>60424.74029376049</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>9277.189630194924</v>
+        <v>9460.373845076057</v>
       </c>
       <c r="D308">
-        <v>61675.18963019488</v>
+        <v>61858.37384507601</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>20295.74141727122</v>
+        <v>18074.63587180477</v>
       </c>
       <c r="D310">
-        <v>138750.7414172712</v>
+        <v>136529.6358718048</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>5251.930029322473</v>
+        <v>7000.79542734284</v>
       </c>
       <c r="D311">
-        <v>62190.93002932249</v>
+        <v>63939.79542734285</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7602,10 +7602,10 @@
         <v>321</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>799.5281131878728</v>
       </c>
       <c r="D320">
-        <v>61013.00000000003</v>
+        <v>61812.5281131879</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7616,10 +7616,10 @@
         <v>322</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>1283.71440079555</v>
       </c>
       <c r="D321">
-        <v>83195.99999999993</v>
+        <v>84479.71440079548</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>326</v>
       </c>
       <c r="C325">
-        <v>11322.97990522704</v>
+        <v>12435.91648117313</v>
       </c>
       <c r="D325">
-        <v>94414.97990522698</v>
+        <v>95527.91648117307</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>18561.03822120273</v>
+        <v>18544.3382922829</v>
       </c>
       <c r="D327">
-        <v>82667.03822120272</v>
+        <v>82650.33829228289</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>230.2382539027749</v>
+        <v>3425.456747548917</v>
       </c>
       <c r="D329">
-        <v>95502.2382539027</v>
+        <v>98697.45674754884</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>18148.52859404439</v>
+        <v>20428.03472809438</v>
       </c>
       <c r="D337">
-        <v>115264.5285940444</v>
+        <v>117544.0347280944</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>4314.473305159801</v>
+        <v>8327.351486977612</v>
       </c>
       <c r="D338">
-        <v>83136.47330515983</v>
+        <v>87149.35148697764</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7882,10 +7882,10 @@
         <v>341</v>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>1042.002278350767</v>
       </c>
       <c r="D340">
-        <v>62547.99999999999</v>
+        <v>63590.00227835076</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>345</v>
       </c>
       <c r="C344">
-        <v>11024.4959321741</v>
+        <v>11145.8866041841</v>
       </c>
       <c r="D344">
-        <v>135184.4959321741</v>
+        <v>135305.8866041841</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>8821.145293232898</v>
+        <v>8225.050199156627</v>
       </c>
       <c r="D355">
-        <v>142696.1452932328</v>
+        <v>142100.0501991566</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>7727.29144379987</v>
+        <v>10653.30686495145</v>
       </c>
       <c r="D361">
-        <v>98877.2914437999</v>
+        <v>101803.3068649515</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>5436.592511078037</v>
+        <v>7112.384102134034</v>
       </c>
       <c r="D364">
-        <v>95581.59251107808</v>
+        <v>97257.38410213408</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>17465.50114658827</v>
+        <v>22158.34261537669</v>
       </c>
       <c r="D368">
-        <v>134440.5011465883</v>
+        <v>139133.3426153767</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>3821.898297608976</v>
+        <v>4298.676872571639</v>
       </c>
       <c r="D369">
-        <v>135546.898297609</v>
+        <v>136023.6768725716</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>374</v>
       </c>
       <c r="C373">
-        <v>2585.888065936524</v>
+        <v>6089.561852125815</v>
       </c>
       <c r="D373">
-        <v>110549.8880659365</v>
+        <v>114053.5618521258</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>383</v>
       </c>
       <c r="C382">
-        <v>13979.36223890489</v>
+        <v>17958.26444133836</v>
       </c>
       <c r="D382">
-        <v>78991.36223890491</v>
+        <v>82970.26444133838</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>9994.809359084335</v>
+        <v>11539.02400124082</v>
       </c>
       <c r="D390">
-        <v>98168.80935908435</v>
+        <v>99713.02400124083</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>26695.75456441072</v>
+        <v>28760.70218388276</v>
       </c>
       <c r="D394">
-        <v>97964.75456441066</v>
+        <v>100029.7021838827</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>23978.37798878856</v>
+        <v>28008.14427370865</v>
       </c>
       <c r="D398">
-        <v>110482.3779887886</v>
+        <v>114512.1442737087</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>17949.80990478287</v>
+        <v>20841.82876589255</v>
       </c>
       <c r="D402">
-        <v>78489.80990478289</v>
+        <v>81381.82876589257</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8778,10 +8778,10 @@
         <v>405</v>
       </c>
       <c r="C404">
-        <v>0</v>
+        <v>2906.759476235893</v>
       </c>
       <c r="D404">
-        <v>101196.9999999999</v>
+        <v>104103.7594762358</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>37356.2422757936</v>
+        <v>34110.3168713449</v>
       </c>
       <c r="D406">
-        <v>135031.2422757936</v>
+        <v>131785.3168713449</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>412</v>
       </c>
       <c r="C411">
-        <v>33246.21170742635</v>
+        <v>28723.519910135</v>
       </c>
       <c r="D411">
-        <v>119794.2117074264</v>
+        <v>115271.519910135</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8974,10 +8974,10 @@
         <v>419</v>
       </c>
       <c r="C418">
-        <v>19932.54351973209</v>
+        <v>22473.13817550617</v>
       </c>
       <c r="D418">
-        <v>97855.54351973216</v>
+        <v>100396.1381755062</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9044,10 +9044,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>46073.1859519385</v>
+        <v>46159.62132573657</v>
       </c>
       <c r="D423">
-        <v>141648.1859519384</v>
+        <v>141734.6213257365</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>2432.800453376025</v>
+        <v>2609.464566475406</v>
       </c>
       <c r="D426">
-        <v>78952.80045337604</v>
+        <v>79129.46456647542</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>20114.60693177831</v>
+        <v>22751.19588977117</v>
       </c>
       <c r="D436">
-        <v>116658.6069317783</v>
+        <v>119295.1958897711</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>447</v>
       </c>
       <c r="C446">
-        <v>7224.354291409254</v>
+        <v>7382.582275216868</v>
       </c>
       <c r="D446">
-        <v>61994.35429140926</v>
+        <v>62152.58227521688</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9422,10 +9422,10 @@
         <v>451</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>410.8460068311397</v>
       </c>
       <c r="D450">
-        <v>84093.99999999993</v>
+        <v>84504.84600683107</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9436,10 +9436,10 @@
         <v>452</v>
       </c>
       <c r="C451">
-        <v>17345.75972085043</v>
+        <v>15637.38785551851</v>
       </c>
       <c r="D451">
-        <v>98949.75972085042</v>
+        <v>97241.38785551849</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>15833.03441018511</v>
+        <v>15947.21407566901</v>
       </c>
       <c r="D452">
-        <v>101139.0344101852</v>
+        <v>101253.2140756691</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>23617.88160987127</v>
+        <v>27090.94283181991</v>
       </c>
       <c r="D454">
-        <v>113137.8816098713</v>
+        <v>116610.9428318199</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>457</v>
       </c>
       <c r="C456">
-        <v>32037.26535676302</v>
+        <v>33050.54605460045</v>
       </c>
       <c r="D456">
-        <v>112429.265356763</v>
+        <v>113442.5460546004</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9576,10 +9576,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>21050.03080990582</v>
+        <v>18348.57549007225</v>
       </c>
       <c r="D461">
-        <v>138485.0308099059</v>
+        <v>135783.5754900723</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>22527.87794831916</v>
+        <v>23540.59040760629</v>
       </c>
       <c r="D462">
-        <v>100867.8779483192</v>
+        <v>101880.5904076063</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>14376.57377774609</v>
+        <v>16122.17552762496</v>
       </c>
       <c r="D474">
-        <v>80696.57377774613</v>
+        <v>82442.175527625</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>5051.756617826832</v>
+        <v>5449.611800024293</v>
       </c>
       <c r="D481">
-        <v>59806.75661782685</v>
+        <v>60204.61180002432</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>41324.46649697024</v>
+        <v>39771.07445919351</v>
       </c>
       <c r="D484">
-        <v>135319.4664969702</v>
+        <v>133766.0744591935</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>32347.93414115213</v>
+        <v>29064.65587625979</v>
       </c>
       <c r="D486">
-        <v>119111.9341411521</v>
+        <v>115828.6558762598</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>489</v>
       </c>
       <c r="C488">
-        <v>16941.73515220533</v>
+        <v>18094.99967863557</v>
       </c>
       <c r="D488">
-        <v>82131.73515220535</v>
+        <v>83284.99967863559</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>491</v>
       </c>
       <c r="C490">
-        <v>4730.305658374942</v>
+        <v>7252.247474516713</v>
       </c>
       <c r="D490">
-        <v>77832.30565837491</v>
+        <v>80354.24747451668</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>86282.00000000003</v>
+        <v>96282.00000000007</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>126100</v>
+        <v>136099.9999999999</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>79665.99999999994</v>
+        <v>89665.99999999994</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>171290</v>
+        <v>181289.9999999999</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>14997.81847790055</v>
+        <v>5286.189107385188</v>
       </c>
       <c r="D505">
-        <v>80603.81847790057</v>
+        <v>80892.18910738517</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10206,10 +10206,10 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>19806.25350665132</v>
+        <v>10692.91181560708</v>
       </c>
       <c r="D506">
-        <v>61557.25350665133</v>
+        <v>62443.91181560711</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>81949.99999999997</v>
+        <v>91950.00000000007</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>119370</v>
+        <v>129370.0000000001</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>160070</v>
+        <v>170070.0000000001</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>71959.00000000006</v>
+        <v>81959.00000000006</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>67945.99999999997</v>
+        <v>77945.99999999997</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>76671.99999999997</v>
+        <v>86671.99999999999</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>88702.00000000003</v>
+        <v>98702.00000000006</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>143030.0000000001</v>
+        <v>153029.9999999999</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>38686.16081537765</v>
+        <v>29052.5896555628</v>
       </c>
       <c r="D515">
-        <v>141146.1608153776</v>
+        <v>141512.5896555628</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>76258.00000000003</v>
+        <v>86258</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>115108.0000000001</v>
+        <v>125108</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>113082</v>
+        <v>123082</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>99311.99999999994</v>
+        <v>109312</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>521</v>
       </c>
       <c r="C520">
-        <v>15530.45238821971</v>
+        <v>8088.797580586703</v>
       </c>
       <c r="D520">
-        <v>78236.45238821974</v>
+        <v>80794.79758058676</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>65050.00000000006</v>
+        <v>75049.99999999994</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10430,10 +10430,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>15907.22787250282</v>
+        <v>9257.270671329607</v>
       </c>
       <c r="D522">
-        <v>78829.22787250284</v>
+        <v>82179.27067132966</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>122473.0000000001</v>
+        <v>132473</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>169200</v>
+        <v>179199.9999999999</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>59913.99999999999</v>
+        <v>69914.00000000001</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>116000.0000000001</v>
+        <v>126000.0000000001</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>124156.0000000001</v>
+        <v>134156</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>182075.0000000001</v>
+        <v>192075</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>5965.537691733713</v>
+        <v>293.8183718848013</v>
       </c>
       <c r="D529">
-        <v>82661.53769173379</v>
+        <v>86989.81837188484</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>158100</v>
+        <v>168100.0000000001</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>57185.99999999996</v>
+        <v>67186.00000000003</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>75952.00000000003</v>
+        <v>85952.00000000006</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>118502.9999999999</v>
+        <v>128503</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10598,10 +10598,10 @@
         <v>535</v>
       </c>
       <c r="C534">
-        <v>13833.33480324145</v>
+        <v>8576.484003778678</v>
       </c>
       <c r="D534">
-        <v>56782.33480324149</v>
+        <v>61525.48400377865</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>536</v>
       </c>
       <c r="C535">
-        <v>27218.01520676796</v>
+        <v>24571.12411762676</v>
       </c>
       <c r="D535">
-        <v>130973.015206768</v>
+        <v>138326.1241176268</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>537</v>
       </c>
       <c r="C536">
-        <v>16224.94394040215</v>
+        <v>9778.130302357153</v>
       </c>
       <c r="D536">
-        <v>78452.94394040221</v>
+        <v>82006.13030235709</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>66826.99999999996</v>
+        <v>76827.00000000001</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>23619.94987526794</v>
+        <v>19460.55551780529</v>
       </c>
       <c r="D538">
-        <v>110879.9498752679</v>
+        <v>116720.5555178053</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>68416.00000000003</v>
+        <v>78416</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>178139.9999999999</v>
+        <v>188140.0000000001</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>136530.0000000001</v>
+        <v>146530.0000000001</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>84712.00000000003</v>
+        <v>94712.00000000003</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>85582</v>
+        <v>95582</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>138410.0000000001</v>
+        <v>148409.9999999999</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>124477.0000000001</v>
+        <v>134477.0000000001</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10766,10 +10766,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>17949.91537364025</v>
+        <v>12831.21839081957</v>
       </c>
       <c r="D546">
-        <v>116185.9153736403</v>
+        <v>121067.2183908196</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>55583.00000000001</v>
+        <v>65582.99999999996</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10794,10 +10794,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>15493.24701322105</v>
+        <v>11062.05457993947</v>
       </c>
       <c r="D548">
-        <v>58183.24701322103</v>
+        <v>63752.05457993942</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>84588.00000000001</v>
+        <v>94587.99999999994</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>62060.00000000003</v>
+        <v>72059.99999999999</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>52653.99999999999</v>
+        <v>62653.99999999996</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>106453</v>
+        <v>116453</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>103400</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>106876</v>
+        <v>116876.0000000001</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>10280.74346124067</v>
+        <v>10890.55821141349</v>
       </c>
       <c r="D555">
-        <v>94205.74346124069</v>
+        <v>104815.5582114135</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>123136</v>
+        <v>133136.0000000001</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>90844.00000000001</v>
+        <v>100844.0000000001</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>144428.0000000001</v>
+        <v>154428</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>114291.9999999999</v>
+        <v>124292</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>69440.99999999999</v>
+        <v>79440.99999999994</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>106132.0000000001</v>
+        <v>116131.9999999999</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>76792.00000000006</v>
+        <v>86791.99999999996</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11004,10 +11004,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>26195.15453573824</v>
+        <v>24416.54632978419</v>
       </c>
       <c r="D563">
-        <v>91370.15453573829</v>
+        <v>99591.54632978415</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>150544.9999999999</v>
+        <v>160545.0000000001</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11032,10 +11032,10 @@
         <v>566</v>
       </c>
       <c r="C565">
-        <v>3502.12543964597</v>
+        <v>1316.859626634367</v>
       </c>
       <c r="D565">
-        <v>128937.125439646</v>
+        <v>136751.8596266345</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>166185.0000000001</v>
+        <v>176184.9999999999</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>95380.00000000006</v>
+        <v>105379.9999999999</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11074,10 +11074,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>8772.430877707491</v>
+        <v>3638.186745840045</v>
       </c>
       <c r="D568">
-        <v>56783.43087770749</v>
+        <v>61649.18674584005</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>131299.9999999999</v>
+        <v>141300.0000000001</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11102,10 +11102,10 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>11308.08584944376</v>
+        <v>7940.956632267669</v>
       </c>
       <c r="D570">
-        <v>58155.08584944373</v>
+        <v>64787.95663226763</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11116,10 +11116,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>40615.14774184264</v>
+        <v>34850.38643274286</v>
       </c>
       <c r="D571">
-        <v>111527.1477418426</v>
+        <v>115762.3864327429</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>61585.99999999996</v>
+        <v>71586</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>189495.0000000001</v>
+        <v>199495.0000000001</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>176795.0000000001</v>
+        <v>186795.0000000001</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>108075.9999999999</v>
+        <v>118076</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>130634.9999999999</v>
+        <v>140635.0000000001</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>82314.99999999996</v>
+        <v>92314.99999999997</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>132952</v>
+        <v>142952</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="D579">
-        <v>66812</v>
+        <v>76812.00000000003</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>75590.00000000001</v>
+        <v>85590.00000000007</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>128864.0000000001</v>
+        <v>138863.9999999999</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>142976.0000000001</v>
+        <v>152975.9999999999</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>136769.9999999999</v>
+        <v>146769.9999999999</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>142640</v>
+        <v>152639.9999999999</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>76450.00000000001</v>
+        <v>86449.99999999999</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>164055</v>
+        <v>174055.0000000001</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11340,10 +11340,10 @@
         <v>588</v>
       </c>
       <c r="C587">
-        <v>47825.84289894953</v>
+        <v>42190.05060655907</v>
       </c>
       <c r="D587">
-        <v>132595.8428989496</v>
+        <v>136960.0506065591</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>144615</v>
+        <v>154615</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>103644</v>
+        <v>113644</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>54311</v>
+        <v>64311</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11396,10 +11396,10 @@
         <v>592</v>
       </c>
       <c r="C591">
-        <v>14435.07681823184</v>
+        <v>9869.998697968316</v>
       </c>
       <c r="D591">
-        <v>134315.0768182319</v>
+        <v>139749.9986979684</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>110230</v>
+        <v>120230.0000000001</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11424,10 +11424,10 @@
         <v>594</v>
       </c>
       <c r="C593">
-        <v>8807.279279746253</v>
+        <v>5046.772333238048</v>
       </c>
       <c r="D593">
-        <v>57338.27927974624</v>
+        <v>63577.77233323804</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>52943.99999999996</v>
+        <v>62944.00000000001</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>86071.99999999999</v>
+        <v>96071.99999999997</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>154360</v>
+        <v>164360</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11480,10 +11480,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>3692.589371086484</v>
+        <v>88.63040603362606</v>
       </c>
       <c r="D597">
-        <v>57117.58937108651</v>
+        <v>63513.63040603357</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>126595</v>
+        <v>136595</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11508,10 +11508,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>15037.75143635979</v>
+        <v>12186.95657214457</v>
       </c>
       <c r="D599">
-        <v>93448.75143635983</v>
+        <v>100597.9565721445</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>81508.00000000004</v>
+        <v>91508.00000000007</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11536,10 +11536,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>15195.60011284084</v>
+        <v>14133.70693426827</v>
       </c>
       <c r="D601">
-        <v>93210.60011284088</v>
+        <v>102148.7069342683</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>142599.9999999999</v>
+        <v>152600.0000000001</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11564,10 +11564,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>20682.2822349598</v>
+        <v>13751.99931431872</v>
       </c>
       <c r="D603">
-        <v>92089.28223495984</v>
+        <v>100158.9993143188</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11578,10 +11578,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>7059.784824352872</v>
+        <v>0</v>
       </c>
       <c r="D604">
-        <v>80643.78482435281</v>
+        <v>88583.99999999996</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11592,10 +11592,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>19380.31052510754</v>
+        <v>9916.765828362899</v>
       </c>
       <c r="D605">
-        <v>60043.31052510751</v>
+        <v>65579.76582836288</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>58274</v>
+        <v>73274.00000000001</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11620,10 +11620,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>7902.439482022717</v>
+        <v>0</v>
       </c>
       <c r="D607">
-        <v>81764.43948202266</v>
+        <v>88861.99999999999</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11634,10 +11634,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>13761.21279833997</v>
+        <v>4516.681686007927</v>
       </c>
       <c r="D608">
-        <v>95158.21279833997</v>
+        <v>100913.681686008</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <v>84218.00000000006</v>
+        <v>99217.99999999996</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11662,10 +11662,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>20767.67204395423</v>
+        <v>9387.628766332957</v>
       </c>
       <c r="D610">
-        <v>58618.67204395423</v>
+        <v>62238.62876633298</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11676,10 +11676,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>1437.92208459368</v>
+        <v>0</v>
       </c>
       <c r="D611">
-        <v>95218.92208459374</v>
+        <v>108780.9999999999</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>55592.99999999999</v>
+        <v>70593</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>122388</v>
+        <v>137388.0000000001</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11718,10 +11718,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>24138.77327115303</v>
+        <v>20428.90522844577</v>
       </c>
       <c r="D614">
-        <v>134263.773271153</v>
+        <v>145553.9052284457</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>61982.99999999999</v>
+        <v>76983.00000000004</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>73616.00000000003</v>
+        <v>88616.00000000007</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <v>66130.00000000006</v>
+        <v>81130.00000000003</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="D618">
-        <v>138120</v>
+        <v>153120</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="D619">
-        <v>112028.0000000001</v>
+        <v>127027.9999999999</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>56962.00000000004</v>
+        <v>71961.99999999999</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>124442.0000000001</v>
+        <v>139441.9999999999</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>80016.00000000007</v>
+        <v>95015.99999999997</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>155960</v>
+        <v>170959.9999999999</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11858,10 +11858,10 @@
         <v>625</v>
       </c>
       <c r="C624">
-        <v>10626.78740993718</v>
+        <v>5808.736294690418</v>
       </c>
       <c r="D624">
-        <v>94876.78740993714</v>
+        <v>105058.7362946904</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11872,10 +11872,10 @@
         <v>626</v>
       </c>
       <c r="C625">
-        <v>3999.36856828368</v>
+        <v>0</v>
       </c>
       <c r="D625">
-        <v>82201.36856828368</v>
+        <v>93202.00000000001</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>85192.00000000003</v>
+        <v>100192.0000000001</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>158715.0000000001</v>
+        <v>173715.0000000001</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>109215.0000000001</v>
+        <v>124215</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>142035</v>
+        <v>157035.0000000001</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>86150.00000000003</v>
+        <v>101150.0000000001</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="D631">
-        <v>189341.9999999998</v>
+        <v>89342.00000000007</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11970,10 +11970,10 @@
         <v>633</v>
       </c>
       <c r="C632">
-        <v>0</v>
+        <v>43252.26678157147</v>
       </c>
       <c r="D632">
-        <v>142064.9999999999</v>
+        <v>145317.2667815714</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="D633">
-        <v>188762</v>
+        <v>88762.00000000006</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -11998,10 +11998,10 @@
         <v>635</v>
       </c>
       <c r="C634">
-        <v>0</v>
+        <v>109.8983419517899</v>
       </c>
       <c r="D634">
-        <v>67041.99999999996</v>
+        <v>67151.89834195175</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12026,10 +12026,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>11234.69682907284</v>
+        <v>14882.82572474841</v>
       </c>
       <c r="D636">
-        <v>78308.69682907283</v>
+        <v>81956.8257247484</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12068,10 +12068,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>3243.131170969398</v>
+        <v>7736.074246644261</v>
       </c>
       <c r="D639">
-        <v>77169.13117096946</v>
+        <v>81662.07424664432</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12096,10 +12096,10 @@
         <v>642</v>
       </c>
       <c r="C641">
-        <v>0</v>
+        <v>226.9632133365376</v>
       </c>
       <c r="D641">
-        <v>102376.0000000001</v>
+        <v>102602.9632133366</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12180,10 +12180,10 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>0</v>
+        <v>7334.530957532785</v>
       </c>
       <c r="D647">
-        <v>97692.99999999993</v>
+        <v>105027.5309575327</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12292,10 +12292,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>9804.416725573334</v>
+        <v>16882.1288586444</v>
       </c>
       <c r="D655">
-        <v>81336.41672557329</v>
+        <v>88414.12885864436</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12362,10 +12362,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>1722.384486599389</v>
+        <v>8428.663681698206</v>
       </c>
       <c r="D660">
-        <v>79468.38448659936</v>
+        <v>86174.66368169818</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12418,10 +12418,10 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>26156.19694800414</v>
+        <v>32316.03067595398</v>
       </c>
       <c r="D664">
-        <v>110728.1969480041</v>
+        <v>116888.0306759539</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12432,10 +12432,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>20335.60587147632</v>
+        <v>28053.4194877191</v>
       </c>
       <c r="D665">
-        <v>131600.6058714763</v>
+        <v>139318.4194877191</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12474,10 +12474,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>0</v>
+        <v>1511.799388452055</v>
       </c>
       <c r="D668">
-        <v>96987.99999999991</v>
+        <v>98499.79938845197</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12502,10 +12502,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>7216.004665425455</v>
+        <v>11897.60552313606</v>
       </c>
       <c r="D670">
-        <v>58439.00466542543</v>
+        <v>63120.60552313604</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12516,10 +12516,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>12781.91753161105</v>
+        <v>16339.08841137252</v>
       </c>
       <c r="D671">
-        <v>117305.9175316111</v>
+        <v>120863.0884113726</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12530,10 +12530,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>11496.43512799442</v>
+        <v>16123.91205367845</v>
       </c>
       <c r="D672">
-        <v>133881.4351279944</v>
+        <v>138508.9120536784</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12558,10 +12558,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>0</v>
+        <v>2117.854643892977</v>
       </c>
       <c r="D674">
-        <v>77692.00000000003</v>
+        <v>79809.85464389301</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12600,10 +12600,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>6349.631957839156</v>
+        <v>14583.88368948571</v>
       </c>
       <c r="D677">
-        <v>112917.6319578392</v>
+        <v>121151.8836894857</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12614,10 +12614,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>353.5644398385557</v>
+        <v>5485.103106043418</v>
       </c>
       <c r="D678">
-        <v>58796.56443983854</v>
+        <v>63928.1031060434</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12670,10 +12670,10 @@
         <v>683</v>
       </c>
       <c r="C682">
-        <v>0</v>
+        <v>1543.690946379778</v>
       </c>
       <c r="D682">
-        <v>97756</v>
+        <v>99299.69094637978</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12726,10 +12726,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>20378.18929584589</v>
+        <v>28804.05701342151</v>
       </c>
       <c r="D686">
-        <v>111198.1892958458</v>
+        <v>119624.0570134215</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12740,10 +12740,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>0</v>
+        <v>4645.241509305808</v>
       </c>
       <c r="D687">
-        <v>78605.99999999996</v>
+        <v>83251.24150930576</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12768,10 +12768,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>8275.322037012244</v>
+        <v>12987.17208232047</v>
       </c>
       <c r="D689">
-        <v>79803.32203701229</v>
+        <v>84515.17208232051</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12894,10 +12894,10 @@
         <v>699</v>
       </c>
       <c r="C698">
-        <v>19376.0915905359</v>
+        <v>25182.10913547533</v>
       </c>
       <c r="D698">
-        <v>93672.09159053586</v>
+        <v>99478.10913547529</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12950,10 +12950,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>0</v>
+        <v>1629.994903680468</v>
       </c>
       <c r="D702">
-        <v>61626.00000000001</v>
+        <v>63255.99490368048</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -13104,10 +13104,10 @@
         <v>714</v>
       </c>
       <c r="C713">
-        <v>0</v>
+        <v>104.8011791309109</v>
       </c>
       <c r="D713">
-        <v>65123.99999999998</v>
+        <v>65228.80117913089</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13188,10 +13188,10 @@
         <v>720</v>
       </c>
       <c r="C719">
-        <v>2223.989565653392</v>
+        <v>6677.82141813224</v>
       </c>
       <c r="D719">
-        <v>81765.98956565341</v>
+        <v>86219.82141813225</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13202,10 +13202,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>2133.183306711246</v>
+        <v>8529.920894292023</v>
       </c>
       <c r="D720">
-        <v>57169.18330671127</v>
+        <v>63565.92089429204</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13454,10 +13454,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>22186.2846606205</v>
+        <v>23768.83322640175</v>
       </c>
       <c r="D738">
-        <v>95051.28466062048</v>
+        <v>96633.83322640174</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13468,10 +13468,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>28322.64258105627</v>
+        <v>27756.24868014613</v>
       </c>
       <c r="D739">
-        <v>134692.6425810562</v>
+        <v>134126.2486801461</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13482,10 +13482,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>18104.54209442536</v>
+        <v>18205.47453289661</v>
       </c>
       <c r="D740">
-        <v>80130.54209442539</v>
+        <v>80231.47453289664</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13496,10 +13496,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>7008.863052381472</v>
+        <v>8041.941277655307</v>
       </c>
       <c r="D741">
-        <v>61561.86305238146</v>
+        <v>62594.9412776553</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13538,10 +13538,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>9754.236936101428</v>
+        <v>11152.44891581795</v>
       </c>
       <c r="D744">
-        <v>93764.23693610146</v>
+        <v>95162.44891581798</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13552,10 +13552,10 @@
         <v>746</v>
       </c>
       <c r="C745">
-        <v>4477.404040325171</v>
+        <v>2282.291164482071</v>
       </c>
       <c r="D745">
-        <v>116069.4040403252</v>
+        <v>113874.2911644821</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13608,10 +13608,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>6643.538899948995</v>
+        <v>7216.804104406954</v>
       </c>
       <c r="D749">
-        <v>86589.53889994895</v>
+        <v>87162.80410440691</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13650,10 +13650,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>52439.96958679284</v>
+        <v>52860.31087891906</v>
       </c>
       <c r="D752">
-        <v>144979.9695867928</v>
+        <v>145400.3108789191</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13748,10 +13748,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>543.3990612078196</v>
+        <v>501.3276952214364</v>
       </c>
       <c r="D759">
-        <v>86033.39906120781</v>
+        <v>85991.32769522142</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13790,10 +13790,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>8461.381780471886</v>
+        <v>10407.24932552098</v>
       </c>
       <c r="D762">
-        <v>120085.3817804719</v>
+        <v>122031.249325521</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13860,10 +13860,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>46093.64562404875</v>
+        <v>41065.86649369748</v>
       </c>
       <c r="D767">
-        <v>143943.6456240488</v>
+        <v>138915.8664936975</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14056,10 +14056,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>4443.845969493443</v>
+        <v>349.5667290187266</v>
       </c>
       <c r="D781">
-        <v>144618.8459694936</v>
+        <v>140524.5667290188</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14084,10 +14084,10 @@
         <v>784</v>
       </c>
       <c r="C783">
-        <v>325.8602459588437</v>
+        <v>0</v>
       </c>
       <c r="D783">
-        <v>122385.8602459588</v>
+        <v>122059.9999999999</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14098,10 +14098,10 @@
         <v>785</v>
       </c>
       <c r="C784">
-        <v>0</v>
+        <v>5126.286910003531</v>
       </c>
       <c r="D784">
-        <v>146589.0000000001</v>
+        <v>101715.2869100035</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14182,10 +14182,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>15258.50708969499</v>
+        <v>16199.68363220985</v>
       </c>
       <c r="D790">
-        <v>102997.507089695</v>
+        <v>103938.6836322098</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14238,10 +14238,10 @@
         <v>795</v>
       </c>
       <c r="C794">
-        <v>55694.83507288422</v>
+        <v>55509.76844122418</v>
       </c>
       <c r="D794">
-        <v>146224.8350728842</v>
+        <v>146039.7684412241</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14294,10 +14294,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>3426.028754768355</v>
+        <v>4784.149407285498</v>
       </c>
       <c r="D798">
-        <v>66062.0287547684</v>
+        <v>67420.14940728554</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14350,10 +14350,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>1257.739750826135</v>
+        <v>4201.111115407082</v>
       </c>
       <c r="D802">
-        <v>103702.7397508261</v>
+        <v>106646.1111154071</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14378,10 +14378,10 @@
         <v>805</v>
       </c>
       <c r="C804">
-        <v>39332.24899846755</v>
+        <v>34933.01131489158</v>
       </c>
       <c r="D804">
-        <v>126052.2489984675</v>
+        <v>121653.0113148916</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14448,10 +14448,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>3523.374514534393</v>
+        <v>4153.388719154405</v>
       </c>
       <c r="D809">
-        <v>64462.37451453442</v>
+        <v>65092.38871915443</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14476,10 +14476,10 @@
         <v>812</v>
       </c>
       <c r="C811">
-        <v>12214.47166866886</v>
+        <v>12401.46429702528</v>
       </c>
       <c r="D811">
-        <v>64270.47166866887</v>
+        <v>64457.46429702528</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14490,10 +14490,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>5231.923800535544</v>
+        <v>3400.928665829328</v>
       </c>
       <c r="D812">
-        <v>66951.92380053556</v>
+        <v>65120.92866582934</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14504,10 +14504,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>30409.20926400751</v>
+        <v>32365.11735547446</v>
       </c>
       <c r="D813">
-        <v>120521.2092640075</v>
+        <v>122477.1173554744</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14574,10 +14574,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>21481.39159974105</v>
+        <v>19751.74478841647</v>
       </c>
       <c r="D818">
-        <v>126797.391599741</v>
+        <v>125067.7447884164</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14630,10 +14630,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>16570.89730343464</v>
+        <v>15731.48078391924</v>
       </c>
       <c r="D822">
-        <v>103307.8973034347</v>
+        <v>102468.4807839193</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14644,10 +14644,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>6981.074208303166</v>
+        <v>9279.59271840853</v>
       </c>
       <c r="D823">
-        <v>87257.07420830319</v>
+        <v>89555.59271840856</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14658,10 +14658,10 @@
         <v>825</v>
       </c>
       <c r="C824">
-        <v>413.7476403226974</v>
+        <v>401.1207646969197</v>
       </c>
       <c r="D824">
-        <v>65167.74764032267</v>
+        <v>65155.12076469689</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14700,10 +14700,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>3319.289379237242</v>
+        <v>2632.15047434665</v>
       </c>
       <c r="D827">
-        <v>65411.2893792372</v>
+        <v>64724.15047434661</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14728,10 +14728,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>13107.84367943478</v>
+        <v>13459.05416936065</v>
       </c>
       <c r="D829">
-        <v>104308.8436794347</v>
+        <v>104660.0541693606</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14742,10 +14742,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>0</v>
+        <v>1208.071766891124</v>
       </c>
       <c r="D830">
-        <v>130998</v>
+        <v>62206.07176689112</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14756,10 +14756,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>0</v>
+        <v>40800.93871554287</v>
       </c>
       <c r="D831">
-        <v>153055.0000000001</v>
+        <v>143855.9387155428</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="D832">
-        <v>186455.9999999999</v>
+        <v>146456.0000000001</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14798,10 +14798,10 @@
         <v>835</v>
       </c>
       <c r="C834">
-        <v>0</v>
+        <v>9552.260632767386</v>
       </c>
       <c r="D834">
-        <v>172097.9999999999</v>
+        <v>101650.2606327674</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14868,10 +14868,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>19968.07119354641</v>
+        <v>18592.70861845944</v>
       </c>
       <c r="D839">
-        <v>103042.0711935465</v>
+        <v>101666.7086184595</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14882,10 +14882,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>0</v>
+        <v>2010.705018321431</v>
       </c>
       <c r="D840">
-        <v>101644</v>
+        <v>103654.7050183214</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14924,10 +14924,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>6779.34642132149</v>
+        <v>7355.906379208027</v>
       </c>
       <c r="D843">
-        <v>84745.34642132153</v>
+        <v>85321.90637920807</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14952,10 +14952,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>11331.17828299152</v>
+        <v>9395.145114486368</v>
       </c>
       <c r="D845">
-        <v>141686.1782829915</v>
+        <v>139750.1451144863</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14966,10 +14966,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>41084.14884879577</v>
+        <v>36366.59845229672</v>
       </c>
       <c r="D846">
-        <v>148309.1488487957</v>
+        <v>143591.5984522967</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15022,10 +15022,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>30023.36734772824</v>
+        <v>30649.05433088151</v>
       </c>
       <c r="D850">
-        <v>103944.3673477282</v>
+        <v>104570.0543308815</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15134,10 +15134,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>6245.595485692618</v>
+        <v>6976.652705634755</v>
       </c>
       <c r="D858">
-        <v>65351.5954856926</v>
+        <v>66082.65270563474</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15148,10 +15148,10 @@
         <v>860</v>
       </c>
       <c r="C859">
-        <v>15273.149991684</v>
+        <v>14198.24008433633</v>
       </c>
       <c r="D859">
-        <v>86387.14999168397</v>
+        <v>85312.2400843363</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15218,10 +15218,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>6495.442291880623</v>
+        <v>6977.56686316694</v>
       </c>
       <c r="D864">
-        <v>102070.4422918805</v>
+        <v>102552.5668631669</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15274,10 +15274,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>11422.56580525143</v>
+        <v>10040.72182402588</v>
       </c>
       <c r="D868">
-        <v>65277.56580525141</v>
+        <v>63895.72182402586</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15288,10 +15288,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>10705.54589742051</v>
+        <v>9476.878987565186</v>
       </c>
       <c r="D869">
-        <v>89125.54589742054</v>
+        <v>87896.87898756521</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15330,10 +15330,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>2660.115195751663</v>
+        <v>1997.66123017975</v>
       </c>
       <c r="D872">
-        <v>64141.11519575167</v>
+        <v>63478.66123017976</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15344,10 +15344,10 @@
         <v>874</v>
       </c>
       <c r="C873">
-        <v>14863.22714874348</v>
+        <v>13355.92256956889</v>
       </c>
       <c r="D873">
-        <v>85571.22714874349</v>
+        <v>84063.92256956891</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15372,10 +15372,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>28507.9990798498</v>
+        <v>28045.53268062844</v>
       </c>
       <c r="D875">
-        <v>102065.9990798497</v>
+        <v>101603.5326806284</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15428,10 +15428,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>21830.30672632348</v>
+        <v>18862.41721517412</v>
       </c>
       <c r="D879">
-        <v>85020.30672632348</v>
+        <v>82052.41721517412</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15484,10 +15484,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>2557.822183092561</v>
+        <v>1811.066837660059</v>
       </c>
       <c r="D883">
-        <v>64259.82218309261</v>
+        <v>63513.06683766011</v>
       </c>
     </row>
     <row r="884" spans="1:4">

--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>9086.3871524961</v>
+        <v>8719.911478120252</v>
       </c>
       <c r="D4">
-        <v>80498.38715249611</v>
+        <v>80131.91147812027</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>27679.4139296287</v>
+        <v>23855.20784931099</v>
       </c>
       <c r="D9">
-        <v>103325.4139296288</v>
+        <v>99501.20784931105</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>14708.33113658143</v>
+        <v>12447.25036425582</v>
       </c>
       <c r="D10">
-        <v>65922.33113658144</v>
+        <v>63661.25036425584</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>197603.0000000001</v>
+        <v>97603.00000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>17350.77369150045</v>
+        <v>14611.58810574947</v>
       </c>
       <c r="D31">
-        <v>83920.77369150048</v>
+        <v>81181.5881057495</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3584,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>19132.10719366272</v>
       </c>
       <c r="D33">
-        <v>161054</v>
+        <v>80186.10719366274</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>24958.691659013</v>
       </c>
       <c r="D34">
-        <v>290404</v>
+        <v>115362.6916590131</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>31028.08145212414</v>
+        <v>26596.05190665965</v>
       </c>
       <c r="D35">
-        <v>101073.0814521241</v>
+        <v>96641.05190665965</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>7780.185152320963</v>
+        <v>2508.942130712021</v>
       </c>
       <c r="D38">
-        <v>105815.185152321</v>
+        <v>100543.9421307121</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4046,10 +4046,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>947.5225126104051</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>86337.52251261041</v>
+        <v>85390</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>17579.30955942215</v>
+        <v>13376.97093420183</v>
       </c>
       <c r="D68">
-        <v>100596.3095594221</v>
+        <v>96393.9709342018</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>12065.01796248982</v>
+        <v>9689.037109271005</v>
       </c>
       <c r="D71">
-        <v>65869.01796248982</v>
+        <v>63493.037109271</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>10521.52725822447</v>
+        <v>5076.620251018918</v>
       </c>
       <c r="D72">
-        <v>85789.52725822449</v>
+        <v>80344.62025101895</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>8733.82932272242</v>
+        <v>6015.013958031283</v>
       </c>
       <c r="D74">
-        <v>139793.8293227224</v>
+        <v>137075.0139580313</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>221891</v>
+        <v>121891</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>17849.35673262471</v>
+        <v>15998.74869563913</v>
       </c>
       <c r="D84">
-        <v>82385.35673262473</v>
+        <v>80534.74869563915</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>14432.35608224108</v>
+        <v>13088.06140286278</v>
       </c>
       <c r="D86">
-        <v>65167.35608224111</v>
+        <v>63823.0614028628</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>8419.193669961838</v>
+        <v>12756.57967474872</v>
       </c>
       <c r="D90">
-        <v>134364.1936699618</v>
+        <v>138701.5796747486</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4634,10 +4634,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>2262.50236839593</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>84060.50236839599</v>
+        <v>81798.00000000006</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>5092.990425043899</v>
+        <v>2185.388355517345</v>
       </c>
       <c r="D115">
-        <v>64052.99042504391</v>
+        <v>61145.38835551736</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>10225.81406895214</v>
+        <v>4208.288306614631</v>
       </c>
       <c r="D117">
-        <v>85819.81406895215</v>
+        <v>79802.28830661465</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4830,10 +4830,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>18326.32299523873</v>
+        <v>14150.32901138217</v>
       </c>
       <c r="D122">
-        <v>124378.3229952386</v>
+        <v>120202.3290113821</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>32113.73226732483</v>
+        <v>26768.16000408771</v>
       </c>
       <c r="D128">
-        <v>141378.7322673249</v>
+        <v>136033.1600040878</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>19805.63862469737</v>
+        <v>12144.73985264657</v>
       </c>
       <c r="D136">
-        <v>146130.6386246974</v>
+        <v>138469.7398526466</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>22588.58971134957</v>
+        <v>17009.23199236247</v>
       </c>
       <c r="D137">
-        <v>147718.5897113496</v>
+        <v>142139.2319923625</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>1406.774785213478</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>65254.77478521344</v>
+        <v>63847.99999999996</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>48209.58571893227</v>
+        <v>42162.95322707362</v>
       </c>
       <c r="D142">
-        <v>148174.5857189322</v>
+        <v>142127.9532270736</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>44912.0578064516</v>
+        <v>41030.38687942916</v>
       </c>
       <c r="D144">
-        <v>139127.0578064516</v>
+        <v>135245.3868794292</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>6740.794089151648</v>
+        <v>2313.15606483561</v>
       </c>
       <c r="D146">
-        <v>85106.79408915169</v>
+        <v>80679.15606483565</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>8344.088104072092</v>
+        <v>5719.405972047767</v>
       </c>
       <c r="D149">
-        <v>63078.08810407212</v>
+        <v>60453.4059720478</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>34829.19690164168</v>
+        <v>28062.80890056796</v>
       </c>
       <c r="D163">
-        <v>120141.1969016416</v>
+        <v>113374.8089005679</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>22265.90514543217</v>
+        <v>19342.8767872176</v>
       </c>
       <c r="D169">
-        <v>86975.90514543213</v>
+        <v>84052.87678721755</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>17036.60173997304</v>
+        <v>16779.63495889026</v>
       </c>
       <c r="D172">
-        <v>81172.60173997303</v>
+        <v>80915.63495889025</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>11253.85058843801</v>
+        <v>5306.643391437028</v>
       </c>
       <c r="D174">
-        <v>104263.850588438</v>
+        <v>98316.64339143701</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>21652.63980801773</v>
+        <v>24516.11258925375</v>
       </c>
       <c r="D176">
-        <v>133962.6398080176</v>
+        <v>136826.1125892537</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>2506.504149484404</v>
+        <v>891.5215060276969</v>
       </c>
       <c r="D177">
-        <v>65485.50414948443</v>
+        <v>63870.52150602772</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>12038.5394709307</v>
+        <v>9721.20359772096</v>
       </c>
       <c r="D178">
-        <v>63705.53947093068</v>
+        <v>61388.20359772094</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>3467.71675817309</v>
+        <v>2388.350307047855</v>
       </c>
       <c r="D183">
-        <v>62157.71675817311</v>
+        <v>61078.35030704788</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>8465.045722575203</v>
+        <v>7777.914124524948</v>
       </c>
       <c r="D186">
-        <v>81331.04572257517</v>
+        <v>80643.91412452492</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>4297.821933735439</v>
+        <v>5249.336955178311</v>
       </c>
       <c r="D190">
-        <v>115833.8219337354</v>
+        <v>116785.3369551783</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>8320.995820747776</v>
+        <v>1530.826783366152</v>
       </c>
       <c r="D192">
-        <v>141650.9958207477</v>
+        <v>134860.8267833661</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>17294.27408802688</v>
+        <v>15266.15247146253</v>
       </c>
       <c r="D195">
-        <v>82346.27408802688</v>
+        <v>80318.15247146254</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>21899.10067790793</v>
+        <v>17889.70331166824</v>
       </c>
       <c r="D203">
-        <v>118087.1006779079</v>
+        <v>114077.7033116682</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>19286.06198570697</v>
+        <v>16171.27264536869</v>
       </c>
       <c r="D204">
-        <v>84220.06198570693</v>
+        <v>81105.27264536865</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>22081.37045436497</v>
+        <v>19895.14731005076</v>
       </c>
       <c r="D214">
-        <v>119449.370454365</v>
+        <v>117263.1473100508</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>216</v>
       </c>
       <c r="C215">
-        <v>22218.78000056994</v>
+        <v>15769.70045724465</v>
       </c>
       <c r="D215">
-        <v>121514.7800005699</v>
+        <v>115065.7004572446</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>11920.1288550362</v>
+        <v>10968.62830878667</v>
       </c>
       <c r="D218">
-        <v>62887.12885503622</v>
+        <v>61935.62830878669</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>17259.74118533233</v>
+        <v>15662.06815686554</v>
       </c>
       <c r="D220">
-        <v>118415.7411853324</v>
+        <v>116818.0681568656</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>6737.357160863306</v>
+        <v>5595.973297682242</v>
       </c>
       <c r="D221">
-        <v>99183.35716086325</v>
+        <v>98041.97329768218</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>16649.11161843037</v>
+        <v>11309.755213747</v>
       </c>
       <c r="D227">
-        <v>85287.11161843034</v>
+        <v>79947.75521374698</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>16550.80046875226</v>
+        <v>19841.68791857878</v>
       </c>
       <c r="D228">
-        <v>131855.8004687523</v>
+        <v>135146.6879185789</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>8491.156436158431</v>
+        <v>6245.40983246691</v>
       </c>
       <c r="D232">
-        <v>63416.15643615847</v>
+        <v>61170.40983246695</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>234</v>
       </c>
       <c r="C233">
-        <v>10089.36834441897</v>
+        <v>11532.13973976829</v>
       </c>
       <c r="D233">
-        <v>115897.368344419</v>
+        <v>117340.1397397683</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>7135.252286973409</v>
+        <v>4476.094959166003</v>
       </c>
       <c r="D239">
-        <v>63440.25228697343</v>
+        <v>60781.09495916602</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>6204.541951846208</v>
+        <v>4361.836971827637</v>
       </c>
       <c r="D240">
-        <v>63837.54195184619</v>
+        <v>61994.83697182762</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>21854.29371228095</v>
+        <v>16527.20083080324</v>
       </c>
       <c r="D242">
-        <v>101568.293712281</v>
+        <v>96241.20083080328</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>28924.07105652633</v>
+        <v>31433.68414856061</v>
       </c>
       <c r="D246">
-        <v>117164.0710565264</v>
+        <v>119673.6841485607</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>21735.20014195163</v>
+        <v>20205.02579846355</v>
       </c>
       <c r="D253">
-        <v>85407.20014195167</v>
+        <v>83877.0257984636</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6706,10 +6706,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>19667.98266564592</v>
+        <v>20067.04004329901</v>
       </c>
       <c r="D256">
-        <v>96054.98266564588</v>
+        <v>96454.04004329897</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6762,10 +6762,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1466.498233688151</v>
       </c>
       <c r="D260">
-        <v>79157.99999999999</v>
+        <v>80624.49823368814</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6818,10 +6818,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>2496.350637967465</v>
+        <v>1326.60069477564</v>
       </c>
       <c r="D264">
-        <v>138346.3506379674</v>
+        <v>137176.6006947756</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>22040.36159286807</v>
+        <v>25456.78840154481</v>
       </c>
       <c r="D271">
-        <v>134865.3615928681</v>
+        <v>138281.7884015449</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>18610.59860212082</v>
+        <v>20460.33353694722</v>
       </c>
       <c r="D275">
-        <v>96092.59860212078</v>
+        <v>97942.33353694718</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>7528.663165875078</v>
+        <v>6202.80518352049</v>
       </c>
       <c r="D280">
-        <v>65076.66316587503</v>
+        <v>63750.80518352044</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7098,10 +7098,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>2737.577301266196</v>
+        <v>1452.18462321088</v>
       </c>
       <c r="D284">
-        <v>82011.57730126615</v>
+        <v>80726.18462321084</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>25672.75704599349</v>
+        <v>19779.36617710389</v>
       </c>
       <c r="D285">
-        <v>122540.7570459935</v>
+        <v>116647.3661771039</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>4353.614331732664</v>
+        <v>8620.824315795428</v>
       </c>
       <c r="D287">
-        <v>111245.6143317328</v>
+        <v>115512.8243157955</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>14955.57202438316</v>
+        <v>13862.78627405794</v>
       </c>
       <c r="D290">
-        <v>143625.5720243831</v>
+        <v>142532.7862740579</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>11858.06456245927</v>
+        <v>8917.962876155114</v>
       </c>
       <c r="D292">
-        <v>63414.06456245929</v>
+        <v>60473.96287615514</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>26540.18322705581</v>
+        <v>27164.68974112038</v>
       </c>
       <c r="D295">
-        <v>115028.1832270559</v>
+        <v>115652.6897411204</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>15180.43504422285</v>
+        <v>15718.40943358094</v>
       </c>
       <c r="D298">
-        <v>95335.4350442228</v>
+        <v>95873.40943358089</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7322,10 +7322,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>14311.12106258117</v>
+        <v>13382.26801447423</v>
       </c>
       <c r="D300">
-        <v>96521.12106258112</v>
+        <v>95592.26801447419</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7350,10 +7350,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>1670.882526682217</v>
+        <v>1172.407130780775</v>
       </c>
       <c r="D302">
-        <v>64103.88252668217</v>
+        <v>63605.40713078073</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>29891.89399371628</v>
+        <v>29888.85611726112</v>
       </c>
       <c r="D305">
-        <v>114067.8939937162</v>
+        <v>114064.8561172611</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>3699.740293760442</v>
+        <v>4506.416260404651</v>
       </c>
       <c r="D307">
-        <v>60424.74029376049</v>
+        <v>61231.41626040469</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>9460.373845076057</v>
+        <v>8941.853574828048</v>
       </c>
       <c r="D308">
-        <v>61858.37384507601</v>
+        <v>61339.853574828</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>18074.63587180477</v>
+        <v>17747.78775003013</v>
       </c>
       <c r="D310">
-        <v>136529.6358718048</v>
+        <v>136202.7877500301</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>7000.79542734284</v>
+        <v>4582.776616171526</v>
       </c>
       <c r="D311">
-        <v>63939.79542734285</v>
+        <v>61521.77661617154</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7602,10 +7602,10 @@
         <v>321</v>
       </c>
       <c r="C320">
-        <v>799.5281131878728</v>
+        <v>572.0939895634874</v>
       </c>
       <c r="D320">
-        <v>61812.5281131879</v>
+        <v>61585.09398956352</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7616,10 +7616,10 @@
         <v>322</v>
       </c>
       <c r="C321">
-        <v>1283.71440079555</v>
+        <v>0</v>
       </c>
       <c r="D321">
-        <v>84479.71440079548</v>
+        <v>83195.99999999993</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>326</v>
       </c>
       <c r="C325">
-        <v>12435.91648117313</v>
+        <v>13423.39255892266</v>
       </c>
       <c r="D325">
-        <v>95527.91648117307</v>
+        <v>96515.3925589226</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>18544.3382922829</v>
+        <v>17685.81645682052</v>
       </c>
       <c r="D327">
-        <v>82650.33829228289</v>
+        <v>81791.81645682051</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>3425.456747548917</v>
+        <v>2634.385486678075</v>
       </c>
       <c r="D329">
-        <v>98697.45674754884</v>
+        <v>97906.385486678</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>20428.03472809438</v>
+        <v>17038.19326650357</v>
       </c>
       <c r="D337">
-        <v>117544.0347280944</v>
+        <v>114154.1932665036</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>8327.351486977612</v>
+        <v>3290.862249159967</v>
       </c>
       <c r="D338">
-        <v>87149.35148697764</v>
+        <v>82112.86224916</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7882,10 +7882,10 @@
         <v>341</v>
       </c>
       <c r="C340">
-        <v>1042.002278350767</v>
+        <v>0</v>
       </c>
       <c r="D340">
-        <v>63590.00227835076</v>
+        <v>62547.99999999999</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>345</v>
       </c>
       <c r="C344">
-        <v>11145.8866041841</v>
+        <v>11092.39908417403</v>
       </c>
       <c r="D344">
-        <v>135305.8866041841</v>
+        <v>135252.399084174</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>8225.050199156627</v>
+        <v>8338.506133827323</v>
       </c>
       <c r="D355">
-        <v>142100.0501991566</v>
+        <v>142213.5061338273</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>10653.30686495145</v>
+        <v>5263.099724485714</v>
       </c>
       <c r="D361">
-        <v>101803.3068649515</v>
+        <v>96413.09972448574</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>7112.384102134034</v>
+        <v>8056.287265114137</v>
       </c>
       <c r="D364">
-        <v>97257.38410213408</v>
+        <v>98201.28726511418</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>22158.34261537669</v>
+        <v>21477.1972969778</v>
       </c>
       <c r="D368">
-        <v>139133.3426153767</v>
+        <v>138452.1972969778</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>4298.676872571639</v>
+        <v>4543.480369809084</v>
       </c>
       <c r="D369">
-        <v>136023.6768725716</v>
+        <v>136268.4803698091</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>374</v>
       </c>
       <c r="C373">
-        <v>6089.561852125815</v>
+        <v>5821.272286674372</v>
       </c>
       <c r="D373">
-        <v>114053.5618521258</v>
+        <v>113785.2722866744</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>383</v>
       </c>
       <c r="C382">
-        <v>17958.26444133836</v>
+        <v>16413.78153277557</v>
       </c>
       <c r="D382">
-        <v>82970.26444133838</v>
+        <v>81425.7815327756</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>11539.02400124082</v>
+        <v>7975.793482208668</v>
       </c>
       <c r="D390">
-        <v>99713.02400124083</v>
+        <v>96149.79348220868</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>28760.70218388276</v>
+        <v>24916.45571449319</v>
       </c>
       <c r="D394">
-        <v>100029.7021838827</v>
+        <v>96185.45571449313</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>28008.14427370865</v>
+        <v>27663.10424961719</v>
       </c>
       <c r="D398">
-        <v>114512.1442737087</v>
+        <v>114167.1042496172</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>20841.82876589255</v>
+        <v>20545.72154972475</v>
       </c>
       <c r="D402">
-        <v>81381.82876589257</v>
+        <v>81085.72154972477</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8778,10 +8778,10 @@
         <v>405</v>
       </c>
       <c r="C404">
-        <v>2906.759476235893</v>
+        <v>0</v>
       </c>
       <c r="D404">
-        <v>104103.7594762358</v>
+        <v>101196.9999999999</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>34110.3168713449</v>
+        <v>38474.11638182841</v>
       </c>
       <c r="D406">
-        <v>131785.3168713449</v>
+        <v>136149.1163818284</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>412</v>
       </c>
       <c r="C411">
-        <v>28723.519910135</v>
+        <v>33858.82095930139</v>
       </c>
       <c r="D411">
-        <v>115271.519910135</v>
+        <v>120406.8209593014</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8974,10 +8974,10 @@
         <v>419</v>
       </c>
       <c r="C418">
-        <v>22473.13817550617</v>
+        <v>22669.13557463595</v>
       </c>
       <c r="D418">
-        <v>100396.1381755062</v>
+        <v>100592.135574636</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9044,10 +9044,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>46159.62132573657</v>
+        <v>46061.57604920457</v>
       </c>
       <c r="D423">
-        <v>141734.6213257365</v>
+        <v>141636.5760492045</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>2609.464566475406</v>
+        <v>4534.441265765839</v>
       </c>
       <c r="D426">
-        <v>79129.46456647542</v>
+        <v>81054.44126576585</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>22751.19588977117</v>
+        <v>23033.67418292657</v>
       </c>
       <c r="D436">
-        <v>119295.1958897711</v>
+        <v>119577.6741829265</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>447</v>
       </c>
       <c r="C446">
-        <v>7382.582275216868</v>
+        <v>9072.764042981842</v>
       </c>
       <c r="D446">
-        <v>62152.58227521688</v>
+        <v>63842.76404298185</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9422,10 +9422,10 @@
         <v>451</v>
       </c>
       <c r="C450">
-        <v>410.8460068311397</v>
+        <v>0</v>
       </c>
       <c r="D450">
-        <v>84504.84600683107</v>
+        <v>84093.99999999993</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9436,10 +9436,10 @@
         <v>452</v>
       </c>
       <c r="C451">
-        <v>15637.38785551851</v>
+        <v>19005.2516960864</v>
       </c>
       <c r="D451">
-        <v>97241.38785551849</v>
+        <v>100609.2516960864</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>15947.21407566901</v>
+        <v>15422.80498128003</v>
       </c>
       <c r="D452">
-        <v>101253.2140756691</v>
+        <v>100728.8049812801</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>27090.94283181991</v>
+        <v>25980.66997069442</v>
       </c>
       <c r="D454">
-        <v>116610.9428318199</v>
+        <v>115500.6699706944</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>457</v>
       </c>
       <c r="C456">
-        <v>33050.54605460045</v>
+        <v>35080.77531025204</v>
       </c>
       <c r="D456">
-        <v>113442.5460546004</v>
+        <v>115472.775310252</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9576,10 +9576,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>18348.57549007225</v>
+        <v>21404.0739537279</v>
       </c>
       <c r="D461">
-        <v>135783.5754900723</v>
+        <v>138839.073953728</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>23540.59040760629</v>
+        <v>22437.48555660897</v>
       </c>
       <c r="D462">
-        <v>101880.5904076063</v>
+        <v>100777.485556609</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>16122.17552762496</v>
+        <v>14605.38501440563</v>
       </c>
       <c r="D474">
-        <v>82442.175527625</v>
+        <v>80925.38501440568</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>5449.611800024293</v>
+        <v>7268.911344422268</v>
       </c>
       <c r="D481">
-        <v>60204.61180002432</v>
+        <v>62023.91134442229</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>39771.07445919351</v>
+        <v>40527.58334839411</v>
       </c>
       <c r="D484">
-        <v>133766.0744591935</v>
+        <v>134522.5833483941</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>29064.65587625979</v>
+        <v>33330.77902883886</v>
       </c>
       <c r="D486">
-        <v>115828.6558762598</v>
+        <v>120094.7790288388</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>489</v>
       </c>
       <c r="C488">
-        <v>18094.99967863557</v>
+        <v>15654.61737897683</v>
       </c>
       <c r="D488">
-        <v>83284.99967863559</v>
+        <v>80844.61737897685</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>491</v>
       </c>
       <c r="C490">
-        <v>7252.247474516713</v>
+        <v>6541.019813080187</v>
       </c>
       <c r="D490">
-        <v>80354.24747451668</v>
+        <v>79643.01981308016</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>96282.00000000007</v>
+        <v>86282.00000000003</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>136099.9999999999</v>
+        <v>126100</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10164,10 +10164,10 @@
         <v>504</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>920.3924790095916</v>
       </c>
       <c r="D503">
-        <v>89665.99999999994</v>
+        <v>80586.39247900953</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>181289.9999999999</v>
+        <v>171290</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>5286.189107385188</v>
+        <v>14447.30448553657</v>
       </c>
       <c r="D505">
-        <v>80892.18910738517</v>
+        <v>80053.30448553659</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10206,10 +10206,10 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>10692.91181560708</v>
+        <v>20118.12503030162</v>
       </c>
       <c r="D506">
-        <v>62443.91181560711</v>
+        <v>61869.12503030163</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>91950.00000000007</v>
+        <v>81949.99999999997</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>129370.0000000001</v>
+        <v>119370</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>170070.0000000001</v>
+        <v>160070</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>81959.00000000006</v>
+        <v>71959.00000000006</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>77945.99999999997</v>
+        <v>67945.99999999997</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>86671.99999999999</v>
+        <v>76671.99999999997</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>98702.00000000006</v>
+        <v>88702.00000000003</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>153029.9999999999</v>
+        <v>143030.0000000001</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>29052.5896555628</v>
+        <v>35562.83422982467</v>
       </c>
       <c r="D515">
-        <v>141512.5896555628</v>
+        <v>138022.8342298247</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>86258</v>
+        <v>76258.00000000003</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>125108</v>
+        <v>115108.0000000001</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>123082</v>
+        <v>113082</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>109312</v>
+        <v>99311.99999999994</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>521</v>
       </c>
       <c r="C520">
-        <v>8088.797580586703</v>
+        <v>18449.66235529399</v>
       </c>
       <c r="D520">
-        <v>80794.79758058676</v>
+        <v>81155.66235529401</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>75049.99999999994</v>
+        <v>65050.00000000006</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10430,10 +10430,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>9257.270671329607</v>
+        <v>15362.76831413199</v>
       </c>
       <c r="D522">
-        <v>82179.27067132966</v>
+        <v>78284.76831413202</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>132473</v>
+        <v>122473.0000000001</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>179199.9999999999</v>
+        <v>169200</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>69914.00000000001</v>
+        <v>59913.99999999999</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>126000.0000000001</v>
+        <v>116000.0000000001</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>134156</v>
+        <v>124156.0000000001</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>192075</v>
+        <v>182075.0000000001</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>293.8183718848013</v>
+        <v>4497.88655557223</v>
       </c>
       <c r="D529">
-        <v>86989.81837188484</v>
+        <v>81193.8865555723</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>168100.0000000001</v>
+        <v>158100</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>67186.00000000003</v>
+        <v>57185.99999999996</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>85952.00000000006</v>
+        <v>75952.00000000003</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>128503</v>
+        <v>118502.9999999999</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10598,10 +10598,10 @@
         <v>535</v>
       </c>
       <c r="C534">
-        <v>8576.484003778678</v>
+        <v>15614.19221625134</v>
       </c>
       <c r="D534">
-        <v>61525.48400377865</v>
+        <v>58563.19221625137</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>536</v>
       </c>
       <c r="C535">
-        <v>24571.12411762676</v>
+        <v>27755.24653780091</v>
       </c>
       <c r="D535">
-        <v>138326.1241176268</v>
+        <v>131510.2465378009</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>537</v>
       </c>
       <c r="C536">
-        <v>9778.130302357153</v>
+        <v>16124.98907175621</v>
       </c>
       <c r="D536">
-        <v>82006.13030235709</v>
+        <v>78352.98907175627</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>76827.00000000001</v>
+        <v>66826.99999999996</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>19460.55551780529</v>
+        <v>23966.03032554538</v>
       </c>
       <c r="D538">
-        <v>116720.5555178053</v>
+        <v>111226.0303255453</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>78416</v>
+        <v>68416.00000000003</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>188140.0000000001</v>
+        <v>178139.9999999999</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>146530.0000000001</v>
+        <v>136530.0000000001</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>94712.00000000003</v>
+        <v>84712.00000000003</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>95582</v>
+        <v>85582</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>148409.9999999999</v>
+        <v>138410.0000000001</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>134477.0000000001</v>
+        <v>124477.0000000001</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10766,10 +10766,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>12831.21839081957</v>
+        <v>16997.48116057219</v>
       </c>
       <c r="D546">
-        <v>121067.2183908196</v>
+        <v>115233.4811605722</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>65582.99999999996</v>
+        <v>55583.00000000001</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10794,10 +10794,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>11062.05457993947</v>
+        <v>15405.57325812976</v>
       </c>
       <c r="D548">
-        <v>63752.05457993942</v>
+        <v>58095.57325812973</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>94587.99999999994</v>
+        <v>84588.00000000001</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>72059.99999999999</v>
+        <v>62060.00000000003</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>62653.99999999996</v>
+        <v>52653.99999999999</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>116453</v>
+        <v>106453</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>113400</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>116876.0000000001</v>
+        <v>106876</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>10890.55821141349</v>
+        <v>9293.395030721818</v>
       </c>
       <c r="D555">
-        <v>104815.5582114135</v>
+        <v>93218.39503072185</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>133136.0000000001</v>
+        <v>123136</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>100844.0000000001</v>
+        <v>90844.00000000001</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>154428</v>
+        <v>144428.0000000001</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>124292</v>
+        <v>114291.9999999999</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>79440.99999999994</v>
+        <v>69440.99999999999</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>116131.9999999999</v>
+        <v>106132.0000000001</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>86791.99999999996</v>
+        <v>76792.00000000006</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11004,10 +11004,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>24416.54632978419</v>
+        <v>28223.75294498606</v>
       </c>
       <c r="D563">
-        <v>99591.54632978415</v>
+        <v>93398.7529449861</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>160545.0000000001</v>
+        <v>150544.9999999999</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11032,10 +11032,10 @@
         <v>566</v>
       </c>
       <c r="C565">
-        <v>1316.859626634367</v>
+        <v>5694.152498162686</v>
       </c>
       <c r="D565">
-        <v>136751.8596266345</v>
+        <v>131129.1524981627</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>176184.9999999999</v>
+        <v>166185.0000000001</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>105379.9999999999</v>
+        <v>95380.00000000006</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11074,10 +11074,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>3638.186745840045</v>
+        <v>10526.7375851773</v>
       </c>
       <c r="D568">
-        <v>61649.18674584005</v>
+        <v>58537.7375851773</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>141300.0000000001</v>
+        <v>131299.9999999999</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11102,10 +11102,10 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>7940.956632267669</v>
+        <v>12031.40957373309</v>
       </c>
       <c r="D570">
-        <v>64787.95663226763</v>
+        <v>58878.40957373306</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11116,10 +11116,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>34850.38643274286</v>
+        <v>39879.79735307449</v>
       </c>
       <c r="D571">
-        <v>115762.3864327429</v>
+        <v>110791.7973530745</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>71586</v>
+        <v>61585.99999999996</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>199495.0000000001</v>
+        <v>189495.0000000001</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>186795.0000000001</v>
+        <v>176795.0000000001</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>118076</v>
+        <v>108075.9999999999</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>140635.0000000001</v>
+        <v>130634.9999999999</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>92314.99999999997</v>
+        <v>82314.99999999996</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>142952</v>
+        <v>132952</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="D579">
-        <v>76812.00000000003</v>
+        <v>66812</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>85590.00000000007</v>
+        <v>75590.00000000001</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>138863.9999999999</v>
+        <v>128864.0000000001</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>152975.9999999999</v>
+        <v>142976.0000000001</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>146769.9999999999</v>
+        <v>136769.9999999999</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>152639.9999999999</v>
+        <v>142640</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>86449.99999999999</v>
+        <v>76450.00000000001</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>174055.0000000001</v>
+        <v>164055</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11340,10 +11340,10 @@
         <v>588</v>
       </c>
       <c r="C587">
-        <v>42190.05060655907</v>
+        <v>48792.28432368218</v>
       </c>
       <c r="D587">
-        <v>136960.0506065591</v>
+        <v>133562.2843236823</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>154615</v>
+        <v>144615</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>113644</v>
+        <v>103644</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>64311</v>
+        <v>54311</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11396,10 +11396,10 @@
         <v>592</v>
       </c>
       <c r="C591">
-        <v>9869.998697968316</v>
+        <v>12300.21515609612</v>
       </c>
       <c r="D591">
-        <v>139749.9986979684</v>
+        <v>132180.2151560962</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>120230.0000000001</v>
+        <v>110230</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11424,10 +11424,10 @@
         <v>594</v>
       </c>
       <c r="C593">
-        <v>5046.772333238048</v>
+        <v>9861.434167755382</v>
       </c>
       <c r="D593">
-        <v>63577.77233323804</v>
+        <v>58392.43416775537</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>62944.00000000001</v>
+        <v>52943.99999999996</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>96071.99999999997</v>
+        <v>86071.99999999999</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>164360</v>
+        <v>154360</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11480,10 +11480,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>88.63040603362606</v>
+        <v>5286.128025188074</v>
       </c>
       <c r="D597">
-        <v>63513.63040603357</v>
+        <v>58711.1280251881</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>136595</v>
+        <v>126595</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11508,10 +11508,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>12186.95657214457</v>
+        <v>13881.9576473585</v>
       </c>
       <c r="D599">
-        <v>100597.9565721445</v>
+        <v>92292.95764735855</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>91508.00000000007</v>
+        <v>81508.00000000004</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11536,10 +11536,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>14133.70693426827</v>
+        <v>14003.81121646319</v>
       </c>
       <c r="D601">
-        <v>102148.7069342683</v>
+        <v>92018.81121646323</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>152600.0000000001</v>
+        <v>142599.9999999999</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11564,10 +11564,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>13751.99931431872</v>
+        <v>22037.76722561065</v>
       </c>
       <c r="D603">
-        <v>100158.9993143188</v>
+        <v>93444.76722561069</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11578,10 +11578,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>0</v>
+        <v>7662.667716987926</v>
       </c>
       <c r="D604">
-        <v>88583.99999999996</v>
+        <v>81246.66771698787</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11592,10 +11592,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>9916.765828362899</v>
+        <v>20685.44685693202</v>
       </c>
       <c r="D605">
-        <v>65579.76582836288</v>
+        <v>61348.44685693199</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>73274.00000000001</v>
+        <v>58274</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11620,10 +11620,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>0</v>
+        <v>7326.452958808688</v>
       </c>
       <c r="D607">
-        <v>88861.99999999999</v>
+        <v>81188.45295880863</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11634,10 +11634,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>4516.681686007927</v>
+        <v>13279.65566312266</v>
       </c>
       <c r="D608">
-        <v>100913.681686008</v>
+        <v>94676.65566312266</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <v>99217.99999999996</v>
+        <v>84218.00000000006</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11662,10 +11662,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>9387.628766332957</v>
+        <v>21083.79848658338</v>
       </c>
       <c r="D610">
-        <v>62238.62876633298</v>
+        <v>58934.79848658338</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11676,10 +11676,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>0</v>
+        <v>778.561960806459</v>
       </c>
       <c r="D611">
-        <v>108780.9999999999</v>
+        <v>94559.56196080652</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>70593</v>
+        <v>55592.99999999999</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>137388.0000000001</v>
+        <v>122388</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11718,10 +11718,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>20428.90522844577</v>
+        <v>23588.35335589696</v>
       </c>
       <c r="D614">
-        <v>145553.9052284457</v>
+        <v>133713.353355897</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>76983.00000000004</v>
+        <v>61982.99999999999</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>88616.00000000007</v>
+        <v>73616.00000000003</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <v>81130.00000000003</v>
+        <v>66130.00000000006</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="D618">
-        <v>153120</v>
+        <v>138120</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="D619">
-        <v>127027.9999999999</v>
+        <v>112028.0000000001</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>71961.99999999999</v>
+        <v>56962.00000000004</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>139441.9999999999</v>
+        <v>124442.0000000001</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>95015.99999999997</v>
+        <v>80016.00000000007</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>170959.9999999999</v>
+        <v>155960</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11858,10 +11858,10 @@
         <v>625</v>
       </c>
       <c r="C624">
-        <v>5808.736294690418</v>
+        <v>7993.888573907083</v>
       </c>
       <c r="D624">
-        <v>105058.7362946904</v>
+        <v>92243.88857390704</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11872,10 +11872,10 @@
         <v>626</v>
       </c>
       <c r="C625">
-        <v>0</v>
+        <v>2714.937754650906</v>
       </c>
       <c r="D625">
-        <v>93202.00000000001</v>
+        <v>80916.93775465091</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>100192.0000000001</v>
+        <v>85192.00000000003</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>173715.0000000001</v>
+        <v>158715.0000000001</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>124215</v>
+        <v>109215.0000000001</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>157035.0000000001</v>
+        <v>142035</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>101150.0000000001</v>
+        <v>86150.00000000003</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="D631">
-        <v>89342.00000000007</v>
+        <v>189341.9999999998</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11970,10 +11970,10 @@
         <v>633</v>
       </c>
       <c r="C632">
-        <v>43252.26678157147</v>
+        <v>0</v>
       </c>
       <c r="D632">
-        <v>145317.2667815714</v>
+        <v>142064.9999999999</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="D633">
-        <v>88762.00000000006</v>
+        <v>188762</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -11998,10 +11998,10 @@
         <v>635</v>
       </c>
       <c r="C634">
-        <v>109.8983419517899</v>
+        <v>0</v>
       </c>
       <c r="D634">
-        <v>67151.89834195175</v>
+        <v>67041.99999999996</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12026,10 +12026,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>14882.82572474841</v>
+        <v>11213.05669901986</v>
       </c>
       <c r="D636">
-        <v>81956.8257247484</v>
+        <v>78287.05669901984</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12068,10 +12068,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>7736.074246644261</v>
+        <v>3197.096353240544</v>
       </c>
       <c r="D639">
-        <v>81662.07424664432</v>
+        <v>77123.0963532406</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12096,10 +12096,10 @@
         <v>642</v>
       </c>
       <c r="C641">
-        <v>226.9632133365376</v>
+        <v>0</v>
       </c>
       <c r="D641">
-        <v>102602.9632133366</v>
+        <v>102376.0000000001</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12180,10 +12180,10 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>7334.530957532785</v>
+        <v>0</v>
       </c>
       <c r="D647">
-        <v>105027.5309575327</v>
+        <v>97692.99999999993</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12292,10 +12292,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>16882.1288586444</v>
+        <v>9655.518046574231</v>
       </c>
       <c r="D655">
-        <v>88414.12885864436</v>
+        <v>81187.51804657419</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12362,10 +12362,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>8428.663681698206</v>
+        <v>815.9408419718384</v>
       </c>
       <c r="D660">
-        <v>86174.66368169818</v>
+        <v>78561.94084197181</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12418,10 +12418,10 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>32316.03067595398</v>
+        <v>28228.70236962824</v>
       </c>
       <c r="D664">
-        <v>116888.0306759539</v>
+        <v>112800.7023696282</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12432,10 +12432,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>28053.4194877191</v>
+        <v>19482.05604970956</v>
       </c>
       <c r="D665">
-        <v>139318.4194877191</v>
+        <v>130747.0560497095</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12474,10 +12474,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>1511.799388452055</v>
+        <v>0</v>
       </c>
       <c r="D668">
-        <v>98499.79938845197</v>
+        <v>96987.99999999991</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12502,10 +12502,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>11897.60552313606</v>
+        <v>8711.243578454974</v>
       </c>
       <c r="D670">
-        <v>63120.60552313604</v>
+        <v>59934.24357845495</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12516,10 +12516,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>16339.08841137252</v>
+        <v>11647.41921591247</v>
       </c>
       <c r="D671">
-        <v>120863.0884113726</v>
+        <v>116171.4192159125</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12530,10 +12530,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>16123.91205367845</v>
+        <v>11210.65512725126</v>
       </c>
       <c r="D672">
-        <v>138508.9120536784</v>
+        <v>133595.6551272512</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12558,10 +12558,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>2117.854643892977</v>
+        <v>0</v>
       </c>
       <c r="D674">
-        <v>79809.85464389301</v>
+        <v>77692.00000000003</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12600,10 +12600,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>14583.88368948571</v>
+        <v>6200.203293502724</v>
       </c>
       <c r="D677">
-        <v>121151.8836894857</v>
+        <v>112768.2032935027</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12614,10 +12614,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>5485.103106043418</v>
+        <v>0</v>
       </c>
       <c r="D678">
-        <v>63928.1031060434</v>
+        <v>58442.99999999999</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12670,10 +12670,10 @@
         <v>683</v>
       </c>
       <c r="C682">
-        <v>1543.690946379778</v>
+        <v>0</v>
       </c>
       <c r="D682">
-        <v>99299.69094637978</v>
+        <v>97756</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12726,10 +12726,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>28804.05701342151</v>
+        <v>19064.48895572111</v>
       </c>
       <c r="D686">
-        <v>119624.0570134215</v>
+        <v>109884.4889557211</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12740,10 +12740,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>4645.241509305808</v>
+        <v>0</v>
       </c>
       <c r="D687">
-        <v>83251.24150930576</v>
+        <v>78605.99999999996</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12768,10 +12768,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>12987.17208232047</v>
+        <v>7416.94846809654</v>
       </c>
       <c r="D689">
-        <v>84515.17208232051</v>
+        <v>78944.94846809658</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12894,10 +12894,10 @@
         <v>699</v>
       </c>
       <c r="C698">
-        <v>25182.10913547533</v>
+        <v>19453.75527307452</v>
       </c>
       <c r="D698">
-        <v>99478.10913547529</v>
+        <v>93749.75527307448</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12950,10 +12950,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>1629.994903680468</v>
+        <v>0</v>
       </c>
       <c r="D702">
-        <v>63255.99490368048</v>
+        <v>61626.00000000001</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -13104,10 +13104,10 @@
         <v>714</v>
       </c>
       <c r="C713">
-        <v>104.8011791309109</v>
+        <v>0</v>
       </c>
       <c r="D713">
-        <v>65228.80117913089</v>
+        <v>65123.99999999998</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13188,10 +13188,10 @@
         <v>720</v>
       </c>
       <c r="C719">
-        <v>6677.82141813224</v>
+        <v>1624.007691449369</v>
       </c>
       <c r="D719">
-        <v>86219.82141813225</v>
+        <v>81166.00769144938</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13202,10 +13202,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>8529.920894292023</v>
+        <v>3528.703294981795</v>
       </c>
       <c r="D720">
-        <v>63565.92089429204</v>
+        <v>58564.70329498182</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13454,10 +13454,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>23768.83322640175</v>
+        <v>21192.38614975463</v>
       </c>
       <c r="D738">
-        <v>96633.83322640174</v>
+        <v>94057.38614975462</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13468,10 +13468,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>27756.24868014613</v>
+        <v>27963.36380645754</v>
       </c>
       <c r="D739">
-        <v>134126.2486801461</v>
+        <v>134333.3638064575</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13482,10 +13482,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>18205.47453289661</v>
+        <v>17800.45281324961</v>
       </c>
       <c r="D740">
-        <v>80231.47453289664</v>
+        <v>79826.45281324963</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13496,10 +13496,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>8041.941277655307</v>
+        <v>7232.268827180102</v>
       </c>
       <c r="D741">
-        <v>62594.9412776553</v>
+        <v>61785.26882718009</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13538,10 +13538,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>11152.44891581795</v>
+        <v>8961.872136593971</v>
       </c>
       <c r="D744">
-        <v>95162.44891581798</v>
+        <v>92971.872136594</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13552,10 +13552,10 @@
         <v>746</v>
       </c>
       <c r="C745">
-        <v>2282.291164482071</v>
+        <v>4533.415681009268</v>
       </c>
       <c r="D745">
-        <v>113874.2911644821</v>
+        <v>116125.4156810093</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13608,10 +13608,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>7216.804104406954</v>
+        <v>5945.645716826373</v>
       </c>
       <c r="D749">
-        <v>87162.80410440691</v>
+        <v>85891.64571682633</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13650,10 +13650,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>52860.31087891906</v>
+        <v>52449.63201397302</v>
       </c>
       <c r="D752">
-        <v>145400.3108789191</v>
+        <v>144989.632013973</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13748,10 +13748,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>501.3276952214364</v>
+        <v>0</v>
       </c>
       <c r="D759">
-        <v>85991.32769522142</v>
+        <v>85489.99999999999</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13790,10 +13790,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>10407.24932552098</v>
+        <v>8671.149702241353</v>
       </c>
       <c r="D762">
-        <v>122031.249325521</v>
+        <v>120295.1497022413</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13860,10 +13860,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>41065.86649369748</v>
+        <v>46008.20392942836</v>
       </c>
       <c r="D767">
-        <v>138915.8664936975</v>
+        <v>143858.2039294284</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -14056,10 +14056,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>349.5667290187266</v>
+        <v>4112.563510847627</v>
       </c>
       <c r="D781">
-        <v>140524.5667290188</v>
+        <v>144287.5635108477</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14098,10 +14098,10 @@
         <v>785</v>
       </c>
       <c r="C784">
-        <v>5126.286910003531</v>
+        <v>0</v>
       </c>
       <c r="D784">
-        <v>101715.2869100035</v>
+        <v>146589.0000000001</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14182,10 +14182,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>16199.68363220985</v>
+        <v>14115.04604372189</v>
       </c>
       <c r="D790">
-        <v>103938.6836322098</v>
+        <v>101854.0460437219</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14238,10 +14238,10 @@
         <v>795</v>
       </c>
       <c r="C794">
-        <v>55509.76844122418</v>
+        <v>55668.0733241635</v>
       </c>
       <c r="D794">
-        <v>146039.7684412241</v>
+        <v>146198.0733241634</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14294,10 +14294,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>4784.149407285498</v>
+        <v>2838.952663738106</v>
       </c>
       <c r="D798">
-        <v>67420.14940728554</v>
+        <v>65474.95266373815</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14350,10 +14350,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>4201.111115407082</v>
+        <v>48.88856535048399</v>
       </c>
       <c r="D802">
-        <v>106646.1111154071</v>
+        <v>102493.8885653505</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14378,10 +14378,10 @@
         <v>805</v>
       </c>
       <c r="C804">
-        <v>34933.01131489158</v>
+        <v>40103.32322043616</v>
       </c>
       <c r="D804">
-        <v>121653.0113148916</v>
+        <v>126823.3232204361</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14448,10 +14448,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>4153.388719154405</v>
+        <v>3862.907312797717</v>
       </c>
       <c r="D809">
-        <v>65092.38871915443</v>
+        <v>64801.90731279775</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14476,10 +14476,10 @@
         <v>812</v>
       </c>
       <c r="C811">
-        <v>12401.46429702528</v>
+        <v>12179.42576872064</v>
       </c>
       <c r="D811">
-        <v>64457.46429702528</v>
+        <v>64235.42576872065</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14490,10 +14490,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>3400.928665829328</v>
+        <v>5647.112481807679</v>
       </c>
       <c r="D812">
-        <v>65120.92866582934</v>
+        <v>67367.11248180769</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14504,10 +14504,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>32365.11735547446</v>
+        <v>30508.09065830013</v>
       </c>
       <c r="D813">
-        <v>122477.1173554744</v>
+        <v>120620.0906583001</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14574,10 +14574,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>19751.74478841647</v>
+        <v>21963.42858138304</v>
       </c>
       <c r="D818">
-        <v>125067.7447884164</v>
+        <v>127279.4285813829</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14630,10 +14630,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>15731.48078391924</v>
+        <v>17033.95533119672</v>
       </c>
       <c r="D822">
-        <v>102468.4807839193</v>
+        <v>103770.9553311968</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14644,10 +14644,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>9279.59271840853</v>
+        <v>6557.852391878449</v>
       </c>
       <c r="D823">
-        <v>89555.59271840856</v>
+        <v>86833.85239187848</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14658,10 +14658,10 @@
         <v>825</v>
       </c>
       <c r="C824">
-        <v>401.1207646969197</v>
+        <v>65.86786503032636</v>
       </c>
       <c r="D824">
-        <v>65155.12076469689</v>
+        <v>64819.8678650303</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14700,10 +14700,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>2632.15047434665</v>
+        <v>3564.387895659165</v>
       </c>
       <c r="D827">
-        <v>64724.15047434661</v>
+        <v>65656.38789565912</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14728,10 +14728,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>13459.05416936065</v>
+        <v>12850.66241602063</v>
       </c>
       <c r="D829">
-        <v>104660.0541693606</v>
+        <v>104051.6624160206</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14742,10 +14742,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>1208.071766891124</v>
+        <v>0</v>
       </c>
       <c r="D830">
-        <v>62206.07176689112</v>
+        <v>130998</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14756,10 +14756,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>40800.93871554287</v>
+        <v>0</v>
       </c>
       <c r="D831">
-        <v>143855.9387155428</v>
+        <v>153055.0000000001</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="D832">
-        <v>146456.0000000001</v>
+        <v>186455.9999999999</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14798,10 +14798,10 @@
         <v>835</v>
       </c>
       <c r="C834">
-        <v>9552.260632767386</v>
+        <v>0</v>
       </c>
       <c r="D834">
-        <v>101650.2606327674</v>
+        <v>172097.9999999999</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14868,10 +14868,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>18592.70861845944</v>
+        <v>19191.1985241013</v>
       </c>
       <c r="D839">
-        <v>101666.7086184595</v>
+        <v>102265.1985241014</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14882,10 +14882,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>2010.705018321431</v>
+        <v>0</v>
       </c>
       <c r="D840">
-        <v>103654.7050183214</v>
+        <v>101644</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14924,10 +14924,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>7355.906379208027</v>
+        <v>7487.570886417045</v>
       </c>
       <c r="D843">
-        <v>85321.90637920807</v>
+        <v>85453.57088641709</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14952,10 +14952,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>9395.145114486368</v>
+        <v>11699.44063395617</v>
       </c>
       <c r="D845">
-        <v>139750.1451144863</v>
+        <v>142054.4406339561</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14966,10 +14966,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>36366.59845229672</v>
+        <v>39231.24633299801</v>
       </c>
       <c r="D846">
-        <v>143591.5984522967</v>
+        <v>146456.246332998</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15022,10 +15022,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>30649.05433088151</v>
+        <v>29693.51772048078</v>
       </c>
       <c r="D850">
-        <v>104570.0543308815</v>
+        <v>103614.5177204808</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15134,10 +15134,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>6976.652705634755</v>
+        <v>5441.836921824535</v>
       </c>
       <c r="D858">
-        <v>66082.65270563474</v>
+        <v>64547.83692182452</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15148,10 +15148,10 @@
         <v>860</v>
       </c>
       <c r="C859">
-        <v>14198.24008433633</v>
+        <v>14661.5884734124</v>
       </c>
       <c r="D859">
-        <v>85312.2400843363</v>
+        <v>85775.58847341237</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15218,10 +15218,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>6977.56686316694</v>
+        <v>6503.097615662162</v>
       </c>
       <c r="D864">
-        <v>102552.5668631669</v>
+        <v>102078.0976156621</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15274,10 +15274,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>10040.72182402588</v>
+        <v>10905.04518108539</v>
       </c>
       <c r="D868">
-        <v>63895.72182402586</v>
+        <v>64760.04518108537</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15288,10 +15288,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>9476.878987565186</v>
+        <v>10124.78943779312</v>
       </c>
       <c r="D869">
-        <v>87896.87898756521</v>
+        <v>88544.78943779315</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15330,10 +15330,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>1997.66123017975</v>
+        <v>2536.299910934635</v>
       </c>
       <c r="D872">
-        <v>63478.66123017976</v>
+        <v>64017.29991093464</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15344,10 +15344,10 @@
         <v>874</v>
       </c>
       <c r="C873">
-        <v>13355.92256956889</v>
+        <v>14592.54646776729</v>
       </c>
       <c r="D873">
-        <v>84063.92256956891</v>
+        <v>85300.5464677673</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15372,10 +15372,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>28045.53268062844</v>
+        <v>28226.62879211902</v>
       </c>
       <c r="D875">
-        <v>101603.5326806284</v>
+        <v>101784.628792119</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15428,10 +15428,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>18862.41721517412</v>
+        <v>22409.57975667607</v>
       </c>
       <c r="D879">
-        <v>82052.41721517412</v>
+        <v>85599.57975667607</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15484,10 +15484,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>1811.066837660059</v>
+        <v>2918.021194867957</v>
       </c>
       <c r="D883">
-        <v>63513.06683766011</v>
+        <v>64620.02119486801</v>
       </c>
     </row>
     <row r="884" spans="1:4">

--- a/budget_pv.xlsx
+++ b/budget_pv.xlsx
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>92684.99999999994</v>
+        <v>92684</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>8719.911478120252</v>
+        <v>8812</v>
       </c>
       <c r="D4">
-        <v>80131.91147812027</v>
+        <v>80224</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>111198.9999999999</v>
+        <v>111198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>184684.9999999999</v>
+        <v>184684</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>83322.00000000007</v>
+        <v>83322</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>23855.20784931099</v>
+        <v>23989</v>
       </c>
       <c r="D9">
-        <v>99501.20784931105</v>
+        <v>99635</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>12447.25036425582</v>
+        <v>12396</v>
       </c>
       <c r="D10">
-        <v>63661.25036425584</v>
+        <v>63610</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>114484.0000000001</v>
+        <v>114484</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>102013.9999999999</v>
+        <v>102013</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>124988.0000000001</v>
+        <v>124988</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>171925</v>
+        <v>171924</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>75810.00000000001</v>
+        <v>75810</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>186480</v>
+        <v>186479</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>176414.9999999999</v>
+        <v>176414</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>168344.9999999999</v>
+        <v>168344</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>72406.00000000006</v>
+        <v>72406</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>95690.00000000009</v>
+        <v>95690</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>150840.0000000001</v>
+        <v>150840</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>79165.99999999994</v>
+        <v>79165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>76401.00000000001</v>
+        <v>76401</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>75208.00000000004</v>
+        <v>75208</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>163105.0000000001</v>
+        <v>163105</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>159420.0000000001</v>
+        <v>159420</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>121312</v>
+        <v>121311</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>116638</v>
+        <v>116637</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>97603.00000000001</v>
+        <v>97603</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>14611.58810574947</v>
+        <v>14424</v>
       </c>
       <c r="D31">
-        <v>81181.5881057495</v>
+        <v>80994</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3584,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>19132.10719366272</v>
+        <v>19036</v>
       </c>
       <c r="D33">
-        <v>80186.10719366274</v>
+        <v>80090</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>24958.691659013</v>
+        <v>25185</v>
       </c>
       <c r="D34">
-        <v>115362.6916590131</v>
+        <v>115589</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>26596.05190665965</v>
+        <v>26583</v>
       </c>
       <c r="D35">
-        <v>96641.05190665965</v>
+        <v>96628</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>87988.00000000001</v>
+        <v>87988</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>2508.942130712021</v>
+        <v>2359</v>
       </c>
       <c r="D38">
-        <v>100543.9421307121</v>
+        <v>100394</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>165096</v>
+        <v>165095</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>87259.99999999994</v>
+        <v>87259</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>78218.00000000004</v>
+        <v>78218</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>141310.0000000001</v>
+        <v>141310</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>107451.9999999999</v>
+        <v>107451</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>82844.00000000007</v>
+        <v>82844</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>183260.0000000001</v>
+        <v>183260</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>125060</v>
+        <v>125059</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>96992.00000000004</v>
+        <v>96992</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>165650.0000000001</v>
+        <v>165650</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>126095.0000000001</v>
+        <v>126095</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>77235.00000000003</v>
+        <v>77235</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>150149.9999999999</v>
+        <v>150149</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>92787.99999999996</v>
+        <v>92787</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>124960.0000000001</v>
+        <v>124960</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>79791.99999999993</v>
+        <v>79791</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>102547.9999999999</v>
+        <v>102547</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>78785.00000000003</v>
+        <v>78785</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>137579.9999999999</v>
+        <v>137579</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>13376.97093420183</v>
+        <v>13505</v>
       </c>
       <c r="D68">
-        <v>96393.9709342018</v>
+        <v>96521</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>184709.9999999998</v>
+        <v>184709</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>62310.00000000001</v>
+        <v>62310</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>9689.037109271005</v>
+        <v>9625</v>
       </c>
       <c r="D71">
-        <v>63493.037109271</v>
+        <v>63428</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>5076.620251018918</v>
+        <v>5100</v>
       </c>
       <c r="D72">
-        <v>80344.62025101895</v>
+        <v>80368</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>6015.013958031283</v>
+        <v>5893</v>
       </c>
       <c r="D74">
-        <v>137075.0139580313</v>
+        <v>136952</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>96331.99999999993</v>
+        <v>96331</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>156544</v>
+        <v>156543</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>64391.00000000002</v>
+        <v>64391</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>183785.0000000001</v>
+        <v>183785</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>75738.99999999994</v>
+        <v>75738</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>163029.9999999999</v>
+        <v>163029</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>70073.00000000004</v>
+        <v>70073</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>15998.74869563913</v>
+        <v>16096</v>
       </c>
       <c r="D84">
-        <v>80534.74869563915</v>
+        <v>80632</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>61189.00000000001</v>
+        <v>61189</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>13088.06140286278</v>
+        <v>13027</v>
       </c>
       <c r="D86">
-        <v>63823.0614028628</v>
+        <v>63762</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>90012.00000000003</v>
+        <v>90012</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>71232.00000000004</v>
+        <v>71232</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>70271.00000000003</v>
+        <v>70271</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>12756.57967474872</v>
+        <v>12814</v>
       </c>
       <c r="D90">
-        <v>138701.5796747486</v>
+        <v>138758</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>99270.99999999993</v>
+        <v>99270</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>115055.9999999999</v>
+        <v>115055</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>65642.00000000001</v>
+        <v>65642</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>86121.99999999996</v>
+        <v>86121</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>157876</v>
+        <v>157875</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>120700.0000000001</v>
+        <v>120700</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>145859.9999999999</v>
+        <v>145859</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>169688.0000000001</v>
+        <v>169688</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>67321.00000000004</v>
+        <v>67321</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>168871.9999999999</v>
+        <v>168871</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>101380</v>
+        <v>101379</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>97395.00000000007</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>77497.00000000001</v>
+        <v>77497</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>80032.00000000006</v>
+        <v>80032</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>139660.0000000001</v>
+        <v>139660</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>81798.00000000006</v>
+        <v>81798</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>171544.9999999999</v>
+        <v>171544</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>93830.00000000004</v>
+        <v>93830</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>151439.9999999999</v>
+        <v>151439</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>98428.00000000007</v>
+        <v>98428</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>80330.00000000006</v>
+        <v>80330</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>2185.388355517345</v>
+        <v>2138</v>
       </c>
       <c r="D115">
-        <v>61145.38835551736</v>
+        <v>61098</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>79074.00000000006</v>
+        <v>79074</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>4208.288306614631</v>
+        <v>4360</v>
       </c>
       <c r="D117">
-        <v>79802.28830661465</v>
+        <v>79954</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>77400.00000000006</v>
+        <v>77400</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>139011.9999999999</v>
+        <v>139011</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>92621.99999999997</v>
+        <v>92621</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4830,10 +4830,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>14150.32901138217</v>
+        <v>14024</v>
       </c>
       <c r="D122">
-        <v>120202.3290113821</v>
+        <v>120075</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>97192.00000000007</v>
+        <v>97192</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>87723.99999999997</v>
+        <v>87723</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>75303.99999999997</v>
+        <v>75303</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>26768.16000408771</v>
+        <v>26529</v>
       </c>
       <c r="D128">
-        <v>136033.1600040878</v>
+        <v>135794</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>92758.00000000001</v>
+        <v>92758</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>129037.0000000001</v>
+        <v>129037</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>167760.0000000001</v>
+        <v>167760</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>111143</v>
+        <v>111142</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>138011.9999999999</v>
+        <v>138011</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>12144.73985264657</v>
+        <v>11972</v>
       </c>
       <c r="D136">
-        <v>138469.7398526466</v>
+        <v>138297</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>17009.23199236247</v>
+        <v>16986</v>
       </c>
       <c r="D137">
-        <v>142139.2319923625</v>
+        <v>142116</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>92317.99999999996</v>
+        <v>92317</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>63847.99999999996</v>
+        <v>63847</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>42162.95322707362</v>
+        <v>42452</v>
       </c>
       <c r="D142">
-        <v>142127.9532270736</v>
+        <v>142416</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>66458.99999999999</v>
+        <v>66458</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>41030.38687942916</v>
+        <v>40735</v>
       </c>
       <c r="D144">
-        <v>135245.3868794292</v>
+        <v>134950</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>93555.99999999994</v>
+        <v>93555</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>2313.15606483561</v>
+        <v>2465</v>
       </c>
       <c r="D146">
-        <v>80679.15606483565</v>
+        <v>80831</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>64924.99999999996</v>
+        <v>64924</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>82315.99999999999</v>
+        <v>82315</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>5719.405972047767</v>
+        <v>5682</v>
       </c>
       <c r="D149">
-        <v>60453.4059720478</v>
+        <v>60416</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>118274.0000000001</v>
+        <v>118274</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>95890.00000000007</v>
+        <v>95890</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>174055.0000000001</v>
+        <v>174055</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>93112.00000000006</v>
+        <v>93112</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>166980.0000000001</v>
+        <v>166980</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>67757.00000000006</v>
+        <v>67757</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>114839.0000000001</v>
+        <v>114839</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>179315.0000000001</v>
+        <v>179315</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>90025.99999999996</v>
+        <v>90025</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>135827.9999999999</v>
+        <v>135827</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>28062.80890056796</v>
+        <v>28319</v>
       </c>
       <c r="D163">
-        <v>113374.8089005679</v>
+        <v>113630</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>130136</v>
+        <v>130135</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>147739.9999999999</v>
+        <v>147739</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>150383.9999999999</v>
+        <v>150383</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>65264.99999999998</v>
+        <v>65264</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>19342.8767872176</v>
+        <v>19428</v>
       </c>
       <c r="D169">
-        <v>84052.87678721755</v>
+        <v>84137</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>16779.63495889026</v>
+        <v>16709</v>
       </c>
       <c r="D172">
-        <v>80915.63495889025</v>
+        <v>80844</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>69139.99999999997</v>
+        <v>69139</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>5306.643391437028</v>
+        <v>5077</v>
       </c>
       <c r="D174">
-        <v>98316.64339143701</v>
+        <v>98086</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>189210.0000000001</v>
+        <v>189210</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>24516.11258925375</v>
+        <v>24436</v>
       </c>
       <c r="D176">
-        <v>136826.1125892537</v>
+        <v>136745</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>891.5215060276969</v>
+        <v>831</v>
       </c>
       <c r="D177">
-        <v>63870.52150602772</v>
+        <v>63810</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>9721.20359772096</v>
+        <v>9599</v>
       </c>
       <c r="D178">
-        <v>61388.20359772094</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>118511</v>
+        <v>118510</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>68927.00000000003</v>
+        <v>68927</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>86538.00000000003</v>
+        <v>86538</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>114643.0000000001</v>
+        <v>114643</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>2388.350307047855</v>
+        <v>2483</v>
       </c>
       <c r="D183">
-        <v>61078.35030704788</v>
+        <v>61173</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>100910</v>
+        <v>100909</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>88078.99999999999</v>
+        <v>88078</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>7777.914124524948</v>
+        <v>7704</v>
       </c>
       <c r="D186">
-        <v>80643.91412452492</v>
+        <v>80569</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>104476</v>
+        <v>104475</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>122176.0000000001</v>
+        <v>122176</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>118519.9999999999</v>
+        <v>118519</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>5249.336955178311</v>
+        <v>5419</v>
       </c>
       <c r="D190">
-        <v>116785.3369551783</v>
+        <v>116955</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>154219.9999999999</v>
+        <v>154219</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>1530.826783366152</v>
+        <v>1787</v>
       </c>
       <c r="D192">
-        <v>134860.8267833661</v>
+        <v>135116</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>121862.0000000001</v>
+        <v>121862</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>132375.0000000001</v>
+        <v>132375</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>15266.15247146253</v>
+        <v>15316</v>
       </c>
       <c r="D195">
-        <v>80318.15247146254</v>
+        <v>80368</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>148900.0000000001</v>
+        <v>148900</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>109216</v>
+        <v>109215</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>70062.00000000001</v>
+        <v>70062</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>77364.99999999997</v>
+        <v>77364</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>69685.00000000004</v>
+        <v>69685</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>111096</v>
+        <v>111095</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>97654.00000000004</v>
+        <v>97654</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>17889.70331166824</v>
+        <v>18078</v>
       </c>
       <c r="D203">
-        <v>114077.7033116682</v>
+        <v>114265</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>16171.27264536869</v>
+        <v>16061</v>
       </c>
       <c r="D204">
-        <v>81105.27264536865</v>
+        <v>80994</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>166639.9999999999</v>
+        <v>166639</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>82692.00000000003</v>
+        <v>82692</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>141464.9999999999</v>
+        <v>141464</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>152120.0000000001</v>
+        <v>152120</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>138165.0000000001</v>
+        <v>138165</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>108835.9999999999</v>
+        <v>108835</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>130751.0000000001</v>
+        <v>130751</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>65575.00000000004</v>
+        <v>65575</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>19895.14731005076</v>
+        <v>19798</v>
       </c>
       <c r="D214">
-        <v>117263.1473100508</v>
+        <v>117166</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>216</v>
       </c>
       <c r="C215">
-        <v>15769.70045724465</v>
+        <v>15726</v>
       </c>
       <c r="D215">
-        <v>115065.7004572446</v>
+        <v>115021</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>96277.99999999997</v>
+        <v>96277</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>113474</v>
+        <v>113473</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>10968.62830878667</v>
+        <v>10920</v>
       </c>
       <c r="D218">
-        <v>61935.62830878669</v>
+        <v>61887</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>85763.99999999996</v>
+        <v>85763</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>15662.06815686554</v>
+        <v>15852</v>
       </c>
       <c r="D220">
-        <v>116818.0681568656</v>
+        <v>117008</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>5595.973297682242</v>
+        <v>5536</v>
       </c>
       <c r="D221">
-        <v>98041.97329768218</v>
+        <v>97981</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>122846</v>
+        <v>122845</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>70529.99999999994</v>
+        <v>70529</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>105045.9999999999</v>
+        <v>105045</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>114070</v>
+        <v>114069</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>11309.755213747</v>
+        <v>11330</v>
       </c>
       <c r="D227">
-        <v>79947.75521374698</v>
+        <v>79967</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>19841.68791857878</v>
+        <v>20078</v>
       </c>
       <c r="D228">
-        <v>135146.6879185789</v>
+        <v>135383</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>174359.9999999999</v>
+        <v>174359</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>84689.99999999997</v>
+        <v>84689</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>6245.40983246691</v>
+        <v>6239</v>
       </c>
       <c r="D232">
-        <v>61170.40983246695</v>
+        <v>61164</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>234</v>
       </c>
       <c r="C233">
-        <v>11532.13973976829</v>
+        <v>11323</v>
       </c>
       <c r="D233">
-        <v>117340.1397397683</v>
+        <v>117131</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>101372.0000000001</v>
+        <v>101372</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>120962.0000000001</v>
+        <v>120962</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>164049.9999999999</v>
+        <v>164049</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>117307.9999999999</v>
+        <v>117307</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>78561.00000000007</v>
+        <v>78561</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>4476.094959166003</v>
+        <v>4462</v>
       </c>
       <c r="D239">
-        <v>60781.09495916602</v>
+        <v>60767</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>4361.836971827637</v>
+        <v>4245</v>
       </c>
       <c r="D240">
-        <v>61994.83697182762</v>
+        <v>61877</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>111669.9999999999</v>
+        <v>111669</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>16527.20083080324</v>
+        <v>16510</v>
       </c>
       <c r="D242">
-        <v>96241.20083080328</v>
+        <v>96224</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>68917.00000000001</v>
+        <v>68917</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>78095.99999999999</v>
+        <v>78095</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>31433.68414856061</v>
+        <v>31206</v>
       </c>
       <c r="D246">
-        <v>119673.6841485607</v>
+        <v>119446</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>105270</v>
+        <v>105269</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>110168.0000000001</v>
+        <v>110168</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>178544.9999999999</v>
+        <v>178544</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>67253.00000000006</v>
+        <v>67253</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>20205.02579846355</v>
+        <v>20217</v>
       </c>
       <c r="D253">
-        <v>83877.0257984636</v>
+        <v>83889</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>163029.9999999999</v>
+        <v>163029</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>115970.0000000001</v>
+        <v>115970</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6706,10 +6706,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>20067.04004329901</v>
+        <v>19959</v>
       </c>
       <c r="D256">
-        <v>96454.04004329897</v>
+        <v>96345</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>106876</v>
+        <v>106875</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>161425.0000000001</v>
+        <v>161425</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>67105.00000000003</v>
+        <v>67105</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6762,10 +6762,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>1466.498233688151</v>
+        <v>1525</v>
       </c>
       <c r="D260">
-        <v>80624.49823368814</v>
+        <v>80682</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>79248.99999999994</v>
+        <v>79248</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>157147.9999999999</v>
+        <v>157147</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6818,10 +6818,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>1326.60069477564</v>
+        <v>1205</v>
       </c>
       <c r="D264">
-        <v>137176.6006947756</v>
+        <v>137054</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>61549.00000000004</v>
+        <v>61549</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>139460.0000000001</v>
+        <v>139460</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>68263.00000000003</v>
+        <v>68263</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>25456.78840154481</v>
+        <v>25194</v>
       </c>
       <c r="D271">
-        <v>138281.7884015449</v>
+        <v>138019</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>89109.99999999999</v>
+        <v>89109</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>69035.99999999994</v>
+        <v>69035</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>115750</v>
+        <v>115749</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>20460.33353694722</v>
+        <v>20545</v>
       </c>
       <c r="D275">
-        <v>97942.33353694718</v>
+        <v>98026</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>129642.9999999999</v>
+        <v>129642</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>94152.00000000006</v>
+        <v>94152</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>124948</v>
+        <v>124947</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>94281.99999999994</v>
+        <v>94281</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>6202.80518352049</v>
+        <v>6215</v>
       </c>
       <c r="D280">
-        <v>63750.80518352044</v>
+        <v>63762</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>84137.99999999999</v>
+        <v>84137</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>68746.99999999997</v>
+        <v>68746</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>136922</v>
+        <v>136921</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7098,10 +7098,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>1452.18462321088</v>
+        <v>1470</v>
       </c>
       <c r="D284">
-        <v>80726.18462321084</v>
+        <v>80743</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>19779.36617710389</v>
+        <v>19584</v>
       </c>
       <c r="D285">
-        <v>116647.3661771039</v>
+        <v>116451</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>105110</v>
+        <v>105109</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>8620.824315795428</v>
+        <v>8600</v>
       </c>
       <c r="D287">
-        <v>115512.8243157955</v>
+        <v>115492</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>185939.9999999999</v>
+        <v>185939</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>13862.78627405794</v>
+        <v>13683</v>
       </c>
       <c r="D290">
-        <v>142532.7862740579</v>
+        <v>142352</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>73286.99999999997</v>
+        <v>73286</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>8917.962876155114</v>
+        <v>8803</v>
       </c>
       <c r="D292">
-        <v>60473.96287615514</v>
+        <v>60359</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>102564.0000000001</v>
+        <v>102564</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7241,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>125307.9999999999</v>
+        <v>125307</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>27164.68974112038</v>
+        <v>27258</v>
       </c>
       <c r="D295">
-        <v>115652.6897411204</v>
+        <v>115746</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>189139.9999999999</v>
+        <v>189139</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>15718.40943358094</v>
+        <v>15616</v>
       </c>
       <c r="D298">
-        <v>95873.40943358089</v>
+        <v>95770</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7322,10 +7322,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>13382.26801447423</v>
+        <v>13354</v>
       </c>
       <c r="D300">
-        <v>95592.26801447419</v>
+        <v>95563</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>92609.99999999999</v>
+        <v>92609</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7350,10 +7350,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>1172.407130780775</v>
+        <v>1301</v>
       </c>
       <c r="D302">
-        <v>63605.40713078073</v>
+        <v>63733</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>143720.0000000001</v>
+        <v>143720</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>29888.85611726112</v>
+        <v>30038</v>
       </c>
       <c r="D305">
-        <v>114064.8561172611</v>
+        <v>114213</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>110429.0000000001</v>
+        <v>110429</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>4506.416260404651</v>
+        <v>4439</v>
       </c>
       <c r="D307">
-        <v>61231.41626040469</v>
+        <v>61164</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>8941.853574828048</v>
+        <v>8868</v>
       </c>
       <c r="D308">
-        <v>61339.853574828</v>
+        <v>61265</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>17747.78775003013</v>
+        <v>17467</v>
       </c>
       <c r="D310">
-        <v>136202.7877500301</v>
+        <v>135922</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>4582.776616171526</v>
+        <v>4450</v>
       </c>
       <c r="D311">
-        <v>61521.77661617154</v>
+        <v>61389</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>134735.0000000001</v>
+        <v>134735</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>83510.00000000001</v>
+        <v>83510</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>106540</v>
+        <v>106539</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>74546.00000000004</v>
+        <v>74546</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>72100.00000000004</v>
+        <v>72100</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>66469.99999999997</v>
+        <v>66469</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7602,10 +7602,10 @@
         <v>321</v>
       </c>
       <c r="C320">
-        <v>572.0939895634874</v>
+        <v>449</v>
       </c>
       <c r="D320">
-        <v>61585.09398956352</v>
+        <v>61462</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>83195.99999999993</v>
+        <v>83195</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>158874.9999999999</v>
+        <v>158874</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>115064</v>
+        <v>115063</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>75894.00000000006</v>
+        <v>75894</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>326</v>
       </c>
       <c r="C325">
-        <v>13423.39255892266</v>
+        <v>13224</v>
       </c>
       <c r="D325">
-        <v>96515.3925589226</v>
+        <v>96315</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>80710.99999999994</v>
+        <v>80710</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>17685.81645682052</v>
+        <v>17745</v>
       </c>
       <c r="D327">
-        <v>81791.81645682051</v>
+        <v>81850</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>2634.385486678075</v>
+        <v>2589</v>
       </c>
       <c r="D329">
-        <v>97906.385486678</v>
+        <v>97860</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>86346.00000000001</v>
+        <v>86346</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>68214.00000000004</v>
+        <v>68214</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>69990.99999999997</v>
+        <v>69990</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>106468.0000000001</v>
+        <v>106468</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>90594.00000000003</v>
+        <v>90594</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>17038.19326650357</v>
+        <v>17149</v>
       </c>
       <c r="D337">
-        <v>114154.1932665036</v>
+        <v>114265</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>3290.862249159967</v>
+        <v>3465</v>
       </c>
       <c r="D338">
-        <v>82112.86224916</v>
+        <v>82287</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>185964.9999999999</v>
+        <v>185964</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>62547.99999999999</v>
+        <v>62547</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>156624.9999999999</v>
+        <v>156624</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>105422.0000000001</v>
+        <v>105422</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>345</v>
       </c>
       <c r="C344">
-        <v>11092.39908417403</v>
+        <v>11285</v>
       </c>
       <c r="D344">
-        <v>135252.399084174</v>
+        <v>135444</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="D345">
-        <v>134144.0000000001</v>
+        <v>134144</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="D346">
-        <v>103585</v>
+        <v>103584</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>160123.9999999999</v>
+        <v>160123</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="D348">
-        <v>95495.99999999991</v>
+        <v>95495</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="D349">
-        <v>76012.00000000003</v>
+        <v>76012</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>160340.0000000001</v>
+        <v>160340</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>72526.99999999999</v>
+        <v>72526</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="D353">
-        <v>94780.00000000004</v>
+        <v>94780</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>8338.506133827323</v>
+        <v>8156</v>
       </c>
       <c r="D355">
-        <v>142213.5061338273</v>
+        <v>142030</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="D356">
-        <v>99378.00000000003</v>
+        <v>99378</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>68502.99999999999</v>
+        <v>68502</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="D358">
-        <v>91716.00000000001</v>
+        <v>91716</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>76156.00000000006</v>
+        <v>76156</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>5263.099724485714</v>
+        <v>5325</v>
       </c>
       <c r="D361">
-        <v>96413.09972448574</v>
+        <v>96475</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="D362">
-        <v>134111.0000000001</v>
+        <v>134111</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="D363">
-        <v>176934.9999999999</v>
+        <v>176934</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>8056.287265114137</v>
+        <v>8045</v>
       </c>
       <c r="D364">
-        <v>98201.28726511418</v>
+        <v>98190</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>68692.99999999996</v>
+        <v>68692</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>96576.00000000009</v>
+        <v>96576</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>21477.1972969778</v>
+        <v>21194</v>
       </c>
       <c r="D368">
-        <v>138452.1972969778</v>
+        <v>138169</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>4543.480369809084</v>
+        <v>4825</v>
       </c>
       <c r="D369">
-        <v>136268.4803698091</v>
+        <v>136550</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="D370">
-        <v>62991.00000000001</v>
+        <v>62991</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="D371">
-        <v>121584</v>
+        <v>121583</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="D372">
-        <v>65617.99999999997</v>
+        <v>65617</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>374</v>
       </c>
       <c r="C373">
-        <v>5821.272286674372</v>
+        <v>6005</v>
       </c>
       <c r="D373">
-        <v>113785.2722866744</v>
+        <v>113968</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>74569.99999999997</v>
+        <v>74569</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="D375">
-        <v>70852.99999999999</v>
+        <v>70852</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="D377">
-        <v>109708</v>
+        <v>109707</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>125554.9999999999</v>
+        <v>125554</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>199359.9999999999</v>
+        <v>199359</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="D381">
-        <v>89826.00000000004</v>
+        <v>89826</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>383</v>
       </c>
       <c r="C382">
-        <v>16413.78153277557</v>
+        <v>16215</v>
       </c>
       <c r="D382">
-        <v>81425.7815327756</v>
+        <v>81227</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="D384">
-        <v>152854.9999999999</v>
+        <v>152854</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>63171.99999999999</v>
+        <v>63171</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>84135.99999999996</v>
+        <v>84135</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="D387">
-        <v>63909.99999999999</v>
+        <v>63909</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>119668</v>
+        <v>119667</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>7975.793482208668</v>
+        <v>8201</v>
       </c>
       <c r="D390">
-        <v>96149.79348220868</v>
+        <v>96375</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="D391">
-        <v>118911.9999999999</v>
+        <v>118911</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>145034.9999999999</v>
+        <v>145034</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>64885.99999999999</v>
+        <v>64885</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>24916.45571449319</v>
+        <v>25077</v>
       </c>
       <c r="D394">
-        <v>96185.45571449313</v>
+        <v>96345</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="D395">
-        <v>68266.99999999994</v>
+        <v>68266</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>64107.00000000003</v>
+        <v>64107</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>27663.10424961719</v>
+        <v>27812</v>
       </c>
       <c r="D398">
-        <v>114167.1042496172</v>
+        <v>114316</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="D399">
-        <v>158700</v>
+        <v>158699</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="D400">
-        <v>123650</v>
+        <v>123649</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>96557.99999999997</v>
+        <v>96557</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>20545.72154972475</v>
+        <v>20553</v>
       </c>
       <c r="D402">
-        <v>81085.72154972477</v>
+        <v>81093</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>107039.9999999999</v>
+        <v>107039</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="D404">
-        <v>101196.9999999999</v>
+        <v>101196</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>111974.0000000001</v>
+        <v>111974</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>38474.11638182841</v>
+        <v>38501</v>
       </c>
       <c r="D406">
-        <v>136149.1163818284</v>
+        <v>136176</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="D407">
-        <v>78601.99999999994</v>
+        <v>78601</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="D408">
-        <v>108375.9999999999</v>
+        <v>108375</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="D409">
-        <v>88857.99999999997</v>
+        <v>88857</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="D410">
-        <v>77594.00000000006</v>
+        <v>77594</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>412</v>
       </c>
       <c r="C411">
-        <v>33858.82095930139</v>
+        <v>33599</v>
       </c>
       <c r="D411">
-        <v>120406.8209593014</v>
+        <v>120147</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="D412">
-        <v>103648.9999999999</v>
+        <v>103648</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="D413">
-        <v>91369.99999999999</v>
+        <v>91369</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="D414">
-        <v>116416.9999999999</v>
+        <v>116416</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>67866.99999999999</v>
+        <v>67866</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="D417">
-        <v>67498.99999999997</v>
+        <v>67498</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -8974,10 +8974,10 @@
         <v>419</v>
       </c>
       <c r="C418">
-        <v>22669.13557463595</v>
+        <v>22887</v>
       </c>
       <c r="D418">
-        <v>100592.135574636</v>
+        <v>100810</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>104801.0000000001</v>
+        <v>104801</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>92579.99999999996</v>
+        <v>92579</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>67744.00000000006</v>
+        <v>67744</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>163875.0000000001</v>
+        <v>163875</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9044,10 +9044,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>46061.57604920457</v>
+        <v>46128</v>
       </c>
       <c r="D423">
-        <v>141636.5760492045</v>
+        <v>141702</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>150125.0000000001</v>
+        <v>150125</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <v>159385.0000000001</v>
+        <v>159385</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>4534.441265765839</v>
+        <v>4719</v>
       </c>
       <c r="D426">
-        <v>81054.44126576585</v>
+        <v>81239</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <v>119427.9999999999</v>
+        <v>119427</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <v>90889.99999999996</v>
+        <v>90889</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>106677.9999999999</v>
+        <v>106677</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <v>86709.99999999996</v>
+        <v>86709</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="D431">
-        <v>156715.9999999999</v>
+        <v>156715</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="D432">
-        <v>71030.99999999996</v>
+        <v>71030</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="D433">
-        <v>60440.00000000004</v>
+        <v>60440</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>23033.67418292657</v>
+        <v>22959</v>
       </c>
       <c r="D436">
-        <v>119577.6741829265</v>
+        <v>119502</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <v>120645.0000000001</v>
+        <v>120645</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="D438">
-        <v>126161</v>
+        <v>126160</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="D439">
-        <v>169332.0000000001</v>
+        <v>169332</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>94842.00000000004</v>
+        <v>94842</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>66308.99999999997</v>
+        <v>66308</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="D444">
-        <v>89986.99999999999</v>
+        <v>89986</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <v>111521.0000000001</v>
+        <v>111521</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>447</v>
       </c>
       <c r="C446">
-        <v>9072.764042981842</v>
+        <v>9001</v>
       </c>
       <c r="D446">
-        <v>63842.76404298185</v>
+        <v>63771</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="D449">
-        <v>100474.0000000001</v>
+        <v>100474</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>84093.99999999993</v>
+        <v>84093</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9436,10 +9436,10 @@
         <v>452</v>
       </c>
       <c r="C451">
-        <v>19005.2516960864</v>
+        <v>19207</v>
       </c>
       <c r="D451">
-        <v>100609.2516960864</v>
+        <v>100810</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>15422.80498128003</v>
+        <v>15274</v>
       </c>
       <c r="D452">
-        <v>100728.8049812801</v>
+        <v>100580</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <v>99186.00000000006</v>
+        <v>99186</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>25980.66997069442</v>
+        <v>25734</v>
       </c>
       <c r="D454">
-        <v>115500.6699706944</v>
+        <v>115254</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <v>90520.00000000001</v>
+        <v>90520</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>457</v>
       </c>
       <c r="C456">
-        <v>35080.77531025204</v>
+        <v>35251</v>
       </c>
       <c r="D456">
-        <v>115472.775310252</v>
+        <v>115642</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>187239.9999999999</v>
+        <v>187239</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="D458">
-        <v>147051.9999999999</v>
+        <v>147051</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="D459">
-        <v>92639.99999999993</v>
+        <v>92639</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="D460">
-        <v>62518.00000000001</v>
+        <v>62518</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9576,10 +9576,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>21404.0739537279</v>
+        <v>21302</v>
       </c>
       <c r="D461">
-        <v>138839.073953728</v>
+        <v>138737</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>22437.48555660897</v>
+        <v>22470</v>
       </c>
       <c r="D462">
-        <v>100777.485556609</v>
+        <v>100810</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="D464">
-        <v>111373.9999999999</v>
+        <v>111373</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>110840</v>
+        <v>110839</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>146719.9999999999</v>
+        <v>146719</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>87176.00000000001</v>
+        <v>87176</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>97375.99999999996</v>
+        <v>97375</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="D469">
-        <v>79554.00000000001</v>
+        <v>79554</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="D470">
-        <v>118519.9999999999</v>
+        <v>118519</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>115724.0000000001</v>
+        <v>115724</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <v>98264.00000000006</v>
+        <v>98264</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>14605.38501440563</v>
+        <v>14624</v>
       </c>
       <c r="D474">
-        <v>80925.38501440568</v>
+        <v>80944</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <v>98679.99999999996</v>
+        <v>98679</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9803,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <v>158183.9999999999</v>
+        <v>158183</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>60118.00000000001</v>
+        <v>60118</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>125515</v>
+        <v>125514</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="D480">
-        <v>97655.99999999999</v>
+        <v>97655</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>7268.911344422268</v>
+        <v>7397</v>
       </c>
       <c r="D481">
-        <v>62023.91134442229</v>
+        <v>62152</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="D482">
-        <v>84304.99999999999</v>
+        <v>84304</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <v>123979.0000000001</v>
+        <v>123979</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>40527.58334839411</v>
+        <v>40619</v>
       </c>
       <c r="D484">
-        <v>134522.5833483941</v>
+        <v>134614</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>170910</v>
+        <v>170909</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>33330.77902883886</v>
+        <v>33421</v>
       </c>
       <c r="D486">
-        <v>120094.7790288388</v>
+        <v>120184</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <v>131398.9999999999</v>
+        <v>131398</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>489</v>
       </c>
       <c r="C488">
-        <v>15654.61737897683</v>
+        <v>15715</v>
       </c>
       <c r="D488">
-        <v>80844.61737897685</v>
+        <v>80905</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="D489">
-        <v>68140.00000000003</v>
+        <v>68140</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>491</v>
       </c>
       <c r="C490">
-        <v>6541.019813080187</v>
+        <v>6678</v>
       </c>
       <c r="D490">
-        <v>79643.01981308016</v>
+        <v>79779</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="D491">
-        <v>88649.00000000007</v>
+        <v>88649</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="D492">
-        <v>98388.99999999997</v>
+        <v>98388</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>116221.9999999999</v>
+        <v>116221</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="D494">
-        <v>63271.00000000001</v>
+        <v>63271</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="D496">
-        <v>78191.99999999999</v>
+        <v>78191</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="D498">
-        <v>77612.00000000007</v>
+        <v>77612</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>82793.00000000001</v>
+        <v>82793</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="D500">
-        <v>73506.00000000006</v>
+        <v>73506</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>86282.00000000003</v>
+        <v>86282</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10164,10 +10164,10 @@
         <v>504</v>
       </c>
       <c r="C503">
-        <v>920.3924790095916</v>
+        <v>992</v>
       </c>
       <c r="D503">
-        <v>80586.39247900953</v>
+        <v>80657</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>14447.30448553657</v>
+        <v>14261</v>
       </c>
       <c r="D505">
-        <v>80053.30448553659</v>
+        <v>79867</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10206,10 +10206,10 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>20118.12503030162</v>
+        <v>20049</v>
       </c>
       <c r="D506">
-        <v>61869.12503030163</v>
+        <v>61800</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>81949.99999999997</v>
+        <v>81949</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>160070</v>
+        <v>160069</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>71959.00000000006</v>
+        <v>71959</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>67945.99999999997</v>
+        <v>67945</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>76671.99999999997</v>
+        <v>76671</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>88702.00000000003</v>
+        <v>88702</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>143030.0000000001</v>
+        <v>143030</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>35562.83422982467</v>
+        <v>35409</v>
       </c>
       <c r="D515">
-        <v>138022.8342298247</v>
+        <v>137868</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>76258.00000000003</v>
+        <v>76258</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>115108.0000000001</v>
+        <v>115108</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>99311.99999999994</v>
+        <v>99311</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>521</v>
       </c>
       <c r="C520">
-        <v>18449.66235529399</v>
+        <v>18393</v>
       </c>
       <c r="D520">
-        <v>81155.66235529401</v>
+        <v>81099</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>65050.00000000006</v>
+        <v>65050</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10430,10 +10430,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>15362.76831413199</v>
+        <v>15194</v>
       </c>
       <c r="D522">
-        <v>78284.76831413202</v>
+        <v>78116</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>122473.0000000001</v>
+        <v>122473</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>59913.99999999999</v>
+        <v>59913</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>116000.0000000001</v>
+        <v>116000</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>124156.0000000001</v>
+        <v>124156</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>182075.0000000001</v>
+        <v>182075</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>4497.88655557223</v>
+        <v>4366</v>
       </c>
       <c r="D529">
-        <v>81193.8865555723</v>
+        <v>81062</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>57185.99999999996</v>
+        <v>57185</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>75952.00000000003</v>
+        <v>75952</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>118502.9999999999</v>
+        <v>118502</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10598,10 +10598,10 @@
         <v>535</v>
       </c>
       <c r="C534">
-        <v>15614.19221625134</v>
+        <v>15627</v>
       </c>
       <c r="D534">
-        <v>58563.19221625137</v>
+        <v>58576</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>536</v>
       </c>
       <c r="C535">
-        <v>27755.24653780091</v>
+        <v>28047</v>
       </c>
       <c r="D535">
-        <v>131510.2465378009</v>
+        <v>131802</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>537</v>
       </c>
       <c r="C536">
-        <v>16124.98907175621</v>
+        <v>15994</v>
       </c>
       <c r="D536">
-        <v>78352.98907175627</v>
+        <v>78222</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>66826.99999999996</v>
+        <v>66826</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>23966.03032554538</v>
+        <v>23745</v>
       </c>
       <c r="D538">
-        <v>111226.0303255453</v>
+        <v>111004</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>68416.00000000003</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>178139.9999999999</v>
+        <v>178139</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>136530.0000000001</v>
+        <v>136530</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>84712.00000000003</v>
+        <v>84712</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>138410.0000000001</v>
+        <v>138410</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>124477.0000000001</v>
+        <v>124477</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10766,10 +10766,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>16997.48116057219</v>
+        <v>17111</v>
       </c>
       <c r="D546">
-        <v>115233.4811605722</v>
+        <v>115347</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>55583.00000000001</v>
+        <v>55583</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10794,10 +10794,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>15405.57325812976</v>
+        <v>15562</v>
       </c>
       <c r="D548">
-        <v>58095.57325812973</v>
+        <v>58251</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>84588.00000000001</v>
+        <v>84588</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>62060.00000000003</v>
+        <v>62060</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>52653.99999999999</v>
+        <v>52653</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>103400</v>
+        <v>103399</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>106876</v>
+        <v>106875</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>9293.395030721818</v>
+        <v>9400</v>
       </c>
       <c r="D555">
-        <v>93218.39503072185</v>
+        <v>93325</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>123136</v>
+        <v>123135</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>90844.00000000001</v>
+        <v>90844</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>144428.0000000001</v>
+        <v>144428</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>114291.9999999999</v>
+        <v>114291</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>69440.99999999999</v>
+        <v>69440</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>106132.0000000001</v>
+        <v>106132</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>76792.00000000006</v>
+        <v>76792</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11004,10 +11004,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>28223.75294498606</v>
+        <v>28432</v>
       </c>
       <c r="D563">
-        <v>93398.7529449861</v>
+        <v>93607</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>150544.9999999999</v>
+        <v>150544</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11032,10 +11032,10 @@
         <v>566</v>
       </c>
       <c r="C565">
-        <v>5694.152498162686</v>
+        <v>5781</v>
       </c>
       <c r="D565">
-        <v>131129.1524981627</v>
+        <v>131215</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>166185.0000000001</v>
+        <v>166185</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>95380.00000000006</v>
+        <v>95380</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11074,10 +11074,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>10526.7375851773</v>
+        <v>10530</v>
       </c>
       <c r="D568">
-        <v>58537.7375851773</v>
+        <v>58541</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>131299.9999999999</v>
+        <v>131299</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11102,10 +11102,10 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>12031.40957373309</v>
+        <v>12080</v>
       </c>
       <c r="D570">
-        <v>58878.40957373306</v>
+        <v>58926</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11116,10 +11116,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>39879.79735307449</v>
+        <v>39851</v>
       </c>
       <c r="D571">
-        <v>110791.7973530745</v>
+        <v>110762</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>61585.99999999996</v>
+        <v>61585</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>189495.0000000001</v>
+        <v>189495</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>176795.0000000001</v>
+        <v>176795</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>108075.9999999999</v>
+        <v>108075</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>130634.9999999999</v>
+        <v>130634</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>82314.99999999996</v>
+        <v>82314</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>132952</v>
+        <v>132951</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>75590.00000000001</v>
+        <v>75590</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>128864.0000000001</v>
+        <v>128864</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>142976.0000000001</v>
+        <v>142976</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>136769.9999999999</v>
+        <v>136769</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>76450.00000000001</v>
+        <v>76450</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>164055</v>
+        <v>164054</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11340,10 +11340,10 @@
         <v>588</v>
       </c>
       <c r="C587">
-        <v>48792.28432368218</v>
+        <v>48862</v>
       </c>
       <c r="D587">
-        <v>133562.2843236823</v>
+        <v>133632</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11396,10 +11396,10 @@
         <v>592</v>
       </c>
       <c r="C591">
-        <v>12300.21515609612</v>
+        <v>12009</v>
       </c>
       <c r="D591">
-        <v>132180.2151560962</v>
+        <v>131889</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11424,10 +11424,10 @@
         <v>594</v>
       </c>
       <c r="C593">
-        <v>9861.434167755382</v>
+        <v>9912</v>
       </c>
       <c r="D593">
-        <v>58392.43416775537</v>
+        <v>58442</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>52943.99999999996</v>
+        <v>52943</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>86071.99999999999</v>
+        <v>86071</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>154360</v>
+        <v>154359</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11480,10 +11480,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>5286.128025188074</v>
+        <v>5186</v>
       </c>
       <c r="D597">
-        <v>58711.1280251881</v>
+        <v>58611</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11508,10 +11508,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>13881.9576473585</v>
+        <v>13960</v>
       </c>
       <c r="D599">
-        <v>92292.95764735855</v>
+        <v>92371</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>81508.00000000004</v>
+        <v>81508</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11536,10 +11536,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>14003.81121646319</v>
+        <v>14140</v>
       </c>
       <c r="D601">
-        <v>92018.81121646323</v>
+        <v>92155</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>142599.9999999999</v>
+        <v>142599</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11564,10 +11564,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>22037.76722561065</v>
+        <v>21962</v>
       </c>
       <c r="D603">
-        <v>93444.76722561069</v>
+        <v>93369</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11578,10 +11578,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>7662.667716987926</v>
+        <v>7828</v>
       </c>
       <c r="D604">
-        <v>81246.66771698787</v>
+        <v>81411</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11592,10 +11592,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>20685.44685693202</v>
+        <v>20818</v>
       </c>
       <c r="D605">
-        <v>61348.44685693199</v>
+        <v>61480</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11620,10 +11620,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>7326.452958808688</v>
+        <v>7327</v>
       </c>
       <c r="D607">
-        <v>81188.45295880863</v>
+        <v>81188</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11634,10 +11634,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>13279.65566312266</v>
+        <v>13265</v>
       </c>
       <c r="D608">
-        <v>94676.65566312266</v>
+        <v>94662</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <v>84218.00000000006</v>
+        <v>84218</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11662,10 +11662,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>21083.79848658338</v>
+        <v>21223</v>
       </c>
       <c r="D610">
-        <v>58934.79848658338</v>
+        <v>59074</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11676,10 +11676,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>778.561960806459</v>
+        <v>794</v>
       </c>
       <c r="D611">
-        <v>94559.56196080652</v>
+        <v>94575</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>55592.99999999999</v>
+        <v>55592</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>122388</v>
+        <v>122387</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11718,10 +11718,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>23588.35335589696</v>
+        <v>23529</v>
       </c>
       <c r="D614">
-        <v>133713.353355897</v>
+        <v>133653</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>61982.99999999999</v>
+        <v>61982</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>73616.00000000003</v>
+        <v>73616</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <v>66130.00000000006</v>
+        <v>66130</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="D619">
-        <v>112028.0000000001</v>
+        <v>112028</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>56962.00000000004</v>
+        <v>56962</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>124442.0000000001</v>
+        <v>124442</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>80016.00000000007</v>
+        <v>80016</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>155960</v>
+        <v>155959</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11858,10 +11858,10 @@
         <v>625</v>
       </c>
       <c r="C624">
-        <v>7993.888573907083</v>
+        <v>7950</v>
       </c>
       <c r="D624">
-        <v>92243.88857390704</v>
+        <v>92199</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11872,10 +11872,10 @@
         <v>626</v>
       </c>
       <c r="C625">
-        <v>2714.937754650906</v>
+        <v>2847</v>
       </c>
       <c r="D625">
-        <v>80916.93775465091</v>
+        <v>81049</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>85192.00000000003</v>
+        <v>85192</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>158715.0000000001</v>
+        <v>158715</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>109215.0000000001</v>
+        <v>109215</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>142035</v>
+        <v>142034</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>86150.00000000003</v>
+        <v>86150</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="D631">
-        <v>189341.9999999998</v>
+        <v>189341</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="D632">
-        <v>142064.9999999999</v>
+        <v>142064</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12001,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="D634">
-        <v>67041.99999999996</v>
+        <v>67041</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="D635">
-        <v>106986.9999999999</v>
+        <v>106986</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12026,10 +12026,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>11213.05669901986</v>
+        <v>11105</v>
       </c>
       <c r="D636">
-        <v>78287.05669901984</v>
+        <v>78178</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="D637">
-        <v>61357.00000000005</v>
+        <v>61357</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12068,10 +12068,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>3197.096353240544</v>
+        <v>3357</v>
       </c>
       <c r="D639">
-        <v>77123.0963532406</v>
+        <v>77283</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="D640">
-        <v>80963.99999999999</v>
+        <v>80963</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="D641">
-        <v>102376.0000000001</v>
+        <v>102376</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="D642">
-        <v>96030.00000000001</v>
+        <v>96030</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="D643">
-        <v>141380.0000000001</v>
+        <v>141380</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="D644">
-        <v>76205.99999999997</v>
+        <v>76205</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="D645">
-        <v>90443.99999999996</v>
+        <v>90443</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="D647">
-        <v>97692.99999999993</v>
+        <v>97692</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="D649">
-        <v>165215.0000000001</v>
+        <v>165215</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="D651">
-        <v>104371.9999999999</v>
+        <v>104371</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="D652">
-        <v>69585.00000000001</v>
+        <v>69585</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12292,10 +12292,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>9655.518046574231</v>
+        <v>9806</v>
       </c>
       <c r="D655">
-        <v>81187.51804657419</v>
+        <v>81337</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="D656">
-        <v>94461.99999999994</v>
+        <v>94461</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="D657">
-        <v>151851.9999999999</v>
+        <v>151851</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -12337,7 +12337,7 @@
         <v>0</v>
       </c>
       <c r="D658">
-        <v>83695.99999999994</v>
+        <v>83695</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="D659">
-        <v>128808</v>
+        <v>128807</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12362,10 +12362,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>815.9408419718384</v>
+        <v>624</v>
       </c>
       <c r="D660">
-        <v>78561.94084197181</v>
+        <v>78369</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12379,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="D661">
-        <v>105076</v>
+        <v>105075</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="D663">
-        <v>109212.0000000001</v>
+        <v>109212</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12418,10 +12418,10 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>28228.70236962824</v>
+        <v>28111</v>
       </c>
       <c r="D664">
-        <v>112800.7023696282</v>
+        <v>112682</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12432,10 +12432,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>19482.05604970956</v>
+        <v>19492</v>
       </c>
       <c r="D665">
-        <v>130747.0560497095</v>
+        <v>130756</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="D666">
-        <v>121988.0000000001</v>
+        <v>121988</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="D668">
-        <v>96987.99999999991</v>
+        <v>96987</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="D669">
-        <v>89509.99999999993</v>
+        <v>89509</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12502,10 +12502,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>8711.243578454974</v>
+        <v>8815</v>
       </c>
       <c r="D670">
-        <v>59934.24357845495</v>
+        <v>60037</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12516,10 +12516,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>11647.41921591247</v>
+        <v>11413</v>
       </c>
       <c r="D671">
-        <v>116171.4192159125</v>
+        <v>115937</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12530,10 +12530,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>11210.65512725126</v>
+        <v>11085</v>
       </c>
       <c r="D672">
-        <v>133595.6551272512</v>
+        <v>133469</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12561,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="D674">
-        <v>77692.00000000003</v>
+        <v>77692</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="D676">
-        <v>95390.00000000004</v>
+        <v>95390</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12600,10 +12600,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>6200.203293502724</v>
+        <v>6305</v>
       </c>
       <c r="D677">
-        <v>112768.2032935027</v>
+        <v>112873</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="D678">
-        <v>58442.99999999999</v>
+        <v>58442</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="D680">
-        <v>108315.9999999999</v>
+        <v>108315</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="D683">
-        <v>134424.0000000001</v>
+        <v>134424</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="D684">
-        <v>67510.99999999994</v>
+        <v>67510</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="D685">
-        <v>148912.0000000001</v>
+        <v>148912</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12726,10 +12726,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>19064.48895572111</v>
+        <v>19222</v>
       </c>
       <c r="D686">
-        <v>109884.4889557211</v>
+        <v>110041</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12743,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="D687">
-        <v>78605.99999999996</v>
+        <v>78605</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="D688">
-        <v>69253.99999999996</v>
+        <v>69253</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12768,10 +12768,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>7416.94846809654</v>
+        <v>7538</v>
       </c>
       <c r="D689">
-        <v>78944.94846809658</v>
+        <v>79066</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12785,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="D690">
-        <v>103175.9999999999</v>
+        <v>103175</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="D691">
-        <v>129000.0000000001</v>
+        <v>129000</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -12813,7 +12813,7 @@
         <v>0</v>
       </c>
       <c r="D692">
-        <v>137408.0000000001</v>
+        <v>137408</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="D693">
-        <v>96467.00000000007</v>
+        <v>96467</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="D694">
-        <v>93764.00000000003</v>
+        <v>93764</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="D695">
-        <v>88336.99999999997</v>
+        <v>88336</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="D697">
-        <v>67359.99999999996</v>
+        <v>67359</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -12894,10 +12894,10 @@
         <v>699</v>
       </c>
       <c r="C698">
-        <v>19453.75527307452</v>
+        <v>19459</v>
       </c>
       <c r="D698">
-        <v>93749.75527307448</v>
+        <v>93754</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="D699">
-        <v>77050.00000000007</v>
+        <v>77050</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="D700">
-        <v>147480.0000000001</v>
+        <v>147480</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="D701">
-        <v>83935.99999999993</v>
+        <v>83935</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="D702">
-        <v>61626.00000000001</v>
+        <v>61626</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -12967,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="D703">
-        <v>177375.0000000001</v>
+        <v>177375</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="D704">
-        <v>164984.9999999999</v>
+        <v>164984</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13009,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="D706">
-        <v>91248.00000000003</v>
+        <v>91248</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="D707">
-        <v>87937.99999999999</v>
+        <v>87937</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13037,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="D708">
-        <v>63414.00000000003</v>
+        <v>63414</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="D709">
-        <v>187960.0000000001</v>
+        <v>187960</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="D710">
-        <v>142975</v>
+        <v>142974</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="D711">
-        <v>95735.00000000004</v>
+        <v>95735</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13093,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="D712">
-        <v>65943.99999999999</v>
+        <v>65943</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="D713">
-        <v>65123.99999999998</v>
+        <v>65123</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="D714">
-        <v>69627.99999999996</v>
+        <v>69627</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
       <c r="D716">
-        <v>176475.0000000001</v>
+        <v>176475</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="D717">
-        <v>86690.00000000004</v>
+        <v>86690</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="D718">
-        <v>103216.0000000001</v>
+        <v>103216</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13188,10 +13188,10 @@
         <v>720</v>
       </c>
       <c r="C719">
-        <v>1624.007691449369</v>
+        <v>1746</v>
       </c>
       <c r="D719">
-        <v>81166.00769144938</v>
+        <v>81288</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13202,10 +13202,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>3528.703294981795</v>
+        <v>3611</v>
       </c>
       <c r="D720">
-        <v>58564.70329498182</v>
+        <v>58647</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="D722">
-        <v>131842.9999999999</v>
+        <v>131842</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13261,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="D724">
-        <v>77313.99999999994</v>
+        <v>77313</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="D725">
-        <v>62922.99999999996</v>
+        <v>62922</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="D726">
-        <v>104707.0000000001</v>
+        <v>104707</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="D727">
-        <v>136456.0000000001</v>
+        <v>136456</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="D728">
-        <v>123764.0000000001</v>
+        <v>123764</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
       <c r="D729">
-        <v>61838.00000000005</v>
+        <v>61838</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="D730">
-        <v>72086.00000000001</v>
+        <v>72086</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="D731">
-        <v>99973.99999999997</v>
+        <v>99973</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="D733">
-        <v>110352</v>
+        <v>110351</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="D734">
-        <v>83209.99999999996</v>
+        <v>83209</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="D736">
-        <v>61248.99999999997</v>
+        <v>61248</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="D737">
-        <v>93137.00000000006</v>
+        <v>93137</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13454,10 +13454,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>21192.38614975463</v>
+        <v>21120</v>
       </c>
       <c r="D738">
-        <v>94057.38614975462</v>
+        <v>93984</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13468,10 +13468,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>27963.36380645754</v>
+        <v>27733</v>
       </c>
       <c r="D739">
-        <v>134333.3638064575</v>
+        <v>134102</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13482,10 +13482,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>17800.45281324961</v>
+        <v>17744</v>
       </c>
       <c r="D740">
-        <v>79826.45281324963</v>
+        <v>79770</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13496,10 +13496,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>7232.268827180102</v>
+        <v>7172</v>
       </c>
       <c r="D741">
-        <v>61785.26882718009</v>
+        <v>61724</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="D742">
-        <v>145055.9999999999</v>
+        <v>145055</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D743">
-        <v>60354.00000000004</v>
+        <v>60354</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13538,10 +13538,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>8961.872136593971</v>
+        <v>8982</v>
       </c>
       <c r="D744">
-        <v>92971.872136594</v>
+        <v>92992</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13552,10 +13552,10 @@
         <v>746</v>
       </c>
       <c r="C745">
-        <v>4533.415681009268</v>
+        <v>4539</v>
       </c>
       <c r="D745">
-        <v>116125.4156810093</v>
+        <v>116130</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>156664</v>
+        <v>156663</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="D747">
-        <v>136768.0000000001</v>
+        <v>136768</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="D748">
-        <v>98663.00000000004</v>
+        <v>98663</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13608,10 +13608,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>5945.645716826373</v>
+        <v>5835</v>
       </c>
       <c r="D749">
-        <v>85891.64571682633</v>
+        <v>85780</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13625,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="D750">
-        <v>119649.9999999999</v>
+        <v>119649</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13650,10 +13650,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>52449.63201397302</v>
+        <v>52258</v>
       </c>
       <c r="D752">
-        <v>144989.632013973</v>
+        <v>144798</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13667,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="D753">
-        <v>60683.99999999998</v>
+        <v>60683</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>122044.9999999999</v>
+        <v>122044</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="D756">
-        <v>98532.00000000001</v>
+        <v>98532</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="D757">
-        <v>138559.9999999999</v>
+        <v>138559</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13737,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="D758">
-        <v>163595.0000000001</v>
+        <v>163595</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13748,10 +13748,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D759">
-        <v>85489.99999999999</v>
+        <v>85544</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="D761">
-        <v>153779.9999999999</v>
+        <v>153779</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13790,10 +13790,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>8671.149702241353</v>
+        <v>8691</v>
       </c>
       <c r="D762">
-        <v>120295.1497022413</v>
+        <v>120314</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="D763">
-        <v>169444.9999999999</v>
+        <v>169444</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="D764">
-        <v>108176</v>
+        <v>108175</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="D765">
-        <v>129087.9999999999</v>
+        <v>129087</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13860,10 +13860,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>46008.20392942836</v>
+        <v>46287</v>
       </c>
       <c r="D767">
-        <v>143858.2039294284</v>
+        <v>144137</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="D768">
-        <v>89955.99999999993</v>
+        <v>89955</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -13891,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="D769">
-        <v>106049.9999999999</v>
+        <v>106049</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -13905,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="D770">
-        <v>86234.00000000004</v>
+        <v>86234</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="D771">
-        <v>106958.0000000001</v>
+        <v>106958</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="D772">
-        <v>92922.00000000003</v>
+        <v>92922</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -13961,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="D774">
-        <v>91250.00000000004</v>
+        <v>91250</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="D775">
-        <v>172670.0000000001</v>
+        <v>172670</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -13989,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="D776">
-        <v>126268.9999999999</v>
+        <v>126268</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="D779">
-        <v>161570.0000000001</v>
+        <v>161570</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14056,10 +14056,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>4112.563510847627</v>
+        <v>3938</v>
       </c>
       <c r="D781">
-        <v>144287.5635108477</v>
+        <v>144113</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="D782">
-        <v>117510.9999999999</v>
+        <v>117510</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14087,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="D783">
-        <v>122059.9999999999</v>
+        <v>122059</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="D784">
-        <v>146589.0000000001</v>
+        <v>146589</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14115,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="D785">
-        <v>180714.9999999999</v>
+        <v>180714</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14143,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="D787">
-        <v>107330</v>
+        <v>107329</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="D788">
-        <v>186109.9999999999</v>
+        <v>186109</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="D789">
-        <v>145272.0000000001</v>
+        <v>145272</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14182,10 +14182,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>14115.04604372189</v>
+        <v>13989</v>
       </c>
       <c r="D790">
-        <v>101854.0460437219</v>
+        <v>101727</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>69362.99999999999</v>
+        <v>69362</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14238,10 +14238,10 @@
         <v>795</v>
       </c>
       <c r="C794">
-        <v>55668.0733241635</v>
+        <v>55446</v>
       </c>
       <c r="D794">
-        <v>146198.0733241634</v>
+        <v>145975</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="D795">
-        <v>84111.99999999994</v>
+        <v>84111</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="D796">
-        <v>86668.00000000001</v>
+        <v>86668</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="D797">
-        <v>169220.0000000001</v>
+        <v>169220</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14294,10 +14294,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>2838.952663738106</v>
+        <v>2749</v>
       </c>
       <c r="D798">
-        <v>65474.95266373815</v>
+        <v>65385</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="D799">
-        <v>103316.0000000001</v>
+        <v>103316</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="D800">
-        <v>92462.00000000006</v>
+        <v>92462</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -14339,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="D801">
-        <v>63585.00000000001</v>
+        <v>63585</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14350,10 +14350,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>48.88856535048399</v>
+        <v>267</v>
       </c>
       <c r="D802">
-        <v>102493.8885653505</v>
+        <v>102712</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="D803">
-        <v>193414.9999999998</v>
+        <v>193414</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14378,10 +14378,10 @@
         <v>805</v>
       </c>
       <c r="C804">
-        <v>40103.32322043616</v>
+        <v>40311</v>
       </c>
       <c r="D804">
-        <v>126823.3232204361</v>
+        <v>127030</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14395,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="D805">
-        <v>63911.00000000003</v>
+        <v>63911</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="D807">
-        <v>84755.99999999994</v>
+        <v>84755</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14448,10 +14448,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>3862.907312797717</v>
+        <v>3881</v>
       </c>
       <c r="D809">
-        <v>64801.90731279775</v>
+        <v>64820</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="D810">
-        <v>102158.0000000001</v>
+        <v>102158</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14476,10 +14476,10 @@
         <v>812</v>
       </c>
       <c r="C811">
-        <v>12179.42576872064</v>
+        <v>12157</v>
       </c>
       <c r="D811">
-        <v>64235.42576872065</v>
+        <v>64213</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14490,10 +14490,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>5647.112481807679</v>
+        <v>5574</v>
       </c>
       <c r="D812">
-        <v>67367.11248180769</v>
+        <v>67294</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14504,10 +14504,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>30508.09065830013</v>
+        <v>30278</v>
       </c>
       <c r="D813">
-        <v>120620.0906583001</v>
+        <v>120389</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14521,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="D814">
-        <v>61699.00000000001</v>
+        <v>61699</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14535,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="D815">
-        <v>91841.99999999993</v>
+        <v>91841</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="D816">
-        <v>79292.00000000006</v>
+        <v>79292</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="D817">
-        <v>108265</v>
+        <v>108264</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14574,10 +14574,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>21963.42858138304</v>
+        <v>21677</v>
       </c>
       <c r="D818">
-        <v>127279.4285813829</v>
+        <v>126992</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14591,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="D819">
-        <v>151084.0000000001</v>
+        <v>151084</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="D820">
-        <v>87153.99999999993</v>
+        <v>87153</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="D821">
-        <v>92424.00000000003</v>
+        <v>92424</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14630,10 +14630,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>17033.95533119672</v>
+        <v>17113</v>
       </c>
       <c r="D822">
-        <v>103770.9553311968</v>
+        <v>103850</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14644,10 +14644,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>6557.852391878449</v>
+        <v>6585</v>
       </c>
       <c r="D823">
-        <v>86833.85239187848</v>
+        <v>86861</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14658,10 +14658,10 @@
         <v>825</v>
       </c>
       <c r="C824">
-        <v>65.86786503032636</v>
+        <v>0</v>
       </c>
       <c r="D824">
-        <v>64819.8678650303</v>
+        <v>64753</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="D825">
-        <v>97870.00000000007</v>
+        <v>97870</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="D826">
-        <v>61811.99999999996</v>
+        <v>61811</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14700,10 +14700,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>3564.387895659165</v>
+        <v>3456</v>
       </c>
       <c r="D827">
-        <v>65656.38789565912</v>
+        <v>65547</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="D828">
-        <v>77273.00000000003</v>
+        <v>77273</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -14728,10 +14728,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>12850.66241602063</v>
+        <v>12713</v>
       </c>
       <c r="D829">
-        <v>104051.6624160206</v>
+        <v>103913</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="D830">
-        <v>130998</v>
+        <v>130997</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="D831">
-        <v>153055.0000000001</v>
+        <v>153055</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="D832">
-        <v>186455.9999999999</v>
+        <v>186455</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="D833">
-        <v>142724.9999999999</v>
+        <v>142724</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="D834">
-        <v>172097.9999999999</v>
+        <v>172097</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="D835">
-        <v>76044.00000000001</v>
+        <v>76044</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14843,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="D837">
-        <v>111577.0000000001</v>
+        <v>111577</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="D838">
-        <v>89955.99999999993</v>
+        <v>89955</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -14868,10 +14868,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>19191.1985241013</v>
+        <v>18971</v>
       </c>
       <c r="D839">
-        <v>102265.1985241014</v>
+        <v>102045</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="D840">
-        <v>101644</v>
+        <v>101643</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14899,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="D841">
-        <v>116120.0000000001</v>
+        <v>116120</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="D842">
-        <v>153188.0000000001</v>
+        <v>153188</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14924,10 +14924,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>7487.570886417045</v>
+        <v>7643</v>
       </c>
       <c r="D843">
-        <v>85453.57088641709</v>
+        <v>85609</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
       <c r="D844">
-        <v>106367.9999999999</v>
+        <v>106367</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -14952,10 +14952,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>11699.44063395617</v>
+        <v>12021</v>
       </c>
       <c r="D845">
-        <v>142054.4406339561</v>
+        <v>142375</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14966,10 +14966,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>39231.24633299801</v>
+        <v>39177</v>
       </c>
       <c r="D846">
-        <v>146456.246332998</v>
+        <v>146401</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -14983,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="D847">
-        <v>167136.0000000001</v>
+        <v>167136</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -14997,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="D848">
-        <v>96063.99999999994</v>
+        <v>96063</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15011,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="D849">
-        <v>110040.0000000001</v>
+        <v>110040</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15022,10 +15022,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>29693.51772048078</v>
+        <v>29519</v>
       </c>
       <c r="D850">
-        <v>103614.5177204808</v>
+        <v>103439</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15039,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="D851">
-        <v>66808.99999999997</v>
+        <v>66808</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -15053,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="D852">
-        <v>102876</v>
+        <v>102875</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="D853">
-        <v>127173.9999999999</v>
+        <v>127173</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="D854">
-        <v>75413.00000000004</v>
+        <v>75413</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -15109,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="D856">
-        <v>114178</v>
+        <v>114177</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="D857">
-        <v>118528.9999999999</v>
+        <v>118528</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -15134,10 +15134,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>5441.836921824535</v>
+        <v>5556</v>
       </c>
       <c r="D858">
-        <v>64547.83692182452</v>
+        <v>64661</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15148,10 +15148,10 @@
         <v>860</v>
       </c>
       <c r="C859">
-        <v>14661.5884734124</v>
+        <v>14550</v>
       </c>
       <c r="D859">
-        <v>85775.58847341237</v>
+        <v>85663</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15179,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="D861">
-        <v>86897.99999999994</v>
+        <v>86897</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="D862">
-        <v>79632.00000000001</v>
+        <v>79632</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="D863">
-        <v>115265</v>
+        <v>115264</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -15218,10 +15218,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>6503.097615662162</v>
+        <v>6580</v>
       </c>
       <c r="D864">
-        <v>102078.0976156621</v>
+        <v>102154</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="D865">
-        <v>63856.99999999996</v>
+        <v>63856</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -15249,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="D866">
-        <v>97501.99999999997</v>
+        <v>97501</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="D867">
-        <v>97346.00000000007</v>
+        <v>97346</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -15274,10 +15274,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>10905.04518108539</v>
+        <v>10756</v>
       </c>
       <c r="D868">
-        <v>64760.04518108537</v>
+        <v>64610</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15288,10 +15288,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>10124.78943779312</v>
+        <v>10306</v>
       </c>
       <c r="D869">
-        <v>88544.78943779315</v>
+        <v>88726</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15305,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="D870">
-        <v>117941.0000000001</v>
+        <v>117941</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="D871">
-        <v>107362.0000000001</v>
+        <v>107362</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15330,10 +15330,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>2536.299910934635</v>
+        <v>2450</v>
       </c>
       <c r="D872">
-        <v>64017.29991093464</v>
+        <v>63931</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15344,10 +15344,10 @@
         <v>874</v>
       </c>
       <c r="C873">
-        <v>14592.54646776729</v>
+        <v>14588</v>
       </c>
       <c r="D873">
-        <v>85300.5464677673</v>
+        <v>85296</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="D874">
-        <v>68744.99999999997</v>
+        <v>68744</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -15372,10 +15372,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>28226.62879211902</v>
+        <v>28456</v>
       </c>
       <c r="D875">
-        <v>101784.628792119</v>
+        <v>102013</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="D876">
-        <v>87139.99999999993</v>
+        <v>87139</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15417,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="D878">
-        <v>102941.0000000001</v>
+        <v>102941</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15428,10 +15428,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>22409.57975667607</v>
+        <v>22380</v>
       </c>
       <c r="D879">
-        <v>85599.57975667607</v>
+        <v>85570</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15445,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="D880">
-        <v>71981.00000000001</v>
+        <v>71981</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="D882">
-        <v>65952.00000000003</v>
+        <v>65952</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -15484,10 +15484,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>2918.021194867957</v>
+        <v>2861</v>
       </c>
       <c r="D883">
-        <v>64620.02119486801</v>
+        <v>64563</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="D884">
-        <v>194514.9999999999</v>
+        <v>194514</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="D885">
-        <v>91322.00000000006</v>
+        <v>91322</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="D887">
-        <v>109997</v>
+        <v>109996</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -15557,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="D888">
-        <v>97585.99999999993</v>
+        <v>97585</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="D889">
-        <v>97754.00000000003</v>
+        <v>97754</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="D890">
-        <v>60348.99999999996</v>
+        <v>60348</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="D891">
-        <v>84832.99999999994</v>
+        <v>84832</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -15613,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="D892">
-        <v>66518.99999999994</v>
+        <v>66518</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="D893">
-        <v>88935.99999999999</v>
+        <v>88935</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -15655,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="D895">
-        <v>137254.9999999999</v>
+        <v>137254</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="D896">
-        <v>122170.9999999999</v>
+        <v>122170</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="D897">
-        <v>71869.99999999994</v>
+        <v>71869</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="D898">
-        <v>61844.00000000001</v>
+        <v>61844</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -15725,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="D900">
-        <v>68986.99999999994</v>
+        <v>68986</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="D901">
-        <v>86355.99999999999</v>
+        <v>86355</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="D902">
-        <v>66891.00000000001</v>
+        <v>66891</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -15781,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="D904">
-        <v>87310.99999999997</v>
+        <v>87310</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -15795,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="D905">
-        <v>95789.99999999997</v>
+        <v>95789</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="D906">
-        <v>86157.99999999993</v>
+        <v>86157</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="D907">
-        <v>65024.00000000004</v>
+        <v>65024</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -15837,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="D908">
-        <v>66285.99999999999</v>
+        <v>66285</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="D909">
-        <v>85814.00000000006</v>
+        <v>85814</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>70997.99999999999</v>
+        <v>70997</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="D913">
-        <v>84814.00000000006</v>
+        <v>84814</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="D915">
-        <v>77112.99999999993</v>
+        <v>77112</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="D916">
-        <v>91437.99999999996</v>
+        <v>91437</v>
       </c>
     </row>
   </sheetData>
